--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -16,7 +16,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +461,11 @@
           <t>자격증</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>수집일</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -462,10 +474,8 @@
       <c r="B2" t="n">
         <v>1000262</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>47032255</t>
-        </is>
+      <c r="C2" t="n">
+        <v>47032255</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -473,6 +483,9 @@
 실내건축기능사
 </t>
         </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45803</v>
       </c>
     </row>
     <row r="3">
@@ -482,10 +495,8 @@
       <c r="B3" t="n">
         <v>1000262</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>47024629</t>
-        </is>
+      <c r="C3" t="n">
+        <v>47024629</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -493,6 +504,9 @@
 조경기능사
 </t>
         </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45803</v>
       </c>
     </row>
     <row r="4">
@@ -502,10 +516,8 @@
       <c r="B4" t="n">
         <v>1000262</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>47019968</t>
-        </is>
+      <c r="C4" t="n">
+        <v>47019968</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -513,6 +525,9 @@
 실내건축기사
 </t>
         </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45803</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +537,8 @@
       <c r="B5" t="n">
         <v>1000262</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>47017424</t>
-        </is>
+      <c r="C5" t="n">
+        <v>47017424</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -533,6 +546,9 @@
 실내건축기사
 </t>
         </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45803</v>
       </c>
     </row>
     <row r="6">
@@ -542,10 +558,8 @@
       <c r="B6" t="n">
         <v>1000262</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>47016867</t>
-        </is>
+      <c r="C6" t="n">
+        <v>47016867</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -553,6 +567,9 @@
 조경기사
 </t>
         </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45803</v>
       </c>
     </row>
     <row r="7">
@@ -562,10 +579,8 @@
       <c r="B7" t="n">
         <v>1000262</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>46999950</t>
-        </is>
+      <c r="C7" t="n">
+        <v>46999950</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -573,6 +588,9 @@
 옥외광고사
 </t>
         </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45803</v>
       </c>
     </row>
     <row r="8">
@@ -582,10 +600,8 @@
       <c r="B8" t="n">
         <v>1000262</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>46960262</t>
-        </is>
+      <c r="C8" t="n">
+        <v>46960262</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -593,6 +609,9 @@
 디자인산업기사
 </t>
         </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45803</v>
       </c>
     </row>
     <row r="9">
@@ -602,10 +621,8 @@
       <c r="B9" t="n">
         <v>1000262</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>46958463</t>
-        </is>
+      <c r="C9" t="n">
+        <v>46958463</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -613,6 +630,9 @@
 실내건축기사
 </t>
         </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45803</v>
       </c>
     </row>
     <row r="10">
@@ -622,10 +642,8 @@
       <c r="B10" t="n">
         <v>1000262</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>46958184</t>
-        </is>
+      <c r="C10" t="n">
+        <v>46958184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -633,6 +651,9 @@
 컴퓨터그래픽스운용기능사
 </t>
         </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45803</v>
       </c>
     </row>
     <row r="11">
@@ -642,10 +663,8 @@
       <c r="B11" t="n">
         <v>1000262</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>46954358</t>
-        </is>
+      <c r="C11" t="n">
+        <v>46954358</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -653,6 +672,9 @@
 전산응용건축제도기능사
 </t>
         </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45803</v>
       </c>
     </row>
     <row r="12">
@@ -662,10 +684,8 @@
       <c r="B12" t="n">
         <v>1000262</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>46944530</t>
-        </is>
+      <c r="C12" t="n">
+        <v>46944530</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -673,6 +693,124 @@
 건축기사
 </t>
         </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>47037485</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+컴퓨터활용능력 1급
+</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>47036140</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+정보처리기능사
+</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>47034568</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+세무사자격준비중인분
+</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>47034158</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+컴퓨터활용능력 1급
+</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>47034124</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+컴퓨터활용능력 1급
+</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>45804</v>
       </c>
     </row>
   </sheetData>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,10 +705,8 @@
       <c r="B13" t="n">
         <v>1000185</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>47037485</t>
-        </is>
+      <c r="C13" t="n">
+        <v>47037485</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -717,7 +715,7 @@
 </t>
         </is>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="2" t="n">
         <v>45804</v>
       </c>
     </row>
@@ -728,10 +726,8 @@
       <c r="B14" t="n">
         <v>1000185</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>47036140</t>
-        </is>
+      <c r="C14" t="n">
+        <v>47036140</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -740,7 +736,7 @@
 </t>
         </is>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="2" t="n">
         <v>45804</v>
       </c>
     </row>
@@ -751,10 +747,8 @@
       <c r="B15" t="n">
         <v>1000185</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>47034568</t>
-        </is>
+      <c r="C15" t="n">
+        <v>47034568</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -763,7 +757,7 @@
 </t>
         </is>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="2" t="n">
         <v>45804</v>
       </c>
     </row>
@@ -774,10 +768,8 @@
       <c r="B16" t="n">
         <v>1000185</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>47034158</t>
-        </is>
+      <c r="C16" t="n">
+        <v>47034158</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -786,7 +778,7 @@
 </t>
         </is>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="2" t="n">
         <v>45804</v>
       </c>
     </row>
@@ -797,10 +789,8 @@
       <c r="B17" t="n">
         <v>1000185</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>47034124</t>
-        </is>
+      <c r="C17" t="n">
+        <v>47034124</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -809,7 +799,1662 @@
 </t>
         </is>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C18" t="n">
+        <v>47034158</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+컴퓨터활용능력 1급
+</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C19" t="n">
+        <v>47034124</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+컴퓨터활용능력 1급
+</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C20" t="n">
+        <v>47033970</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+자동차운전면허
+</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C21" t="n">
+        <v>47028731</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+양식조리기능사
+</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C22" t="n">
+        <v>47028731</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+양식조리기능사
+</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C23" t="n">
+        <v>47027578</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+경영지도사
+</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C24" t="n">
+        <v>47027537</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+측량및지형공간정보기사
+</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C25" t="n">
+        <v>47027052</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+컴퓨터활용능력 1급
+</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C26" t="n">
+        <v>47026673</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+경영지도사
+</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C27" t="n">
+        <v>47026573</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+세무사
+</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C28" t="n">
+        <v>47026569</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+미용사(피부)
+</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C29" t="n">
+        <v>47004880</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+환경기능사
+</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C30" t="n">
+        <v>47025539</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+운전면허
+</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C31" t="n">
+        <v>47025640</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+바리스타
+</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C32" t="n">
+        <v>47024162</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+新 JLPT N1급
+</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C33" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+전기기사
+</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C34" t="n">
+        <v>47013350</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ITQ 아래한글
+</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C35" t="n">
+        <v>47023565</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+정보처리기사
+</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C36" t="n">
+        <v>47021525</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+약사
+</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C37" t="n">
+        <v>47022046</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+소방안전관리자 3급
+</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C38" t="n">
+        <v>47018311</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+자동차운전면허
+</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C39" t="n">
+        <v>47016963</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+측량및지형공간정보산업기사
+</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C40" t="n">
+        <v>47009915</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+자동차면허
+</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C41" t="n">
+        <v>47009731</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+한식조리기능사
+</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C42" t="n">
+        <v>46999171</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+정보처리기사
+</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C43" t="n">
+        <v>47008851</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+전기기사
+</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C44" t="n">
+        <v>47011494</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>전산회계2급</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C45" t="n">
+        <v>46999171</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C46" t="n">
+        <v>46999171</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>사무자동화산업기사</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C47" t="n">
+        <v>47008851</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+전기기사
+</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46991132</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+사회복지사
+</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47002757</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+워드프로세서
+</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C50" t="n">
+        <v>47001752</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+자동차운전면허
+</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C51" t="n">
+        <v>46999923</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+공인노무사
+</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C52" t="n">
+        <v>46996961</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+전기산업기사
+</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C53" t="n">
+        <v>46993437</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SQL 개발자
+</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C54" t="n">
+        <v>46992247</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+컴퓨터그래픽스운용기능사
+</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C55" t="n">
+        <v>46991323</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+세무회계 1급
+</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C56" t="n">
+        <v>46986225</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+사회복지사
+</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C57" t="n">
+        <v>46984445</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+정보처리기사
+</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C58" t="n">
+        <v>46974615</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ITQ 한글엑셀
+</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C59" t="n">
+        <v>46970587</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+창업보육 전문매니저
+</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C60" t="n">
+        <v>46967492</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+컴퓨터활용능력 1급
+</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C61" t="n">
+        <v>46966033</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+전기기사
+</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C62" t="n">
+        <v>46946289</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+FAT(회계정보처리) 1급
+</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C63" t="n">
+        <v>46954217</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+MOS Master
+</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C64" t="n">
+        <v>46951990</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+교통기사
+</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C65" t="n">
+        <v>46951257</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+실내건축기사
+</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C66" t="n">
+        <v>46951934</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+도시계획기사
+</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C67" t="n">
+        <v>46951095</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+지게차운전기능사
+</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C68" t="n">
+        <v>46950453</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2종보통운전면허
+</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C69" t="n">
+        <v>46948016</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+CPA
+</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C70" t="n">
+        <v>46947991</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+워드프로세서
+</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C71" t="n">
+        <v>46947319</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ACA Photoshop
+</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C72" t="n">
+        <v>46947092</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+측량및지형공간정보산업기사
+</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C73" t="n">
+        <v>46947062</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ACA Photoshop
+</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C74" t="n">
+        <v>46946309</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+공인중개사
+</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C75" t="n">
+        <v>46931272</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+정보처리산업기사
+</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C76" t="n">
+        <v>46935473</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+IFRS관리사
+</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C77" t="n">
+        <v>46932232</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+기계경비지도사
+</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C78" t="n">
+        <v>46925859</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+환경
+</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C79" t="n">
+        <v>46925650</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+정보통신 관련
+</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C80" t="n">
+        <v>46916169</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+직업상담사 2급
+</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C81" t="n">
+        <v>46911302</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+원가분석사
+</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C82" t="n">
+        <v>46905056</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barista Skills P...
+</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C83" t="n">
+        <v>46894068</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+정보통신산업기사
+</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C84" t="n">
+        <v>46893739</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+생활체육지도자 3급
+</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C85" t="n">
+        <v>46893476</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+건축기사
+</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C86" t="n">
+        <v>46884648</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ITQ 한글액세스
+</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C87" t="n">
+        <v>46881157</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+생활체육지도자 3급
+</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C88" t="n">
+        <v>46865976</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2종보통운전면허
+</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C89" t="n">
+        <v>46851039</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+컴퓨터활용능력 2급
+</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C90" t="n">
+        <v>46847796</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+정보처리기사
+</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C91" t="n">
+        <v>46846972</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+교통사고분석사
+</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C92" t="n">
+        <v>46844512</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+1종보통운전면허
+</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C93" t="n">
+        <v>46836736</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+인공지능 학습용 데이터 프로젝...
+</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C94" t="n">
+        <v>46809101</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+공인중개사
+</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C95" t="n">
+        <v>46808441</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+소방설비기사(기계분야)
+</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1000185</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>46745292</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+측량및지형공간정보기사
+</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="n">
         <v>45804</v>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E203"/>
+  <dimension ref="A1:E331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4302,6 +4305,2702 @@
         <v>45805</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C204" t="n">
+        <v>47045449</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C205" t="n">
+        <v>47045449</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C206" t="n">
+        <v>47045449</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>전시연출전문가</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C207" t="n">
+        <v>47045222</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C208" t="n">
+        <v>47040462</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>회계정보처리(FAT) 2급</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C209" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>간호사</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C210" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>응급구조사(1급·2급)</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C211" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>인명구조요원</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C212" t="n">
+        <v>47009731</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>한식조리기능사</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C213" t="n">
+        <v>47009731</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>양식조리기능사</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C214" t="n">
+        <v>47009731</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>중식조리기능사</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C215" t="n">
+        <v>47009309</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>SQLD</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C216" t="n">
+        <v>47005217</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C217" t="n">
+        <v>47003322</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C218" t="n">
+        <v>47000897</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>MOS Excel</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C219" t="n">
+        <v>47000897</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>MOS PowerPoint</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C220" t="n">
+        <v>47000897</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C221" t="n">
+        <v>46996057</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C222" t="n">
+        <v>46996057</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C223" t="n">
+        <v>46996057</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>TOEIC Speaking</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C224" t="n">
+        <v>46995591</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C225" t="n">
+        <v>46990728</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2급 생활스포츠지도사(보디빌딩...</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C226" t="n">
+        <v>46988667</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C227" t="n">
+        <v>46986673</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>식품기사</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C228" t="n">
+        <v>46983556</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>멀티미디어콘텐츠제작전문가</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C229" t="n">
+        <v>46983556</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>방송SNS콘텐츠전문가 1급</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C230" t="n">
+        <v>46983556</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>1인미디어콘텐츠창작자 1급</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C231" t="n">
+        <v>46978983</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>1종 투자상담사</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C232" t="n">
+        <v>46978983</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>투자자산운용사</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C233" t="n">
+        <v>46978983</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2종 투자상담사</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C234" t="n">
+        <v>46961536</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C235" t="n">
+        <v>46961536</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C236" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C237" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C238" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C239" t="n">
+        <v>46951163</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C240" t="n">
+        <v>46951163</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C241" t="n">
+        <v>46951163</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C242" t="n">
+        <v>46951687</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C243" t="n">
+        <v>46947448</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>데이터분석 준전문가</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C244" t="n">
+        <v>46947448</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C245" t="n">
+        <v>46947448</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>마케팅기획전문가</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C246" t="n">
+        <v>46947407</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>CPPG</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C247" t="n">
+        <v>46947407</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>smart</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C248" t="n">
+        <v>46947407</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>마케팅기획전문가</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C249" t="n">
+        <v>46947319</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C250" t="n">
+        <v>46947319</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C251" t="n">
+        <v>46946309</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C252" t="n">
+        <v>46940860</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C253" t="n">
+        <v>46938677</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>건축기사 초급</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C254" t="n">
+        <v>46937625</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C255" t="n">
+        <v>46937625</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>MOS Excel</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C256" t="n">
+        <v>46932232</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>기계경비지도사</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C257" t="n">
+        <v>46932232</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>원가분석사</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C258" t="n">
+        <v>46906569</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C259" t="n">
+        <v>46912684</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>전기산업기사</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C260" t="n">
+        <v>46912684</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정보통신산업기사</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C261" t="n">
+        <v>46909864</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C262" t="n">
+        <v>46898867</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C263" t="n">
+        <v>46892916</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>TOEIC</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C264" t="n">
+        <v>46877168</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C265" t="n">
+        <v>46877168</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>ACA Premiere</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C266" t="n">
+        <v>46877168</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>애프터 이펙트</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C267" t="n">
+        <v>46818901</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C268" t="n">
+        <v>46817522</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C269" t="n">
+        <v>46817522</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C270" t="n">
+        <v>46802737</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C271" t="n">
+        <v>46801288</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>CIA(국제공인내부감사사)</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C272" t="n">
+        <v>46801288</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>CISA(국제공인정보시스템감사사)</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C273" t="n">
+        <v>46801288</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>포장기사</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C274" t="n">
+        <v>46787942</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C275" t="n">
+        <v>46772544</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C276" t="n">
+        <v>46764898</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>사회조사분석사 2급</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C277" t="n">
+        <v>46762215</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>ITQ 한글파워포인트</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C278" t="n">
+        <v>46762215</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C279" t="n">
+        <v>46762215</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C280" t="n">
+        <v>46747984</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>검색마케터1급</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C281" t="n">
+        <v>46747983</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>검색마케터1급</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C282" t="n">
+        <v>46742726</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C283" t="n">
+        <v>46742726</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C284" t="n">
+        <v>46724251</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>정보처리기능사</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C285" t="n">
+        <v>46724251</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C286" t="n">
+        <v>46705202</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>자동차튜닝</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>10026</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1000187</v>
+      </c>
+      <c r="C287" t="n">
+        <v>46705202</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>자동차정비기사</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>47046029</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E288" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>47038765</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>MCSE</t>
+        </is>
+      </c>
+      <c r="E289" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>47038765</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>MCP</t>
+        </is>
+      </c>
+      <c r="E290" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>47038765</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>CCNA</t>
+        </is>
+      </c>
+      <c r="E291" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>47033128</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E292" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>47029108</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E293" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>47029108</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>정보보안기사</t>
+        </is>
+      </c>
+      <c r="E294" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>47023125</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>정보관리</t>
+        </is>
+      </c>
+      <c r="E295" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>47023125</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>정보처리</t>
+        </is>
+      </c>
+      <c r="E296" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>47023125</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>빅데이터</t>
+        </is>
+      </c>
+      <c r="E297" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>47022582</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E298" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>47022164</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E299" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>47022164</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>컴퓨터활용</t>
+        </is>
+      </c>
+      <c r="E300" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>46999255</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>CIA(국제공인내부감사사)</t>
+        </is>
+      </c>
+      <c r="E301" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>46999255</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>CISA(국제공인정보시스템감사사)</t>
+        </is>
+      </c>
+      <c r="E302" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>46999255</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>정보보안기사</t>
+        </is>
+      </c>
+      <c r="E303" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>47013687</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>박물관(미술관) 준학예사</t>
+        </is>
+      </c>
+      <c r="E304" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>47013383</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E305" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>47008474</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>MOS</t>
+        </is>
+      </c>
+      <c r="E306" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>47008474</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>TOEIC Speaking</t>
+        </is>
+      </c>
+      <c r="E307" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>47008474</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>TOEIC</t>
+        </is>
+      </c>
+      <c r="E308" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>47007936</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>PMP</t>
+        </is>
+      </c>
+      <c r="E309" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>47007936</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>PRINCE2</t>
+        </is>
+      </c>
+      <c r="E310" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>47006866</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>MCSE</t>
+        </is>
+      </c>
+      <c r="E311" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>47006866</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>MCP</t>
+        </is>
+      </c>
+      <c r="E312" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>47006866</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>CCNA</t>
+        </is>
+      </c>
+      <c r="E313" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>46992372</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>정보처리기능사</t>
+        </is>
+      </c>
+      <c r="E314" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>46988192</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>리눅스마스터 2급</t>
+        </is>
+      </c>
+      <c r="E315" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>46988192</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E316" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>46988192</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>리눅스마스터 1급</t>
+        </is>
+      </c>
+      <c r="E317" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>46988185</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>네트워크관리사 2급</t>
+        </is>
+      </c>
+      <c r="E318" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>46988185</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>리눅스마스터 2급</t>
+        </is>
+      </c>
+      <c r="E319" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>46988185</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>CCNA</t>
+        </is>
+      </c>
+      <c r="E320" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>46985630</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>정보처리기사/산업기사</t>
+        </is>
+      </c>
+      <c r="E321" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>46985630</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>정보처리기능사</t>
+        </is>
+      </c>
+      <c r="E322" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>46984756</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>PMO관련자격증</t>
+        </is>
+      </c>
+      <c r="E323" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>46973131</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E324" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>46973131</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>정보처리산업기사</t>
+        </is>
+      </c>
+      <c r="E325" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>46973498</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E326" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>46973498</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>정보처리산업기사</t>
+        </is>
+      </c>
+      <c r="E327" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>46966929</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>CISA(국제공인정보시스템감사사)</t>
+        </is>
+      </c>
+      <c r="E328" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>46966929</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>PMP</t>
+        </is>
+      </c>
+      <c r="E329" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>46966929</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>정보통신기술자</t>
+        </is>
+      </c>
+      <c r="E330" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1000188</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>46965477</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>컨벤션기획사 2급</t>
+        </is>
+      </c>
+      <c r="E331" s="3" t="n">
+        <v>45805</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E678"/>
+  <dimension ref="A1:E768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13534,380 +13534,2228 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" t="inlineStr">
+      <c r="A665" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B665" t="n">
+        <v>1000217</v>
+      </c>
+      <c r="C665" t="n">
+        <v>46886891</v>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>컨벤션기획사 2급</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 13:35:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B666" t="n">
+        <v>1000217</v>
+      </c>
+      <c r="C666" t="n">
+        <v>46886891</v>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>컨벤션기획사 1급</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 13:35:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B667" t="n">
+        <v>1000217</v>
+      </c>
+      <c r="C667" t="n">
+        <v>46886891</v>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>국제전시기획사</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 13:35:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B668" t="n">
+        <v>1000217</v>
+      </c>
+      <c r="C668" t="n">
+        <v>46809292</v>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 13:42:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B669" t="n">
+        <v>1000217</v>
+      </c>
+      <c r="C669" t="n">
+        <v>46805617</v>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 13:42:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B670" t="n">
+        <v>1000217</v>
+      </c>
+      <c r="C670" t="n">
+        <v>46805617</v>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 13:42:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B671" t="n">
+        <v>1000217</v>
+      </c>
+      <c r="C671" t="n">
+        <v>46805617</v>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 13:42:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B672" t="n">
+        <v>1000217</v>
+      </c>
+      <c r="C672" t="n">
+        <v>46802737</v>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 13:42:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B673" t="n">
+        <v>1000217</v>
+      </c>
+      <c r="C673" t="n">
+        <v>46801288</v>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>CIA(국제공인내부감사사)</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 13:42:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B674" t="n">
+        <v>1000217</v>
+      </c>
+      <c r="C674" t="n">
+        <v>46801288</v>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>CISA(국제공인정보시스템감사사)</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 13:42:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B675" t="n">
+        <v>1000217</v>
+      </c>
+      <c r="C675" t="n">
+        <v>46801288</v>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>포장기사</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 13:42:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B676" t="n">
+        <v>1000217</v>
+      </c>
+      <c r="C676" t="n">
+        <v>46723487</v>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 13:46:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B677" t="n">
+        <v>1000217</v>
+      </c>
+      <c r="C677" t="n">
+        <v>46723487</v>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 13:46:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B678" t="n">
+        <v>1000217</v>
+      </c>
+      <c r="C678" t="n">
+        <v>46723487</v>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>CLIP STUDIO</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 13:46:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B679" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C679" t="n">
+        <v>47044525</v>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>유통관리사</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:13:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B680" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C680" t="n">
+        <v>47044525</v>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>청각사</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:13:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B681" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C681" t="n">
+        <v>47044525</v>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:13:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B682" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C682" t="n">
+        <v>47041292</v>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>ADOBE</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:18:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B683" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C683" t="n">
+        <v>47040644</v>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B684" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C684" t="n">
+        <v>47040644</v>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>전자상거래관리사 1급</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B685" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C685" t="n">
+        <v>47040644</v>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>Adobe Certified Professional</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B686" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C686" t="n">
+        <v>47039830</v>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:19:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B687" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C687" t="n">
+        <v>47039830</v>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:19:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B688" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C688" t="n">
+        <v>47031282</v>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:23:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B689" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C689" t="n">
+        <v>47031282</v>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:23:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B690" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C690" t="n">
+        <v>47029576</v>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B691" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C691" t="n">
+        <v>47029094</v>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B692" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C692" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>전기기사</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:25:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B693" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C693" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>전기산업기사</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:25:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B694" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C694" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>소방안전관리자 2급</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:25:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B695" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C695" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>CIA(국제공인내부감사사)</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:27:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B696" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C696" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>CISA(국제공인정보시스템감사사)</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:27:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B697" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C697" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>정보보안기사</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:27:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B698" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C698" t="n">
+        <v>47015697</v>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:28:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B699" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C699" t="n">
+        <v>47009328</v>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>SQLD</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:30:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B700" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C700" t="n">
+        <v>47003979</v>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:42:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B701" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C701" t="n">
+        <v>47003322</v>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:42:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B702" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C702" t="n">
+        <v>47000897</v>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>MOS Excel</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:43:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B703" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C703" t="n">
+        <v>47000897</v>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>MOS PowerPoint</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:43:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B704" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C704" t="n">
+        <v>47000897</v>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:43:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B705" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C705" t="n">
+        <v>46995630</v>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:45:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B706" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C706" t="n">
+        <v>46994509</v>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:45:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B707" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C707" t="n">
+        <v>46991490</v>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:47:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B708" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C708" t="n">
+        <v>46991490</v>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:47:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B709" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C709" t="n">
+        <v>46991490</v>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>Google Ads Display Certification</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:47:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B710" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C710" t="n">
+        <v>46991363</v>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B711" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C711" t="n">
+        <v>46991363</v>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B712" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C712" t="n">
+        <v>46991363</v>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>Google Ads Display Certification</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B713" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C713" t="n">
+        <v>46988690</v>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:48:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B714" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C714" t="n">
+        <v>46988690</v>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:48:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B715" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C715" t="n">
+        <v>46972883</v>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:52:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B716" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C716" t="n">
+        <v>46967085</v>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>주택관리사(보)</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:54:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B717" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C717" t="n">
+        <v>46967085</v>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:54:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B718" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C718" t="n">
+        <v>46967085</v>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>감정평가사</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:54:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B719" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C719" t="n">
+        <v>46966158</v>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>미용사(일반)</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:54:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B720" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C720" t="n">
+        <v>46966158</v>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>미용사(메이크업)</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:54:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B721" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C721" t="n">
+        <v>46966158</v>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>미용사(네일)</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:54:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B722" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C722" t="n">
+        <v>46965182</v>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:54:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B723" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C723" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:57:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B724" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C724" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:57:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B725" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C725" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:57:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B726" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C726" t="n">
+        <v>46949350</v>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:59:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B727" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C727" t="n">
+        <v>46949350</v>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 14:59:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B728" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C728" t="n">
+        <v>46940812</v>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:35:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B729" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C729" t="n">
+        <v>46940812</v>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:35:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B730" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C730" t="n">
+        <v>46918665</v>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:35:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B731" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C731" t="n">
+        <v>46937625</v>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:36:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B732" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C732" t="n">
+        <v>46937625</v>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>MOS Excel</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:36:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B733" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C733" t="n">
+        <v>46928481</v>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:37:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B734" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C734" t="n">
+        <v>46928481</v>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:37:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B735" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C735" t="n">
+        <v>46928481</v>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:37:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B736" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C736" t="n">
+        <v>46928458</v>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:38:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B737" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C737" t="n">
+        <v>46928458</v>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:38:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B738" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C738" t="n">
+        <v>46928458</v>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:38:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B739" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C739" t="n">
+        <v>46912524</v>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:42:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B740" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C740" t="n">
+        <v>46912524</v>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:42:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B741" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C741" t="n">
+        <v>46900479</v>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:44:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B742" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C742" t="n">
+        <v>46898867</v>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:44:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B743" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C743" t="n">
+        <v>46894898</v>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:44:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B744" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C744" t="n">
+        <v>46894898</v>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:44:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B745" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C745" t="n">
+        <v>46894898</v>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:44:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B746" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C746" t="n">
+        <v>46894891</v>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:44:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B747" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C747" t="n">
+        <v>46894891</v>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:44:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B748" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C748" t="n">
+        <v>46894891</v>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:44:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B749" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C749" t="n">
+        <v>46889403</v>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:44:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B750" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C750" t="n">
+        <v>46889403</v>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:44:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B751" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C751" t="n">
+        <v>46889403</v>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:44:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B752" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C752" t="n">
+        <v>46889393</v>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:44:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B753" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C753" t="n">
+        <v>46889393</v>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:44:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B754" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C754" t="n">
+        <v>46889393</v>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:44:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B755" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C755" t="n">
+        <v>46873929</v>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:45:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B756" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C756" t="n">
+        <v>46873929</v>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>MOS</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:45:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B757" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C757" t="n">
+        <v>46893920</v>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:45:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B758" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C758" t="n">
+        <v>46886282</v>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B759" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C759" t="n">
+        <v>46886282</v>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B760" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C760" t="n">
+        <v>46884771</v>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:47:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B761" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C761" t="n">
+        <v>46884771</v>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:47:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t>1000217</t>
-        </is>
-      </c>
-      <c r="C665" t="inlineStr">
-        <is>
-          <t>46886891</t>
-        </is>
-      </c>
-      <c r="D665" t="inlineStr">
-        <is>
-          <t>컨벤션기획사 2급</t>
-        </is>
-      </c>
-      <c r="E665" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 13:35:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>1000218</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>46784973</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:57:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B666" t="inlineStr">
-        <is>
-          <t>1000217</t>
-        </is>
-      </c>
-      <c r="C666" t="inlineStr">
-        <is>
-          <t>46886891</t>
-        </is>
-      </c>
-      <c r="D666" t="inlineStr">
-        <is>
-          <t>컨벤션기획사 1급</t>
-        </is>
-      </c>
-      <c r="E666" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 13:35:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>1000218</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>46724810</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>한식조리기능사</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:00:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t>1000217</t>
-        </is>
-      </c>
-      <c r="C667" t="inlineStr">
-        <is>
-          <t>46886891</t>
-        </is>
-      </c>
-      <c r="D667" t="inlineStr">
-        <is>
-          <t>국제전시기획사</t>
-        </is>
-      </c>
-      <c r="E667" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 13:35:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>1000218</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>46724810</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>양식조리기능사</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:00:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>1000217</t>
-        </is>
-      </c>
-      <c r="C668" t="inlineStr">
-        <is>
-          <t>46809292</t>
-        </is>
-      </c>
-      <c r="D668" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E668" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 13:42:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>1000218</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>46724810</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>일식조리기능사</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:00:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>1000217</t>
-        </is>
-      </c>
-      <c r="C669" t="inlineStr">
-        <is>
-          <t>46805617</t>
-        </is>
-      </c>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E669" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 13:42:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>1000218</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>46723480</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:00:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>1000217</t>
-        </is>
-      </c>
-      <c r="C670" t="inlineStr">
-        <is>
-          <t>46805617</t>
-        </is>
-      </c>
-      <c r="D670" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E670" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 13:42:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>1000218</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>46723480</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:00:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t>1000217</t>
-        </is>
-      </c>
-      <c r="C671" t="inlineStr">
-        <is>
-          <t>46805617</t>
-        </is>
-      </c>
-      <c r="D671" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E671" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 13:42:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>1000217</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr">
-        <is>
-          <t>46802737</t>
-        </is>
-      </c>
-      <c r="D672" t="inlineStr">
-        <is>
-          <t>2종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E672" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 13:42:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>1000217</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr">
-        <is>
-          <t>46801288</t>
-        </is>
-      </c>
-      <c r="D673" t="inlineStr">
-        <is>
-          <t>CIA(국제공인내부감사사)</t>
-        </is>
-      </c>
-      <c r="E673" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 13:42:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>1000217</t>
-        </is>
-      </c>
-      <c r="C674" t="inlineStr">
-        <is>
-          <t>46801288</t>
-        </is>
-      </c>
-      <c r="D674" t="inlineStr">
-        <is>
-          <t>CISA(국제공인정보시스템감사사)</t>
-        </is>
-      </c>
-      <c r="E674" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 13:42:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>1000217</t>
-        </is>
-      </c>
-      <c r="C675" t="inlineStr">
-        <is>
-          <t>46801288</t>
-        </is>
-      </c>
-      <c r="D675" t="inlineStr">
-        <is>
-          <t>포장기사</t>
-        </is>
-      </c>
-      <c r="E675" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 13:42:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>1000217</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr">
-        <is>
-          <t>46723487</t>
-        </is>
-      </c>
-      <c r="D676" t="inlineStr">
-        <is>
-          <t>ACA Photoshop</t>
-        </is>
-      </c>
-      <c r="E676" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 13:46:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>1000217</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>46723487</t>
-        </is>
-      </c>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>ACA Illustrator</t>
-        </is>
-      </c>
-      <c r="E677" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 13:46:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>1000217</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>46723487</t>
-        </is>
-      </c>
-      <c r="D678" t="inlineStr">
-        <is>
-          <t>CLIP STUDIO</t>
-        </is>
-      </c>
-      <c r="E678" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 13:46:49</t>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>1000218</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>46712273</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:01:19</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E768"/>
+  <dimension ref="A1:E779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15571,191 +15571,446 @@
       </c>
     </row>
     <row r="762">
-      <c r="A762" t="inlineStr">
+      <c r="A762" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B762" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C762" t="n">
+        <v>46784973</v>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 15:57:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B763" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C763" t="n">
+        <v>46724810</v>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>한식조리기능사</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:00:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B764" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C764" t="n">
+        <v>46724810</v>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>양식조리기능사</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:00:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B765" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C765" t="n">
+        <v>46724810</v>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>일식조리기능사</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:00:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B766" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C766" t="n">
+        <v>46723480</v>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:00:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B767" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C767" t="n">
+        <v>46723480</v>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:00:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B768" t="n">
+        <v>1000218</v>
+      </c>
+      <c r="C768" t="n">
+        <v>46712273</v>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:01:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>1000218</t>
-        </is>
-      </c>
-      <c r="C762" t="inlineStr">
-        <is>
-          <t>46784973</t>
-        </is>
-      </c>
-      <c r="D762" t="inlineStr">
-        <is>
-          <t>검색광고마케터 1급</t>
-        </is>
-      </c>
-      <c r="E762" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 15:57:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="inlineStr">
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>1000219</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>47035910</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>스쿠버</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:05:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B763" t="inlineStr">
-        <is>
-          <t>1000218</t>
-        </is>
-      </c>
-      <c r="C763" t="inlineStr">
-        <is>
-          <t>46724810</t>
-        </is>
-      </c>
-      <c r="D763" t="inlineStr">
-        <is>
-          <t>한식조리기능사</t>
-        </is>
-      </c>
-      <c r="E763" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 16:00:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="inlineStr">
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>1000219</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>47035910</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>스킨스쿠버</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:05:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B764" t="inlineStr">
-        <is>
-          <t>1000218</t>
-        </is>
-      </c>
-      <c r="C764" t="inlineStr">
-        <is>
-          <t>46724810</t>
-        </is>
-      </c>
-      <c r="D764" t="inlineStr">
-        <is>
-          <t>양식조리기능사</t>
-        </is>
-      </c>
-      <c r="E764" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 16:00:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" t="inlineStr">
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>1000219</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>47035910</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>프리다이빙</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:05:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B765" t="inlineStr">
-        <is>
-          <t>1000218</t>
-        </is>
-      </c>
-      <c r="C765" t="inlineStr">
-        <is>
-          <t>46724810</t>
-        </is>
-      </c>
-      <c r="D765" t="inlineStr">
-        <is>
-          <t>일식조리기능사</t>
-        </is>
-      </c>
-      <c r="E765" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 16:00:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="inlineStr">
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>1000219</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>47012549</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>영양사</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:07:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B766" t="inlineStr">
-        <is>
-          <t>1000218</t>
-        </is>
-      </c>
-      <c r="C766" t="inlineStr">
-        <is>
-          <t>46723480</t>
-        </is>
-      </c>
-      <c r="D766" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E766" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 16:00:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="inlineStr">
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>1000219</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>47009328</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>SQLD</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:09:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B767" t="inlineStr">
-        <is>
-          <t>1000218</t>
-        </is>
-      </c>
-      <c r="C767" t="inlineStr">
-        <is>
-          <t>46723480</t>
-        </is>
-      </c>
-      <c r="D767" t="inlineStr">
-        <is>
-          <t>2종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E767" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 16:00:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="inlineStr">
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>1000219</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>47009309</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>SQLD</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:09:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B768" t="inlineStr">
-        <is>
-          <t>1000218</t>
-        </is>
-      </c>
-      <c r="C768" t="inlineStr">
-        <is>
-          <t>46712273</t>
-        </is>
-      </c>
-      <c r="D768" t="inlineStr">
-        <is>
-          <t>검색광고마케터 1급</t>
-        </is>
-      </c>
-      <c r="E768" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 16:01:19</t>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>1000219</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>47009024</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:09:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>1000219</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>47005797</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:09:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>1000219</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>46988750</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>코디네이터</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:11:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>1000219</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>46949590</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>코디네이터</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:15:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>1000219</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>46946309</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:15:36</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E779"/>
+  <dimension ref="A1:E843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15718,299 +15718,1697 @@
       </c>
     </row>
     <row r="769">
-      <c r="A769" t="inlineStr">
+      <c r="A769" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B769" t="n">
+        <v>1000219</v>
+      </c>
+      <c r="C769" t="n">
+        <v>47035910</v>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>스쿠버</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:05:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B770" t="n">
+        <v>1000219</v>
+      </c>
+      <c r="C770" t="n">
+        <v>47035910</v>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>스킨스쿠버</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:05:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B771" t="n">
+        <v>1000219</v>
+      </c>
+      <c r="C771" t="n">
+        <v>47035910</v>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>프리다이빙</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:05:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B772" t="n">
+        <v>1000219</v>
+      </c>
+      <c r="C772" t="n">
+        <v>47012549</v>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>영양사</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:07:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B773" t="n">
+        <v>1000219</v>
+      </c>
+      <c r="C773" t="n">
+        <v>47009328</v>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>SQLD</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:09:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B774" t="n">
+        <v>1000219</v>
+      </c>
+      <c r="C774" t="n">
+        <v>47009309</v>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>SQLD</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:09:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B775" t="n">
+        <v>1000219</v>
+      </c>
+      <c r="C775" t="n">
+        <v>47009024</v>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:09:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B776" t="n">
+        <v>1000219</v>
+      </c>
+      <c r="C776" t="n">
+        <v>47005797</v>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:09:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B777" t="n">
+        <v>1000219</v>
+      </c>
+      <c r="C777" t="n">
+        <v>46988750</v>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>코디네이터</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:11:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B778" t="n">
+        <v>1000219</v>
+      </c>
+      <c r="C778" t="n">
+        <v>46949590</v>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>코디네이터</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:15:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B779" t="n">
+        <v>1000219</v>
+      </c>
+      <c r="C779" t="n">
+        <v>46946309</v>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:15:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B780" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C780" t="n">
+        <v>47053747</v>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B781" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C781" t="n">
+        <v>47044525</v>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>유통관리사</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:36:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B782" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C782" t="n">
+        <v>47044525</v>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>청각사</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:36:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B783" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C783" t="n">
+        <v>47044525</v>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:36:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B784" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C784" t="n">
+        <v>47051235</v>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:38:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B785" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C785" t="n">
+        <v>47051235</v>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>gtq</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:38:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B786" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C786" t="n">
+        <v>47048909</v>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:41:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B787" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C787" t="n">
+        <v>47047533</v>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:42:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B788" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C788" t="n">
+        <v>47047533</v>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:42:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B789" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C789" t="n">
+        <v>47047410</v>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:43:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B790" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C790" t="n">
+        <v>47047410</v>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>마케팅기획전문가 1급</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:43:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B791" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C791" t="n">
+        <v>47047410</v>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>마케팅관리사</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:43:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B792" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C792" t="n">
+        <v>47030252</v>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>gtq</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:44:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B793" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C793" t="n">
+        <v>47030252</v>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:44:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B794" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C794" t="n">
+        <v>47030252</v>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:44:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B795" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C795" t="n">
+        <v>47038765</v>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>MCSE</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:48:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B796" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C796" t="n">
+        <v>47038765</v>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>MCP</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:48:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B797" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C797" t="n">
+        <v>47038765</v>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>CCNA</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 16:48:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B798" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C798" t="n">
+        <v>47012549</v>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>영양사</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:05:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B799" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C799" t="n">
+        <v>47024793</v>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>헤어</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:06:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B800" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C800" t="n">
+        <v>47024793</v>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>메이크업</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:06:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B801" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C801" t="n">
+        <v>47024793</v>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>네일아트</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:06:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B802" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C802" t="n">
+        <v>47023884</v>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>간호조무사</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:06:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B803" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C803" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>전기기사</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:06:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B804" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C804" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>전기산업기사</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:06:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B805" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C805" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>소방안전관리자 2급</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:06:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B806" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C806" t="n">
+        <v>47022408</v>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:12:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B807" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C807" t="n">
+        <v>47022408</v>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:12:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B808" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C808" t="n">
+        <v>47022115</v>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:12:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B809" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C809" t="n">
+        <v>47020740</v>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B810" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C810" t="n">
+        <v>47020393</v>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>ACE(Adobe Certified Expert)</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:14:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B811" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C811" t="n">
+        <v>47020393</v>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>ACA (Adobe Certified Associate)</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:14:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B812" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C812" t="n">
+        <v>47020393</v>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:14:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B813" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C813" t="n">
+        <v>47016404</v>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>전기기사</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:18:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B814" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C814" t="n">
+        <v>47016404</v>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>전기산업기사</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:18:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B815" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C815" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>CIA(국제공인내부감사사)</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:18:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B816" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C816" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>CISA(국제공인정보시스템감사사)</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:18:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B817" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C817" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>정보보안기사</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:18:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B818" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C818" t="n">
+        <v>47012632</v>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B819" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C819" t="n">
+        <v>47012632</v>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>photoshop</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B820" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C820" t="n">
+        <v>47012632</v>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>어도비 포토샵(Adobe Photoshop)</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B821" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C821" t="n">
+        <v>47011492</v>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B822" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C822" t="n">
+        <v>47011492</v>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B823" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C823" t="n">
+        <v>47011492</v>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>MOS Excel</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B769" t="inlineStr">
-        <is>
-          <t>1000219</t>
-        </is>
-      </c>
-      <c r="C769" t="inlineStr">
-        <is>
-          <t>47035910</t>
-        </is>
-      </c>
-      <c r="D769" t="inlineStr">
-        <is>
-          <t>스쿠버</t>
-        </is>
-      </c>
-      <c r="E769" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 16:05:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="inlineStr">
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>46999200</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B770" t="inlineStr">
-        <is>
-          <t>1000219</t>
-        </is>
-      </c>
-      <c r="C770" t="inlineStr">
-        <is>
-          <t>47035910</t>
-        </is>
-      </c>
-      <c r="D770" t="inlineStr">
-        <is>
-          <t>스킨스쿠버</t>
-        </is>
-      </c>
-      <c r="E770" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 16:05:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="inlineStr">
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>46999200</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>디지털영상편집 1급</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B771" t="inlineStr">
-        <is>
-          <t>1000219</t>
-        </is>
-      </c>
-      <c r="C771" t="inlineStr">
-        <is>
-          <t>47035910</t>
-        </is>
-      </c>
-      <c r="D771" t="inlineStr">
-        <is>
-          <t>프리다이빙</t>
-        </is>
-      </c>
-      <c r="E771" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 16:05:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="inlineStr">
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>46999200</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>디지털영상편집 2급</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B772" t="inlineStr">
-        <is>
-          <t>1000219</t>
-        </is>
-      </c>
-      <c r="C772" t="inlineStr">
-        <is>
-          <t>47012549</t>
-        </is>
-      </c>
-      <c r="D772" t="inlineStr">
-        <is>
-          <t>영양사</t>
-        </is>
-      </c>
-      <c r="E772" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 16:07:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="inlineStr">
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>46995755</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:49:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B773" t="inlineStr">
-        <is>
-          <t>1000219</t>
-        </is>
-      </c>
-      <c r="C773" t="inlineStr">
-        <is>
-          <t>47009328</t>
-        </is>
-      </c>
-      <c r="D773" t="inlineStr">
-        <is>
-          <t>SQLD</t>
-        </is>
-      </c>
-      <c r="E773" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 16:09:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="inlineStr">
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>46995630</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:49:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B774" t="inlineStr">
-        <is>
-          <t>1000219</t>
-        </is>
-      </c>
-      <c r="C774" t="inlineStr">
-        <is>
-          <t>47009309</t>
-        </is>
-      </c>
-      <c r="D774" t="inlineStr">
-        <is>
-          <t>SQLD</t>
-        </is>
-      </c>
-      <c r="E774" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 16:09:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="inlineStr">
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>46994509</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:50:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B775" t="inlineStr">
-        <is>
-          <t>1000219</t>
-        </is>
-      </c>
-      <c r="C775" t="inlineStr">
-        <is>
-          <t>47009024</t>
-        </is>
-      </c>
-      <c r="D775" t="inlineStr">
-        <is>
-          <t>ITQ 한글엑셀</t>
-        </is>
-      </c>
-      <c r="E775" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 16:09:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" t="inlineStr">
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>46991490</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B776" t="inlineStr">
-        <is>
-          <t>1000219</t>
-        </is>
-      </c>
-      <c r="C776" t="inlineStr">
-        <is>
-          <t>47005797</t>
-        </is>
-      </c>
-      <c r="D776" t="inlineStr">
-        <is>
-          <t>컴퓨터활용능력 2급</t>
-        </is>
-      </c>
-      <c r="E776" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 16:09:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="inlineStr">
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>46991490</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B777" t="inlineStr">
-        <is>
-          <t>1000219</t>
-        </is>
-      </c>
-      <c r="C777" t="inlineStr">
-        <is>
-          <t>46988750</t>
-        </is>
-      </c>
-      <c r="D777" t="inlineStr">
-        <is>
-          <t>코디네이터</t>
-        </is>
-      </c>
-      <c r="E777" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 16:11:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" t="inlineStr">
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>46991490</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>Google Ads Display Certification</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B778" t="inlineStr">
-        <is>
-          <t>1000219</t>
-        </is>
-      </c>
-      <c r="C778" t="inlineStr">
-        <is>
-          <t>46949590</t>
-        </is>
-      </c>
-      <c r="D778" t="inlineStr">
-        <is>
-          <t>코디네이터</t>
-        </is>
-      </c>
-      <c r="E778" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 16:15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" t="inlineStr">
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>46991327</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B779" t="inlineStr">
-        <is>
-          <t>1000219</t>
-        </is>
-      </c>
-      <c r="C779" t="inlineStr">
-        <is>
-          <t>46946309</t>
-        </is>
-      </c>
-      <c r="D779" t="inlineStr">
-        <is>
-          <t>공인중개사</t>
-        </is>
-      </c>
-      <c r="E779" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 16:15:36</t>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>46991327</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>46991279</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>46991279</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>46991232</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>46991232</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>46991232</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>46989159</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:55:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>46989159</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:55:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>46988690</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:56:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>46988690</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:56:16</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E843"/>
+  <dimension ref="A1:E970"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16873,542 +16873,3203 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" t="inlineStr">
+      <c r="A824" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B824" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C824" t="n">
+        <v>46999200</v>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B825" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C825" t="n">
+        <v>46999200</v>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>디지털영상편집 1급</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B826" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C826" t="n">
+        <v>46999200</v>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>디지털영상편집 2급</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B827" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C827" t="n">
+        <v>46995755</v>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:49:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B828" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C828" t="n">
+        <v>46995630</v>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:49:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B829" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C829" t="n">
+        <v>46994509</v>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:50:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B830" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C830" t="n">
+        <v>46991490</v>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B831" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C831" t="n">
+        <v>46991490</v>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B832" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C832" t="n">
+        <v>46991490</v>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>Google Ads Display Certification</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B833" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C833" t="n">
+        <v>46991327</v>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B834" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C834" t="n">
+        <v>46991327</v>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B835" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C835" t="n">
+        <v>46991279</v>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B836" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C836" t="n">
+        <v>46991279</v>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B837" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C837" t="n">
+        <v>46991232</v>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B838" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C838" t="n">
+        <v>46991232</v>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B839" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C839" t="n">
+        <v>46991232</v>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:53:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B840" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C840" t="n">
+        <v>46989159</v>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:55:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B841" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C841" t="n">
+        <v>46989159</v>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:55:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B842" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C842" t="n">
+        <v>46988690</v>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:56:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B843" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C843" t="n">
+        <v>46988690</v>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 17:56:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B844" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C844" t="n">
+        <v>46989159</v>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 22:31:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B845" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C845" t="n">
+        <v>46989159</v>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 22:31:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B846" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C846" t="n">
+        <v>46988690</v>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 22:32:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B847" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C847" t="n">
+        <v>46988690</v>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 22:32:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B848" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C848" t="n">
+        <v>46985930</v>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>컨벤션기획사 1급</t>
+        </is>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 22:34:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B849" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C849" t="n">
+        <v>46985930</v>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>컨벤션기획사 2급</t>
+        </is>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 22:34:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B850" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C850" t="n">
+        <v>46985930</v>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 22:34:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B851" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C851" t="n">
+        <v>46983556</v>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>멀티미디어콘텐츠제작전문가</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 22:35:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B852" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C852" t="n">
+        <v>46983556</v>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>방송SNS콘텐츠전문가 1급</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 22:35:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B853" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C853" t="n">
+        <v>46983556</v>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>1인미디어콘텐츠창작자 1급</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 22:35:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B854" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C854" t="n">
+        <v>46980752</v>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 22:37:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B855" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C855" t="n">
+        <v>46978093</v>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>병원코디네이터</t>
+        </is>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 22:39:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B856" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C856" t="n">
+        <v>46977296</v>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 3급</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 22:39:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B857" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C857" t="n">
+        <v>46974281</v>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 22:42:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B858" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C858" t="n">
+        <v>46972883</v>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 22:43:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B859" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C859" t="n">
+        <v>46971156</v>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 22:45:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B860" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C860" t="n">
+        <v>46894947</v>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:12:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B861" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C861" t="n">
+        <v>46894947</v>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>CFA(국제재무분석사)</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:12:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B862" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C862" t="n">
+        <v>46894947</v>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>AICPA(미국공인회계사)</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:12:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B863" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C863" t="n">
+        <v>46955998</v>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>新 JLPT N1급</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:14:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B864" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C864" t="n">
+        <v>46955998</v>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>JPT</t>
+        </is>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:14:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B865" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C865" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:15:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B866" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C866" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:15:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B867" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C867" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:15:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B868" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C868" t="n">
+        <v>46941092</v>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:25:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B869" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C869" t="n">
+        <v>46941092</v>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:25:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B870" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C870" t="n">
+        <v>46941092</v>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>마케팅기획전문가 1급</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:25:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B871" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C871" t="n">
+        <v>46940860</v>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:25:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B872" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C872" t="n">
+        <v>46940812</v>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:25:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B873" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C873" t="n">
+        <v>46940812</v>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:25:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B874" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C874" t="n">
+        <v>46918665</v>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:26:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B875" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C875" t="n">
+        <v>46938897</v>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:26:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B876" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C876" t="n">
+        <v>46938897</v>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:26:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B877" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C877" t="n">
+        <v>46937625</v>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:27:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B878" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C878" t="n">
+        <v>46937625</v>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>MOS Excel</t>
+        </is>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:27:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B879" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C879" t="n">
+        <v>46928481</v>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:32:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B880" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C880" t="n">
+        <v>46928481</v>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:32:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B881" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C881" t="n">
+        <v>46928481</v>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:32:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B882" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C882" t="n">
+        <v>46928458</v>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:32:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B883" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C883" t="n">
+        <v>46928458</v>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:32:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B884" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C884" t="n">
+        <v>46928458</v>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:32:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B885" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C885" t="n">
+        <v>46915658</v>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>MOS</t>
+        </is>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:54:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B886" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C886" t="n">
+        <v>46915658</v>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:54:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B887" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C887" t="n">
+        <v>46915036</v>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:54:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B888" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C888" t="n">
+        <v>46912524</v>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:56:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B889" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C889" t="n">
+        <v>46912524</v>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:56:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B890" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C890" t="n">
+        <v>46909864</v>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:58:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B891" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C891" t="n">
+        <v>46906702</v>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:59:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B892" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C892" t="n">
+        <v>46906702</v>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:59:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B893" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C893" t="n">
+        <v>46906702</v>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>2025.05.29 - 23:59:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B894" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C894" t="n">
+        <v>46904364</v>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:00:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B895" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C895" t="n">
+        <v>46904364</v>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>MOS Excel</t>
+        </is>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:00:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B896" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C896" t="n">
+        <v>46904364</v>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>MOS PowerPoint</t>
+        </is>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:00:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B897" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C897" t="n">
+        <v>46903738</v>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:01:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B898" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C898" t="n">
+        <v>46903734</v>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:01:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B899" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C899" t="n">
+        <v>46903734</v>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:01:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B900" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C900" t="n">
+        <v>46903734</v>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:01:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B901" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C901" t="n">
+        <v>46903402</v>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>생활체육지도자 2급</t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:01:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B902" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C902" t="n">
+        <v>46902004</v>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:02:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B903" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C903" t="n">
+        <v>46902004</v>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>SNS마케팅전문가</t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:02:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B904" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C904" t="n">
+        <v>46900479</v>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:03:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B905" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C905" t="n">
+        <v>46898867</v>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:04:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B906" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C906" t="n">
+        <v>46894898</v>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:06:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B907" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C907" t="n">
+        <v>46894898</v>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:06:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B908" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C908" t="n">
+        <v>46894898</v>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:06:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B909" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C909" t="n">
+        <v>46894891</v>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:06:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B910" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C910" t="n">
+        <v>46894891</v>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:06:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B911" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C911" t="n">
+        <v>46894891</v>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:06:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B912" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C912" t="n">
+        <v>46889393</v>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:06:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B913" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C913" t="n">
+        <v>46889393</v>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:06:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B914" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C914" t="n">
+        <v>46889393</v>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:06:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B915" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C915" t="n">
+        <v>46873929</v>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:06:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B916" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C916" t="n">
+        <v>46873929</v>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>MOS</t>
+        </is>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:06:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B917" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C917" t="n">
+        <v>46894441</v>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B918" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C918" t="n">
+        <v>46893920</v>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:08:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B919" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C919" t="n">
+        <v>46893453</v>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:08:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B920" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C920" t="n">
+        <v>46891815</v>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>건축도장기능사</t>
+        </is>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:09:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B921" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C921" t="n">
+        <v>46886282</v>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:18:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B922" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C922" t="n">
+        <v>46886282</v>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:18:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B923" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C923" t="n">
+        <v>46884771</v>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:19:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B924" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C924" t="n">
+        <v>46884771</v>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:19:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B925" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C925" t="n">
+        <v>46866596</v>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B926" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C926" t="n">
+        <v>46862360</v>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>심리상담사 2급</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B927" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C927" t="n">
+        <v>46862360</v>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>심리상담사 1급</t>
+        </is>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B928" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C928" t="n">
+        <v>46862360</v>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>임상심리사</t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B929" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C929" t="n">
+        <v>46844345</v>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>컵퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:27:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B930" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C930" t="n">
+        <v>46844345</v>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:27:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B931" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C931" t="n">
+        <v>46837385</v>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:28:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B932" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C932" t="n">
+        <v>46837385</v>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:28:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B933" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C933" t="n">
+        <v>46834897</v>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:29:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B934" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C934" t="n">
+        <v>46834897</v>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:29:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B935" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C935" t="n">
+        <v>46834897</v>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:29:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B936" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C936" t="n">
+        <v>46819520</v>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:30:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B937" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C937" t="n">
+        <v>46819520</v>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:30:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B938" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C938" t="n">
+        <v>46817522</v>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:30:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B939" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C939" t="n">
+        <v>46817522</v>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:30:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B940" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C940" t="n">
+        <v>46809101</v>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:32:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B941" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C941" t="n">
+        <v>46801288</v>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>CIA(국제공인내부감사사)</t>
+        </is>
+      </c>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:33:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B942" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C942" t="n">
+        <v>46801288</v>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>CISA(국제공인정보시스템감사사)</t>
+        </is>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:33:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B943" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C943" t="n">
+        <v>46801288</v>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>포장기사</t>
+        </is>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:33:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B944" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C944" t="n">
+        <v>46799695</v>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:33:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B945" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C945" t="n">
+        <v>46799695</v>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>新 JLPT N1급</t>
+        </is>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:33:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B946" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C946" t="n">
+        <v>46799687</v>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:33:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B947" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C947" t="n">
+        <v>46799687</v>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>新 JLPT N1급</t>
+        </is>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:33:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B948" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C948" t="n">
+        <v>46794511</v>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>쇼핑몰관리사</t>
+        </is>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:34:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B949" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C949" t="n">
+        <v>46786535</v>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:35:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B950" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C950" t="n">
+        <v>46786535</v>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:35:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B951" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C951" t="n">
+        <v>46784973</v>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:35:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B824" t="inlineStr">
+      <c r="B952" t="inlineStr">
         <is>
           <t>1000220</t>
         </is>
       </c>
-      <c r="C824" t="inlineStr">
-        <is>
-          <t>46999200</t>
-        </is>
-      </c>
-      <c r="D824" t="inlineStr">
-        <is>
-          <t>GAIQ</t>
-        </is>
-      </c>
-      <c r="E824" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:47:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" t="inlineStr">
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>46782820</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:39:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B825" t="inlineStr">
+      <c r="B953" t="inlineStr">
         <is>
           <t>1000220</t>
         </is>
       </c>
-      <c r="C825" t="inlineStr">
-        <is>
-          <t>46999200</t>
-        </is>
-      </c>
-      <c r="D825" t="inlineStr">
-        <is>
-          <t>디지털영상편집 1급</t>
-        </is>
-      </c>
-      <c r="E825" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:47:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" t="inlineStr">
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>46776785</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>미용사(일반)</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:40:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B826" t="inlineStr">
+      <c r="B954" t="inlineStr">
         <is>
           <t>1000220</t>
         </is>
       </c>
-      <c r="C826" t="inlineStr">
-        <is>
-          <t>46999200</t>
-        </is>
-      </c>
-      <c r="D826" t="inlineStr">
-        <is>
-          <t>디지털영상편집 2급</t>
-        </is>
-      </c>
-      <c r="E826" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:47:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" t="inlineStr">
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>46776785</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>미용사(네일)</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:40:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B827" t="inlineStr">
+      <c r="B955" t="inlineStr">
         <is>
           <t>1000220</t>
         </is>
       </c>
-      <c r="C827" t="inlineStr">
-        <is>
-          <t>46995755</t>
-        </is>
-      </c>
-      <c r="D827" t="inlineStr">
-        <is>
-          <t>Excel</t>
-        </is>
-      </c>
-      <c r="E827" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:49:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" t="inlineStr">
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>46776785</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>미용사(메이크업)</t>
+        </is>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:40:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B828" t="inlineStr">
+      <c r="B956" t="inlineStr">
         <is>
           <t>1000220</t>
         </is>
       </c>
-      <c r="C828" t="inlineStr">
-        <is>
-          <t>46995630</t>
-        </is>
-      </c>
-      <c r="D828" t="inlineStr">
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>46765562</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>미용사(일반)</t>
+        </is>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:41:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>46765562</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>미용사(네일)</t>
+        </is>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:41:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>46765562</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>미용사(메이크업)</t>
+        </is>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:41:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>46749600</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>ACA (Adobe Certified Associate)</t>
+        </is>
+      </c>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:43:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>46747984</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>검색마케터1급</t>
+        </is>
+      </c>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:44:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>46747983</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>검색마케터1급</t>
+        </is>
+      </c>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:44:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>46743516</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>GAC (Google Anal...</t>
+        </is>
+      </c>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:44:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>46730589</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>정보통신공사 자격증 보유자</t>
+        </is>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:45:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>46730589</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>네트워크 관련 자격증 보유자</t>
+        </is>
+      </c>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:45:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>46723480</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:46:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>46723480</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:46:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>46717213</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
         <is>
           <t>검색광고마케터 1급</t>
         </is>
       </c>
-      <c r="E828" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:49:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" t="inlineStr">
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:47:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B829" t="inlineStr">
+      <c r="B968" t="inlineStr">
         <is>
           <t>1000220</t>
         </is>
       </c>
-      <c r="C829" t="inlineStr">
-        <is>
-          <t>46994509</t>
-        </is>
-      </c>
-      <c r="D829" t="inlineStr">
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>46717213</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>프레젠테이션스피치 1급</t>
+        </is>
+      </c>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:47:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>1000220</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>46712273</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
         <is>
           <t>검색광고마케터 1급</t>
         </is>
       </c>
-      <c r="E829" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:50:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" t="inlineStr">
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:48:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B830" t="inlineStr">
+      <c r="B970" t="inlineStr">
         <is>
           <t>1000220</t>
         </is>
       </c>
-      <c r="C830" t="inlineStr">
-        <is>
-          <t>46991490</t>
-        </is>
-      </c>
-      <c r="D830" t="inlineStr">
-        <is>
-          <t>검색광고마케터 1급</t>
-        </is>
-      </c>
-      <c r="E830" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:53:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B831" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C831" t="inlineStr">
-        <is>
-          <t>46991490</t>
-        </is>
-      </c>
-      <c r="D831" t="inlineStr">
-        <is>
-          <t>GAIQ</t>
-        </is>
-      </c>
-      <c r="E831" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:53:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="832">
-      <c r="A832" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B832" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C832" t="inlineStr">
-        <is>
-          <t>46991490</t>
-        </is>
-      </c>
-      <c r="D832" t="inlineStr">
-        <is>
-          <t>Google Ads Display Certification</t>
-        </is>
-      </c>
-      <c r="E832" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:53:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B833" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C833" t="inlineStr">
-        <is>
-          <t>46991327</t>
-        </is>
-      </c>
-      <c r="D833" t="inlineStr">
-        <is>
-          <t>GAIQ</t>
-        </is>
-      </c>
-      <c r="E833" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:53:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B834" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C834" t="inlineStr">
-        <is>
-          <t>46991327</t>
-        </is>
-      </c>
-      <c r="D834" t="inlineStr">
-        <is>
-          <t>검색광고마케터 1급</t>
-        </is>
-      </c>
-      <c r="E834" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:53:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B835" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C835" t="inlineStr">
-        <is>
-          <t>46991279</t>
-        </is>
-      </c>
-      <c r="D835" t="inlineStr">
-        <is>
-          <t>GAIQ</t>
-        </is>
-      </c>
-      <c r="E835" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:53:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B836" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C836" t="inlineStr">
-        <is>
-          <t>46991279</t>
-        </is>
-      </c>
-      <c r="D836" t="inlineStr">
-        <is>
-          <t>검색광고마케터 1급</t>
-        </is>
-      </c>
-      <c r="E836" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:53:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B837" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C837" t="inlineStr">
-        <is>
-          <t>46991232</t>
-        </is>
-      </c>
-      <c r="D837" t="inlineStr">
-        <is>
-          <t>검색광고마케터 1급</t>
-        </is>
-      </c>
-      <c r="E837" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:53:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B838" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C838" t="inlineStr">
-        <is>
-          <t>46991232</t>
-        </is>
-      </c>
-      <c r="D838" t="inlineStr">
-        <is>
-          <t>컴퓨터활용능력 1급</t>
-        </is>
-      </c>
-      <c r="E838" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:53:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B839" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C839" t="inlineStr">
-        <is>
-          <t>46991232</t>
-        </is>
-      </c>
-      <c r="D839" t="inlineStr">
-        <is>
-          <t>GAIQ</t>
-        </is>
-      </c>
-      <c r="E839" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:53:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B840" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C840" t="inlineStr">
-        <is>
-          <t>46989159</t>
-        </is>
-      </c>
-      <c r="D840" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E840" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:55:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B841" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C841" t="inlineStr">
-        <is>
-          <t>46989159</t>
-        </is>
-      </c>
-      <c r="D841" t="inlineStr">
-        <is>
-          <t>2종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E841" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:55:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B842" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C842" t="inlineStr">
-        <is>
-          <t>46988690</t>
-        </is>
-      </c>
-      <c r="D842" t="inlineStr">
-        <is>
-          <t>검색광고마케터 1급</t>
-        </is>
-      </c>
-      <c r="E842" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:56:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B843" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C843" t="inlineStr">
-        <is>
-          <t>46988690</t>
-        </is>
-      </c>
-      <c r="D843" t="inlineStr">
-        <is>
-          <t>SNS광고마케터 1급</t>
-        </is>
-      </c>
-      <c r="E843" t="inlineStr">
-        <is>
-          <t>2025.05.29 - 17:56:16</t>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>46708868</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:48:33</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E970"/>
+  <dimension ref="A1:E985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19561,515 +19561,806 @@
       </c>
     </row>
     <row r="952">
-      <c r="A952" t="inlineStr">
+      <c r="A952" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B952" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C952" t="n">
+        <v>46782820</v>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:39:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B953" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C953" t="n">
+        <v>46776785</v>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>미용사(일반)</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:40:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B954" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C954" t="n">
+        <v>46776785</v>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>미용사(네일)</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:40:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B955" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C955" t="n">
+        <v>46776785</v>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>미용사(메이크업)</t>
+        </is>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:40:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B956" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C956" t="n">
+        <v>46765562</v>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>미용사(일반)</t>
+        </is>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:41:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B957" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C957" t="n">
+        <v>46765562</v>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>미용사(네일)</t>
+        </is>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:41:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B958" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C958" t="n">
+        <v>46765562</v>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>미용사(메이크업)</t>
+        </is>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:41:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B959" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C959" t="n">
+        <v>46749600</v>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>ACA (Adobe Certified Associate)</t>
+        </is>
+      </c>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:43:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B960" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C960" t="n">
+        <v>46747984</v>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>검색마케터1급</t>
+        </is>
+      </c>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:44:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B961" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C961" t="n">
+        <v>46747983</v>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>검색마케터1급</t>
+        </is>
+      </c>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:44:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B962" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C962" t="n">
+        <v>46743516</v>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>GAC (Google Anal...</t>
+        </is>
+      </c>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:44:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B963" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C963" t="n">
+        <v>46730589</v>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>정보통신공사 자격증 보유자</t>
+        </is>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:45:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B964" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C964" t="n">
+        <v>46730589</v>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>네트워크 관련 자격증 보유자</t>
+        </is>
+      </c>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:45:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B965" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C965" t="n">
+        <v>46723480</v>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:46:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B966" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C966" t="n">
+        <v>46723480</v>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:46:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B967" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C967" t="n">
+        <v>46717213</v>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:47:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B968" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C968" t="n">
+        <v>46717213</v>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>프레젠테이션스피치 1급</t>
+        </is>
+      </c>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:47:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B969" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C969" t="n">
+        <v>46712273</v>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:48:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B970" t="n">
+        <v>1000220</v>
+      </c>
+      <c r="C970" t="n">
+        <v>46708868</v>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 00:48:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B952" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C952" t="inlineStr">
-        <is>
-          <t>46782820</t>
-        </is>
-      </c>
-      <c r="D952" t="inlineStr">
-        <is>
-          <t>웹디자인기능사</t>
-        </is>
-      </c>
-      <c r="E952" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:39:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" t="inlineStr">
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>1000221</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>47054092</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>약사</t>
+        </is>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B953" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C953" t="inlineStr">
-        <is>
-          <t>46776785</t>
-        </is>
-      </c>
-      <c r="D953" t="inlineStr">
-        <is>
-          <t>미용사(일반)</t>
-        </is>
-      </c>
-      <c r="E953" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:40:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="954">
-      <c r="A954" t="inlineStr">
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>1000221</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>47057169</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B954" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C954" t="inlineStr">
-        <is>
-          <t>46776785</t>
-        </is>
-      </c>
-      <c r="D954" t="inlineStr">
-        <is>
-          <t>미용사(네일)</t>
-        </is>
-      </c>
-      <c r="E954" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:40:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="955">
-      <c r="A955" t="inlineStr">
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>1000221</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>47057169</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>MOS Excel</t>
+        </is>
+      </c>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B955" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C955" t="inlineStr">
-        <is>
-          <t>46776785</t>
-        </is>
-      </c>
-      <c r="D955" t="inlineStr">
-        <is>
-          <t>미용사(메이크업)</t>
-        </is>
-      </c>
-      <c r="E955" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:40:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="956">
-      <c r="A956" t="inlineStr">
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>1000221</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>47057169</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>MOS PowerPoint</t>
+        </is>
+      </c>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B956" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C956" t="inlineStr">
-        <is>
-          <t>46765562</t>
-        </is>
-      </c>
-      <c r="D956" t="inlineStr">
-        <is>
-          <t>미용사(일반)</t>
-        </is>
-      </c>
-      <c r="E956" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:41:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="957">
-      <c r="A957" t="inlineStr">
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>1000221</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>47056732</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:10:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B957" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C957" t="inlineStr">
-        <is>
-          <t>46765562</t>
-        </is>
-      </c>
-      <c r="D957" t="inlineStr">
-        <is>
-          <t>미용사(네일)</t>
-        </is>
-      </c>
-      <c r="E957" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:41:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="958">
-      <c r="A958" t="inlineStr">
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>1000221</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>47054343</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:12:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B958" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C958" t="inlineStr">
-        <is>
-          <t>46765562</t>
-        </is>
-      </c>
-      <c r="D958" t="inlineStr">
-        <is>
-          <t>미용사(메이크업)</t>
-        </is>
-      </c>
-      <c r="E958" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:41:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="959">
-      <c r="A959" t="inlineStr">
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>1000221</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>47052783</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:13:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B959" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C959" t="inlineStr">
-        <is>
-          <t>46749600</t>
-        </is>
-      </c>
-      <c r="D959" t="inlineStr">
-        <is>
-          <t>ACA (Adobe Certified Associate)</t>
-        </is>
-      </c>
-      <c r="E959" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:43:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="960">
-      <c r="A960" t="inlineStr">
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>1000221</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>47052783</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:13:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B960" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C960" t="inlineStr">
-        <is>
-          <t>46747984</t>
-        </is>
-      </c>
-      <c r="D960" t="inlineStr">
-        <is>
-          <t>검색마케터1급</t>
-        </is>
-      </c>
-      <c r="E960" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:44:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="961">
-      <c r="A961" t="inlineStr">
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>1000221</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>47031921</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>피부관리사</t>
+        </is>
+      </c>
+      <c r="E979" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B961" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C961" t="inlineStr">
-        <is>
-          <t>46747983</t>
-        </is>
-      </c>
-      <c r="D961" t="inlineStr">
-        <is>
-          <t>검색마케터1급</t>
-        </is>
-      </c>
-      <c r="E961" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:44:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="962">
-      <c r="A962" t="inlineStr">
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>1000221</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>47029399</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>1인크리에이터영상콘텐츠기획자</t>
+        </is>
+      </c>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:26:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B962" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C962" t="inlineStr">
-        <is>
-          <t>46743516</t>
-        </is>
-      </c>
-      <c r="D962" t="inlineStr">
-        <is>
-          <t>GAC (Google Anal...</t>
-        </is>
-      </c>
-      <c r="E962" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:44:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="963">
-      <c r="A963" t="inlineStr">
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>1000221</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>47029399</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>디지털영상편집 1급</t>
+        </is>
+      </c>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:26:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B963" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C963" t="inlineStr">
-        <is>
-          <t>46730589</t>
-        </is>
-      </c>
-      <c r="D963" t="inlineStr">
-        <is>
-          <t>정보통신공사 자격증 보유자</t>
-        </is>
-      </c>
-      <c r="E963" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:45:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" t="inlineStr">
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>1000221</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>47029399</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>영상편집/제작 관련</t>
+        </is>
+      </c>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:26:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B964" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C964" t="inlineStr">
-        <is>
-          <t>46730589</t>
-        </is>
-      </c>
-      <c r="D964" t="inlineStr">
-        <is>
-          <t>네트워크 관련 자격증 보유자</t>
-        </is>
-      </c>
-      <c r="E964" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:45:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" t="inlineStr">
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>1000221</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>47026877</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:27:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B965" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C965" t="inlineStr">
-        <is>
-          <t>46723480</t>
-        </is>
-      </c>
-      <c r="D965" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E965" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:46:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" t="inlineStr">
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>1000221</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>47026877</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:27:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B966" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C966" t="inlineStr">
-        <is>
-          <t>46723480</t>
-        </is>
-      </c>
-      <c r="D966" t="inlineStr">
-        <is>
-          <t>2종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E966" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:46:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B967" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C967" t="inlineStr">
-        <is>
-          <t>46717213</t>
-        </is>
-      </c>
-      <c r="D967" t="inlineStr">
-        <is>
-          <t>검색광고마케터 1급</t>
-        </is>
-      </c>
-      <c r="E967" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:47:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B968" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C968" t="inlineStr">
-        <is>
-          <t>46717213</t>
-        </is>
-      </c>
-      <c r="D968" t="inlineStr">
-        <is>
-          <t>프레젠테이션스피치 1급</t>
-        </is>
-      </c>
-      <c r="E968" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:47:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="969">
-      <c r="A969" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B969" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C969" t="inlineStr">
-        <is>
-          <t>46712273</t>
-        </is>
-      </c>
-      <c r="D969" t="inlineStr">
-        <is>
-          <t>검색광고마케터 1급</t>
-        </is>
-      </c>
-      <c r="E969" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:48:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="970">
-      <c r="A970" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B970" t="inlineStr">
-        <is>
-          <t>1000220</t>
-        </is>
-      </c>
-      <c r="C970" t="inlineStr">
-        <is>
-          <t>46708868</t>
-        </is>
-      </c>
-      <c r="D970" t="inlineStr">
-        <is>
-          <t>ACA Photoshop</t>
-        </is>
-      </c>
-      <c r="E970" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 00:48:33</t>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>1000221</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>47026877</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>ACA Premiere</t>
+        </is>
+      </c>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:27:30</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E985"/>
+  <dimension ref="A1:E1048"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19960,407 +19960,1700 @@
       </c>
     </row>
     <row r="971">
-      <c r="A971" t="inlineStr">
+      <c r="A971" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B971" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C971" t="n">
+        <v>47054092</v>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>약사</t>
+        </is>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B972" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C972" t="n">
+        <v>47057169</v>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B973" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C973" t="n">
+        <v>47057169</v>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>MOS Excel</t>
+        </is>
+      </c>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B974" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C974" t="n">
+        <v>47057169</v>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>MOS PowerPoint</t>
+        </is>
+      </c>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B975" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C975" t="n">
+        <v>47056732</v>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:10:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B976" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C976" t="n">
+        <v>47054343</v>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:12:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B977" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C977" t="n">
+        <v>47052783</v>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:13:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B978" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C978" t="n">
+        <v>47052783</v>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:13:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B979" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C979" t="n">
+        <v>47031921</v>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>피부관리사</t>
+        </is>
+      </c>
+      <c r="E979" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B980" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C980" t="n">
+        <v>47029399</v>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>1인크리에이터영상콘텐츠기획자</t>
+        </is>
+      </c>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:26:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B981" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C981" t="n">
+        <v>47029399</v>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>디지털영상편집 1급</t>
+        </is>
+      </c>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:26:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B982" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C982" t="n">
+        <v>47029399</v>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>영상편집/제작 관련</t>
+        </is>
+      </c>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:26:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B983" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C983" t="n">
+        <v>47026877</v>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:27:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B984" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C984" t="n">
+        <v>47026877</v>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:27:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B985" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C985" t="n">
+        <v>47026877</v>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>ACA Premiere</t>
+        </is>
+      </c>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 01:27:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B986" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C986" t="n">
+        <v>47020393</v>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>ACE(Adobe Certified Expert)</t>
+        </is>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 11:54:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B987" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C987" t="n">
+        <v>47020393</v>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>ACA (Adobe Certified Associate)</t>
+        </is>
+      </c>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 11:54:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B988" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C988" t="n">
+        <v>47020393</v>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 11:54:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B989" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C989" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>CIA(국제공인내부감사사)</t>
+        </is>
+      </c>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 11:56:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B990" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C990" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>CISA(국제공인정보시스템감사사)</t>
+        </is>
+      </c>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 11:56:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B991" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C991" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>정보보안기사</t>
+        </is>
+      </c>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 11:56:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B992" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C992" t="n">
+        <v>47015988</v>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>피부관리사</t>
+        </is>
+      </c>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 11:56:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B993" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C993" t="n">
+        <v>47015988</v>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>Web DB Master</t>
+        </is>
+      </c>
+      <c r="E993" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 11:56:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B994" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C994" t="n">
+        <v>47015697</v>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E994" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 11:56:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B995" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C995" t="n">
+        <v>47012632</v>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 11:58:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B996" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C996" t="n">
+        <v>47012632</v>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>photoshop</t>
+        </is>
+      </c>
+      <c r="E996" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 11:58:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B997" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C997" t="n">
+        <v>47012632</v>
+      </c>
+      <c r="D997" t="inlineStr">
+        <is>
+          <t>어도비 포토샵(Adobe Photoshop)</t>
+        </is>
+      </c>
+      <c r="E997" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 11:58:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B998" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C998" t="n">
+        <v>46999200</v>
+      </c>
+      <c r="D998" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E998" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:05:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B999" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C999" t="n">
+        <v>46999200</v>
+      </c>
+      <c r="D999" t="inlineStr">
+        <is>
+          <t>디지털영상편집 1급</t>
+        </is>
+      </c>
+      <c r="E999" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:05:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>46999200</v>
+      </c>
+      <c r="D1000" t="inlineStr">
+        <is>
+          <t>디지털영상편집 2급</t>
+        </is>
+      </c>
+      <c r="E1000" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:05:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>46995591</v>
+      </c>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:07:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>46993612</v>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1002" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:07:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>46993612</v>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>GTQ 2급</t>
+        </is>
+      </c>
+      <c r="E1003" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:07:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>46993612</v>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>GTQ 3급</t>
+        </is>
+      </c>
+      <c r="E1004" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:07:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>46991363</v>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:08:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>46991363</v>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:08:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>46991363</v>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>Google Ads Display Certification</t>
+        </is>
+      </c>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:08:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>46989159</v>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>46989159</v>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>46988370</v>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:10:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>46985930</v>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>컨벤션기획사 1급</t>
+        </is>
+      </c>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>46985930</v>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>컨벤션기획사 2급</t>
+        </is>
+      </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>46985930</v>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E1013" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>46971156</v>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E1014" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:33:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>46965607</v>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1015" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:35:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>46965182</v>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E1016" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:35:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>46894947</v>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1017" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:38:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>46894947</v>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>CFA(국제재무분석사)</t>
+        </is>
+      </c>
+      <c r="E1018" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:38:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>46894947</v>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>AICPA(미국공인회계사)</t>
+        </is>
+      </c>
+      <c r="E1019" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:38:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1020" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1021" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1022" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>46953540</v>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1023" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:41:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>46951163</v>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1024" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:41:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>46951163</v>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1025" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:41:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>46951163</v>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E1026" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:41:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>46952591</v>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>공유압기능사</t>
+        </is>
+      </c>
+      <c r="E1027" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:41:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>46952591</v>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>생산자동화기능사</t>
+        </is>
+      </c>
+      <c r="E1028" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:41:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>46949497</v>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1029" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:42:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>46947319</v>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1030" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:43:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>46947319</v>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1031" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:43:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>46947062</v>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1032" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:43:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>46947062</v>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1033" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:43:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>46941092</v>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1034" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>46941092</v>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1035" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>46941092</v>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>마케팅기획전문가 1급</t>
+        </is>
+      </c>
+      <c r="E1036" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>46938897</v>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1037" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:46:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>46938897</v>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1038" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 12:46:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B971" t="inlineStr">
+      <c r="B1039" t="inlineStr">
         <is>
           <t>1000221</t>
         </is>
       </c>
-      <c r="C971" t="inlineStr">
-        <is>
-          <t>47054092</t>
-        </is>
-      </c>
-      <c r="D971" t="inlineStr">
-        <is>
-          <t>약사</t>
-        </is>
-      </c>
-      <c r="E971" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 01:10:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" t="inlineStr">
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>46922282</t>
+        </is>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1039" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:51:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B972" t="inlineStr">
+      <c r="B1040" t="inlineStr">
         <is>
           <t>1000221</t>
         </is>
       </c>
-      <c r="C972" t="inlineStr">
-        <is>
-          <t>47057169</t>
-        </is>
-      </c>
-      <c r="D972" t="inlineStr">
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>46922282</t>
+        </is>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E1040" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:51:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>1000221</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>46904364</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
         <is>
           <t>ACA Photoshop</t>
         </is>
       </c>
-      <c r="E972" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 01:10:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" t="inlineStr">
+      <c r="E1041" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:56:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B973" t="inlineStr">
+      <c r="B1042" t="inlineStr">
         <is>
           <t>1000221</t>
         </is>
       </c>
-      <c r="C973" t="inlineStr">
-        <is>
-          <t>47057169</t>
-        </is>
-      </c>
-      <c r="D973" t="inlineStr">
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>46904364</t>
+        </is>
+      </c>
+      <c r="D1042" t="inlineStr">
         <is>
           <t>MOS Excel</t>
         </is>
       </c>
-      <c r="E973" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 01:10:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" t="inlineStr">
+      <c r="E1042" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:56:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B974" t="inlineStr">
+      <c r="B1043" t="inlineStr">
         <is>
           <t>1000221</t>
         </is>
       </c>
-      <c r="C974" t="inlineStr">
-        <is>
-          <t>47057169</t>
-        </is>
-      </c>
-      <c r="D974" t="inlineStr">
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>46904364</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
         <is>
           <t>MOS PowerPoint</t>
         </is>
       </c>
-      <c r="E974" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 01:10:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" t="inlineStr">
+      <c r="E1043" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:56:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B975" t="inlineStr">
+      <c r="B1044" t="inlineStr">
         <is>
           <t>1000221</t>
         </is>
       </c>
-      <c r="C975" t="inlineStr">
-        <is>
-          <t>47056732</t>
-        </is>
-      </c>
-      <c r="D975" t="inlineStr">
-        <is>
-          <t>GAC (Google Analytics Certification)</t>
-        </is>
-      </c>
-      <c r="E975" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 01:10:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" t="inlineStr">
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>46902004</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1044" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:57:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B976" t="inlineStr">
+      <c r="B1045" t="inlineStr">
         <is>
           <t>1000221</t>
         </is>
       </c>
-      <c r="C976" t="inlineStr">
-        <is>
-          <t>47054343</t>
-        </is>
-      </c>
-      <c r="D976" t="inlineStr">
-        <is>
-          <t>2종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E976" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 01:12:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" t="inlineStr">
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>46902004</t>
+        </is>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>SNS마케팅전문가</t>
+        </is>
+      </c>
+      <c r="E1045" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:57:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B977" t="inlineStr">
+      <c r="B1046" t="inlineStr">
         <is>
           <t>1000221</t>
         </is>
       </c>
-      <c r="C977" t="inlineStr">
-        <is>
-          <t>47052783</t>
-        </is>
-      </c>
-      <c r="D977" t="inlineStr">
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>46901732</t>
+        </is>
+      </c>
+      <c r="D1046" t="inlineStr">
         <is>
           <t>ACA Photoshop</t>
         </is>
       </c>
-      <c r="E977" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 01:13:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="978">
-      <c r="A978" t="inlineStr">
+      <c r="E1046" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:57:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B978" t="inlineStr">
+      <c r="B1047" t="inlineStr">
         <is>
           <t>1000221</t>
         </is>
       </c>
-      <c r="C978" t="inlineStr">
-        <is>
-          <t>47052783</t>
-        </is>
-      </c>
-      <c r="D978" t="inlineStr">
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>46901732</t>
+        </is>
+      </c>
+      <c r="D1047" t="inlineStr">
         <is>
           <t>ACA Illustrator</t>
         </is>
       </c>
-      <c r="E978" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 01:13:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" t="inlineStr">
+      <c r="E1047" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:57:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B979" t="inlineStr">
+      <c r="B1048" t="inlineStr">
         <is>
           <t>1000221</t>
         </is>
       </c>
-      <c r="C979" t="inlineStr">
-        <is>
-          <t>47031921</t>
-        </is>
-      </c>
-      <c r="D979" t="inlineStr">
-        <is>
-          <t>피부관리사</t>
-        </is>
-      </c>
-      <c r="E979" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 01:24:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B980" t="inlineStr">
-        <is>
-          <t>1000221</t>
-        </is>
-      </c>
-      <c r="C980" t="inlineStr">
-        <is>
-          <t>47029399</t>
-        </is>
-      </c>
-      <c r="D980" t="inlineStr">
-        <is>
-          <t>1인크리에이터영상콘텐츠기획자</t>
-        </is>
-      </c>
-      <c r="E980" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 01:26:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B981" t="inlineStr">
-        <is>
-          <t>1000221</t>
-        </is>
-      </c>
-      <c r="C981" t="inlineStr">
-        <is>
-          <t>47029399</t>
-        </is>
-      </c>
-      <c r="D981" t="inlineStr">
-        <is>
-          <t>디지털영상편집 1급</t>
-        </is>
-      </c>
-      <c r="E981" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 01:26:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B982" t="inlineStr">
-        <is>
-          <t>1000221</t>
-        </is>
-      </c>
-      <c r="C982" t="inlineStr">
-        <is>
-          <t>47029399</t>
-        </is>
-      </c>
-      <c r="D982" t="inlineStr">
-        <is>
-          <t>영상편집/제작 관련</t>
-        </is>
-      </c>
-      <c r="E982" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 01:26:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B983" t="inlineStr">
-        <is>
-          <t>1000221</t>
-        </is>
-      </c>
-      <c r="C983" t="inlineStr">
-        <is>
-          <t>47026877</t>
-        </is>
-      </c>
-      <c r="D983" t="inlineStr">
-        <is>
-          <t>포토샵</t>
-        </is>
-      </c>
-      <c r="E983" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 01:27:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B984" t="inlineStr">
-        <is>
-          <t>1000221</t>
-        </is>
-      </c>
-      <c r="C984" t="inlineStr">
-        <is>
-          <t>47026877</t>
-        </is>
-      </c>
-      <c r="D984" t="inlineStr">
-        <is>
-          <t>일러스트</t>
-        </is>
-      </c>
-      <c r="E984" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 01:27:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>1000221</t>
-        </is>
-      </c>
-      <c r="C985" t="inlineStr">
-        <is>
-          <t>47026877</t>
-        </is>
-      </c>
-      <c r="D985" t="inlineStr">
-        <is>
-          <t>ACA Premiere</t>
-        </is>
-      </c>
-      <c r="E985" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 01:27:30</t>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>46898867</t>
+        </is>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E1048" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:58:26</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1048"/>
+  <dimension ref="A1:E1172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21388,272 +21388,2912 @@
       </c>
     </row>
     <row r="1039">
-      <c r="A1039" t="inlineStr">
+      <c r="A1039" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>46922282</v>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1039" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:51:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>46922282</v>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E1040" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:51:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>46904364</v>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1041" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:56:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>46904364</v>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>MOS Excel</t>
+        </is>
+      </c>
+      <c r="E1042" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:56:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>46904364</v>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>MOS PowerPoint</t>
+        </is>
+      </c>
+      <c r="E1043" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:56:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>46902004</v>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1044" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:57:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>46902004</v>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>SNS마케팅전문가</t>
+        </is>
+      </c>
+      <c r="E1045" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:57:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>46901732</v>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1046" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:57:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>46901732</v>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1047" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:57:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>1000221</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>46898867</v>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E1048" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 19:58:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>47062688</v>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1049" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:50:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>47062462</v>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1050" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:51:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>47061094</v>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>컨벤션기획사 1급</t>
+        </is>
+      </c>
+      <c r="E1051" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:51:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>47061082</v>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E1052" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:51:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>47061082</v>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 3급</t>
+        </is>
+      </c>
+      <c r="E1053" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:51:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>47061082</v>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E1054" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:51:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>47060046</v>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1055" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:52:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>47060046</v>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>SMAT(서비스경영자격) 3급</t>
+        </is>
+      </c>
+      <c r="E1056" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:52:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>47060046</v>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>CS Leaders(관리사)</t>
+        </is>
+      </c>
+      <c r="E1057" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:52:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>47058663</v>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1058" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:53:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>47058663</v>
+      </c>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E1059" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:53:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>47057613</v>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>컨벤션기획사 2급</t>
+        </is>
+      </c>
+      <c r="E1060" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:53:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>47057613</v>
+      </c>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>컨벤션기획사 1급</t>
+        </is>
+      </c>
+      <c r="E1061" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:53:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>47054092</v>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>약사</t>
+        </is>
+      </c>
+      <c r="E1062" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:53:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>47049826</v>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>운전면허증</t>
+        </is>
+      </c>
+      <c r="E1063" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:57:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>47049826</v>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>일본어</t>
+        </is>
+      </c>
+      <c r="E1064" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:57:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>47049826</v>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="E1065" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:57:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>47049744</v>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>운전면허증</t>
+        </is>
+      </c>
+      <c r="E1066" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:57:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>47049744</v>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>일본어</t>
+        </is>
+      </c>
+      <c r="E1067" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:57:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>47049744</v>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="E1068" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:57:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>47048909</v>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1069" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:58:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>47047121</v>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1070" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:59:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>47047121</v>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1071" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 21:59:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>47046029</v>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1072" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:00:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>47045696</v>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1073" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>47045696</v>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1074" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>47045696</v>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1075" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>47045673</v>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1076" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>47040595</v>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1077" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:15:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>47038664</v>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1078" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>47038664</v>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1079" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>47038664</v>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1080" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>간호사</t>
+        </is>
+      </c>
+      <c r="E1081" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:16:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>응급구조사(1급·2급)</t>
+        </is>
+      </c>
+      <c r="E1082" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:16:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>인명구조요원</t>
+        </is>
+      </c>
+      <c r="E1083" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:16:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>47035910</v>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>스쿠버</t>
+        </is>
+      </c>
+      <c r="E1084" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>47035910</v>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>스킨스쿠버</t>
+        </is>
+      </c>
+      <c r="E1085" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>47035910</v>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>프리다이빙</t>
+        </is>
+      </c>
+      <c r="E1086" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>47030845</v>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1087" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>47026877</v>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1088" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:20:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>47026877</v>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1089" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:20:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>47026877</v>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>ACA Premiere</t>
+        </is>
+      </c>
+      <c r="E1090" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:20:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>47012549</v>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>영양사</t>
+        </is>
+      </c>
+      <c r="E1091" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:20:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>47023414</v>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>컨벤션 기획사</t>
+        </is>
+      </c>
+      <c r="E1092" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:21:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>47023414</v>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>국제회의 기획자</t>
+        </is>
+      </c>
+      <c r="E1093" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:21:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>47022115</v>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1094" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:21:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>47020393</v>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>ACE(Adobe Certified Expert)</t>
+        </is>
+      </c>
+      <c r="E1095" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>47020393</v>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>ACA (Adobe Certified Associate)</t>
+        </is>
+      </c>
+      <c r="E1096" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>47020393</v>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1097" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>47018536</v>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:22:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>47018311</v>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1099" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>47016404</v>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>전기기사</t>
+        </is>
+      </c>
+      <c r="E1100" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:23:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>47016404</v>
+      </c>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>전기산업기사</t>
+        </is>
+      </c>
+      <c r="E1101" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:23:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D1102" t="inlineStr">
+        <is>
+          <t>CIA(국제공인내부감사사)</t>
+        </is>
+      </c>
+      <c r="E1102" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>CISA(국제공인정보시스템감사사)</t>
+        </is>
+      </c>
+      <c r="E1103" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D1104" t="inlineStr">
+        <is>
+          <t>정보보안기사</t>
+        </is>
+      </c>
+      <c r="E1104" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>46994509</v>
+      </c>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1105" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:49:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>46992247</v>
+      </c>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1106" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:49:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>46985930</v>
+      </c>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>컨벤션기획사 1급</t>
+        </is>
+      </c>
+      <c r="E1107" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:52:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>46985930</v>
+      </c>
+      <c r="D1108" t="inlineStr">
+        <is>
+          <t>컨벤션기획사 2급</t>
+        </is>
+      </c>
+      <c r="E1108" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:52:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>46985930</v>
+      </c>
+      <c r="D1109" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E1109" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:52:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>46982224</v>
+      </c>
+      <c r="D1110" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1110" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:52:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>46980752</v>
+      </c>
+      <c r="D1111" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1111" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 22:52:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>46967085</v>
+      </c>
+      <c r="D1112" t="inlineStr">
+        <is>
+          <t>주택관리사(보)</t>
+        </is>
+      </c>
+      <c r="E1112" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:00:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>46967085</v>
+      </c>
+      <c r="D1113" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E1113" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:00:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>46967085</v>
+      </c>
+      <c r="D1114" t="inlineStr">
+        <is>
+          <t>감정평가사</t>
+        </is>
+      </c>
+      <c r="E1114" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:00:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>46961493</v>
+      </c>
+      <c r="D1115" t="inlineStr">
+        <is>
+          <t>투자자산운용사</t>
+        </is>
+      </c>
+      <c r="E1115" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:02:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>46894947</v>
+      </c>
+      <c r="D1116" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1116" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:02:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>46894947</v>
+      </c>
+      <c r="D1117" t="inlineStr">
+        <is>
+          <t>CFA(국제재무분석사)</t>
+        </is>
+      </c>
+      <c r="E1117" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:02:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>46894947</v>
+      </c>
+      <c r="D1118" t="inlineStr">
+        <is>
+          <t>AICPA(미국공인회계사)</t>
+        </is>
+      </c>
+      <c r="E1118" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:02:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1119" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:03:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1120" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:03:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1121" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1121" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:03:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>46954287</v>
+      </c>
+      <c r="D1122" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1122" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>46953895</v>
+      </c>
+      <c r="D1123" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1123" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:04:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>46953565</v>
+      </c>
+      <c r="D1124" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E1124" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:04:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>46953565</v>
+      </c>
+      <c r="D1125" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1125" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:04:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>46953565</v>
+      </c>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>Meta Media Buying Professional</t>
+        </is>
+      </c>
+      <c r="E1126" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:04:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>46953540</v>
+      </c>
+      <c r="D1127" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:04:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>46953091</v>
+      </c>
+      <c r="D1128" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E1128" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:04:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>46948953</v>
+      </c>
+      <c r="D1129" t="inlineStr">
+        <is>
+          <t>컨벤션기획사 1급</t>
+        </is>
+      </c>
+      <c r="E1129" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:05:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>46948953</v>
+      </c>
+      <c r="D1130" t="inlineStr">
+        <is>
+          <t>컨벤션기획사 2급</t>
+        </is>
+      </c>
+      <c r="E1130" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:05:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>46948953</v>
+      </c>
+      <c r="D1131" t="inlineStr">
+        <is>
+          <t>국제회의전문가(CMP)</t>
+        </is>
+      </c>
+      <c r="E1131" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:05:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>46946309</v>
+      </c>
+      <c r="D1132" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E1132" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:06:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>46945645</v>
+      </c>
+      <c r="D1133" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E1133" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:06:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>46945645</v>
+      </c>
+      <c r="D1134" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1134" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:06:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>46945645</v>
+      </c>
+      <c r="D1135" t="inlineStr">
+        <is>
+          <t>Meta Media Buying Professional</t>
+        </is>
+      </c>
+      <c r="E1135" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:06:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>46945011</v>
+      </c>
+      <c r="D1136" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1136" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:06:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>46945011</v>
+      </c>
+      <c r="D1137" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1137" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:06:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>46931272</v>
+      </c>
+      <c r="D1138" t="inlineStr">
+        <is>
+          <t>정보처리산업기사</t>
+        </is>
+      </c>
+      <c r="E1138" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:07:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>46931272</v>
+      </c>
+      <c r="D1139" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:07:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>46931272</v>
+      </c>
+      <c r="D1140" t="inlineStr">
+        <is>
+          <t>정보통신기술사</t>
+        </is>
+      </c>
+      <c r="E1140" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:07:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>46940293</v>
+      </c>
+      <c r="D1141" t="inlineStr">
+        <is>
+          <t>건축도장기능사</t>
+        </is>
+      </c>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:07:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>46940293</v>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>건축목공기능사</t>
+        </is>
+      </c>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:07:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>46940293</v>
+      </c>
+      <c r="D1143" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1143" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:07:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>46936342</v>
+      </c>
+      <c r="D1144" t="inlineStr">
+        <is>
+          <t>웹디자인개발기능사</t>
+        </is>
+      </c>
+      <c r="E1144" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>46936342</v>
+      </c>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1145" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>46923619</v>
+      </c>
+      <c r="D1146" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1146" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:31:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>46920767</v>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1147" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:32:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>46916911</v>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>컨벤션기획사 1급</t>
+        </is>
+      </c>
+      <c r="E1148" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:33:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>46916911</v>
+      </c>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>컨벤션기획사 2급</t>
+        </is>
+      </c>
+      <c r="E1149" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:33:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>46916911</v>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>국제전시기획사</t>
+        </is>
+      </c>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:33:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>46916259</v>
+      </c>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>경영지도사</t>
+        </is>
+      </c>
+      <c r="E1151" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:33:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>46916259</v>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1152" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:33:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>46916259</v>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>영양사</t>
+        </is>
+      </c>
+      <c r="E1153" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:33:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>46898867</v>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E1154" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:36:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>46893920</v>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1155" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:38:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>46892916</v>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>TOEIC</t>
+        </is>
+      </c>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:38:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1039" t="inlineStr">
-        <is>
-          <t>1000221</t>
-        </is>
-      </c>
-      <c r="C1039" t="inlineStr">
-        <is>
-          <t>46922282</t>
-        </is>
-      </c>
-      <c r="D1039" t="inlineStr">
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>1000222</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>46817522</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E1157" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:50:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>1000222</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>46817522</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E1158" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:50:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>1000222</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>46812202</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:50:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>1000222</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>46809292</t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:50:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>1000222</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>46802737</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:51:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>1000222</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>46801288</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>CIA(국제공인내부감사사)</t>
+        </is>
+      </c>
+      <c r="E1162" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:51:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>1000222</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>46801288</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>CISA(국제공인정보시스템감사사)</t>
+        </is>
+      </c>
+      <c r="E1163" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:51:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>1000222</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>46801288</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>포장기사</t>
+        </is>
+      </c>
+      <c r="E1164" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:51:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>1000222</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>46785490</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>가맹거래사</t>
+        </is>
+      </c>
+      <c r="E1165" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:51:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>1000222</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>46785490</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>CS강사</t>
+        </is>
+      </c>
+      <c r="E1166" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:51:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>1000222</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>46723487</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
         <is>
           <t>ACA Photoshop</t>
         </is>
       </c>
-      <c r="E1039" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 19:51:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="1040">
-      <c r="A1040" t="inlineStr">
+      <c r="E1167" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:54:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1040" t="inlineStr">
-        <is>
-          <t>1000221</t>
-        </is>
-      </c>
-      <c r="C1040" t="inlineStr">
-        <is>
-          <t>46922282</t>
-        </is>
-      </c>
-      <c r="D1040" t="inlineStr">
-        <is>
-          <t>컴퓨터활용능력 2급</t>
-        </is>
-      </c>
-      <c r="E1040" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 19:51:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="1041">
-      <c r="A1041" t="inlineStr">
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>1000222</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>46723487</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1168" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:54:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1041" t="inlineStr">
-        <is>
-          <t>1000221</t>
-        </is>
-      </c>
-      <c r="C1041" t="inlineStr">
-        <is>
-          <t>46904364</t>
-        </is>
-      </c>
-      <c r="D1041" t="inlineStr">
-        <is>
-          <t>ACA Photoshop</t>
-        </is>
-      </c>
-      <c r="E1041" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 19:56:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="1042">
-      <c r="A1042" t="inlineStr">
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>1000222</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>46723487</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>CLIP STUDIO</t>
+        </is>
+      </c>
+      <c r="E1169" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:54:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1042" t="inlineStr">
-        <is>
-          <t>1000221</t>
-        </is>
-      </c>
-      <c r="C1042" t="inlineStr">
-        <is>
-          <t>46904364</t>
-        </is>
-      </c>
-      <c r="D1042" t="inlineStr">
-        <is>
-          <t>MOS Excel</t>
-        </is>
-      </c>
-      <c r="E1042" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 19:56:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="1043">
-      <c r="A1043" t="inlineStr">
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>1000222</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>46714701</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1170" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:54:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1043" t="inlineStr">
-        <is>
-          <t>1000221</t>
-        </is>
-      </c>
-      <c r="C1043" t="inlineStr">
-        <is>
-          <t>46904364</t>
-        </is>
-      </c>
-      <c r="D1043" t="inlineStr">
-        <is>
-          <t>MOS PowerPoint</t>
-        </is>
-      </c>
-      <c r="E1043" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 19:56:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="1044">
-      <c r="A1044" t="inlineStr">
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>1000222</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>46708415</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력</t>
+        </is>
+      </c>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:54:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1044" t="inlineStr">
-        <is>
-          <t>1000221</t>
-        </is>
-      </c>
-      <c r="C1044" t="inlineStr">
-        <is>
-          <t>46902004</t>
-        </is>
-      </c>
-      <c r="D1044" t="inlineStr">
-        <is>
-          <t>SNS광고마케터 1급</t>
-        </is>
-      </c>
-      <c r="E1044" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 19:57:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="1045">
-      <c r="A1045" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1045" t="inlineStr">
-        <is>
-          <t>1000221</t>
-        </is>
-      </c>
-      <c r="C1045" t="inlineStr">
-        <is>
-          <t>46902004</t>
-        </is>
-      </c>
-      <c r="D1045" t="inlineStr">
-        <is>
-          <t>SNS마케팅전문가</t>
-        </is>
-      </c>
-      <c r="E1045" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 19:57:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="1046">
-      <c r="A1046" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1046" t="inlineStr">
-        <is>
-          <t>1000221</t>
-        </is>
-      </c>
-      <c r="C1046" t="inlineStr">
-        <is>
-          <t>46901732</t>
-        </is>
-      </c>
-      <c r="D1046" t="inlineStr">
-        <is>
-          <t>ACA Photoshop</t>
-        </is>
-      </c>
-      <c r="E1046" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 19:57:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="1047">
-      <c r="A1047" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1047" t="inlineStr">
-        <is>
-          <t>1000221</t>
-        </is>
-      </c>
-      <c r="C1047" t="inlineStr">
-        <is>
-          <t>46901732</t>
-        </is>
-      </c>
-      <c r="D1047" t="inlineStr">
-        <is>
-          <t>ACA Illustrator</t>
-        </is>
-      </c>
-      <c r="E1047" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 19:57:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="1048">
-      <c r="A1048" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1048" t="inlineStr">
-        <is>
-          <t>1000221</t>
-        </is>
-      </c>
-      <c r="C1048" t="inlineStr">
-        <is>
-          <t>46898867</t>
-        </is>
-      </c>
-      <c r="D1048" t="inlineStr">
-        <is>
-          <t>공인중개사</t>
-        </is>
-      </c>
-      <c r="E1048" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 19:58:26</t>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>1000222</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>46708415</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>gtq</t>
+        </is>
+      </c>
+      <c r="E1172" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:54:58</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1172"/>
+  <dimension ref="A1:E1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23866,434 +23866,1040 @@
       </c>
     </row>
     <row r="1157">
-      <c r="A1157" t="inlineStr">
+      <c r="A1157" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>46817522</v>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E1157" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:50:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>46817522</v>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E1158" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:50:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>46812202</v>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:50:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>46809292</v>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:50:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>46802737</v>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:51:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>46801288</v>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>CIA(국제공인내부감사사)</t>
+        </is>
+      </c>
+      <c r="E1162" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:51:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>46801288</v>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>CISA(국제공인정보시스템감사사)</t>
+        </is>
+      </c>
+      <c r="E1163" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:51:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>46801288</v>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>포장기사</t>
+        </is>
+      </c>
+      <c r="E1164" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:51:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>46785490</v>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>가맹거래사</t>
+        </is>
+      </c>
+      <c r="E1165" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:51:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>46785490</v>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>CS강사</t>
+        </is>
+      </c>
+      <c r="E1166" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:51:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>46723487</v>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1167" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:54:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>46723487</v>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1168" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:54:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>46723487</v>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>CLIP STUDIO</t>
+        </is>
+      </c>
+      <c r="E1169" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:54:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>46714701</v>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1170" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:54:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>46708415</v>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력</t>
+        </is>
+      </c>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:54:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>1000222</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>46708415</v>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>gtq</t>
+        </is>
+      </c>
+      <c r="E1172" t="inlineStr">
+        <is>
+          <t>2025.05.30 - 23:54:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1157" t="inlineStr">
-        <is>
-          <t>1000222</t>
-        </is>
-      </c>
-      <c r="C1157" t="inlineStr">
-        <is>
-          <t>46817522</t>
-        </is>
-      </c>
-      <c r="D1157" t="inlineStr">
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>47048731</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1173" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:22:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>47048709</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:22:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>47034158</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:23:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>47034158</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>MOS Excel</t>
+        </is>
+      </c>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:23:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>47021525</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>약사</t>
+        </is>
+      </c>
+      <c r="E1177" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>47021525</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>수의사</t>
+        </is>
+      </c>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>46999927</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>사회조사분석사 2급</t>
+        </is>
+      </c>
+      <c r="E1179" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>46997252</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
         <is>
           <t>컴퓨터활용능력 2급</t>
         </is>
       </c>
-      <c r="E1157" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 23:50:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="inlineStr">
+      <c r="E1180" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:25:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1158" t="inlineStr">
-        <is>
-          <t>1000222</t>
-        </is>
-      </c>
-      <c r="C1158" t="inlineStr">
-        <is>
-          <t>46817522</t>
-        </is>
-      </c>
-      <c r="D1158" t="inlineStr">
-        <is>
-          <t>GAIQ</t>
-        </is>
-      </c>
-      <c r="E1158" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 23:50:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="inlineStr">
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>46997250</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:25:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1159" t="inlineStr">
-        <is>
-          <t>1000222</t>
-        </is>
-      </c>
-      <c r="C1159" t="inlineStr">
-        <is>
-          <t>46812202</t>
-        </is>
-      </c>
-      <c r="D1159" t="inlineStr">
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>46997250</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>사회조사분석사 2급</t>
+        </is>
+      </c>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:25:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>46946309</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:26:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>46941058</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:27:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>46932503</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
         <is>
           <t>컴퓨터활용능력 1급</t>
         </is>
       </c>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 23:50:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="inlineStr">
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:27:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1160" t="inlineStr">
-        <is>
-          <t>1000222</t>
-        </is>
-      </c>
-      <c r="C1160" t="inlineStr">
-        <is>
-          <t>46809292</t>
-        </is>
-      </c>
-      <c r="D1160" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 23:50:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="inlineStr">
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>46932503</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>사회조사분석사 2급</t>
+        </is>
+      </c>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:27:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1161" t="inlineStr">
-        <is>
-          <t>1000222</t>
-        </is>
-      </c>
-      <c r="C1161" t="inlineStr">
-        <is>
-          <t>46802737</t>
-        </is>
-      </c>
-      <c r="D1161" t="inlineStr">
-        <is>
-          <t>2종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E1161" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 23:51:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="inlineStr">
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>46927526</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>사회조사분석사 2급</t>
+        </is>
+      </c>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:27:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1162" t="inlineStr">
-        <is>
-          <t>1000222</t>
-        </is>
-      </c>
-      <c r="C1162" t="inlineStr">
-        <is>
-          <t>46801288</t>
-        </is>
-      </c>
-      <c r="D1162" t="inlineStr">
-        <is>
-          <t>CIA(국제공인내부감사사)</t>
-        </is>
-      </c>
-      <c r="E1162" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 23:51:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="inlineStr">
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>46912814</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>건축설비산업기사</t>
+        </is>
+      </c>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1163" t="inlineStr">
-        <is>
-          <t>1000222</t>
-        </is>
-      </c>
-      <c r="C1163" t="inlineStr">
-        <is>
-          <t>46801288</t>
-        </is>
-      </c>
-      <c r="D1163" t="inlineStr">
-        <is>
-          <t>CISA(국제공인정보시스템감사사)</t>
-        </is>
-      </c>
-      <c r="E1163" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 23:51:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="inlineStr">
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>46912814</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>토목산업기사</t>
+        </is>
+      </c>
+      <c r="E1189" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1164" t="inlineStr">
-        <is>
-          <t>1000222</t>
-        </is>
-      </c>
-      <c r="C1164" t="inlineStr">
-        <is>
-          <t>46801288</t>
-        </is>
-      </c>
-      <c r="D1164" t="inlineStr">
-        <is>
-          <t>포장기사</t>
-        </is>
-      </c>
-      <c r="E1164" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 23:51:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="inlineStr">
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>46912814</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>전기산업기사</t>
+        </is>
+      </c>
+      <c r="E1190" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1165" t="inlineStr">
-        <is>
-          <t>1000222</t>
-        </is>
-      </c>
-      <c r="C1165" t="inlineStr">
-        <is>
-          <t>46785490</t>
-        </is>
-      </c>
-      <c r="D1165" t="inlineStr">
-        <is>
-          <t>가맹거래사</t>
-        </is>
-      </c>
-      <c r="E1165" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 23:51:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="inlineStr">
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>46902115</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>사회조사분석사 2급</t>
+        </is>
+      </c>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1166" t="inlineStr">
-        <is>
-          <t>1000222</t>
-        </is>
-      </c>
-      <c r="C1166" t="inlineStr">
-        <is>
-          <t>46785490</t>
-        </is>
-      </c>
-      <c r="D1166" t="inlineStr">
-        <is>
-          <t>CS강사</t>
-        </is>
-      </c>
-      <c r="E1166" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 23:51:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="inlineStr">
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>46902115</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>사회조사분석사 1급</t>
+        </is>
+      </c>
+      <c r="E1192" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1167" t="inlineStr">
-        <is>
-          <t>1000222</t>
-        </is>
-      </c>
-      <c r="C1167" t="inlineStr">
-        <is>
-          <t>46723487</t>
-        </is>
-      </c>
-      <c r="D1167" t="inlineStr">
-        <is>
-          <t>ACA Photoshop</t>
-        </is>
-      </c>
-      <c r="E1167" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 23:54:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="inlineStr">
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>46898867</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1168" t="inlineStr">
-        <is>
-          <t>1000222</t>
-        </is>
-      </c>
-      <c r="C1168" t="inlineStr">
-        <is>
-          <t>46723487</t>
-        </is>
-      </c>
-      <c r="D1168" t="inlineStr">
-        <is>
-          <t>ACA Illustrator</t>
-        </is>
-      </c>
-      <c r="E1168" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 23:54:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="inlineStr">
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>46891700</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>잠수작업기능습득 교육</t>
+        </is>
+      </c>
+      <c r="E1194" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1169" t="inlineStr">
-        <is>
-          <t>1000222</t>
-        </is>
-      </c>
-      <c r="C1169" t="inlineStr">
-        <is>
-          <t>46723487</t>
-        </is>
-      </c>
-      <c r="D1169" t="inlineStr">
-        <is>
-          <t>CLIP STUDIO</t>
-        </is>
-      </c>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 23:54:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>46891700</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>잠수기능사</t>
+        </is>
+      </c>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1170" t="inlineStr">
-        <is>
-          <t>1000222</t>
-        </is>
-      </c>
-      <c r="C1170" t="inlineStr">
-        <is>
-          <t>46714701</t>
-        </is>
-      </c>
-      <c r="D1170" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E1170" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 23:54:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>46891700</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>잠수산업기사</t>
+        </is>
+      </c>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>1000222</t>
-        </is>
-      </c>
-      <c r="C1171" t="inlineStr">
-        <is>
-          <t>46708415</t>
-        </is>
-      </c>
-      <c r="D1171" t="inlineStr">
-        <is>
-          <t>컴퓨터활용능력</t>
-        </is>
-      </c>
-      <c r="E1171" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 23:54:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>46889449</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>사회조사분석사 2급</t>
+        </is>
+      </c>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1172" t="inlineStr">
-        <is>
-          <t>1000222</t>
-        </is>
-      </c>
-      <c r="C1172" t="inlineStr">
-        <is>
-          <t>46708415</t>
-        </is>
-      </c>
-      <c r="D1172" t="inlineStr">
-        <is>
-          <t>gtq</t>
-        </is>
-      </c>
-      <c r="E1172" t="inlineStr">
-        <is>
-          <t>2025.05.30 - 23:54:58</t>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>1000223</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>46764897</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>사회조사분석사 2급</t>
+        </is>
+      </c>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:29:51</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1198"/>
+  <dimension ref="A1:E1258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24202,704 +24202,1826 @@
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
+      <c r="A1173" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>47048731</v>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1173" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:22:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>47048709</v>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:22:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>47034158</v>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:23:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>47034158</v>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>MOS Excel</t>
+        </is>
+      </c>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:23:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>47021525</v>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>약사</t>
+        </is>
+      </c>
+      <c r="E1177" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>47021525</v>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>수의사</t>
+        </is>
+      </c>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>46999927</v>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>사회조사분석사 2급</t>
+        </is>
+      </c>
+      <c r="E1179" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>46997252</v>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E1180" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:25:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>46997250</v>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:25:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>46997250</v>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>사회조사분석사 2급</t>
+        </is>
+      </c>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:25:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>46946309</v>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:26:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>46941058</v>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:27:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>46932503</v>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:27:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>46932503</v>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>사회조사분석사 2급</t>
+        </is>
+      </c>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:27:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>46927526</v>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>사회조사분석사 2급</t>
+        </is>
+      </c>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:27:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>46912814</v>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>건축설비산업기사</t>
+        </is>
+      </c>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>46912814</v>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>토목산업기사</t>
+        </is>
+      </c>
+      <c r="E1189" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>46912814</v>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>전기산업기사</t>
+        </is>
+      </c>
+      <c r="E1190" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>46902115</v>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>사회조사분석사 2급</t>
+        </is>
+      </c>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>46902115</v>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>사회조사분석사 1급</t>
+        </is>
+      </c>
+      <c r="E1192" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>46898867</v>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>46891700</v>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>잠수작업기능습득 교육</t>
+        </is>
+      </c>
+      <c r="E1194" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>46891700</v>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>잠수기능사</t>
+        </is>
+      </c>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>46891700</v>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>잠수산업기사</t>
+        </is>
+      </c>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>46889449</v>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>사회조사분석사 2급</t>
+        </is>
+      </c>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:28:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>1000223</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>46764897</v>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>사회조사분석사 2급</t>
+        </is>
+      </c>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 00:29:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>47059635</v>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>47058821</v>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1200" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:25:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>47058663</v>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:26:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>47058663</v>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E1202" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:26:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>47054922</v>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="E1203" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:27:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>47054922</v>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>AICPA</t>
+        </is>
+      </c>
+      <c r="E1204" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:27:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>47054922</v>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>CFA(국제재무분석사)</t>
+        </is>
+      </c>
+      <c r="E1205" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:27:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>47054092</v>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>약사</t>
+        </is>
+      </c>
+      <c r="E1206" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:27:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>47053638</v>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E1207" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:32:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>47049220</v>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1208" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:36:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>47049220</v>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1209" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:36:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>47049220</v>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1210" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:36:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>47043872</v>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>한식조리기능사</t>
+        </is>
+      </c>
+      <c r="E1211" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:43:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>47041701</v>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1212" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:44:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>47041701</v>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1213" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:44:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>47041701</v>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1214" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:44:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>47040644</v>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>GAC (Google Analytics Certification)</t>
+        </is>
+      </c>
+      <c r="E1215" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:45:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>47040644</v>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>전자상거래관리사 1급</t>
+        </is>
+      </c>
+      <c r="E1216" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:45:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>47040644</v>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>Adobe Certified Professional</t>
+        </is>
+      </c>
+      <c r="E1217" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:45:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>47035910</v>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>스쿠버</t>
+        </is>
+      </c>
+      <c r="E1218" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:55:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>47035910</v>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>스킨스쿠버</t>
+        </is>
+      </c>
+      <c r="E1219" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:55:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>47035910</v>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>프리다이빙</t>
+        </is>
+      </c>
+      <c r="E1220" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:55:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>47032991</v>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>영사자격증</t>
+        </is>
+      </c>
+      <c r="E1221" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 03:57:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>47029094</v>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E1222" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 04:00:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>47026503</v>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E1223" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 04:05:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>47026497</v>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E1224" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 04:05:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>47021525</v>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>약사</t>
+        </is>
+      </c>
+      <c r="E1225" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 04:06:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>47021525</v>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>수의사</t>
+        </is>
+      </c>
+      <c r="E1226" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 04:06:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>47012823</v>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1227" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 08:04:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>47012632</v>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1228" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 08:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>47012632</v>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>photoshop</t>
+        </is>
+      </c>
+      <c r="E1229" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 08:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>47012632</v>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>어도비 포토샵(Adobe Photoshop)</t>
+        </is>
+      </c>
+      <c r="E1230" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 08:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>47007387</v>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1231" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 08:08:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>46997836</v>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>한식조리기능사</t>
+        </is>
+      </c>
+      <c r="E1232" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 08:16:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>46997836</v>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>중식조리기능사</t>
+        </is>
+      </c>
+      <c r="E1233" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 08:16:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>46997836</v>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>양식조리기능사</t>
+        </is>
+      </c>
+      <c r="E1234" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 08:16:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>46997097</v>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1235" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 08:17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>46996461</v>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>한식조리기능사</t>
+        </is>
+      </c>
+      <c r="E1236" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 08:17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>46996461</v>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>양식조리기능사</t>
+        </is>
+      </c>
+      <c r="E1237" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 08:17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>46977296</v>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 3급</t>
+        </is>
+      </c>
+      <c r="E1238" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>46975804</v>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E1239" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:18:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>46975713</v>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>바리스타 2급</t>
+        </is>
+      </c>
+      <c r="E1240" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:18:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>46965908</v>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>세무관리사</t>
+        </is>
+      </c>
+      <c r="E1241" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:23:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>46965908</v>
+      </c>
+      <c r="D1242" t="inlineStr">
+        <is>
+          <t>전산세무 1급</t>
+        </is>
+      </c>
+      <c r="E1242" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:23:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>46965908</v>
+      </c>
+      <c r="D1243" t="inlineStr">
+        <is>
+          <t>세무실무사 1급</t>
+        </is>
+      </c>
+      <c r="E1243" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:23:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>46963926</v>
+      </c>
+      <c r="D1244" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1244" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:25:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>46963484</v>
+      </c>
+      <c r="D1245" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1245" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:26:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>46963329</v>
+      </c>
+      <c r="D1246" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1246" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:26:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>46963329</v>
+      </c>
+      <c r="D1247" t="inlineStr">
+        <is>
+          <t>무역영어 2급</t>
+        </is>
+      </c>
+      <c r="E1247" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:26:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>46955998</v>
+      </c>
+      <c r="D1248" t="inlineStr">
+        <is>
+          <t>新 JLPT N1급</t>
+        </is>
+      </c>
+      <c r="E1248" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:29:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>46955998</v>
+      </c>
+      <c r="D1249" t="inlineStr">
+        <is>
+          <t>JPT</t>
+        </is>
+      </c>
+      <c r="E1249" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:29:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>46943416</v>
+      </c>
+      <c r="D1250" t="inlineStr">
+        <is>
+          <t>컴퓨터</t>
+        </is>
+      </c>
+      <c r="E1250" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:57:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>46943416</v>
+      </c>
+      <c r="D1251" t="inlineStr">
+        <is>
+          <t>국내여행안내사</t>
+        </is>
+      </c>
+      <c r="E1251" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:57:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>46943416</v>
+      </c>
+      <c r="D1252" t="inlineStr">
+        <is>
+          <t>photoshop</t>
+        </is>
+      </c>
+      <c r="E1252" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:57:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>46941092</v>
+      </c>
+      <c r="D1253" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1253" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:58:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>46941092</v>
+      </c>
+      <c r="D1254" t="inlineStr">
+        <is>
+          <t>SNS광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1254" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:58:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>46941092</v>
+      </c>
+      <c r="D1255" t="inlineStr">
+        <is>
+          <t>마케팅기획전문가 1급</t>
+        </is>
+      </c>
+      <c r="E1255" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 22:58:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1173" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1173" t="inlineStr">
-        <is>
-          <t>47048731</t>
-        </is>
-      </c>
-      <c r="D1173" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E1173" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:22:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>1000224</t>
+        </is>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>46932232</t>
+        </is>
+      </c>
+      <c r="D1256" t="inlineStr">
+        <is>
+          <t>기계경비지도사</t>
+        </is>
+      </c>
+      <c r="E1256" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 23:18:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr">
-        <is>
-          <t>47048709</t>
-        </is>
-      </c>
-      <c r="D1174" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:22:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>1000224</t>
+        </is>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>46932232</t>
+        </is>
+      </c>
+      <c r="D1257" t="inlineStr">
+        <is>
+          <t>원가분석사</t>
+        </is>
+      </c>
+      <c r="E1257" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 23:18:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr">
-        <is>
-          <t>47034158</t>
-        </is>
-      </c>
-      <c r="D1175" t="inlineStr">
-        <is>
-          <t>컴퓨터활용능력 1급</t>
-        </is>
-      </c>
-      <c r="E1175" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:23:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1176" t="inlineStr">
-        <is>
-          <t>47034158</t>
-        </is>
-      </c>
-      <c r="D1176" t="inlineStr">
-        <is>
-          <t>MOS Excel</t>
-        </is>
-      </c>
-      <c r="E1176" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:23:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1177" t="inlineStr">
-        <is>
-          <t>47021525</t>
-        </is>
-      </c>
-      <c r="D1177" t="inlineStr">
-        <is>
-          <t>약사</t>
-        </is>
-      </c>
-      <c r="E1177" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:23:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr">
-        <is>
-          <t>47021525</t>
-        </is>
-      </c>
-      <c r="D1178" t="inlineStr">
-        <is>
-          <t>수의사</t>
-        </is>
-      </c>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:23:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1179" t="inlineStr">
-        <is>
-          <t>46999927</t>
-        </is>
-      </c>
-      <c r="D1179" t="inlineStr">
-        <is>
-          <t>사회조사분석사 2급</t>
-        </is>
-      </c>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:24:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1180" t="inlineStr">
-        <is>
-          <t>46997252</t>
-        </is>
-      </c>
-      <c r="D1180" t="inlineStr">
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>1000224</t>
+        </is>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>46933189</t>
+        </is>
+      </c>
+      <c r="D1258" t="inlineStr">
         <is>
           <t>컴퓨터활용능력 2급</t>
         </is>
       </c>
-      <c r="E1180" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:25:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1181" t="inlineStr">
-        <is>
-          <t>46997250</t>
-        </is>
-      </c>
-      <c r="D1181" t="inlineStr">
-        <is>
-          <t>컴퓨터활용능력 1급</t>
-        </is>
-      </c>
-      <c r="E1181" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:25:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1182" t="inlineStr">
-        <is>
-          <t>46997250</t>
-        </is>
-      </c>
-      <c r="D1182" t="inlineStr">
-        <is>
-          <t>사회조사분석사 2급</t>
-        </is>
-      </c>
-      <c r="E1182" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:25:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1183" t="inlineStr">
-        <is>
-          <t>46946309</t>
-        </is>
-      </c>
-      <c r="D1183" t="inlineStr">
-        <is>
-          <t>공인중개사</t>
-        </is>
-      </c>
-      <c r="E1183" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:26:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr">
-        <is>
-          <t>46941058</t>
-        </is>
-      </c>
-      <c r="D1184" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E1184" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:27:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1185" t="inlineStr">
-        <is>
-          <t>46932503</t>
-        </is>
-      </c>
-      <c r="D1185" t="inlineStr">
-        <is>
-          <t>컴퓨터활용능력 1급</t>
-        </is>
-      </c>
-      <c r="E1185" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:27:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr">
-        <is>
-          <t>46932503</t>
-        </is>
-      </c>
-      <c r="D1186" t="inlineStr">
-        <is>
-          <t>사회조사분석사 2급</t>
-        </is>
-      </c>
-      <c r="E1186" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:27:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1187" t="inlineStr">
-        <is>
-          <t>46927526</t>
-        </is>
-      </c>
-      <c r="D1187" t="inlineStr">
-        <is>
-          <t>사회조사분석사 2급</t>
-        </is>
-      </c>
-      <c r="E1187" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:27:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1188" t="inlineStr">
-        <is>
-          <t>46912814</t>
-        </is>
-      </c>
-      <c r="D1188" t="inlineStr">
-        <is>
-          <t>건축설비산업기사</t>
-        </is>
-      </c>
-      <c r="E1188" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:28:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1189" t="inlineStr">
-        <is>
-          <t>46912814</t>
-        </is>
-      </c>
-      <c r="D1189" t="inlineStr">
-        <is>
-          <t>토목산업기사</t>
-        </is>
-      </c>
-      <c r="E1189" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:28:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1190" t="inlineStr">
-        <is>
-          <t>46912814</t>
-        </is>
-      </c>
-      <c r="D1190" t="inlineStr">
-        <is>
-          <t>전기산업기사</t>
-        </is>
-      </c>
-      <c r="E1190" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:28:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1191" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1191" t="inlineStr">
-        <is>
-          <t>46902115</t>
-        </is>
-      </c>
-      <c r="D1191" t="inlineStr">
-        <is>
-          <t>사회조사분석사 2급</t>
-        </is>
-      </c>
-      <c r="E1191" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:28:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1192" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1192" t="inlineStr">
-        <is>
-          <t>46902115</t>
-        </is>
-      </c>
-      <c r="D1192" t="inlineStr">
-        <is>
-          <t>사회조사분석사 1급</t>
-        </is>
-      </c>
-      <c r="E1192" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:28:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1193" t="inlineStr">
-        <is>
-          <t>46898867</t>
-        </is>
-      </c>
-      <c r="D1193" t="inlineStr">
-        <is>
-          <t>공인중개사</t>
-        </is>
-      </c>
-      <c r="E1193" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:28:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1194" t="inlineStr">
-        <is>
-          <t>46891700</t>
-        </is>
-      </c>
-      <c r="D1194" t="inlineStr">
-        <is>
-          <t>잠수작업기능습득 교육</t>
-        </is>
-      </c>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:28:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1195" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1195" t="inlineStr">
-        <is>
-          <t>46891700</t>
-        </is>
-      </c>
-      <c r="D1195" t="inlineStr">
-        <is>
-          <t>잠수기능사</t>
-        </is>
-      </c>
-      <c r="E1195" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:28:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1196" t="inlineStr">
-        <is>
-          <t>46891700</t>
-        </is>
-      </c>
-      <c r="D1196" t="inlineStr">
-        <is>
-          <t>잠수산업기사</t>
-        </is>
-      </c>
-      <c r="E1196" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:28:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1197" t="inlineStr">
-        <is>
-          <t>46889449</t>
-        </is>
-      </c>
-      <c r="D1197" t="inlineStr">
-        <is>
-          <t>사회조사분석사 2급</t>
-        </is>
-      </c>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:28:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr">
-        <is>
-          <t>1000223</t>
-        </is>
-      </c>
-      <c r="C1198" t="inlineStr">
-        <is>
-          <t>46764897</t>
-        </is>
-      </c>
-      <c r="D1198" t="inlineStr">
-        <is>
-          <t>사회조사분석사 2급</t>
-        </is>
-      </c>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>2025.05.31 - 00:29:51</t>
+      <c r="E1258" t="inlineStr">
+        <is>
+          <t>2025.05.31 - 23:18:32</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1258"/>
+  <dimension ref="A1:E1276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25945,20 +25945,14 @@
       </c>
     </row>
     <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1256" t="inlineStr">
-        <is>
-          <t>1000224</t>
-        </is>
-      </c>
-      <c r="C1256" t="inlineStr">
-        <is>
-          <t>46932232</t>
-        </is>
+      <c r="A1256" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>46932232</v>
       </c>
       <c r="D1256" t="inlineStr">
         <is>
@@ -25972,20 +25966,14 @@
       </c>
     </row>
     <row r="1257">
-      <c r="A1257" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1257" t="inlineStr">
-        <is>
-          <t>1000224</t>
-        </is>
-      </c>
-      <c r="C1257" t="inlineStr">
-        <is>
-          <t>46932232</t>
-        </is>
+      <c r="A1257" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>46932232</v>
       </c>
       <c r="D1257" t="inlineStr">
         <is>
@@ -25999,20 +25987,14 @@
       </c>
     </row>
     <row r="1258">
-      <c r="A1258" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1258" t="inlineStr">
-        <is>
-          <t>1000224</t>
-        </is>
-      </c>
-      <c r="C1258" t="inlineStr">
-        <is>
-          <t>46933189</t>
-        </is>
+      <c r="A1258" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>46933189</v>
       </c>
       <c r="D1258" t="inlineStr">
         <is>
@@ -26022,6 +26004,384 @@
       <c r="E1258" t="inlineStr">
         <is>
           <t>2025.05.31 - 23:18:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>46911871</v>
+      </c>
+      <c r="D1259" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1259" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:04:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>46901858</v>
+      </c>
+      <c r="D1260" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1260" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:19:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>46901713</v>
+      </c>
+      <c r="D1261" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1261" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:19:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>46897452</v>
+      </c>
+      <c r="D1262" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1262" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:21:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>46893282</v>
+      </c>
+      <c r="D1263" t="inlineStr">
+        <is>
+          <t>바리스타 2급</t>
+        </is>
+      </c>
+      <c r="E1263" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>46886774</v>
+      </c>
+      <c r="D1264" t="inlineStr">
+        <is>
+          <t>Pro Tools 아비드 공인 자격증</t>
+        </is>
+      </c>
+      <c r="E1264" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>46886774</v>
+      </c>
+      <c r="D1265" t="inlineStr">
+        <is>
+          <t>Logic Pro 애플 공인 자격증</t>
+        </is>
+      </c>
+      <c r="E1265" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>46886774</v>
+      </c>
+      <c r="D1266" t="inlineStr">
+        <is>
+          <t>Final Cut Pro 애플 공인 자격증</t>
+        </is>
+      </c>
+      <c r="E1266" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>46866687</v>
+      </c>
+      <c r="D1267" t="inlineStr">
+        <is>
+          <t>스쿠버</t>
+        </is>
+      </c>
+      <c r="E1267" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:25:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>46866687</v>
+      </c>
+      <c r="D1268" t="inlineStr">
+        <is>
+          <t>프리다이빙</t>
+        </is>
+      </c>
+      <c r="E1268" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:25:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>46866687</v>
+      </c>
+      <c r="D1269" t="inlineStr">
+        <is>
+          <t>스킨스쿠바</t>
+        </is>
+      </c>
+      <c r="E1269" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:25:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>46849760</v>
+      </c>
+      <c r="D1270" t="inlineStr">
+        <is>
+          <t>스쿠버</t>
+        </is>
+      </c>
+      <c r="E1270" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:30:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>46849760</v>
+      </c>
+      <c r="D1271" t="inlineStr">
+        <is>
+          <t>프리다이빙</t>
+        </is>
+      </c>
+      <c r="E1271" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:30:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>46849760</v>
+      </c>
+      <c r="D1272" t="inlineStr">
+        <is>
+          <t>스킨스쿠버</t>
+        </is>
+      </c>
+      <c r="E1272" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:30:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>46767224</v>
+      </c>
+      <c r="D1273" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1273" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:45:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>46767224</v>
+      </c>
+      <c r="D1274" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1274" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:45:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>46765353</v>
+      </c>
+      <c r="D1275" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1275" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:45:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>1000224</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>46765353</v>
+      </c>
+      <c r="D1276" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1276" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 00:45:54</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1276"/>
+  <dimension ref="A1:E1280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26385,6 +26385,114 @@
         </is>
       </c>
     </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>1000226</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>46906569</t>
+        </is>
+      </c>
+      <c r="D1277" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1277" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:18:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>1000226</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>46787942</t>
+        </is>
+      </c>
+      <c r="D1278" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1278" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:19:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>1000226</t>
+        </is>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>46742726</t>
+        </is>
+      </c>
+      <c r="D1279" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E1279" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:19:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>1000226</t>
+        </is>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>46742726</t>
+        </is>
+      </c>
+      <c r="D1280" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1280" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:19:35</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1280"/>
+  <dimension ref="A1:E1327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26386,110 +26386,1097 @@
       </c>
     </row>
     <row r="1277">
-      <c r="A1277" t="inlineStr">
+      <c r="A1277" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>1000226</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>46906569</v>
+      </c>
+      <c r="D1277" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1277" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:18:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>1000226</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>46787942</v>
+      </c>
+      <c r="D1278" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1278" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:19:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>1000226</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>46742726</v>
+      </c>
+      <c r="D1279" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E1279" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:19:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>1000226</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>46742726</v>
+      </c>
+      <c r="D1280" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1280" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:19:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>47066461</v>
+      </c>
+      <c r="D1281" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1281" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:26:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>47062531</v>
+      </c>
+      <c r="D1282" t="inlineStr">
+        <is>
+          <t>일본어능력시험(JLPT)</t>
+        </is>
+      </c>
+      <c r="E1282" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:27:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>47062531</v>
+      </c>
+      <c r="D1283" t="inlineStr">
+        <is>
+          <t>JPT</t>
+        </is>
+      </c>
+      <c r="E1283" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:27:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>47062531</v>
+      </c>
+      <c r="D1284" t="inlineStr">
+        <is>
+          <t>TOEIC</t>
+        </is>
+      </c>
+      <c r="E1284" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:27:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>47054495</v>
+      </c>
+      <c r="D1285" t="inlineStr">
+        <is>
+          <t>정보처리산업기사</t>
+        </is>
+      </c>
+      <c r="E1285" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:29:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>47054495</v>
+      </c>
+      <c r="D1286" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1286" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:29:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>47050685</v>
+      </c>
+      <c r="D1287" t="inlineStr">
+        <is>
+          <t>사회복지사2급</t>
+        </is>
+      </c>
+      <c r="E1287" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:30:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>47050685</v>
+      </c>
+      <c r="D1288" t="inlineStr">
+        <is>
+          <t>평생교육사 2급</t>
+        </is>
+      </c>
+      <c r="E1288" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:30:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>47048909</v>
+      </c>
+      <c r="D1289" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1289" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:30:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>47048123</v>
+      </c>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>정보처리산업기사</t>
+        </is>
+      </c>
+      <c r="E1290" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:31:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>47048123</v>
+      </c>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1291" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:31:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>47029399</v>
+      </c>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>1인크리에이터영상콘텐츠기획자</t>
+        </is>
+      </c>
+      <c r="E1292" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:41:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>47029399</v>
+      </c>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>디지털영상편집 1급</t>
+        </is>
+      </c>
+      <c r="E1293" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:41:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>47029399</v>
+      </c>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>영상편집/제작 관련</t>
+        </is>
+      </c>
+      <c r="E1294" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:41:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>47026497</v>
+      </c>
+      <c r="D1295" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E1295" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:42:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D1296" t="inlineStr">
+        <is>
+          <t>전기기사</t>
+        </is>
+      </c>
+      <c r="E1296" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:42:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D1297" t="inlineStr">
+        <is>
+          <t>전기산업기사</t>
+        </is>
+      </c>
+      <c r="E1297" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:42:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D1298" t="inlineStr">
+        <is>
+          <t>소방안전관리자 2급</t>
+        </is>
+      </c>
+      <c r="E1298" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:42:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>47020740</v>
+      </c>
+      <c r="D1299" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E1299" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:43:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>47020393</v>
+      </c>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>ACE(Adobe Certified Expert)</t>
+        </is>
+      </c>
+      <c r="E1300" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:43:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>47020393</v>
+      </c>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>ACA (Adobe Certified Associate)</t>
+        </is>
+      </c>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:43:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>47020393</v>
+      </c>
+      <c r="D1302" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1302" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:43:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D1303" t="inlineStr">
+        <is>
+          <t>CIA(국제공인내부감사사)</t>
+        </is>
+      </c>
+      <c r="E1303" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:44:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>CISA(국제공인정보시스템감사사)</t>
+        </is>
+      </c>
+      <c r="E1304" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:44:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>정보보안기사</t>
+        </is>
+      </c>
+      <c r="E1305" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:44:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>47014571</v>
+      </c>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>정보처리산업기사</t>
+        </is>
+      </c>
+      <c r="E1306" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:44:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>47014571</v>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1307" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:44:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>47009328</v>
+      </c>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>SQLD</t>
+        </is>
+      </c>
+      <c r="E1308" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:46:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>46994946</v>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>운전면허</t>
+        </is>
+      </c>
+      <c r="E1309" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:51:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>46991232</v>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1310" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:52:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>46991232</v>
+      </c>
+      <c r="D1311" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E1311" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:52:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>46991232</v>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E1312" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 01:52:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>46961536</v>
+      </c>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1313" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 02:02:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>46961536</v>
+      </c>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="E1314" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 02:02:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>46946309</v>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E1315" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 02:06:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>46936342</v>
+      </c>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>웹디자인개발기능사</t>
+        </is>
+      </c>
+      <c r="E1316" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 02:08:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>46936342</v>
+      </c>
+      <c r="D1317" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1317" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 02:08:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>46933383</v>
+      </c>
+      <c r="D1318" t="inlineStr">
+        <is>
+          <t>정보처리산업기사</t>
+        </is>
+      </c>
+      <c r="E1318" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 02:08:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>46933383</v>
+      </c>
+      <c r="D1319" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1319" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 02:08:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>46906702</v>
+      </c>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E1320" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 02:15:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>46906702</v>
+      </c>
+      <c r="D1321" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 02:15:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>46906702</v>
+      </c>
+      <c r="D1322" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1322" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 02:15:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>46898867</v>
+      </c>
+      <c r="D1323" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E1323" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 02:26:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1277" t="inlineStr">
-        <is>
-          <t>1000226</t>
-        </is>
-      </c>
-      <c r="C1277" t="inlineStr">
-        <is>
-          <t>46906569</t>
-        </is>
-      </c>
-      <c r="D1277" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E1277" t="inlineStr">
-        <is>
-          <t>2025.06.01 - 01:18:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="1278">
-      <c r="A1278" t="inlineStr">
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>1000227</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>46781411</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>유통관리사</t>
+        </is>
+      </c>
+      <c r="E1324" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 02:35:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1278" t="inlineStr">
-        <is>
-          <t>1000226</t>
-        </is>
-      </c>
-      <c r="C1278" t="inlineStr">
-        <is>
-          <t>46787942</t>
-        </is>
-      </c>
-      <c r="D1278" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E1278" t="inlineStr">
-        <is>
-          <t>2025.06.01 - 01:19:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="1279">
-      <c r="A1279" t="inlineStr">
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>1000227</t>
+        </is>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>46781411</t>
+        </is>
+      </c>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>물류관리사</t>
+        </is>
+      </c>
+      <c r="E1325" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 02:35:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1279" t="inlineStr">
-        <is>
-          <t>1000226</t>
-        </is>
-      </c>
-      <c r="C1279" t="inlineStr">
-        <is>
-          <t>46742726</t>
-        </is>
-      </c>
-      <c r="D1279" t="inlineStr">
-        <is>
-          <t>GAIQ</t>
-        </is>
-      </c>
-      <c r="E1279" t="inlineStr">
-        <is>
-          <t>2025.06.01 - 01:19:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="1280">
-      <c r="A1280" t="inlineStr">
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>1000227</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>46781411</t>
+        </is>
+      </c>
+      <c r="D1326" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E1326" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 02:35:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
         <is>
           <t>10030</t>
         </is>
       </c>
-      <c r="B1280" t="inlineStr">
-        <is>
-          <t>1000226</t>
-        </is>
-      </c>
-      <c r="C1280" t="inlineStr">
-        <is>
-          <t>46742726</t>
-        </is>
-      </c>
-      <c r="D1280" t="inlineStr">
-        <is>
-          <t>검색광고마케터 1급</t>
-        </is>
-      </c>
-      <c r="E1280" t="inlineStr">
-        <is>
-          <t>2025.06.01 - 01:19:35</t>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>1000227</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>46754530</t>
+        </is>
+      </c>
+      <c r="D1327" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1327" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 02:36:54</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -27373,20 +27373,14 @@
       </c>
     </row>
     <row r="1324">
-      <c r="A1324" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1324" t="inlineStr">
-        <is>
-          <t>1000227</t>
-        </is>
-      </c>
-      <c r="C1324" t="inlineStr">
-        <is>
-          <t>46781411</t>
-        </is>
+      <c r="A1324" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>46781411</v>
       </c>
       <c r="D1324" t="inlineStr">
         <is>
@@ -27400,20 +27394,14 @@
       </c>
     </row>
     <row r="1325">
-      <c r="A1325" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1325" t="inlineStr">
-        <is>
-          <t>1000227</t>
-        </is>
-      </c>
-      <c r="C1325" t="inlineStr">
-        <is>
-          <t>46781411</t>
-        </is>
+      <c r="A1325" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>46781411</v>
       </c>
       <c r="D1325" t="inlineStr">
         <is>
@@ -27427,20 +27415,14 @@
       </c>
     </row>
     <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1326" t="inlineStr">
-        <is>
-          <t>1000227</t>
-        </is>
-      </c>
-      <c r="C1326" t="inlineStr">
-        <is>
-          <t>46781411</t>
-        </is>
+      <c r="A1326" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>46781411</v>
       </c>
       <c r="D1326" t="inlineStr">
         <is>
@@ -27454,20 +27436,14 @@
       </c>
     </row>
     <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>10030</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr">
-        <is>
-          <t>1000227</t>
-        </is>
-      </c>
-      <c r="C1327" t="inlineStr">
-        <is>
-          <t>46754530</t>
-        </is>
+      <c r="A1327" t="n">
+        <v>10030</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>1000227</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>46754530</v>
       </c>
       <c r="D1327" t="inlineStr">
         <is>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1327"/>
+  <dimension ref="A1:E1440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27456,6 +27456,2379 @@
         </is>
       </c>
     </row>
+    <row r="1328">
+      <c r="A1328" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>47065498</v>
+      </c>
+      <c r="D1328" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E1328" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:18:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>47065489</v>
+      </c>
+      <c r="D1329" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E1329" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:18:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>47065489</v>
+      </c>
+      <c r="D1330" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E1330" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:18:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>47065489</v>
+      </c>
+      <c r="D1331" t="inlineStr">
+        <is>
+          <t>도시계획기사</t>
+        </is>
+      </c>
+      <c r="E1331" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:18:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>47060555</v>
+      </c>
+      <c r="D1332" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1332" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:20:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>47060555</v>
+      </c>
+      <c r="D1333" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1333" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:20:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>47060555</v>
+      </c>
+      <c r="D1334" t="inlineStr">
+        <is>
+          <t>GTQ 인디자인 1급</t>
+        </is>
+      </c>
+      <c r="E1334" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:20:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>47057635</v>
+      </c>
+      <c r="D1335" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1335" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:20:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>47057635</v>
+      </c>
+      <c r="D1336" t="inlineStr">
+        <is>
+          <t>컬러리스트산업기사</t>
+        </is>
+      </c>
+      <c r="E1336" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:20:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>47057635</v>
+      </c>
+      <c r="D1337" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1337" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:20:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>47050686</v>
+      </c>
+      <c r="D1338" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1338" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>47050686</v>
+      </c>
+      <c r="D1339" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1339" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>47047630</v>
+      </c>
+      <c r="D1340" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1340" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>47047630</v>
+      </c>
+      <c r="D1341" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1341" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>47040990</v>
+      </c>
+      <c r="D1342" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1342" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:26:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>47040990</v>
+      </c>
+      <c r="D1343" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1343" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:26:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>47040990</v>
+      </c>
+      <c r="D1344" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1344" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:26:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>47037766</v>
+      </c>
+      <c r="D1345" t="inlineStr">
+        <is>
+          <t>gtq</t>
+        </is>
+      </c>
+      <c r="E1345" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:27:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>47037766</v>
+      </c>
+      <c r="D1346" t="inlineStr">
+        <is>
+          <t>ACP</t>
+        </is>
+      </c>
+      <c r="E1346" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:27:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>47037766</v>
+      </c>
+      <c r="D1347" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1347" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:27:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>47034963</v>
+      </c>
+      <c r="D1348" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1348" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:28:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>47034963</v>
+      </c>
+      <c r="D1349" t="inlineStr">
+        <is>
+          <t>GTQ포토샵1급</t>
+        </is>
+      </c>
+      <c r="E1349" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:28:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>47034963</v>
+      </c>
+      <c r="D1350" t="inlineStr">
+        <is>
+          <t>GTQ일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1350" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:28:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>47035287</v>
+      </c>
+      <c r="D1351" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1351" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:28:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>47035287</v>
+      </c>
+      <c r="D1352" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1352" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:28:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>47035287</v>
+      </c>
+      <c r="D1353" t="inlineStr">
+        <is>
+          <t>컬러리스트산업기사</t>
+        </is>
+      </c>
+      <c r="E1353" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:28:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>47031952</v>
+      </c>
+      <c r="D1354" t="inlineStr">
+        <is>
+          <t>직업훈련교사</t>
+        </is>
+      </c>
+      <c r="E1354" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:28:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>47031526</v>
+      </c>
+      <c r="D1355" t="inlineStr">
+        <is>
+          <t>GTA포토샵</t>
+        </is>
+      </c>
+      <c r="E1355" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:29:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>47031526</v>
+      </c>
+      <c r="D1356" t="inlineStr">
+        <is>
+          <t>일러스트레이터(Illustrator)</t>
+        </is>
+      </c>
+      <c r="E1356" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:29:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>47031090</v>
+      </c>
+      <c r="D1357" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1357" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:29:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>47031090</v>
+      </c>
+      <c r="D1358" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1358" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:29:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>47021565</v>
+      </c>
+      <c r="D1359" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E1359" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:36:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>47021565</v>
+      </c>
+      <c r="D1360" t="inlineStr">
+        <is>
+          <t>디지털영상편집 1급</t>
+        </is>
+      </c>
+      <c r="E1360" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:36:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>47021565</v>
+      </c>
+      <c r="D1361" t="inlineStr">
+        <is>
+          <t>디지털영상편집 2급</t>
+        </is>
+      </c>
+      <c r="E1361" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:36:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>47018917</v>
+      </c>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1362" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:37:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>47016901</v>
+      </c>
+      <c r="D1363" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1363" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:37:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>47016901</v>
+      </c>
+      <c r="D1364" t="inlineStr">
+        <is>
+          <t>GTQ 인디자인 1급</t>
+        </is>
+      </c>
+      <c r="E1364" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:37:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>47015084</v>
+      </c>
+      <c r="D1365" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1365" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:37:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>47015084</v>
+      </c>
+      <c r="D1366" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1366" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:37:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>47015084</v>
+      </c>
+      <c r="D1367" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1367" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:37:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>47007964</v>
+      </c>
+      <c r="D1368" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽기능사</t>
+        </is>
+      </c>
+      <c r="E1368" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:39:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>47007964</v>
+      </c>
+      <c r="D1369" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1369" t="inlineStr">
+        <is>
+          <t>2025.06.01 - 13:39:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>47003440</v>
+      </c>
+      <c r="D1370" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1370" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:26:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>47003440</v>
+      </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>멀티미디어콘텐츠제작전문가</t>
+        </is>
+      </c>
+      <c r="E1371" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:26:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>47003440</v>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>전자출판기능사</t>
+        </is>
+      </c>
+      <c r="E1372" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:26:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>47000185</v>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1373" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:27:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>47000185</v>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>GTQ 2급</t>
+        </is>
+      </c>
+      <c r="E1374" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:27:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>46995349</v>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1375" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:28:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>46995349</v>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1376" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:28:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>46994397</v>
+      </c>
+      <c r="D1377" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1377" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:28:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>46994397</v>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1378" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:28:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>46992956</v>
+      </c>
+      <c r="D1379" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1379" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:28:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>46992956</v>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1380" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:28:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>46992956</v>
+      </c>
+      <c r="D1381" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1381" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:28:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>46992247</v>
+      </c>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1382" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:28:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>46985921</v>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1383" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:30:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>46985921</v>
+      </c>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1384" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:30:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>46985921</v>
+      </c>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>컬러리스트산업기사</t>
+        </is>
+      </c>
+      <c r="E1385" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:30:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>46981046</v>
+      </c>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>gtq</t>
+        </is>
+      </c>
+      <c r="E1386" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:30:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>46976181</v>
+      </c>
+      <c r="D1387" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1387" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:31:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>46975308</v>
+      </c>
+      <c r="D1388" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1388" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:31:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>46975308</v>
+      </c>
+      <c r="D1389" t="inlineStr">
+        <is>
+          <t>컬러리스트기사</t>
+        </is>
+      </c>
+      <c r="E1389" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:31:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>46975308</v>
+      </c>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:31:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>46965621</v>
+      </c>
+      <c r="D1391" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1391" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:37:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>46962353</v>
+      </c>
+      <c r="D1392" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽기능사</t>
+        </is>
+      </c>
+      <c r="E1392" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:38:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>46962353</v>
+      </c>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1393" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:38:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>46962353</v>
+      </c>
+      <c r="D1394" t="inlineStr">
+        <is>
+          <t>MOS PowerPoint</t>
+        </is>
+      </c>
+      <c r="E1394" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:38:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1395" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1395" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1396" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1396" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1397" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1397" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>46952533</v>
+      </c>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1398" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:40:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>46952533</v>
+      </c>
+      <c r="D1399" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1399" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 01:40:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>46965621</v>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1400" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>46962353</v>
+      </c>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽기능사</t>
+        </is>
+      </c>
+      <c r="E1401" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:22:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>46962353</v>
+      </c>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1402" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:22:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>46962353</v>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>MOS PowerPoint</t>
+        </is>
+      </c>
+      <c r="E1403" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:22:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1404" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1404" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1405" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1405" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1406" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1406" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>46952533</v>
+      </c>
+      <c r="D1407" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1407" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>46952533</v>
+      </c>
+      <c r="D1408" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1408" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>46947642</v>
+      </c>
+      <c r="D1409" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1409" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:26:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>46947642</v>
+      </c>
+      <c r="D1410" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1410" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:26:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>46947499</v>
+      </c>
+      <c r="D1411" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1411" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:26:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>46947499</v>
+      </c>
+      <c r="D1412" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1412" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:26:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>46947062</v>
+      </c>
+      <c r="D1413" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1413" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:26:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>46947062</v>
+      </c>
+      <c r="D1414" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1414" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:26:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>46945653</v>
+      </c>
+      <c r="D1415" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1415" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:26:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>46931272</v>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t>정보처리산업기사</t>
+        </is>
+      </c>
+      <c r="E1416" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:27:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>46931272</v>
+      </c>
+      <c r="D1417" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1417" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:27:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>46931272</v>
+      </c>
+      <c r="D1418" t="inlineStr">
+        <is>
+          <t>정보통신기술사</t>
+        </is>
+      </c>
+      <c r="E1418" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:27:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>46929601</v>
+      </c>
+      <c r="D1419" t="inlineStr">
+        <is>
+          <t>사진기능사</t>
+        </is>
+      </c>
+      <c r="E1419" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:28:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>46929601</v>
+      </c>
+      <c r="D1420" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1420" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:28:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>46929601</v>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>멀티미디어 전문가</t>
+        </is>
+      </c>
+      <c r="E1421" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:28:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>46929139</v>
+      </c>
+      <c r="D1422" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1422" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:28:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>46926317</v>
+      </c>
+      <c r="D1423" t="inlineStr">
+        <is>
+          <t>photoshop</t>
+        </is>
+      </c>
+      <c r="E1423" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:29:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>46926317</v>
+      </c>
+      <c r="D1424" t="inlineStr">
+        <is>
+          <t>illustrator</t>
+        </is>
+      </c>
+      <c r="E1424" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:29:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>46926317</v>
+      </c>
+      <c r="D1425" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1425" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:29:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>46925176</v>
+      </c>
+      <c r="D1426" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1426" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:29:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>46925153</v>
+      </c>
+      <c r="D1427" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1427" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:29:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>46923775</v>
+      </c>
+      <c r="D1428" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1428" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:29:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>46923775</v>
+      </c>
+      <c r="D1429" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1429" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:29:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>46923386</v>
+      </c>
+      <c r="D1430" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1430" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:30:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>46923215</v>
+      </c>
+      <c r="D1431" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1431" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:30:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>46923215</v>
+      </c>
+      <c r="D1432" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1432" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:30:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>46921411</v>
+      </c>
+      <c r="D1433" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1433" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:30:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>46921411</v>
+      </c>
+      <c r="D1434" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1434" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:30:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>46903083</v>
+      </c>
+      <c r="D1435" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1435" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:35:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>46903083</v>
+      </c>
+      <c r="D1436" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1436" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:35:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>46903083</v>
+      </c>
+      <c r="D1437" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1437" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:35:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>46844512</v>
+      </c>
+      <c r="D1438" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1438" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:38:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>46844512</v>
+      </c>
+      <c r="D1439" t="inlineStr">
+        <is>
+          <t>2종소형운전면허</t>
+        </is>
+      </c>
+      <c r="E1439" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:38:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>46844512</v>
+      </c>
+      <c r="D1440" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1440" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 08:38:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1440"/>
+  <dimension ref="A1:E1491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29829,6 +29829,1107 @@
         </is>
       </c>
     </row>
+    <row r="1441">
+      <c r="A1441" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>47074961</v>
+      </c>
+      <c r="D1441" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1441" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:42:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>47074961</v>
+      </c>
+      <c r="D1442" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1442" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:42:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>47074423</v>
+      </c>
+      <c r="D1443" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1443" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:42:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>47073499</v>
+      </c>
+      <c r="D1444" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1444" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:42:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>47073499</v>
+      </c>
+      <c r="D1445" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1445" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:42:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>47073499</v>
+      </c>
+      <c r="D1446" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1446" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:42:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>47072393</v>
+      </c>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1447" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:42:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>47072393</v>
+      </c>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>조경기능사</t>
+        </is>
+      </c>
+      <c r="E1448" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:42:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>47071122</v>
+      </c>
+      <c r="D1449" t="inlineStr">
+        <is>
+          <t>gtq</t>
+        </is>
+      </c>
+      <c r="E1449" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:42:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>47071122</v>
+      </c>
+      <c r="D1450" t="inlineStr">
+        <is>
+          <t>gtqi</t>
+        </is>
+      </c>
+      <c r="E1450" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:42:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>47071122</v>
+      </c>
+      <c r="D1451" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1451" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:42:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>47070888</v>
+      </c>
+      <c r="D1452" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:42:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>47070888</v>
+      </c>
+      <c r="D1453" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E1453" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:42:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>47063405</v>
+      </c>
+      <c r="D1454" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1454" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:43:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>47063405</v>
+      </c>
+      <c r="D1455" t="inlineStr">
+        <is>
+          <t>제품디자인기사</t>
+        </is>
+      </c>
+      <c r="E1455" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:43:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>47060581</v>
+      </c>
+      <c r="D1456" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1456" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:43:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>47050686</v>
+      </c>
+      <c r="D1457" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1457" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:44:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>47050686</v>
+      </c>
+      <c r="D1458" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1458" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:44:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>47021565</v>
+      </c>
+      <c r="D1459" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E1459" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:46:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>47021565</v>
+      </c>
+      <c r="D1460" t="inlineStr">
+        <is>
+          <t>디지털영상편집 1급</t>
+        </is>
+      </c>
+      <c r="E1460" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:46:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>47021565</v>
+      </c>
+      <c r="D1461" t="inlineStr">
+        <is>
+          <t>디지털영상편집 2급</t>
+        </is>
+      </c>
+      <c r="E1461" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:46:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>47014471</v>
+      </c>
+      <c r="D1462" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1462" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:47:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>47014471</v>
+      </c>
+      <c r="D1463" t="inlineStr">
+        <is>
+          <t>전산응용토목제도기능사</t>
+        </is>
+      </c>
+      <c r="E1463" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:47:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>47014471</v>
+      </c>
+      <c r="D1464" t="inlineStr">
+        <is>
+          <t>전산응용기계제도기능사</t>
+        </is>
+      </c>
+      <c r="E1464" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:47:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>47011354</v>
+      </c>
+      <c r="D1465" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1465" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:47:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>47011354</v>
+      </c>
+      <c r="D1466" t="inlineStr">
+        <is>
+          <t>AutoCAD 1급 기술자격시험</t>
+        </is>
+      </c>
+      <c r="E1466" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:47:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>47011354</v>
+      </c>
+      <c r="D1467" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1467" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:47:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>47011177</v>
+      </c>
+      <c r="D1468" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1468" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:47:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>47011177</v>
+      </c>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1469" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:47:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>47011177</v>
+      </c>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1470" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:47:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>46989674</v>
+      </c>
+      <c r="D1471" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1471" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:49:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>46960262</v>
+      </c>
+      <c r="D1472" t="inlineStr">
+        <is>
+          <t>디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1472" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:50:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>46960262</v>
+      </c>
+      <c r="D1473" t="inlineStr">
+        <is>
+          <t>디자인기사</t>
+        </is>
+      </c>
+      <c r="E1473" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:50:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1474" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1474" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:51:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1475" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1475" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:51:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1476" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1476" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:51:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>46947499</v>
+      </c>
+      <c r="D1477" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1477" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:51:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>46947499</v>
+      </c>
+      <c r="D1478" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1478" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:51:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>46947062</v>
+      </c>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1479" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:51:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>46947062</v>
+      </c>
+      <c r="D1480" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1480" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:51:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>46925349</v>
+      </c>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1481" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:52:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>46925349</v>
+      </c>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>캐드</t>
+        </is>
+      </c>
+      <c r="E1482" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:52:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>46925349</v>
+      </c>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>3D MAX</t>
+        </is>
+      </c>
+      <c r="E1483" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:52:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>46903083</v>
+      </c>
+      <c r="D1484" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1484" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:53:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>46903083</v>
+      </c>
+      <c r="D1485" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1485" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:53:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>46903083</v>
+      </c>
+      <c r="D1486" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1486" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 19:53:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>1000249</t>
+        </is>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t>46772937</t>
+        </is>
+      </c>
+      <c r="D1487" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1487" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:04:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>1000249</t>
+        </is>
+      </c>
+      <c r="C1488" t="inlineStr">
+        <is>
+          <t>46772937</t>
+        </is>
+      </c>
+      <c r="D1488" t="inlineStr">
+        <is>
+          <t>3DS MAX 기술자격시험</t>
+        </is>
+      </c>
+      <c r="E1488" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:04:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1489" t="inlineStr">
+        <is>
+          <t>1000249</t>
+        </is>
+      </c>
+      <c r="C1489" t="inlineStr">
+        <is>
+          <t>46775375</t>
+        </is>
+      </c>
+      <c r="D1489" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1489" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:04:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1490" t="inlineStr">
+        <is>
+          <t>1000249</t>
+        </is>
+      </c>
+      <c r="C1490" t="inlineStr">
+        <is>
+          <t>46775375</t>
+        </is>
+      </c>
+      <c r="D1490" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E1490" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:04:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t>1000249</t>
+        </is>
+      </c>
+      <c r="C1491" t="inlineStr">
+        <is>
+          <t>46768938</t>
+        </is>
+      </c>
+      <c r="D1491" t="inlineStr">
+        <is>
+          <t>3DS MAX 기술자격시험</t>
+        </is>
+      </c>
+      <c r="E1491" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:04:16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1491"/>
+  <dimension ref="A1:E1558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30796,137 +30796,1610 @@
       </c>
     </row>
     <row r="1487">
-      <c r="A1487" t="inlineStr">
+      <c r="A1487" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>46772937</v>
+      </c>
+      <c r="D1487" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1487" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:04:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>46772937</v>
+      </c>
+      <c r="D1488" t="inlineStr">
+        <is>
+          <t>3DS MAX 기술자격시험</t>
+        </is>
+      </c>
+      <c r="E1488" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:04:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>46775375</v>
+      </c>
+      <c r="D1489" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1489" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:04:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>46775375</v>
+      </c>
+      <c r="D1490" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E1490" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:04:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>46768938</v>
+      </c>
+      <c r="D1491" t="inlineStr">
+        <is>
+          <t>3DS MAX 기술자격시험</t>
+        </is>
+      </c>
+      <c r="E1491" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:04:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>47074961</v>
+      </c>
+      <c r="D1492" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1492" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:35:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>47074961</v>
+      </c>
+      <c r="D1493" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1493" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:35:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>47074423</v>
+      </c>
+      <c r="D1494" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1494" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:35:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>47073499</v>
+      </c>
+      <c r="D1495" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1495" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:35:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>47073499</v>
+      </c>
+      <c r="D1496" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1496" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:35:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>47073499</v>
+      </c>
+      <c r="D1497" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1497" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:35:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>47072393</v>
+      </c>
+      <c r="D1498" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1498" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:36:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>47072393</v>
+      </c>
+      <c r="D1499" t="inlineStr">
+        <is>
+          <t>조경기능사</t>
+        </is>
+      </c>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:36:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>47071122</v>
+      </c>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>gtq</t>
+        </is>
+      </c>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:36:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>47071122</v>
+      </c>
+      <c r="D1501" t="inlineStr">
+        <is>
+          <t>gtqi</t>
+        </is>
+      </c>
+      <c r="E1501" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:36:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>47071122</v>
+      </c>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1502" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:36:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>47070888</v>
+      </c>
+      <c r="D1503" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:36:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>47070888</v>
+      </c>
+      <c r="D1504" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:36:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>47063405</v>
+      </c>
+      <c r="D1505" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:37:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>47063405</v>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>제품디자인기사</t>
+        </is>
+      </c>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:37:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>47060581</v>
+      </c>
+      <c r="D1507" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:37:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>47050686</v>
+      </c>
+      <c r="D1508" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1508" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:38:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>47050686</v>
+      </c>
+      <c r="D1509" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:38:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>47021565</v>
+      </c>
+      <c r="D1510" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E1510" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:40:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>47021565</v>
+      </c>
+      <c r="D1511" t="inlineStr">
+        <is>
+          <t>디지털영상편집 1급</t>
+        </is>
+      </c>
+      <c r="E1511" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:40:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>47021565</v>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>디지털영상편집 2급</t>
+        </is>
+      </c>
+      <c r="E1512" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:40:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>47014471</v>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1513" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:41:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>47014471</v>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>전산응용토목제도기능사</t>
+        </is>
+      </c>
+      <c r="E1514" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:41:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>47014471</v>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>전산응용기계제도기능사</t>
+        </is>
+      </c>
+      <c r="E1515" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:41:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>47011354</v>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1516" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:41:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>47011354</v>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>AutoCAD 1급 기술자격시험</t>
+        </is>
+      </c>
+      <c r="E1517" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:41:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>47011354</v>
+      </c>
+      <c r="D1518" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1518" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:41:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>47011177</v>
+      </c>
+      <c r="D1519" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1519" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:41:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>47011177</v>
+      </c>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1520" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:41:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>47011177</v>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1521" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:41:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>46989674</v>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1522" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:42:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>46960262</v>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1523" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:44:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>46960262</v>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>디자인기사</t>
+        </is>
+      </c>
+      <c r="E1524" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:44:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1525" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:45:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1526" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:45:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:45:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>46947499</v>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1528" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:45:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>46947499</v>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1529" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:45:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>46947062</v>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1530" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:45:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>46947062</v>
+      </c>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:45:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>46925349</v>
+      </c>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1532" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:46:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>46925349</v>
+      </c>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>캐드</t>
+        </is>
+      </c>
+      <c r="E1533" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:46:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>46925349</v>
+      </c>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>3D MAX</t>
+        </is>
+      </c>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:46:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>46903083</v>
+      </c>
+      <c r="D1535" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1535" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:47:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>46903083</v>
+      </c>
+      <c r="D1536" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1536" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:47:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>46903083</v>
+      </c>
+      <c r="D1537" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1537" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:47:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>46772937</v>
+      </c>
+      <c r="D1538" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1538" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:48:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>46772937</v>
+      </c>
+      <c r="D1539" t="inlineStr">
+        <is>
+          <t>3DS MAX 기술자격시험</t>
+        </is>
+      </c>
+      <c r="E1539" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:48:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>46775375</v>
+      </c>
+      <c r="D1540" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1540" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:48:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>46775375</v>
+      </c>
+      <c r="D1541" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E1541" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:48:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>1000249</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>46768938</v>
+      </c>
+      <c r="D1542" t="inlineStr">
+        <is>
+          <t>3DS MAX 기술자격시험</t>
+        </is>
+      </c>
+      <c r="E1542" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 20:48:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1487" t="inlineStr">
-        <is>
-          <t>1000249</t>
-        </is>
-      </c>
-      <c r="C1487" t="inlineStr">
-        <is>
-          <t>46772937</t>
-        </is>
-      </c>
-      <c r="D1487" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E1487" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 20:04:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="1488">
-      <c r="A1488" t="inlineStr">
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>1000250</t>
+        </is>
+      </c>
+      <c r="C1543" t="inlineStr">
+        <is>
+          <t>47063614</t>
+        </is>
+      </c>
+      <c r="D1543" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1543" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:30:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1488" t="inlineStr">
-        <is>
-          <t>1000249</t>
-        </is>
-      </c>
-      <c r="C1488" t="inlineStr">
-        <is>
-          <t>46772937</t>
-        </is>
-      </c>
-      <c r="D1488" t="inlineStr">
-        <is>
-          <t>3DS MAX 기술자격시험</t>
-        </is>
-      </c>
-      <c r="E1488" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 20:04:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="1489">
-      <c r="A1489" t="inlineStr">
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>1000250</t>
+        </is>
+      </c>
+      <c r="C1544" t="inlineStr">
+        <is>
+          <t>47063614</t>
+        </is>
+      </c>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E1544" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:30:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1489" t="inlineStr">
-        <is>
-          <t>1000249</t>
-        </is>
-      </c>
-      <c r="C1489" t="inlineStr">
-        <is>
-          <t>46775375</t>
-        </is>
-      </c>
-      <c r="D1489" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E1489" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 20:04:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="1490">
-      <c r="A1490" t="inlineStr">
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>1000250</t>
+        </is>
+      </c>
+      <c r="C1545" t="inlineStr">
+        <is>
+          <t>47063614</t>
+        </is>
+      </c>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1545" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:30:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1490" t="inlineStr">
-        <is>
-          <t>1000249</t>
-        </is>
-      </c>
-      <c r="C1490" t="inlineStr">
-        <is>
-          <t>46775375</t>
-        </is>
-      </c>
-      <c r="D1490" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E1490" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 20:04:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="1491">
-      <c r="A1491" t="inlineStr">
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>1000250</t>
+        </is>
+      </c>
+      <c r="C1546" t="inlineStr">
+        <is>
+          <t>47060409</t>
+        </is>
+      </c>
+      <c r="D1546" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1546" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:31:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>1000249</t>
-        </is>
-      </c>
-      <c r="C1491" t="inlineStr">
-        <is>
-          <t>46768938</t>
-        </is>
-      </c>
-      <c r="D1491" t="inlineStr">
-        <is>
-          <t>3DS MAX 기술자격시험</t>
-        </is>
-      </c>
-      <c r="E1491" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 20:04:16</t>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>1000250</t>
+        </is>
+      </c>
+      <c r="C1547" t="inlineStr">
+        <is>
+          <t>47060409</t>
+        </is>
+      </c>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1547" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:31:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>1000250</t>
+        </is>
+      </c>
+      <c r="C1548" t="inlineStr">
+        <is>
+          <t>47058706</t>
+        </is>
+      </c>
+      <c r="D1548" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1548" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:31:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>1000250</t>
+        </is>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>47058706</t>
+        </is>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1549" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:31:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>1000250</t>
+        </is>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t>47041701</t>
+        </is>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1550" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:34:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>1000250</t>
+        </is>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>47041701</t>
+        </is>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1551" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:34:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>1000250</t>
+        </is>
+      </c>
+      <c r="C1552" t="inlineStr">
+        <is>
+          <t>47041701</t>
+        </is>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1552" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:34:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>1000250</t>
+        </is>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>47036269</t>
+        </is>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>간호사</t>
+        </is>
+      </c>
+      <c r="E1553" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:35:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>1000250</t>
+        </is>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>47036269</t>
+        </is>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>응급구조사(1급·2급)</t>
+        </is>
+      </c>
+      <c r="E1554" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:35:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>1000250</t>
+        </is>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>47036269</t>
+        </is>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>인명구조요원</t>
+        </is>
+      </c>
+      <c r="E1555" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:35:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>1000250</t>
+        </is>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>47021418</t>
+        </is>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>전기기사</t>
+        </is>
+      </c>
+      <c r="E1556" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:36:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>1000250</t>
+        </is>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t>47021418</t>
+        </is>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>전기산업기사</t>
+        </is>
+      </c>
+      <c r="E1557" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:36:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>1000250</t>
+        </is>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>47021418</t>
+        </is>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>소방안전관리자 2급</t>
+        </is>
+      </c>
+      <c r="E1558" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:36:38</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1558"/>
+  <dimension ref="A1:E1574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31972,434 +31972,770 @@
       </c>
     </row>
     <row r="1543">
-      <c r="A1543" t="inlineStr">
+      <c r="A1543" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>47063614</v>
+      </c>
+      <c r="D1543" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1543" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:30:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>47063614</v>
+      </c>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E1544" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:30:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>47063614</v>
+      </c>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1545" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:30:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>47060409</v>
+      </c>
+      <c r="D1546" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1546" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:31:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>47060409</v>
+      </c>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1547" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:31:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>47058706</v>
+      </c>
+      <c r="D1548" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1548" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:31:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>47058706</v>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1549" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:31:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>47041701</v>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1550" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:34:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>47041701</v>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1551" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:34:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>47041701</v>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1552" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:34:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>간호사</t>
+        </is>
+      </c>
+      <c r="E1553" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:35:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>응급구조사(1급·2급)</t>
+        </is>
+      </c>
+      <c r="E1554" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:35:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>인명구조요원</t>
+        </is>
+      </c>
+      <c r="E1555" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:35:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>전기기사</t>
+        </is>
+      </c>
+      <c r="E1556" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:36:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>전기산업기사</t>
+        </is>
+      </c>
+      <c r="E1557" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:36:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>소방안전관리자 2급</t>
+        </is>
+      </c>
+      <c r="E1558" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 21:36:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1543" t="inlineStr">
+      <c r="B1559" t="inlineStr">
         <is>
           <t>1000250</t>
         </is>
       </c>
-      <c r="C1543" t="inlineStr">
+      <c r="C1559" t="inlineStr">
         <is>
           <t>47063614</t>
         </is>
       </c>
-      <c r="D1543" t="inlineStr">
+      <c r="D1559" t="inlineStr">
         <is>
           <t>실내건축기능사</t>
         </is>
       </c>
-      <c r="E1543" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 21:30:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="1544">
-      <c r="A1544" t="inlineStr">
+      <c r="E1559" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:27:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1544" t="inlineStr">
+      <c r="B1560" t="inlineStr">
         <is>
           <t>1000250</t>
         </is>
       </c>
-      <c r="C1544" t="inlineStr">
+      <c r="C1560" t="inlineStr">
         <is>
           <t>47063614</t>
         </is>
       </c>
-      <c r="D1544" t="inlineStr">
+      <c r="D1560" t="inlineStr">
         <is>
           <t>건축기사</t>
         </is>
       </c>
-      <c r="E1544" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 21:30:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="inlineStr">
+      <c r="E1560" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:27:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1545" t="inlineStr">
+      <c r="B1561" t="inlineStr">
         <is>
           <t>1000250</t>
         </is>
       </c>
-      <c r="C1545" t="inlineStr">
+      <c r="C1561" t="inlineStr">
         <is>
           <t>47063614</t>
         </is>
       </c>
-      <c r="D1545" t="inlineStr">
+      <c r="D1561" t="inlineStr">
         <is>
           <t>전산응용건축제도기능사</t>
         </is>
       </c>
-      <c r="E1545" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 21:30:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="inlineStr">
+      <c r="E1561" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:27:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1546" t="inlineStr">
+      <c r="B1562" t="inlineStr">
         <is>
           <t>1000250</t>
         </is>
       </c>
-      <c r="C1546" t="inlineStr">
+      <c r="C1562" t="inlineStr">
         <is>
           <t>47060409</t>
         </is>
       </c>
-      <c r="D1546" t="inlineStr">
+      <c r="D1562" t="inlineStr">
         <is>
           <t>ACA Illustrator</t>
         </is>
       </c>
-      <c r="E1546" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 21:31:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="1547">
-      <c r="A1547" t="inlineStr">
+      <c r="E1562" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:27:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1547" t="inlineStr">
+      <c r="B1563" t="inlineStr">
         <is>
           <t>1000250</t>
         </is>
       </c>
-      <c r="C1547" t="inlineStr">
+      <c r="C1563" t="inlineStr">
         <is>
           <t>47060409</t>
         </is>
       </c>
-      <c r="D1547" t="inlineStr">
+      <c r="D1563" t="inlineStr">
         <is>
           <t>ACA Photoshop</t>
         </is>
       </c>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 21:31:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="1548">
-      <c r="A1548" t="inlineStr">
+      <c r="E1563" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:27:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1548" t="inlineStr">
+      <c r="B1564" t="inlineStr">
         <is>
           <t>1000250</t>
         </is>
       </c>
-      <c r="C1548" t="inlineStr">
+      <c r="C1564" t="inlineStr">
         <is>
           <t>47058706</t>
         </is>
       </c>
-      <c r="D1548" t="inlineStr">
+      <c r="D1564" t="inlineStr">
         <is>
           <t>포토샵</t>
         </is>
       </c>
-      <c r="E1548" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 21:31:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1549">
-      <c r="A1549" t="inlineStr">
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:27:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1549" t="inlineStr">
+      <c r="B1565" t="inlineStr">
         <is>
           <t>1000250</t>
         </is>
       </c>
-      <c r="C1549" t="inlineStr">
+      <c r="C1565" t="inlineStr">
         <is>
           <t>47058706</t>
         </is>
       </c>
-      <c r="D1549" t="inlineStr">
+      <c r="D1565" t="inlineStr">
         <is>
           <t>일러스트</t>
         </is>
       </c>
-      <c r="E1549" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 21:31:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1550">
-      <c r="A1550" t="inlineStr">
+      <c r="E1565" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:27:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1550" t="inlineStr">
+      <c r="B1566" t="inlineStr">
         <is>
           <t>1000250</t>
         </is>
       </c>
-      <c r="C1550" t="inlineStr">
+      <c r="C1566" t="inlineStr">
         <is>
           <t>47041701</t>
         </is>
       </c>
-      <c r="D1550" t="inlineStr">
+      <c r="D1566" t="inlineStr">
         <is>
           <t>GTQ 일러스트 1급</t>
         </is>
       </c>
-      <c r="E1550" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 21:34:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="1551">
-      <c r="A1551" t="inlineStr">
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:30:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1551" t="inlineStr">
+      <c r="B1567" t="inlineStr">
         <is>
           <t>1000250</t>
         </is>
       </c>
-      <c r="C1551" t="inlineStr">
+      <c r="C1567" t="inlineStr">
         <is>
           <t>47041701</t>
         </is>
       </c>
-      <c r="D1551" t="inlineStr">
+      <c r="D1567" t="inlineStr">
         <is>
           <t>ACA Photoshop</t>
         </is>
       </c>
-      <c r="E1551" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 21:34:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="1552">
-      <c r="A1552" t="inlineStr">
+      <c r="E1567" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:30:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1552" t="inlineStr">
+      <c r="B1568" t="inlineStr">
         <is>
           <t>1000250</t>
         </is>
       </c>
-      <c r="C1552" t="inlineStr">
+      <c r="C1568" t="inlineStr">
         <is>
           <t>47041701</t>
         </is>
       </c>
-      <c r="D1552" t="inlineStr">
+      <c r="D1568" t="inlineStr">
         <is>
           <t>웹디자인기능사</t>
         </is>
       </c>
-      <c r="E1552" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 21:34:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="1553">
-      <c r="A1553" t="inlineStr">
+      <c r="E1568" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:30:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1553" t="inlineStr">
+      <c r="B1569" t="inlineStr">
         <is>
           <t>1000250</t>
         </is>
       </c>
-      <c r="C1553" t="inlineStr">
+      <c r="C1569" t="inlineStr">
         <is>
           <t>47036269</t>
         </is>
       </c>
-      <c r="D1553" t="inlineStr">
+      <c r="D1569" t="inlineStr">
         <is>
           <t>간호사</t>
         </is>
       </c>
-      <c r="E1553" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 21:35:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="1554">
-      <c r="A1554" t="inlineStr">
+      <c r="E1569" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:31:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1554" t="inlineStr">
+      <c r="B1570" t="inlineStr">
         <is>
           <t>1000250</t>
         </is>
       </c>
-      <c r="C1554" t="inlineStr">
+      <c r="C1570" t="inlineStr">
         <is>
           <t>47036269</t>
         </is>
       </c>
-      <c r="D1554" t="inlineStr">
+      <c r="D1570" t="inlineStr">
         <is>
           <t>응급구조사(1급·2급)</t>
         </is>
       </c>
-      <c r="E1554" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 21:35:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="1555">
-      <c r="A1555" t="inlineStr">
+      <c r="E1570" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:31:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1555" t="inlineStr">
+      <c r="B1571" t="inlineStr">
         <is>
           <t>1000250</t>
         </is>
       </c>
-      <c r="C1555" t="inlineStr">
+      <c r="C1571" t="inlineStr">
         <is>
           <t>47036269</t>
         </is>
       </c>
-      <c r="D1555" t="inlineStr">
+      <c r="D1571" t="inlineStr">
         <is>
           <t>인명구조요원</t>
         </is>
       </c>
-      <c r="E1555" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 21:35:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="1556">
-      <c r="A1556" t="inlineStr">
+      <c r="E1571" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:31:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1556" t="inlineStr">
+      <c r="B1572" t="inlineStr">
         <is>
           <t>1000250</t>
         </is>
       </c>
-      <c r="C1556" t="inlineStr">
+      <c r="C1572" t="inlineStr">
         <is>
           <t>47021418</t>
         </is>
       </c>
-      <c r="D1556" t="inlineStr">
+      <c r="D1572" t="inlineStr">
         <is>
           <t>전기기사</t>
         </is>
       </c>
-      <c r="E1556" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 21:36:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="1557">
-      <c r="A1557" t="inlineStr">
+      <c r="E1572" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:33:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1557" t="inlineStr">
+      <c r="B1573" t="inlineStr">
         <is>
           <t>1000250</t>
         </is>
       </c>
-      <c r="C1557" t="inlineStr">
+      <c r="C1573" t="inlineStr">
         <is>
           <t>47021418</t>
         </is>
       </c>
-      <c r="D1557" t="inlineStr">
+      <c r="D1573" t="inlineStr">
         <is>
           <t>전기산업기사</t>
         </is>
       </c>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 21:36:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="1558">
-      <c r="A1558" t="inlineStr">
+      <c r="E1573" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:33:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1558" t="inlineStr">
+      <c r="B1574" t="inlineStr">
         <is>
           <t>1000250</t>
         </is>
       </c>
-      <c r="C1558" t="inlineStr">
+      <c r="C1574" t="inlineStr">
         <is>
           <t>47021418</t>
         </is>
       </c>
-      <c r="D1558" t="inlineStr">
+      <c r="D1574" t="inlineStr">
         <is>
           <t>소방안전관리자 2급</t>
         </is>
       </c>
-      <c r="E1558" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 21:36:38</t>
+      <c r="E1574" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:33:15</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1574"/>
+  <dimension ref="A1:E1648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32308,434 +32308,2012 @@
       </c>
     </row>
     <row r="1559">
-      <c r="A1559" t="inlineStr">
+      <c r="A1559" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>47063614</v>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1559" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:27:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>47063614</v>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E1560" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:27:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>47063614</v>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1561" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:27:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>47060409</v>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1562" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:27:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>47060409</v>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1563" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:27:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>47058706</v>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:27:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>47058706</v>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1565" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:27:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>47041701</v>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:30:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>47041701</v>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1567" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:30:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>47041701</v>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1568" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:30:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>간호사</t>
+        </is>
+      </c>
+      <c r="E1569" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:31:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>응급구조사(1급·2급)</t>
+        </is>
+      </c>
+      <c r="E1570" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:31:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>인명구조요원</t>
+        </is>
+      </c>
+      <c r="E1571" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:31:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>전기기사</t>
+        </is>
+      </c>
+      <c r="E1572" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:33:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>전기산업기사</t>
+        </is>
+      </c>
+      <c r="E1573" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:33:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>1000250</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>소방안전관리자 2급</t>
+        </is>
+      </c>
+      <c r="E1574" t="inlineStr">
+        <is>
+          <t>2025.06.02 - 23:33:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>47073827</v>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1575" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:23:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>47073827</v>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1576" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:23:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>47060044</v>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>GTQi(그래픽기술자격 일러스...</t>
+        </is>
+      </c>
+      <c r="E1577" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>47059397</v>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1578" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:26:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>47057579</v>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1579" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:26:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>47057579</v>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:26:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>47057579</v>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>GTQi(그래픽기술자격 일러스트) 3급</t>
+        </is>
+      </c>
+      <c r="E1581" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:26:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>47053753</v>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>GTQi(그래픽기술자격 일러스트) 3급</t>
+        </is>
+      </c>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:27:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>47053753</v>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>GTQ 3급</t>
+        </is>
+      </c>
+      <c r="E1583" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:27:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>47053753</v>
+      </c>
+      <c r="D1584" t="inlineStr">
+        <is>
+          <t>컬러리스트기사</t>
+        </is>
+      </c>
+      <c r="E1584" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:27:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>47051235</v>
+      </c>
+      <c r="D1585" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1585" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:28:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>47051235</v>
+      </c>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>gtq</t>
+        </is>
+      </c>
+      <c r="E1586" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:28:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>47045696</v>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1587" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:29:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>47045696</v>
+      </c>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1588" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:29:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>47045696</v>
+      </c>
+      <c r="D1589" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1589" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:29:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>47039261</v>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1590" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:31:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>47038664</v>
+      </c>
+      <c r="D1591" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1591" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:31:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>47038664</v>
+      </c>
+      <c r="D1592" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1592" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:31:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>47038664</v>
+      </c>
+      <c r="D1593" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1593" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:31:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>47037766</v>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>gtq</t>
+        </is>
+      </c>
+      <c r="E1594" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:31:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>47037766</v>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>ACP</t>
+        </is>
+      </c>
+      <c r="E1595" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:31:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>47037766</v>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1596" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:31:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>간호사</t>
+        </is>
+      </c>
+      <c r="E1597" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:31:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>응급구조사(1급·2급)</t>
+        </is>
+      </c>
+      <c r="E1598" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:31:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>인명구조요원</t>
+        </is>
+      </c>
+      <c r="E1599" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:31:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>47035393</v>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1600" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:32:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>47035393</v>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1601" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:32:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>47026070</v>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1602" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:33:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>47022517</v>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1603" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:34:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>47022517</v>
+      </c>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>옥외광고사</t>
+        </is>
+      </c>
+      <c r="E1604" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:34:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>47021565</v>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E1605" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:34:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>47021565</v>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>디지털영상편집 1급</t>
+        </is>
+      </c>
+      <c r="E1606" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:34:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>47021565</v>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>디지털영상편집 2급</t>
+        </is>
+      </c>
+      <c r="E1607" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:34:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>47020703</v>
+      </c>
+      <c r="D1608" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1608" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:34:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>47020703</v>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1609" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:34:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>47018503</v>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1610" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:34:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>47018503</v>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1611" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:34:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>47014125</v>
+      </c>
+      <c r="D1612" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1612" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:35:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>47014125</v>
+      </c>
+      <c r="D1613" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1613" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:35:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>47014125</v>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>GTQ 인디자인 1급</t>
+        </is>
+      </c>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:35:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>47010089</v>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1615" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:36:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>47010089</v>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>gtq</t>
+        </is>
+      </c>
+      <c r="E1616" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:36:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>47007964</v>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽기능사</t>
+        </is>
+      </c>
+      <c r="E1617" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:36:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>47007964</v>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1618" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:36:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>47003045</v>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1619" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:37:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>47003045</v>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1620" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:37:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>46999950</v>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>옥외광고사</t>
+        </is>
+      </c>
+      <c r="E1621" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:37:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>46997863</v>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>옥외광고사</t>
+        </is>
+      </c>
+      <c r="E1622" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:37:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>46997863</v>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1623" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:37:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>46991760</v>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:38:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>46991760</v>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1625" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:38:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>46989674</v>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1626" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:38:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>46975007</v>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>lllustrator</t>
+        </is>
+      </c>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:40:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>46975007</v>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:40:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1559" t="inlineStr">
-        <is>
-          <t>1000250</t>
-        </is>
-      </c>
-      <c r="C1559" t="inlineStr">
-        <is>
-          <t>47063614</t>
-        </is>
-      </c>
-      <c r="D1559" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E1559" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 23:27:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="inlineStr">
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>46953480</t>
+        </is>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:48:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1560" t="inlineStr">
-        <is>
-          <t>1000250</t>
-        </is>
-      </c>
-      <c r="C1560" t="inlineStr">
-        <is>
-          <t>47063614</t>
-        </is>
-      </c>
-      <c r="D1560" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E1560" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 23:27:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="inlineStr">
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>46947642</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:49:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1561" t="inlineStr">
-        <is>
-          <t>1000250</t>
-        </is>
-      </c>
-      <c r="C1561" t="inlineStr">
-        <is>
-          <t>47063614</t>
-        </is>
-      </c>
-      <c r="D1561" t="inlineStr">
-        <is>
-          <t>전산응용건축제도기능사</t>
-        </is>
-      </c>
-      <c r="E1561" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 23:27:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="inlineStr">
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>46947642</t>
+        </is>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:49:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1562" t="inlineStr">
-        <is>
-          <t>1000250</t>
-        </is>
-      </c>
-      <c r="C1562" t="inlineStr">
-        <is>
-          <t>47060409</t>
-        </is>
-      </c>
-      <c r="D1562" t="inlineStr">
-        <is>
-          <t>ACA Illustrator</t>
-        </is>
-      </c>
-      <c r="E1562" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 23:27:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="inlineStr">
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>46943637</t>
+        </is>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽기능사</t>
+        </is>
+      </c>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:49:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1563" t="inlineStr">
-        <is>
-          <t>1000250</t>
-        </is>
-      </c>
-      <c r="C1563" t="inlineStr">
-        <is>
-          <t>47060409</t>
-        </is>
-      </c>
-      <c r="D1563" t="inlineStr">
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>46943637</t>
+        </is>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:49:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>46924690</t>
+        </is>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>정보통신기사</t>
+        </is>
+      </c>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:51:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>46924690</t>
+        </is>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>정보통신기술사</t>
+        </is>
+      </c>
+      <c r="E1635" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:51:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>46923386</t>
+        </is>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:51:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>46864361</t>
+        </is>
+      </c>
+      <c r="D1637" t="inlineStr">
         <is>
           <t>ACA Photoshop</t>
         </is>
       </c>
-      <c r="E1563" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 23:27:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="inlineStr">
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:55:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1564" t="inlineStr">
-        <is>
-          <t>1000250</t>
-        </is>
-      </c>
-      <c r="C1564" t="inlineStr">
-        <is>
-          <t>47058706</t>
-        </is>
-      </c>
-      <c r="D1564" t="inlineStr">
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>46851104</t>
+        </is>
+      </c>
+      <c r="D1638" t="inlineStr">
         <is>
           <t>포토샵</t>
         </is>
       </c>
-      <c r="E1564" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 23:27:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="inlineStr">
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:55:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1565" t="inlineStr">
-        <is>
-          <t>1000250</t>
-        </is>
-      </c>
-      <c r="C1565" t="inlineStr">
-        <is>
-          <t>47058706</t>
-        </is>
-      </c>
-      <c r="D1565" t="inlineStr">
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>46851104</t>
+        </is>
+      </c>
+      <c r="D1639" t="inlineStr">
         <is>
           <t>일러스트</t>
         </is>
       </c>
-      <c r="E1565" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 23:27:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="inlineStr">
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:55:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1566" t="inlineStr">
-        <is>
-          <t>1000250</t>
-        </is>
-      </c>
-      <c r="C1566" t="inlineStr">
-        <is>
-          <t>47041701</t>
-        </is>
-      </c>
-      <c r="D1566" t="inlineStr">
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>46835391</t>
+        </is>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:56:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>46835391</t>
+        </is>
+      </c>
+      <c r="D1641" t="inlineStr">
         <is>
           <t>GTQ 일러스트 1급</t>
         </is>
       </c>
-      <c r="E1566" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 23:30:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="inlineStr">
+      <c r="E1641" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:56:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1567" t="inlineStr">
-        <is>
-          <t>1000250</t>
-        </is>
-      </c>
-      <c r="C1567" t="inlineStr">
-        <is>
-          <t>47041701</t>
-        </is>
-      </c>
-      <c r="D1567" t="inlineStr">
-        <is>
-          <t>ACA Photoshop</t>
-        </is>
-      </c>
-      <c r="E1567" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 23:30:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="inlineStr">
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>46835391</t>
+        </is>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1642" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:56:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>1000250</t>
-        </is>
-      </c>
-      <c r="C1568" t="inlineStr">
-        <is>
-          <t>47041701</t>
-        </is>
-      </c>
-      <c r="D1568" t="inlineStr">
-        <is>
-          <t>웹디자인기능사</t>
-        </is>
-      </c>
-      <c r="E1568" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 23:30:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="inlineStr">
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>46835385</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1643" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:56:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1569" t="inlineStr">
-        <is>
-          <t>1000250</t>
-        </is>
-      </c>
-      <c r="C1569" t="inlineStr">
-        <is>
-          <t>47036269</t>
-        </is>
-      </c>
-      <c r="D1569" t="inlineStr">
-        <is>
-          <t>간호사</t>
-        </is>
-      </c>
-      <c r="E1569" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 23:31:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="inlineStr">
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>46835385</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1644" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:56:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>1000250</t>
-        </is>
-      </c>
-      <c r="C1570" t="inlineStr">
-        <is>
-          <t>47036269</t>
-        </is>
-      </c>
-      <c r="D1570" t="inlineStr">
-        <is>
-          <t>응급구조사(1급·2급)</t>
-        </is>
-      </c>
-      <c r="E1570" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 23:31:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="inlineStr">
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>46835385</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1645" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:56:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>1000250</t>
-        </is>
-      </c>
-      <c r="C1571" t="inlineStr">
-        <is>
-          <t>47036269</t>
-        </is>
-      </c>
-      <c r="D1571" t="inlineStr">
-        <is>
-          <t>인명구조요원</t>
-        </is>
-      </c>
-      <c r="E1571" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 23:31:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="inlineStr">
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>46784352</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1646" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:57:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>1000250</t>
-        </is>
-      </c>
-      <c r="C1572" t="inlineStr">
-        <is>
-          <t>47021418</t>
-        </is>
-      </c>
-      <c r="D1572" t="inlineStr">
-        <is>
-          <t>전기기사</t>
-        </is>
-      </c>
-      <c r="E1572" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 23:33:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>46784352</t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:57:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1573" t="inlineStr">
-        <is>
-          <t>1000250</t>
-        </is>
-      </c>
-      <c r="C1573" t="inlineStr">
-        <is>
-          <t>47021418</t>
-        </is>
-      </c>
-      <c r="D1573" t="inlineStr">
-        <is>
-          <t>전기산업기사</t>
-        </is>
-      </c>
-      <c r="E1573" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 23:33:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1574" t="inlineStr">
-        <is>
-          <t>1000250</t>
-        </is>
-      </c>
-      <c r="C1574" t="inlineStr">
-        <is>
-          <t>47021418</t>
-        </is>
-      </c>
-      <c r="D1574" t="inlineStr">
-        <is>
-          <t>소방안전관리자 2급</t>
-        </is>
-      </c>
-      <c r="E1574" t="inlineStr">
-        <is>
-          <t>2025.06.02 - 23:33:15</t>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>46784352</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1648" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:57:26</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1648"/>
+  <dimension ref="A1:E1730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33778,542 +33778,2426 @@
       </c>
     </row>
     <row r="1629">
-      <c r="A1629" t="inlineStr">
+      <c r="A1629" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>46953480</v>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:48:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>46947642</v>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:49:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>46947642</v>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:49:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>46943637</v>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽기능사</t>
+        </is>
+      </c>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:49:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>46943637</v>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:49:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>46924690</v>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>정보통신기사</t>
+        </is>
+      </c>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:51:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>46924690</v>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>정보통신기술사</t>
+        </is>
+      </c>
+      <c r="E1635" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:51:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>46923386</v>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:51:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>46864361</v>
+      </c>
+      <c r="D1637" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:55:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>46851104</v>
+      </c>
+      <c r="D1638" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:55:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>46851104</v>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:55:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>46835391</v>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:56:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>46835391</v>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1641" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:56:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>46835391</v>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1642" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:56:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>46835385</v>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1643" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:56:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>46835385</v>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1644" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:56:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>46835385</v>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1645" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:56:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>46784352</v>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1646" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:57:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>46784352</v>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:57:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>1000252</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>46784352</v>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1648" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 00:57:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>47076400</v>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:22:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>47076400</v>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:22:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>47076400</v>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:22:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>47076045</v>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀</t>
+        </is>
+      </c>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:22:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>47076045</v>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:22:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>47076045</v>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>GTQi(그래픽기술자격 일러스트) 1급</t>
+        </is>
+      </c>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:22:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>47073827</v>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>47073827</v>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>47070389</v>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:25:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>47070389</v>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:25:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>47070389</v>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:25:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>47069081</v>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1660" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:25:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>47069081</v>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>GTQ포토샵</t>
+        </is>
+      </c>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:25:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>47060044</v>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>GTQi(그래픽기술자격 일러스...</t>
+        </is>
+      </c>
+      <c r="E1662" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:28:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>47057851</v>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1663" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:28:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>47057851</v>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1664" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:28:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>47057635</v>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1665" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:28:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>47057635</v>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>컬러리스트산업기사</t>
+        </is>
+      </c>
+      <c r="E1666" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:28:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>47057635</v>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1667" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:28:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>47056198</v>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1668" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:29:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>47056198</v>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1669" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:29:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>47056198</v>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1670" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:29:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>47053753</v>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>GTQi(그래픽기술자격 일러스트) 3급</t>
+        </is>
+      </c>
+      <c r="E1671" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:30:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>47053753</v>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>GTQ 3급</t>
+        </is>
+      </c>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:30:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>47053753</v>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>컬러리스트기사</t>
+        </is>
+      </c>
+      <c r="E1673" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:30:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>47047630</v>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1674" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:32:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>47047630</v>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1675" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:32:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>47039261</v>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1676" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:35:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>47037766</v>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>gtq</t>
+        </is>
+      </c>
+      <c r="E1677" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:36:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>47037766</v>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>ACP</t>
+        </is>
+      </c>
+      <c r="E1678" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:36:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>47037766</v>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1679" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:36:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>47035287</v>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1680" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:36:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>47035287</v>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1681" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:36:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>47035287</v>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>컬러리스트산업기사</t>
+        </is>
+      </c>
+      <c r="E1682" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:36:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>46976181</v>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1683" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 11:54:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1629" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1629" t="inlineStr">
-        <is>
-          <t>46953480</t>
-        </is>
-      </c>
-      <c r="D1629" t="inlineStr">
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>46955028</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1684" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:46:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>46955028</t>
+        </is>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1685" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:46:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>46955028</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:46:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>46950154</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1687" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>46950154</t>
+        </is>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>GTQ 인디자인 1급</t>
+        </is>
+      </c>
+      <c r="E1688" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>46949962</t>
+        </is>
+      </c>
+      <c r="D1689" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1689" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>46949962</t>
+        </is>
+      </c>
+      <c r="D1690" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1690" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>46949960</t>
+        </is>
+      </c>
+      <c r="D1691" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1691" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t>46949960</t>
+        </is>
+      </c>
+      <c r="D1692" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1692" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>46949959</t>
+        </is>
+      </c>
+      <c r="D1693" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1693" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>46949959</t>
+        </is>
+      </c>
+      <c r="D1694" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1694" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>46947642</t>
+        </is>
+      </c>
+      <c r="D1695" t="inlineStr">
         <is>
           <t>ACA Photoshop</t>
         </is>
       </c>
-      <c r="E1629" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:48:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="1630">
-      <c r="A1630" t="inlineStr">
+      <c r="E1695" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1630" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1630" t="inlineStr">
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1696" t="inlineStr">
         <is>
           <t>46947642</t>
         </is>
       </c>
-      <c r="D1630" t="inlineStr">
+      <c r="D1696" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1696" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>46947499</t>
+        </is>
+      </c>
+      <c r="D1697" t="inlineStr">
         <is>
           <t>ACA Photoshop</t>
         </is>
       </c>
-      <c r="E1630" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:49:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="1631">
-      <c r="A1631" t="inlineStr">
+      <c r="E1697" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1631" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1631" t="inlineStr">
-        <is>
-          <t>46947642</t>
-        </is>
-      </c>
-      <c r="D1631" t="inlineStr">
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>46947499</t>
+        </is>
+      </c>
+      <c r="D1698" t="inlineStr">
         <is>
           <t>ACA Illustrator</t>
         </is>
       </c>
-      <c r="E1631" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:49:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="1632">
-      <c r="A1632" t="inlineStr">
+      <c r="E1698" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1632" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1632" t="inlineStr">
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1699" t="inlineStr">
+        <is>
+          <t>46947437</t>
+        </is>
+      </c>
+      <c r="D1699" t="inlineStr">
+        <is>
+          <t>전기기능사</t>
+        </is>
+      </c>
+      <c r="E1699" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:48:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1700" t="inlineStr">
+        <is>
+          <t>46947437</t>
+        </is>
+      </c>
+      <c r="D1700" t="inlineStr">
+        <is>
+          <t>전기기사</t>
+        </is>
+      </c>
+      <c r="E1700" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:48:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1701" t="inlineStr">
+        <is>
+          <t>46947437</t>
+        </is>
+      </c>
+      <c r="D1701" t="inlineStr">
+        <is>
+          <t>전기산업기사</t>
+        </is>
+      </c>
+      <c r="E1701" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:48:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1702" t="inlineStr">
+        <is>
+          <t>46947062</t>
+        </is>
+      </c>
+      <c r="D1702" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1702" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:48:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t>46947062</t>
+        </is>
+      </c>
+      <c r="D1703" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1703" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:48:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1704" t="inlineStr">
+        <is>
+          <t>46945653</t>
+        </is>
+      </c>
+      <c r="D1704" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1704" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:48:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1705" t="inlineStr">
         <is>
           <t>46943637</t>
         </is>
       </c>
-      <c r="D1632" t="inlineStr">
+      <c r="D1705" t="inlineStr">
         <is>
           <t>컴퓨터그래픽기능사</t>
         </is>
       </c>
-      <c r="E1632" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:49:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="1633">
-      <c r="A1633" t="inlineStr">
+      <c r="E1705" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:48:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1633" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1633" t="inlineStr">
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1706" t="inlineStr">
         <is>
           <t>46943637</t>
         </is>
       </c>
-      <c r="D1633" t="inlineStr">
+      <c r="D1706" t="inlineStr">
         <is>
           <t>컴퓨터그래픽스운용기능사</t>
         </is>
       </c>
-      <c r="E1633" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:49:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="1634">
-      <c r="A1634" t="inlineStr">
+      <c r="E1706" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:48:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1634" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1634" t="inlineStr">
-        <is>
-          <t>46924690</t>
-        </is>
-      </c>
-      <c r="D1634" t="inlineStr">
-        <is>
-          <t>정보통신기사</t>
-        </is>
-      </c>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:51:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="1635">
-      <c r="A1635" t="inlineStr">
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1707" t="inlineStr">
+        <is>
+          <t>46934414</t>
+        </is>
+      </c>
+      <c r="D1707" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1707" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:50:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1635" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1635" t="inlineStr">
-        <is>
-          <t>46924690</t>
-        </is>
-      </c>
-      <c r="D1635" t="inlineStr">
-        <is>
-          <t>정보통신기술사</t>
-        </is>
-      </c>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:51:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="1636">
-      <c r="A1636" t="inlineStr">
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1708" t="inlineStr">
+        <is>
+          <t>46934414</t>
+        </is>
+      </c>
+      <c r="D1708" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1708" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:50:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1636" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1636" t="inlineStr">
-        <is>
-          <t>46923386</t>
-        </is>
-      </c>
-      <c r="D1636" t="inlineStr">
-        <is>
-          <t>검색광고마케터 1급</t>
-        </is>
-      </c>
-      <c r="E1636" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:51:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="1637">
-      <c r="A1637" t="inlineStr">
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1709" t="inlineStr">
+        <is>
+          <t>46921411</t>
+        </is>
+      </c>
+      <c r="D1709" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1709" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:52:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1637" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1637" t="inlineStr">
-        <is>
-          <t>46864361</t>
-        </is>
-      </c>
-      <c r="D1637" t="inlineStr">
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1710" t="inlineStr">
+        <is>
+          <t>46921411</t>
+        </is>
+      </c>
+      <c r="D1710" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1710" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:52:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1711" t="inlineStr">
+        <is>
+          <t>46795772</t>
+        </is>
+      </c>
+      <c r="D1711" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1711" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:56:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1712" t="inlineStr">
+        <is>
+          <t>46884242</t>
+        </is>
+      </c>
+      <c r="D1712" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1712" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:56:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1713" t="inlineStr">
+        <is>
+          <t>46856175</t>
+        </is>
+      </c>
+      <c r="D1713" t="inlineStr">
         <is>
           <t>ACA Photoshop</t>
         </is>
       </c>
-      <c r="E1637" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:55:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="1638">
-      <c r="A1638" t="inlineStr">
+      <c r="E1713" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:57:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1638" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1638" t="inlineStr">
-        <is>
-          <t>46851104</t>
-        </is>
-      </c>
-      <c r="D1638" t="inlineStr">
-        <is>
-          <t>포토샵</t>
-        </is>
-      </c>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:55:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="1639">
-      <c r="A1639" t="inlineStr">
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1714" t="inlineStr">
+        <is>
+          <t>46856175</t>
+        </is>
+      </c>
+      <c r="D1714" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1714" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:57:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1639" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1639" t="inlineStr">
-        <is>
-          <t>46851104</t>
-        </is>
-      </c>
-      <c r="D1639" t="inlineStr">
-        <is>
-          <t>일러스트</t>
-        </is>
-      </c>
-      <c r="E1639" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:55:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="1640">
-      <c r="A1640" t="inlineStr">
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1715" t="inlineStr">
+        <is>
+          <t>46832221</t>
+        </is>
+      </c>
+      <c r="D1715" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1715" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:57:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1640" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1640" t="inlineStr">
-        <is>
-          <t>46835391</t>
-        </is>
-      </c>
-      <c r="D1640" t="inlineStr">
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1716" t="inlineStr">
+        <is>
+          <t>46832221</t>
+        </is>
+      </c>
+      <c r="D1716" t="inlineStr">
+        <is>
+          <t>건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1716" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:57:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1717" t="inlineStr">
+        <is>
+          <t>46832221</t>
+        </is>
+      </c>
+      <c r="D1717" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1717" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:57:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1718" t="inlineStr">
+        <is>
+          <t>46828206</t>
+        </is>
+      </c>
+      <c r="D1718" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1718" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:58:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1719" t="inlineStr">
+        <is>
+          <t>46828206</t>
+        </is>
+      </c>
+      <c r="D1719" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1719" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:58:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t>46828206</t>
+        </is>
+      </c>
+      <c r="D1720" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1720" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:58:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1721" t="inlineStr">
+        <is>
+          <t>46818601</t>
+        </is>
+      </c>
+      <c r="D1721" t="inlineStr">
         <is>
           <t>GTQ 1급</t>
         </is>
       </c>
-      <c r="E1640" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:56:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="1641">
-      <c r="A1641" t="inlineStr">
+      <c r="E1721" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:58:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1641" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1641" t="inlineStr">
-        <is>
-          <t>46835391</t>
-        </is>
-      </c>
-      <c r="D1641" t="inlineStr">
-        <is>
-          <t>GTQ 일러스트 1급</t>
-        </is>
-      </c>
-      <c r="E1641" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:56:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="1642">
-      <c r="A1642" t="inlineStr">
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t>46783344</t>
+        </is>
+      </c>
+      <c r="D1722" t="inlineStr">
+        <is>
+          <t>컬러리스트기사</t>
+        </is>
+      </c>
+      <c r="E1722" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1642" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1642" t="inlineStr">
-        <is>
-          <t>46835391</t>
-        </is>
-      </c>
-      <c r="D1642" t="inlineStr">
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1723" t="inlineStr">
+        <is>
+          <t>46783344</t>
+        </is>
+      </c>
+      <c r="D1723" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1723" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1724" t="inlineStr">
+        <is>
+          <t>46783344</t>
+        </is>
+      </c>
+      <c r="D1724" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1724" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1725" t="inlineStr">
+        <is>
+          <t>46775375</t>
+        </is>
+      </c>
+      <c r="D1725" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1725" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1726" t="inlineStr">
+        <is>
+          <t>46775375</t>
+        </is>
+      </c>
+      <c r="D1726" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E1726" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1727" t="inlineStr">
+        <is>
+          <t>46768938</t>
+        </is>
+      </c>
+      <c r="D1727" t="inlineStr">
+        <is>
+          <t>3DS MAX 기술자격시험</t>
+        </is>
+      </c>
+      <c r="E1727" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:00:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1728" t="inlineStr">
+        <is>
+          <t>46740016</t>
+        </is>
+      </c>
+      <c r="D1728" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1728" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1729" t="inlineStr">
+        <is>
+          <t>46740016</t>
+        </is>
+      </c>
+      <c r="D1729" t="inlineStr">
         <is>
           <t>컴퓨터그래픽스운용기능사</t>
         </is>
       </c>
-      <c r="E1642" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:56:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="1643">
-      <c r="A1643" t="inlineStr">
+      <c r="E1729" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1643" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1643" t="inlineStr">
-        <is>
-          <t>46835385</t>
-        </is>
-      </c>
-      <c r="D1643" t="inlineStr">
-        <is>
-          <t>GTQ 1급</t>
-        </is>
-      </c>
-      <c r="E1643" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:56:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="1644">
-      <c r="A1644" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1644" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1644" t="inlineStr">
-        <is>
-          <t>46835385</t>
-        </is>
-      </c>
-      <c r="D1644" t="inlineStr">
-        <is>
-          <t>GTQ 일러스트 1급</t>
-        </is>
-      </c>
-      <c r="E1644" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:56:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="1645">
-      <c r="A1645" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1645" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1645" t="inlineStr">
-        <is>
-          <t>46835385</t>
-        </is>
-      </c>
-      <c r="D1645" t="inlineStr">
-        <is>
-          <t>컴퓨터그래픽스운용기능사</t>
-        </is>
-      </c>
-      <c r="E1645" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:56:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="1646">
-      <c r="A1646" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1646" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1646" t="inlineStr">
-        <is>
-          <t>46784352</t>
-        </is>
-      </c>
-      <c r="D1646" t="inlineStr">
-        <is>
-          <t>컴퓨터그래픽스운용기능사</t>
-        </is>
-      </c>
-      <c r="E1646" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:57:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="1647">
-      <c r="A1647" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1647" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1647" t="inlineStr">
-        <is>
-          <t>46784352</t>
-        </is>
-      </c>
-      <c r="D1647" t="inlineStr">
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t>1000253</t>
+        </is>
+      </c>
+      <c r="C1730" t="inlineStr">
+        <is>
+          <t>46740016</t>
+        </is>
+      </c>
+      <c r="D1730" t="inlineStr">
         <is>
           <t>시각디자인기사</t>
         </is>
       </c>
-      <c r="E1647" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:57:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="1648">
-      <c r="A1648" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1648" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-      <c r="C1648" t="inlineStr">
-        <is>
-          <t>46784352</t>
-        </is>
-      </c>
-      <c r="D1648" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E1648" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 00:57:26</t>
+      <c r="E1730" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:01:28</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1730"/>
+  <dimension ref="A1:E1880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34933,1271 +34933,4217 @@
       </c>
     </row>
     <row r="1684">
-      <c r="A1684" t="inlineStr">
+      <c r="A1684" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1684" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:46:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1685" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:46:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:46:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>46950154</v>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1687" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>46950154</v>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>GTQ 인디자인 1급</t>
+        </is>
+      </c>
+      <c r="E1688" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>46949962</v>
+      </c>
+      <c r="D1689" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1689" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>46949962</v>
+      </c>
+      <c r="D1690" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1690" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>46949960</v>
+      </c>
+      <c r="D1691" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1691" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>46949960</v>
+      </c>
+      <c r="D1692" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1692" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>46949959</v>
+      </c>
+      <c r="D1693" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1693" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>46949959</v>
+      </c>
+      <c r="D1694" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1694" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>46947642</v>
+      </c>
+      <c r="D1695" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1695" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>46947642</v>
+      </c>
+      <c r="D1696" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1696" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>46947499</v>
+      </c>
+      <c r="D1697" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1697" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>46947499</v>
+      </c>
+      <c r="D1698" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1698" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:47:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>46947437</v>
+      </c>
+      <c r="D1699" t="inlineStr">
+        <is>
+          <t>전기기능사</t>
+        </is>
+      </c>
+      <c r="E1699" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:48:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>46947437</v>
+      </c>
+      <c r="D1700" t="inlineStr">
+        <is>
+          <t>전기기사</t>
+        </is>
+      </c>
+      <c r="E1700" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:48:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>46947437</v>
+      </c>
+      <c r="D1701" t="inlineStr">
+        <is>
+          <t>전기산업기사</t>
+        </is>
+      </c>
+      <c r="E1701" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:48:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>46947062</v>
+      </c>
+      <c r="D1702" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1702" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:48:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>46947062</v>
+      </c>
+      <c r="D1703" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1703" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:48:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>46945653</v>
+      </c>
+      <c r="D1704" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1704" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:48:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>46943637</v>
+      </c>
+      <c r="D1705" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽기능사</t>
+        </is>
+      </c>
+      <c r="E1705" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:48:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>46943637</v>
+      </c>
+      <c r="D1706" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1706" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:48:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>46934414</v>
+      </c>
+      <c r="D1707" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1707" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:50:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>46934414</v>
+      </c>
+      <c r="D1708" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1708" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:50:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>46921411</v>
+      </c>
+      <c r="D1709" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1709" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:52:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>46921411</v>
+      </c>
+      <c r="D1710" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1710" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:52:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>46795772</v>
+      </c>
+      <c r="D1711" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1711" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:56:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>46884242</v>
+      </c>
+      <c r="D1712" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1712" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:56:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>46856175</v>
+      </c>
+      <c r="D1713" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1713" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:57:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>46856175</v>
+      </c>
+      <c r="D1714" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1714" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:57:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>46832221</v>
+      </c>
+      <c r="D1715" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1715" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:57:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>46832221</v>
+      </c>
+      <c r="D1716" t="inlineStr">
+        <is>
+          <t>건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1716" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:57:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>46832221</v>
+      </c>
+      <c r="D1717" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1717" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:57:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>46828206</v>
+      </c>
+      <c r="D1718" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1718" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:58:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>46828206</v>
+      </c>
+      <c r="D1719" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1719" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:58:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>46828206</v>
+      </c>
+      <c r="D1720" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1720" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:58:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>46818601</v>
+      </c>
+      <c r="D1721" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1721" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 13:58:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>46783344</v>
+      </c>
+      <c r="D1722" t="inlineStr">
+        <is>
+          <t>컬러리스트기사</t>
+        </is>
+      </c>
+      <c r="E1722" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>46783344</v>
+      </c>
+      <c r="D1723" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1723" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>46783344</v>
+      </c>
+      <c r="D1724" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1724" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>46775375</v>
+      </c>
+      <c r="D1725" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1725" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>46775375</v>
+      </c>
+      <c r="D1726" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E1726" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>46768938</v>
+      </c>
+      <c r="D1727" t="inlineStr">
+        <is>
+          <t>3DS MAX 기술자격시험</t>
+        </is>
+      </c>
+      <c r="E1727" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:00:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>46740016</v>
+      </c>
+      <c r="D1728" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1728" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>46740016</v>
+      </c>
+      <c r="D1729" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1729" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>1000253</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>46740016</v>
+      </c>
+      <c r="D1730" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1730" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>47072393</v>
+      </c>
+      <c r="D1731" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1731" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:18:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>47072393</v>
+      </c>
+      <c r="D1732" t="inlineStr">
+        <is>
+          <t>조경기능사</t>
+        </is>
+      </c>
+      <c r="E1732" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:18:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>47063614</v>
+      </c>
+      <c r="D1733" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1733" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:18:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>47063614</v>
+      </c>
+      <c r="D1734" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E1734" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:18:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>47063614</v>
+      </c>
+      <c r="D1735" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1735" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:18:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>47063405</v>
+      </c>
+      <c r="D1736" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1736" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:18:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>47063405</v>
+      </c>
+      <c r="D1737" t="inlineStr">
+        <is>
+          <t>제품디자인기사</t>
+        </is>
+      </c>
+      <c r="E1737" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:18:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>47041701</v>
+      </c>
+      <c r="D1738" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1738" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:20:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>47041701</v>
+      </c>
+      <c r="D1739" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1739" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:20:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>47041701</v>
+      </c>
+      <c r="D1740" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1740" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:20:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>47039261</v>
+      </c>
+      <c r="D1741" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1741" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:20:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D1742" t="inlineStr">
+        <is>
+          <t>간호사</t>
+        </is>
+      </c>
+      <c r="E1742" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:21:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D1743" t="inlineStr">
+        <is>
+          <t>응급구조사(1급·2급)</t>
+        </is>
+      </c>
+      <c r="E1743" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:21:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>47036269</v>
+      </c>
+      <c r="D1744" t="inlineStr">
+        <is>
+          <t>인명구조요원</t>
+        </is>
+      </c>
+      <c r="E1744" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:21:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>47026070</v>
+      </c>
+      <c r="D1745" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1745" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:21:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D1746" t="inlineStr">
+        <is>
+          <t>전기기사</t>
+        </is>
+      </c>
+      <c r="E1746" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:21:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D1747" t="inlineStr">
+        <is>
+          <t>전기산업기사</t>
+        </is>
+      </c>
+      <c r="E1747" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:21:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>47021418</v>
+      </c>
+      <c r="D1748" t="inlineStr">
+        <is>
+          <t>소방안전관리자 2급</t>
+        </is>
+      </c>
+      <c r="E1748" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:21:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>47009852</v>
+      </c>
+      <c r="D1749" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1749" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>47009852</v>
+      </c>
+      <c r="D1750" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1750" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>47003554</v>
+      </c>
+      <c r="D1751" t="inlineStr">
+        <is>
+          <t>agk</t>
+        </is>
+      </c>
+      <c r="E1751" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:22:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>47003280</v>
+      </c>
+      <c r="D1752" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1752" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:22:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>46981046</v>
+      </c>
+      <c r="D1753" t="inlineStr">
+        <is>
+          <t>gtq</t>
+        </is>
+      </c>
+      <c r="E1753" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>1000251</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>46793699</v>
+      </c>
+      <c r="D1754" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1754" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 14:27:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>47076400</v>
+      </c>
+      <c r="D1755" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1755" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:00:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>47076400</v>
+      </c>
+      <c r="D1756" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1756" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:00:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>47076400</v>
+      </c>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1757" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:00:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>47074406</v>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>GTA포토샵</t>
+        </is>
+      </c>
+      <c r="E1758" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:01:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>47074406</v>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>일러스트레이터(Illustrator)</t>
+        </is>
+      </c>
+      <c r="E1759" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:01:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>47073827</v>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1760" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:01:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>47073827</v>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1761" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:01:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>47069081</v>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1762" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:04:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>47069081</v>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>GTQ포토샵</t>
+        </is>
+      </c>
+      <c r="E1763" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:04:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>47068942</v>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1764" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:04:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>47068942</v>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1765" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:04:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>47063083</v>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1766" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>47063083</v>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1767" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>47063083</v>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1768" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>47062362</v>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>정보처리산업기사</t>
+        </is>
+      </c>
+      <c r="E1769" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:07:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>47062362</v>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1770" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:07:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>47061712</v>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1771" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:07:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>47061712</v>
+      </c>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>GTQi(그래픽기술자격 일러스트) 1급</t>
+        </is>
+      </c>
+      <c r="E1772" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:07:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>47061712</v>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1773" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:07:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>47060581</v>
+      </c>
+      <c r="D1774" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1774" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:08:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>47060555</v>
+      </c>
+      <c r="D1775" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1775" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:08:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>47060555</v>
+      </c>
+      <c r="D1776" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1776" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:08:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>47060555</v>
+      </c>
+      <c r="D1777" t="inlineStr">
+        <is>
+          <t>GTQ 인디자인 1급</t>
+        </is>
+      </c>
+      <c r="E1777" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:08:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>47058706</v>
+      </c>
+      <c r="D1778" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1778" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:09:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>47058706</v>
+      </c>
+      <c r="D1779" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1779" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:09:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>47057579</v>
+      </c>
+      <c r="D1780" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1780" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:09:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>47057579</v>
+      </c>
+      <c r="D1781" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1781" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:09:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>47057579</v>
+      </c>
+      <c r="D1782" t="inlineStr">
+        <is>
+          <t>GTQi(그래픽기술자격 일러스트) 3급</t>
+        </is>
+      </c>
+      <c r="E1782" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:09:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>47056993</v>
+      </c>
+      <c r="D1783" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1783" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:09:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>47056993</v>
+      </c>
+      <c r="D1784" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1784" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:09:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>46983311</v>
+      </c>
+      <c r="D1785" t="inlineStr">
+        <is>
+          <t>GTQ 2급</t>
+        </is>
+      </c>
+      <c r="E1785" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:11:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>46983311</v>
+      </c>
+      <c r="D1786" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E1786" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:11:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>47051235</v>
+      </c>
+      <c r="D1787" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1787" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:13:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>47051235</v>
+      </c>
+      <c r="D1788" t="inlineStr">
+        <is>
+          <t>gtq</t>
+        </is>
+      </c>
+      <c r="E1788" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:13:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>47051221</v>
+      </c>
+      <c r="D1789" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1789" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:13:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>47051221</v>
+      </c>
+      <c r="D1790" t="inlineStr">
+        <is>
+          <t>gtq</t>
+        </is>
+      </c>
+      <c r="E1790" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 15:13:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>47020703</v>
+      </c>
+      <c r="D1791" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1791" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:25:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>47020703</v>
+      </c>
+      <c r="D1792" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1792" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:25:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>47018503</v>
+      </c>
+      <c r="D1793" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1793" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:26:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>47018503</v>
+      </c>
+      <c r="D1794" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1794" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:26:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>47015988</v>
+      </c>
+      <c r="D1795" t="inlineStr">
+        <is>
+          <t>피부관리사</t>
+        </is>
+      </c>
+      <c r="E1795" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:26:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>47015988</v>
+      </c>
+      <c r="D1796" t="inlineStr">
+        <is>
+          <t>Web DB Master</t>
+        </is>
+      </c>
+      <c r="E1796" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:26:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>47014809</v>
+      </c>
+      <c r="D1797" t="inlineStr">
+        <is>
+          <t>정보처리기능사</t>
+        </is>
+      </c>
+      <c r="E1797" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:27:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>47014809</v>
+      </c>
+      <c r="D1798" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1798" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:27:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>47003431</v>
+      </c>
+      <c r="D1799" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1799" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:51:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>47003431</v>
+      </c>
+      <c r="D1800" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1800" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:51:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>47003431</v>
+      </c>
+      <c r="D1801" t="inlineStr">
+        <is>
+          <t>전자출판기능사</t>
+        </is>
+      </c>
+      <c r="E1801" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:51:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>47003045</v>
+      </c>
+      <c r="D1802" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1802" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:51:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>47003045</v>
+      </c>
+      <c r="D1803" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1803" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:51:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>47000781</v>
+      </c>
+      <c r="D1804" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1804" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:52:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>46999648</v>
+      </c>
+      <c r="D1805" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1805" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:52:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>46994892</v>
+      </c>
+      <c r="D1806" t="inlineStr">
+        <is>
+          <t>그래픽 디자인 기능사</t>
+        </is>
+      </c>
+      <c r="E1806" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:54:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>46994892</v>
+      </c>
+      <c r="D1807" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1807" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:54:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>46994892</v>
+      </c>
+      <c r="D1808" t="inlineStr">
+        <is>
+          <t>웹 디자인 기능사</t>
+        </is>
+      </c>
+      <c r="E1808" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:54:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>46981189</v>
+      </c>
+      <c r="D1809" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1809" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:58:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>46981189</v>
+      </c>
+      <c r="D1810" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1810" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:58:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>46976181</v>
+      </c>
+      <c r="D1811" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1811" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 18:59:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>46975644</v>
+      </c>
+      <c r="D1812" t="inlineStr">
+        <is>
+          <t>GTQi(그래픽기술자격 일러스트) 1급</t>
+        </is>
+      </c>
+      <c r="E1812" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:00:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>46975644</v>
+      </c>
+      <c r="D1813" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1813" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:00:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>46975644</v>
+      </c>
+      <c r="D1814" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1814" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:00:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>46975308</v>
+      </c>
+      <c r="D1815" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1815" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>46975308</v>
+      </c>
+      <c r="D1816" t="inlineStr">
+        <is>
+          <t>컬러리스트기사</t>
+        </is>
+      </c>
+      <c r="E1816" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>46975308</v>
+      </c>
+      <c r="D1817" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1817" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>46975007</v>
+      </c>
+      <c r="D1818" t="inlineStr">
+        <is>
+          <t>lllustrator</t>
+        </is>
+      </c>
+      <c r="E1818" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:00:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>46975007</v>
+      </c>
+      <c r="D1819" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1819" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:00:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>46974868</v>
+      </c>
+      <c r="D1820" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1820" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:00:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>46974868</v>
+      </c>
+      <c r="D1821" t="inlineStr">
+        <is>
+          <t>직업능력개발훈련교사</t>
+        </is>
+      </c>
+      <c r="E1821" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:00:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>46972465</v>
+      </c>
+      <c r="D1822" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1822" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:01:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>46972465</v>
+      </c>
+      <c r="D1823" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1823" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:01:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>46972465</v>
+      </c>
+      <c r="D1824" t="inlineStr">
+        <is>
+          <t>컬러리스트산업기사</t>
+        </is>
+      </c>
+      <c r="E1824" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:01:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>46970396</v>
+      </c>
+      <c r="D1825" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1825" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>46970396</v>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1826" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>46970396</v>
+      </c>
+      <c r="D1827" t="inlineStr">
+        <is>
+          <t>GTQi(그래픽기술자격 일러스트) 1급</t>
+        </is>
+      </c>
+      <c r="E1827" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>46968605</v>
+      </c>
+      <c r="D1828" t="inlineStr">
+        <is>
+          <t>캔들관련 자격증</t>
+        </is>
+      </c>
+      <c r="E1828" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:02:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>46961319</v>
+      </c>
+      <c r="D1829" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1829" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:52:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>46958725</v>
+      </c>
+      <c r="D1830" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1830" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:52:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>46954672</v>
+      </c>
+      <c r="D1831" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1831" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:53:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>46954672</v>
+      </c>
+      <c r="D1832" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1832" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:53:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>46954468</v>
+      </c>
+      <c r="D1833" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1833" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:53:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>46954468</v>
+      </c>
+      <c r="D1834" t="inlineStr">
+        <is>
+          <t>정보처리산업기사</t>
+        </is>
+      </c>
+      <c r="E1834" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:53:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>46954468</v>
+      </c>
+      <c r="D1835" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1835" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:53:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>46948306</v>
+      </c>
+      <c r="D1836" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1836" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:55:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>46948306</v>
+      </c>
+      <c r="D1837" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1837" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:55:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>46948306</v>
+      </c>
+      <c r="D1838" t="inlineStr">
+        <is>
+          <t>웹 디자이너</t>
+        </is>
+      </c>
+      <c r="E1838" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:55:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>46947642</v>
+      </c>
+      <c r="D1839" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1839" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:55:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>46947642</v>
+      </c>
+      <c r="D1840" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1840" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:55:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>46947511</v>
+      </c>
+      <c r="D1841" t="inlineStr">
+        <is>
+          <t>소프트웨어기술자격증</t>
+        </is>
+      </c>
+      <c r="E1841" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:55:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>46947511</v>
+      </c>
+      <c r="D1842" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1842" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:55:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1843" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>46947511</v>
+      </c>
+      <c r="D1843" t="inlineStr">
+        <is>
+          <t>정보처리산업기사</t>
+        </is>
+      </c>
+      <c r="E1843" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:55:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1844" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>46947499</v>
+      </c>
+      <c r="D1844" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1844" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:55:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1845" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>46947499</v>
+      </c>
+      <c r="D1845" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1845" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:55:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1846" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>46947437</v>
+      </c>
+      <c r="D1846" t="inlineStr">
+        <is>
+          <t>전기기능사</t>
+        </is>
+      </c>
+      <c r="E1846" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:55:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1847" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>46947437</v>
+      </c>
+      <c r="D1847" t="inlineStr">
+        <is>
+          <t>전기기사</t>
+        </is>
+      </c>
+      <c r="E1847" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:55:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1848" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>46947437</v>
+      </c>
+      <c r="D1848" t="inlineStr">
+        <is>
+          <t>전기산업기사</t>
+        </is>
+      </c>
+      <c r="E1848" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:55:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1849" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>46947062</v>
+      </c>
+      <c r="D1849" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1849" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:56:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1850" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>46947062</v>
+      </c>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1850" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:56:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1851" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1851" t="n">
+        <v>46943544</v>
+      </c>
+      <c r="D1851" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1851" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:56:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1852" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1852" t="n">
+        <v>46943544</v>
+      </c>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E1852" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:56:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1853" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1853" t="n">
+        <v>46943544</v>
+      </c>
+      <c r="D1853" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀</t>
+        </is>
+      </c>
+      <c r="E1853" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:56:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1854" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1854" t="n">
+        <v>46940249</v>
+      </c>
+      <c r="D1854" t="inlineStr">
+        <is>
+          <t>웹디자인개발기능사</t>
+        </is>
+      </c>
+      <c r="E1854" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:57:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1855" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1855" t="n">
+        <v>46940249</v>
+      </c>
+      <c r="D1855" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1855" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:57:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1856" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1856" t="n">
+        <v>46940249</v>
+      </c>
+      <c r="D1856" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1856" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:57:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1857" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1857" t="n">
+        <v>46936342</v>
+      </c>
+      <c r="D1857" t="inlineStr">
+        <is>
+          <t>웹디자인개발기능사</t>
+        </is>
+      </c>
+      <c r="E1857" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:58:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1858" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1858" t="n">
+        <v>46936342</v>
+      </c>
+      <c r="D1858" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1858" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:58:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1859" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1859" t="n">
+        <v>46934414</v>
+      </c>
+      <c r="D1859" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1859" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:58:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1860" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1860" t="n">
+        <v>46934414</v>
+      </c>
+      <c r="D1860" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1860" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:58:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1861" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1861" t="n">
+        <v>46928880</v>
+      </c>
+      <c r="D1861" t="inlineStr">
+        <is>
+          <t>웹디자인</t>
+        </is>
+      </c>
+      <c r="E1861" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:59:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1862" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1862" t="n">
+        <v>46928880</v>
+      </c>
+      <c r="D1862" t="inlineStr">
+        <is>
+          <t>웹디자인개발기능사</t>
+        </is>
+      </c>
+      <c r="E1862" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:59:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1863" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1863" t="n">
+        <v>46928880</v>
+      </c>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1863" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 19:59:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1864" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1864" t="n">
+        <v>46926317</v>
+      </c>
+      <c r="D1864" t="inlineStr">
+        <is>
+          <t>photoshop</t>
+        </is>
+      </c>
+      <c r="E1864" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:00:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1865" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1865" t="n">
+        <v>46926317</v>
+      </c>
+      <c r="D1865" t="inlineStr">
+        <is>
+          <t>illustrator</t>
+        </is>
+      </c>
+      <c r="E1865" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:00:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1866" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1866" t="n">
+        <v>46926317</v>
+      </c>
+      <c r="D1866" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1866" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:00:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1867" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1867" t="n">
+        <v>46923386</v>
+      </c>
+      <c r="D1867" t="inlineStr">
+        <is>
+          <t>검색광고마케터 1급</t>
+        </is>
+      </c>
+      <c r="E1867" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:01:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1684" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1684" t="inlineStr">
-        <is>
-          <t>46955028</t>
-        </is>
-      </c>
-      <c r="D1684" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E1684" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:46:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" t="inlineStr">
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>1000255</t>
+        </is>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>46864361</t>
+        </is>
+      </c>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1868" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1685" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1685" t="inlineStr">
-        <is>
-          <t>46955028</t>
-        </is>
-      </c>
-      <c r="D1685" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E1685" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:46:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="1686">
-      <c r="A1686" t="inlineStr">
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>1000255</t>
+        </is>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>46856175</t>
+        </is>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1869" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:13:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1686" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1686" t="inlineStr">
-        <is>
-          <t>46955028</t>
-        </is>
-      </c>
-      <c r="D1686" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E1686" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:46:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="inlineStr">
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>1000255</t>
+        </is>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>46856175</t>
+        </is>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1870" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:13:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1687" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1687" t="inlineStr">
-        <is>
-          <t>46950154</t>
-        </is>
-      </c>
-      <c r="D1687" t="inlineStr">
-        <is>
-          <t>GTQ 일러스트 1급</t>
-        </is>
-      </c>
-      <c r="E1687" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:47:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="inlineStr">
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>1000255</t>
+        </is>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>46851104</t>
+        </is>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1871" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:13:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1688" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1688" t="inlineStr">
-        <is>
-          <t>46950154</t>
-        </is>
-      </c>
-      <c r="D1688" t="inlineStr">
-        <is>
-          <t>GTQ 인디자인 1급</t>
-        </is>
-      </c>
-      <c r="E1688" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:47:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="inlineStr">
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>1000255</t>
+        </is>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>46851104</t>
+        </is>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1872" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:13:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1689" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1689" t="inlineStr">
-        <is>
-          <t>46949962</t>
-        </is>
-      </c>
-      <c r="D1689" t="inlineStr">
-        <is>
-          <t>포토샵</t>
-        </is>
-      </c>
-      <c r="E1689" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:47:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="inlineStr">
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>1000255</t>
+        </is>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>46833612</t>
+        </is>
+      </c>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1873" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:14:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1690" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1690" t="inlineStr">
-        <is>
-          <t>46949962</t>
-        </is>
-      </c>
-      <c r="D1690" t="inlineStr">
-        <is>
-          <t>일러스트</t>
-        </is>
-      </c>
-      <c r="E1690" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:47:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="inlineStr">
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>1000255</t>
+        </is>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>46802032</t>
+        </is>
+      </c>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1874" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:15:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1691" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1691" t="inlineStr">
-        <is>
-          <t>46949960</t>
-        </is>
-      </c>
-      <c r="D1691" t="inlineStr">
-        <is>
-          <t>포토샵</t>
-        </is>
-      </c>
-      <c r="E1691" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:47:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1692">
-      <c r="A1692" t="inlineStr">
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>1000255</t>
+        </is>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>46802032</t>
+        </is>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1875" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:15:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1692" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1692" t="inlineStr">
-        <is>
-          <t>46949960</t>
-        </is>
-      </c>
-      <c r="D1692" t="inlineStr">
-        <is>
-          <t>일러스트</t>
-        </is>
-      </c>
-      <c r="E1692" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:47:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1693">
-      <c r="A1693" t="inlineStr">
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>1000255</t>
+        </is>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>46801288</t>
+        </is>
+      </c>
+      <c r="D1876" t="inlineStr">
+        <is>
+          <t>CIA(국제공인내부감사사)</t>
+        </is>
+      </c>
+      <c r="E1876" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:15:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1693" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1693" t="inlineStr">
-        <is>
-          <t>46949959</t>
-        </is>
-      </c>
-      <c r="D1693" t="inlineStr">
-        <is>
-          <t>포토샵</t>
-        </is>
-      </c>
-      <c r="E1693" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:47:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="1694">
-      <c r="A1694" t="inlineStr">
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>1000255</t>
+        </is>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>46801288</t>
+        </is>
+      </c>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>CISA(국제공인정보시스템감사사)</t>
+        </is>
+      </c>
+      <c r="E1877" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:15:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1694" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1694" t="inlineStr">
-        <is>
-          <t>46949959</t>
-        </is>
-      </c>
-      <c r="D1694" t="inlineStr">
-        <is>
-          <t>일러스트</t>
-        </is>
-      </c>
-      <c r="E1694" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:47:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" t="inlineStr">
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>1000255</t>
+        </is>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>46801288</t>
+        </is>
+      </c>
+      <c r="D1878" t="inlineStr">
+        <is>
+          <t>포장기사</t>
+        </is>
+      </c>
+      <c r="E1878" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:15:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1695" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1695" t="inlineStr">
-        <is>
-          <t>46947642</t>
-        </is>
-      </c>
-      <c r="D1695" t="inlineStr">
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>1000255</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>46767224</t>
+        </is>
+      </c>
+      <c r="D1879" t="inlineStr">
         <is>
           <t>ACA Photoshop</t>
         </is>
       </c>
-      <c r="E1695" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:47:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="inlineStr">
+      <c r="E1879" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1696" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1696" t="inlineStr">
-        <is>
-          <t>46947642</t>
-        </is>
-      </c>
-      <c r="D1696" t="inlineStr">
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>1000255</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>46767224</t>
+        </is>
+      </c>
+      <c r="D1880" t="inlineStr">
         <is>
           <t>ACA Illustrator</t>
         </is>
       </c>
-      <c r="E1696" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:47:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1697" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1697" t="inlineStr">
-        <is>
-          <t>46947499</t>
-        </is>
-      </c>
-      <c r="D1697" t="inlineStr">
-        <is>
-          <t>ACA Photoshop</t>
-        </is>
-      </c>
-      <c r="E1697" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:47:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="1698">
-      <c r="A1698" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1698" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1698" t="inlineStr">
-        <is>
-          <t>46947499</t>
-        </is>
-      </c>
-      <c r="D1698" t="inlineStr">
-        <is>
-          <t>ACA Illustrator</t>
-        </is>
-      </c>
-      <c r="E1698" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:47:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="1699">
-      <c r="A1699" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1699" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1699" t="inlineStr">
-        <is>
-          <t>46947437</t>
-        </is>
-      </c>
-      <c r="D1699" t="inlineStr">
-        <is>
-          <t>전기기능사</t>
-        </is>
-      </c>
-      <c r="E1699" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:48:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="1700">
-      <c r="A1700" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1700" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1700" t="inlineStr">
-        <is>
-          <t>46947437</t>
-        </is>
-      </c>
-      <c r="D1700" t="inlineStr">
-        <is>
-          <t>전기기사</t>
-        </is>
-      </c>
-      <c r="E1700" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:48:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="1701">
-      <c r="A1701" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1701" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1701" t="inlineStr">
-        <is>
-          <t>46947437</t>
-        </is>
-      </c>
-      <c r="D1701" t="inlineStr">
-        <is>
-          <t>전기산업기사</t>
-        </is>
-      </c>
-      <c r="E1701" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:48:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="1702">
-      <c r="A1702" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1702" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1702" t="inlineStr">
-        <is>
-          <t>46947062</t>
-        </is>
-      </c>
-      <c r="D1702" t="inlineStr">
-        <is>
-          <t>ACA Photoshop</t>
-        </is>
-      </c>
-      <c r="E1702" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:48:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="1703">
-      <c r="A1703" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1703" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1703" t="inlineStr">
-        <is>
-          <t>46947062</t>
-        </is>
-      </c>
-      <c r="D1703" t="inlineStr">
-        <is>
-          <t>ACA Illustrator</t>
-        </is>
-      </c>
-      <c r="E1703" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:48:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="1704">
-      <c r="A1704" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1704" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1704" t="inlineStr">
-        <is>
-          <t>46945653</t>
-        </is>
-      </c>
-      <c r="D1704" t="inlineStr">
-        <is>
-          <t>GTQ 일러스트 1급</t>
-        </is>
-      </c>
-      <c r="E1704" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:48:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="1705">
-      <c r="A1705" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1705" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1705" t="inlineStr">
-        <is>
-          <t>46943637</t>
-        </is>
-      </c>
-      <c r="D1705" t="inlineStr">
-        <is>
-          <t>컴퓨터그래픽기능사</t>
-        </is>
-      </c>
-      <c r="E1705" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:48:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="1706">
-      <c r="A1706" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1706" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1706" t="inlineStr">
-        <is>
-          <t>46943637</t>
-        </is>
-      </c>
-      <c r="D1706" t="inlineStr">
-        <is>
-          <t>컴퓨터그래픽스운용기능사</t>
-        </is>
-      </c>
-      <c r="E1706" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:48:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="1707">
-      <c r="A1707" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1707" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1707" t="inlineStr">
-        <is>
-          <t>46934414</t>
-        </is>
-      </c>
-      <c r="D1707" t="inlineStr">
-        <is>
-          <t>웹디자인기능사</t>
-        </is>
-      </c>
-      <c r="E1707" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:50:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="1708">
-      <c r="A1708" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1708" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1708" t="inlineStr">
-        <is>
-          <t>46934414</t>
-        </is>
-      </c>
-      <c r="D1708" t="inlineStr">
-        <is>
-          <t>GTQ 1급</t>
-        </is>
-      </c>
-      <c r="E1708" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:50:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="1709">
-      <c r="A1709" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1709" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1709" t="inlineStr">
-        <is>
-          <t>46921411</t>
-        </is>
-      </c>
-      <c r="D1709" t="inlineStr">
-        <is>
-          <t>시각디자인기사</t>
-        </is>
-      </c>
-      <c r="E1709" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:52:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="1710">
-      <c r="A1710" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1710" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1710" t="inlineStr">
-        <is>
-          <t>46921411</t>
-        </is>
-      </c>
-      <c r="D1710" t="inlineStr">
-        <is>
-          <t>시각디자인산업기사</t>
-        </is>
-      </c>
-      <c r="E1710" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:52:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="1711">
-      <c r="A1711" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1711" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1711" t="inlineStr">
-        <is>
-          <t>46795772</t>
-        </is>
-      </c>
-      <c r="D1711" t="inlineStr">
-        <is>
-          <t>컴퓨터그래픽스운용기능사</t>
-        </is>
-      </c>
-      <c r="E1711" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:56:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="1712">
-      <c r="A1712" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1712" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1712" t="inlineStr">
-        <is>
-          <t>46884242</t>
-        </is>
-      </c>
-      <c r="D1712" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E1712" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:56:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="1713">
-      <c r="A1713" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1713" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1713" t="inlineStr">
-        <is>
-          <t>46856175</t>
-        </is>
-      </c>
-      <c r="D1713" t="inlineStr">
-        <is>
-          <t>ACA Photoshop</t>
-        </is>
-      </c>
-      <c r="E1713" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:57:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="1714">
-      <c r="A1714" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1714" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1714" t="inlineStr">
-        <is>
-          <t>46856175</t>
-        </is>
-      </c>
-      <c r="D1714" t="inlineStr">
-        <is>
-          <t>ACA Illustrator</t>
-        </is>
-      </c>
-      <c r="E1714" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:57:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="1715">
-      <c r="A1715" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1715" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1715" t="inlineStr">
-        <is>
-          <t>46832221</t>
-        </is>
-      </c>
-      <c r="D1715" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E1715" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:57:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="1716">
-      <c r="A1716" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1716" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1716" t="inlineStr">
-        <is>
-          <t>46832221</t>
-        </is>
-      </c>
-      <c r="D1716" t="inlineStr">
-        <is>
-          <t>건축산업기사</t>
-        </is>
-      </c>
-      <c r="E1716" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:57:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="1717">
-      <c r="A1717" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1717" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1717" t="inlineStr">
-        <is>
-          <t>46832221</t>
-        </is>
-      </c>
-      <c r="D1717" t="inlineStr">
-        <is>
-          <t>시각디자인산업기사</t>
-        </is>
-      </c>
-      <c r="E1717" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:57:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="1718">
-      <c r="A1718" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1718" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1718" t="inlineStr">
-        <is>
-          <t>46828206</t>
-        </is>
-      </c>
-      <c r="D1718" t="inlineStr">
-        <is>
-          <t>ACA Photoshop</t>
-        </is>
-      </c>
-      <c r="E1718" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:58:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="1719">
-      <c r="A1719" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1719" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1719" t="inlineStr">
-        <is>
-          <t>46828206</t>
-        </is>
-      </c>
-      <c r="D1719" t="inlineStr">
-        <is>
-          <t>컴퓨터그래픽스운용기능사</t>
-        </is>
-      </c>
-      <c r="E1719" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:58:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="1720">
-      <c r="A1720" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1720" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1720" t="inlineStr">
-        <is>
-          <t>46828206</t>
-        </is>
-      </c>
-      <c r="D1720" t="inlineStr">
-        <is>
-          <t>시각디자인기사</t>
-        </is>
-      </c>
-      <c r="E1720" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:58:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="1721">
-      <c r="A1721" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1721" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1721" t="inlineStr">
-        <is>
-          <t>46818601</t>
-        </is>
-      </c>
-      <c r="D1721" t="inlineStr">
-        <is>
-          <t>GTQ 1급</t>
-        </is>
-      </c>
-      <c r="E1721" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 13:58:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="1722">
-      <c r="A1722" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1722" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1722" t="inlineStr">
-        <is>
-          <t>46783344</t>
-        </is>
-      </c>
-      <c r="D1722" t="inlineStr">
-        <is>
-          <t>컬러리스트기사</t>
-        </is>
-      </c>
-      <c r="E1722" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 14:00:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="1723">
-      <c r="A1723" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1723" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1723" t="inlineStr">
-        <is>
-          <t>46783344</t>
-        </is>
-      </c>
-      <c r="D1723" t="inlineStr">
-        <is>
-          <t>시각디자인기사</t>
-        </is>
-      </c>
-      <c r="E1723" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 14:00:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="1724">
-      <c r="A1724" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1724" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1724" t="inlineStr">
-        <is>
-          <t>46783344</t>
-        </is>
-      </c>
-      <c r="D1724" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E1724" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 14:00:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="1725">
-      <c r="A1725" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1725" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1725" t="inlineStr">
-        <is>
-          <t>46775375</t>
-        </is>
-      </c>
-      <c r="D1725" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E1725" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 14:00:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="1726">
-      <c r="A1726" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1726" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1726" t="inlineStr">
-        <is>
-          <t>46775375</t>
-        </is>
-      </c>
-      <c r="D1726" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E1726" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 14:00:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="1727">
-      <c r="A1727" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1727" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1727" t="inlineStr">
-        <is>
-          <t>46768938</t>
-        </is>
-      </c>
-      <c r="D1727" t="inlineStr">
-        <is>
-          <t>3DS MAX 기술자격시험</t>
-        </is>
-      </c>
-      <c r="E1727" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 14:00:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="1728">
-      <c r="A1728" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1728" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1728" t="inlineStr">
-        <is>
-          <t>46740016</t>
-        </is>
-      </c>
-      <c r="D1728" t="inlineStr">
-        <is>
-          <t>ACA Photoshop</t>
-        </is>
-      </c>
-      <c r="E1728" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 14:01:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="1729">
-      <c r="A1729" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1729" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1729" t="inlineStr">
-        <is>
-          <t>46740016</t>
-        </is>
-      </c>
-      <c r="D1729" t="inlineStr">
-        <is>
-          <t>컴퓨터그래픽스운용기능사</t>
-        </is>
-      </c>
-      <c r="E1729" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 14:01:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="1730">
-      <c r="A1730" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1730" t="inlineStr">
-        <is>
-          <t>1000253</t>
-        </is>
-      </c>
-      <c r="C1730" t="inlineStr">
-        <is>
-          <t>46740016</t>
-        </is>
-      </c>
-      <c r="D1730" t="inlineStr">
-        <is>
-          <t>시각디자인기사</t>
-        </is>
-      </c>
-      <c r="E1730" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 14:01:28</t>
+      <c r="E1880" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:17:30</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1880"/>
+  <dimension ref="A1:E1946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38797,353 +38797,1679 @@
       </c>
     </row>
     <row r="1868">
-      <c r="A1868" t="inlineStr">
+      <c r="A1868" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1868" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1868" t="n">
+        <v>46864361</v>
+      </c>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1868" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1869" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1869" t="n">
+        <v>46856175</v>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1869" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:13:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1870" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1870" t="n">
+        <v>46856175</v>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1870" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:13:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1871" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1871" t="n">
+        <v>46851104</v>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1871" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:13:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1872" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1872" t="n">
+        <v>46851104</v>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1872" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:13:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1873" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1873" t="n">
+        <v>46833612</v>
+      </c>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1873" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:14:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1874" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1874" t="n">
+        <v>46802032</v>
+      </c>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1874" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:15:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1875" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1875" t="n">
+        <v>46802032</v>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1875" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:15:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1876" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1876" t="n">
+        <v>46801288</v>
+      </c>
+      <c r="D1876" t="inlineStr">
+        <is>
+          <t>CIA(국제공인내부감사사)</t>
+        </is>
+      </c>
+      <c r="E1876" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:15:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1877" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1877" t="n">
+        <v>46801288</v>
+      </c>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>CISA(국제공인정보시스템감사사)</t>
+        </is>
+      </c>
+      <c r="E1877" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:15:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1878" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1878" t="n">
+        <v>46801288</v>
+      </c>
+      <c r="D1878" t="inlineStr">
+        <is>
+          <t>포장기사</t>
+        </is>
+      </c>
+      <c r="E1878" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:15:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1879" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1879" t="n">
+        <v>46767224</v>
+      </c>
+      <c r="D1879" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1879" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1880" t="n">
+        <v>1000255</v>
+      </c>
+      <c r="C1880" t="n">
+        <v>46767224</v>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1880" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1881" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1881" t="n">
+        <v>47018503</v>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1881" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:38:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1882" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1882" t="n">
+        <v>47018503</v>
+      </c>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1882" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:38:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1883" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1883" t="n">
+        <v>47003045</v>
+      </c>
+      <c r="D1883" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1883" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:40:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1884" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1884" t="n">
+        <v>47003045</v>
+      </c>
+      <c r="D1884" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1884" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:40:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1885" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1885" t="n">
+        <v>47000781</v>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1885" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:40:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1886" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1886" t="n">
+        <v>46994892</v>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>그래픽 디자인 기능사</t>
+        </is>
+      </c>
+      <c r="E1886" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:40:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1887" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1887" t="n">
+        <v>46994892</v>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1887" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:40:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1888" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1888" t="n">
+        <v>46994892</v>
+      </c>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>웹 디자인 기능사</t>
+        </is>
+      </c>
+      <c r="E1888" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:40:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1889" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1889" t="n">
+        <v>46976181</v>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1889" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:43:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1890" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1890" t="n">
+        <v>46975308</v>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1890" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:43:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1891" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1891" t="n">
+        <v>46975308</v>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>컬러리스트기사</t>
+        </is>
+      </c>
+      <c r="E1891" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:43:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1892" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1892" t="n">
+        <v>46975308</v>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1892" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:43:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1893" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1893" t="n">
+        <v>46972465</v>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1893" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:43:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1894" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1894" t="n">
+        <v>46972465</v>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1894" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:43:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1895" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1895" t="n">
+        <v>46972465</v>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>컬러리스트산업기사</t>
+        </is>
+      </c>
+      <c r="E1895" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:43:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1896" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1896" t="n">
+        <v>46970396</v>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1896" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:43:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1897" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1897" t="n">
+        <v>46970396</v>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1897" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:43:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1898" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1898" t="n">
+        <v>46970396</v>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>GTQi(그래픽기술자격 일러스트) 1급</t>
+        </is>
+      </c>
+      <c r="E1898" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:43:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1899" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1899" t="n">
+        <v>46969181</v>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1899" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:43:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1900" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1900" t="n">
+        <v>46969181</v>
+      </c>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1900" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:43:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1901" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1901" t="n">
+        <v>46958725</v>
+      </c>
+      <c r="D1901" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1901" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1902" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1902" t="n">
+        <v>46954468</v>
+      </c>
+      <c r="D1902" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1902" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:45:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1903" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1903" t="n">
+        <v>46954468</v>
+      </c>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>정보처리산업기사</t>
+        </is>
+      </c>
+      <c r="E1903" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:45:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1904" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1904" t="n">
+        <v>46954468</v>
+      </c>
+      <c r="D1904" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1904" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:45:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1905" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1905" t="n">
+        <v>46948306</v>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1905" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:46:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1906" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1906" t="n">
+        <v>46948306</v>
+      </c>
+      <c r="D1906" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1906" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:46:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1907" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1907" t="n">
+        <v>46948306</v>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>웹 디자이너</t>
+        </is>
+      </c>
+      <c r="E1907" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:46:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1908" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1908" t="n">
+        <v>46947642</v>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1908" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:46:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1909" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1909" t="n">
+        <v>46947642</v>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1909" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:46:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1910" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1910" t="n">
+        <v>46947499</v>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1910" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:46:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1911" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1911" t="n">
+        <v>46947499</v>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1911" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:46:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1912" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1912" t="n">
+        <v>46947448</v>
+      </c>
+      <c r="D1912" t="inlineStr">
+        <is>
+          <t>데이터분석 준전문가</t>
+        </is>
+      </c>
+      <c r="E1912" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:46:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1913" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1913" t="n">
+        <v>46947448</v>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E1913" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:46:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1914" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1914" t="n">
+        <v>46947448</v>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>마케팅기획전문가</t>
+        </is>
+      </c>
+      <c r="E1914" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:46:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1915" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1915" t="n">
+        <v>46940249</v>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>웹디자인개발기능사</t>
+        </is>
+      </c>
+      <c r="E1915" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1916" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1916" t="n">
+        <v>46940249</v>
+      </c>
+      <c r="D1916" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1916" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1917" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1917" t="n">
+        <v>46940249</v>
+      </c>
+      <c r="D1917" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1917" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1918" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1918" t="n">
+        <v>47076400</v>
+      </c>
+      <c r="D1918" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1918" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:49:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1919" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1919" t="n">
+        <v>47076400</v>
+      </c>
+      <c r="D1919" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E1919" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:49:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1920" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1920" t="n">
+        <v>47076400</v>
+      </c>
+      <c r="D1920" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1920" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:49:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1921" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1921" t="n">
+        <v>47069081</v>
+      </c>
+      <c r="D1921" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1921" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:51:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1922" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1922" t="n">
+        <v>47069081</v>
+      </c>
+      <c r="D1922" t="inlineStr">
+        <is>
+          <t>GTQ포토샵</t>
+        </is>
+      </c>
+      <c r="E1922" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:51:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1923" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1923" t="n">
+        <v>47058706</v>
+      </c>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1923" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:52:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1924" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1924" t="n">
+        <v>47058706</v>
+      </c>
+      <c r="D1924" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1924" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:52:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1925" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1925" t="n">
+        <v>47056993</v>
+      </c>
+      <c r="D1925" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1925" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:52:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1926" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1926" t="n">
+        <v>47056993</v>
+      </c>
+      <c r="D1926" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1926" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 20:52:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1927" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1927" t="n">
+        <v>46958725</v>
+      </c>
+      <c r="D1927" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1927" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:04:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1928" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1928" t="n">
+        <v>46954468</v>
+      </c>
+      <c r="D1928" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E1928" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:04:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1929" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1929" t="n">
+        <v>46954468</v>
+      </c>
+      <c r="D1929" t="inlineStr">
+        <is>
+          <t>정보처리산업기사</t>
+        </is>
+      </c>
+      <c r="E1929" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:04:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1930" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1930" t="n">
+        <v>46954468</v>
+      </c>
+      <c r="D1930" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1930" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:04:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1931" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1931" t="n">
+        <v>46948306</v>
+      </c>
+      <c r="D1931" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1931" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:05:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1932" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1932" t="n">
+        <v>46948306</v>
+      </c>
+      <c r="D1932" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1932" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:05:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1933" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1933" t="n">
+        <v>46948306</v>
+      </c>
+      <c r="D1933" t="inlineStr">
+        <is>
+          <t>웹 디자이너</t>
+        </is>
+      </c>
+      <c r="E1933" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:05:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1934" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1934" t="n">
+        <v>46947642</v>
+      </c>
+      <c r="D1934" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1934" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:05:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1935" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1935" t="n">
+        <v>46947642</v>
+      </c>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1935" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:05:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1936" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1936" t="n">
+        <v>46947499</v>
+      </c>
+      <c r="D1936" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1936" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:05:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1937" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1937" t="n">
+        <v>46947499</v>
+      </c>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1937" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:05:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1938" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1938" t="n">
+        <v>46947448</v>
+      </c>
+      <c r="D1938" t="inlineStr">
+        <is>
+          <t>데이터분석 준전문가</t>
+        </is>
+      </c>
+      <c r="E1938" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1939" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1939" t="n">
+        <v>46947448</v>
+      </c>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E1939" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1940" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1940" t="n">
+        <v>46947448</v>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>마케팅기획전문가</t>
+        </is>
+      </c>
+      <c r="E1940" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1941" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1941" t="n">
+        <v>46940249</v>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>웹디자인개발기능사</t>
+        </is>
+      </c>
+      <c r="E1941" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:06:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1942" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1942" t="n">
+        <v>46940249</v>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E1942" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:06:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1943" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1943" t="n">
+        <v>46940249</v>
+      </c>
+      <c r="D1943" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1943" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:06:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1868" t="inlineStr">
-        <is>
-          <t>1000255</t>
-        </is>
-      </c>
-      <c r="C1868" t="inlineStr">
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>1000256</t>
+        </is>
+      </c>
+      <c r="C1944" t="inlineStr">
         <is>
           <t>46864361</t>
         </is>
       </c>
-      <c r="D1868" t="inlineStr">
+      <c r="D1944" t="inlineStr">
         <is>
           <t>ACA Photoshop</t>
         </is>
       </c>
-      <c r="E1868" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 20:12:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="1869">
-      <c r="A1869" t="inlineStr">
+      <c r="E1944" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:11:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1869" t="inlineStr">
-        <is>
-          <t>1000255</t>
-        </is>
-      </c>
-      <c r="C1869" t="inlineStr">
-        <is>
-          <t>46856175</t>
-        </is>
-      </c>
-      <c r="D1869" t="inlineStr">
-        <is>
-          <t>ACA Photoshop</t>
-        </is>
-      </c>
-      <c r="E1869" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 20:13:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="1870">
-      <c r="A1870" t="inlineStr">
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>1000256</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>46802032</t>
+        </is>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1945" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:12:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1870" t="inlineStr">
-        <is>
-          <t>1000255</t>
-        </is>
-      </c>
-      <c r="C1870" t="inlineStr">
-        <is>
-          <t>46856175</t>
-        </is>
-      </c>
-      <c r="D1870" t="inlineStr">
-        <is>
-          <t>ACA Illustrator</t>
-        </is>
-      </c>
-      <c r="E1870" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 20:13:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="1871">
-      <c r="A1871" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1871" t="inlineStr">
-        <is>
-          <t>1000255</t>
-        </is>
-      </c>
-      <c r="C1871" t="inlineStr">
-        <is>
-          <t>46851104</t>
-        </is>
-      </c>
-      <c r="D1871" t="inlineStr">
-        <is>
-          <t>포토샵</t>
-        </is>
-      </c>
-      <c r="E1871" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 20:13:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="1872">
-      <c r="A1872" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1872" t="inlineStr">
-        <is>
-          <t>1000255</t>
-        </is>
-      </c>
-      <c r="C1872" t="inlineStr">
-        <is>
-          <t>46851104</t>
-        </is>
-      </c>
-      <c r="D1872" t="inlineStr">
-        <is>
-          <t>일러스트</t>
-        </is>
-      </c>
-      <c r="E1872" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 20:13:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="1873">
-      <c r="A1873" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1873" t="inlineStr">
-        <is>
-          <t>1000255</t>
-        </is>
-      </c>
-      <c r="C1873" t="inlineStr">
-        <is>
-          <t>46833612</t>
-        </is>
-      </c>
-      <c r="D1873" t="inlineStr">
-        <is>
-          <t>ACA Photoshop</t>
-        </is>
-      </c>
-      <c r="E1873" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 20:14:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="1874">
-      <c r="A1874" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1874" t="inlineStr">
-        <is>
-          <t>1000255</t>
-        </is>
-      </c>
-      <c r="C1874" t="inlineStr">
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>1000256</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
         <is>
           <t>46802032</t>
         </is>
       </c>
-      <c r="D1874" t="inlineStr">
-        <is>
-          <t>시각디자인기사</t>
-        </is>
-      </c>
-      <c r="E1874" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 20:15:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="1875">
-      <c r="A1875" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1875" t="inlineStr">
-        <is>
-          <t>1000255</t>
-        </is>
-      </c>
-      <c r="C1875" t="inlineStr">
-        <is>
-          <t>46802032</t>
-        </is>
-      </c>
-      <c r="D1875" t="inlineStr">
+      <c r="D1946" t="inlineStr">
         <is>
           <t>시각디자인산업기사</t>
         </is>
       </c>
-      <c r="E1875" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 20:15:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="1876">
-      <c r="A1876" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1876" t="inlineStr">
-        <is>
-          <t>1000255</t>
-        </is>
-      </c>
-      <c r="C1876" t="inlineStr">
-        <is>
-          <t>46801288</t>
-        </is>
-      </c>
-      <c r="D1876" t="inlineStr">
-        <is>
-          <t>CIA(국제공인내부감사사)</t>
-        </is>
-      </c>
-      <c r="E1876" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 20:15:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="1877">
-      <c r="A1877" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1877" t="inlineStr">
-        <is>
-          <t>1000255</t>
-        </is>
-      </c>
-      <c r="C1877" t="inlineStr">
-        <is>
-          <t>46801288</t>
-        </is>
-      </c>
-      <c r="D1877" t="inlineStr">
-        <is>
-          <t>CISA(국제공인정보시스템감사사)</t>
-        </is>
-      </c>
-      <c r="E1877" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 20:15:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="1878">
-      <c r="A1878" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1878" t="inlineStr">
-        <is>
-          <t>1000255</t>
-        </is>
-      </c>
-      <c r="C1878" t="inlineStr">
-        <is>
-          <t>46801288</t>
-        </is>
-      </c>
-      <c r="D1878" t="inlineStr">
-        <is>
-          <t>포장기사</t>
-        </is>
-      </c>
-      <c r="E1878" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 20:15:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="1879">
-      <c r="A1879" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1879" t="inlineStr">
-        <is>
-          <t>1000255</t>
-        </is>
-      </c>
-      <c r="C1879" t="inlineStr">
-        <is>
-          <t>46767224</t>
-        </is>
-      </c>
-      <c r="D1879" t="inlineStr">
-        <is>
-          <t>ACA Photoshop</t>
-        </is>
-      </c>
-      <c r="E1879" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 20:17:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="1880">
-      <c r="A1880" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B1880" t="inlineStr">
-        <is>
-          <t>1000255</t>
-        </is>
-      </c>
-      <c r="C1880" t="inlineStr">
-        <is>
-          <t>46767224</t>
-        </is>
-      </c>
-      <c r="D1880" t="inlineStr">
-        <is>
-          <t>ACA Illustrator</t>
-        </is>
-      </c>
-      <c r="E1880" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 20:17:30</t>
+      <c r="E1946" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:12:22</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1946"/>
+  <dimension ref="A1:E1952"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40393,83 +40393,221 @@
       </c>
     </row>
     <row r="1944">
-      <c r="A1944" t="inlineStr">
+      <c r="A1944" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1944" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1944" t="n">
+        <v>46864361</v>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1944" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:11:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1945" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1945" t="n">
+        <v>46802032</v>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1945" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:12:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1946" t="n">
+        <v>1000256</v>
+      </c>
+      <c r="C1946" t="n">
+        <v>46802032</v>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1946" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:12:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1947" t="n">
+        <v>1000257</v>
+      </c>
+      <c r="C1947" t="n">
+        <v>47064626</v>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1947" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 21:44:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1944" t="inlineStr">
-        <is>
-          <t>1000256</t>
-        </is>
-      </c>
-      <c r="C1944" t="inlineStr">
-        <is>
-          <t>46864361</t>
-        </is>
-      </c>
-      <c r="D1944" t="inlineStr">
-        <is>
-          <t>ACA Photoshop</t>
-        </is>
-      </c>
-      <c r="E1944" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 21:11:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="1945">
-      <c r="A1945" t="inlineStr">
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>1000257</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>46977439</t>
+        </is>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1948" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 22:16:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1945" t="inlineStr">
-        <is>
-          <t>1000256</t>
-        </is>
-      </c>
-      <c r="C1945" t="inlineStr">
-        <is>
-          <t>46802032</t>
-        </is>
-      </c>
-      <c r="D1945" t="inlineStr">
-        <is>
-          <t>시각디자인기사</t>
-        </is>
-      </c>
-      <c r="E1945" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 21:12:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="1946">
-      <c r="A1946" t="inlineStr">
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>1000257</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>46976112</t>
+        </is>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1949" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 22:16:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1946" t="inlineStr">
-        <is>
-          <t>1000256</t>
-        </is>
-      </c>
-      <c r="C1946" t="inlineStr">
-        <is>
-          <t>46802032</t>
-        </is>
-      </c>
-      <c r="D1946" t="inlineStr">
-        <is>
-          <t>시각디자인산업기사</t>
-        </is>
-      </c>
-      <c r="E1946" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 21:12:22</t>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>1000257</t>
+        </is>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>46967855</t>
+        </is>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1950" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 22:18:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>1000257</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>46952035</t>
+        </is>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>운전면허 소지자</t>
+        </is>
+      </c>
+      <c r="E1951" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 22:20:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>1000257</t>
+        </is>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>46934377</t>
+        </is>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1952" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 22:23:03</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1952"/>
+  <dimension ref="A1:E1977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40477,137 +40477,782 @@
       </c>
     </row>
     <row r="1948">
-      <c r="A1948" t="inlineStr">
+      <c r="A1948" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1948" t="n">
+        <v>1000257</v>
+      </c>
+      <c r="C1948" t="n">
+        <v>46977439</v>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1948" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 22:16:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1949" t="n">
+        <v>1000257</v>
+      </c>
+      <c r="C1949" t="n">
+        <v>46976112</v>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1949" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 22:16:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1950" t="n">
+        <v>1000257</v>
+      </c>
+      <c r="C1950" t="n">
+        <v>46967855</v>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E1950" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 22:18:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1951" t="n">
+        <v>1000257</v>
+      </c>
+      <c r="C1951" t="n">
+        <v>46952035</v>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>운전면허 소지자</t>
+        </is>
+      </c>
+      <c r="E1951" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 22:20:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1952" t="n">
+        <v>1000257</v>
+      </c>
+      <c r="C1952" t="n">
+        <v>46934377</v>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E1952" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 22:23:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1948" t="inlineStr">
-        <is>
-          <t>1000257</t>
-        </is>
-      </c>
-      <c r="C1948" t="inlineStr">
-        <is>
-          <t>46977439</t>
-        </is>
-      </c>
-      <c r="D1948" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E1948" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 22:16:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="1949">
-      <c r="A1949" t="inlineStr">
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t>47074406</t>
+        </is>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>GTA포토샵</t>
+        </is>
+      </c>
+      <c r="E1953" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:09:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1949" t="inlineStr">
-        <is>
-          <t>1000257</t>
-        </is>
-      </c>
-      <c r="C1949" t="inlineStr">
-        <is>
-          <t>46976112</t>
-        </is>
-      </c>
-      <c r="D1949" t="inlineStr">
-        <is>
-          <t>2종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E1949" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 22:16:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="1950">
-      <c r="A1950" t="inlineStr">
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t>47074406</t>
+        </is>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>일러스트레이터(Illustrator)</t>
+        </is>
+      </c>
+      <c r="E1954" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:09:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1950" t="inlineStr">
-        <is>
-          <t>1000257</t>
-        </is>
-      </c>
-      <c r="C1950" t="inlineStr">
-        <is>
-          <t>46967855</t>
-        </is>
-      </c>
-      <c r="D1950" t="inlineStr">
-        <is>
-          <t>2종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E1950" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 22:18:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="1951">
-      <c r="A1951" t="inlineStr">
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>47060581</t>
+        </is>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1955" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1951" t="inlineStr">
-        <is>
-          <t>1000257</t>
-        </is>
-      </c>
-      <c r="C1951" t="inlineStr">
-        <is>
-          <t>46952035</t>
-        </is>
-      </c>
-      <c r="D1951" t="inlineStr">
-        <is>
-          <t>운전면허 소지자</t>
-        </is>
-      </c>
-      <c r="E1951" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 22:20:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="1952">
-      <c r="A1952" t="inlineStr">
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t>47060044</t>
+        </is>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>GTQi(그래픽기술자격 일러스...</t>
+        </is>
+      </c>
+      <c r="E1956" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1952" t="inlineStr">
-        <is>
-          <t>1000257</t>
-        </is>
-      </c>
-      <c r="C1952" t="inlineStr">
-        <is>
-          <t>46934377</t>
-        </is>
-      </c>
-      <c r="D1952" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E1952" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 22:23:03</t>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t>47035287</t>
+        </is>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1957" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:14:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>47035287</t>
+        </is>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1958" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:14:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>47035287</t>
+        </is>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>컬러리스트산업기사</t>
+        </is>
+      </c>
+      <c r="E1959" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:14:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t>47031148</t>
+        </is>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1960" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:14:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t>47031148</t>
+        </is>
+      </c>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>ACA Indesign</t>
+        </is>
+      </c>
+      <c r="E1961" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:14:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>47031148</t>
+        </is>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1962" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:14:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>47031090</t>
+        </is>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1963" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:14:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>47031090</t>
+        </is>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1964" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:14:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t>47026067</t>
+        </is>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1965" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:15:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>47026057</t>
+        </is>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1966" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:15:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>47026057</t>
+        </is>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>웹디자인 기능사</t>
+        </is>
+      </c>
+      <c r="E1967" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:15:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>47026051</t>
+        </is>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1968" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>47022517</t>
+        </is>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1969" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:16:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>47022517</t>
+        </is>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>옥외광고사</t>
+        </is>
+      </c>
+      <c r="E1970" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:16:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>47019283</t>
+        </is>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>컬러리스트산업기사</t>
+        </is>
+      </c>
+      <c r="E1971" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:16:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>47019283</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1972" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:16:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>47010089</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1973" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>47010089</t>
+        </is>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>gtq</t>
+        </is>
+      </c>
+      <c r="E1974" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>47004414</t>
+        </is>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1975" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:17:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>47004414</t>
+        </is>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1976" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:17:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>47004414</t>
+        </is>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>인디자인</t>
+        </is>
+      </c>
+      <c r="E1977" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:17:48</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1977"/>
+  <dimension ref="A1:E2194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40582,677 +40582,6332 @@
       </c>
     </row>
     <row r="1953">
-      <c r="A1953" t="inlineStr">
+      <c r="A1953" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1953" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1953" t="n">
+        <v>47074406</v>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>GTA포토샵</t>
+        </is>
+      </c>
+      <c r="E1953" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:09:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1954" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1954" t="n">
+        <v>47074406</v>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>일러스트레이터(Illustrator)</t>
+        </is>
+      </c>
+      <c r="E1954" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:09:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1955" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1955" t="n">
+        <v>47060581</v>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1955" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1956" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1956" t="n">
+        <v>47060044</v>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>GTQi(그래픽기술자격 일러스...</t>
+        </is>
+      </c>
+      <c r="E1956" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1957" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1957" t="n">
+        <v>47035287</v>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1957" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:14:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1958" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1958" t="n">
+        <v>47035287</v>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1958" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:14:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1959" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1959" t="n">
+        <v>47035287</v>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>컬러리스트산업기사</t>
+        </is>
+      </c>
+      <c r="E1959" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:14:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1960" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1960" t="n">
+        <v>47031148</v>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>ACA Illustrator</t>
+        </is>
+      </c>
+      <c r="E1960" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:14:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1961" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1961" t="n">
+        <v>47031148</v>
+      </c>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>ACA Indesign</t>
+        </is>
+      </c>
+      <c r="E1961" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:14:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1962" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1962" t="n">
+        <v>47031148</v>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E1962" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:14:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1963" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1963" t="n">
+        <v>47031090</v>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>시각디자인기사</t>
+        </is>
+      </c>
+      <c r="E1963" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:14:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1964" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1964" t="n">
+        <v>47031090</v>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E1964" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:14:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1965" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1965" t="n">
+        <v>47026067</v>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1965" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:15:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1966" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1966" t="n">
+        <v>47026057</v>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1966" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:15:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1967" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1967" t="n">
+        <v>47026057</v>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>웹디자인 기능사</t>
+        </is>
+      </c>
+      <c r="E1967" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:15:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1968" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1968" t="n">
+        <v>47026051</v>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1968" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1969" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1969" t="n">
+        <v>47022517</v>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1969" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:16:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1970" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1970" t="n">
+        <v>47022517</v>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>옥외광고사</t>
+        </is>
+      </c>
+      <c r="E1970" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:16:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1971" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1971" t="n">
+        <v>47019283</v>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>컬러리스트산업기사</t>
+        </is>
+      </c>
+      <c r="E1971" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:16:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1972" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1972" t="n">
+        <v>47019283</v>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1972" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:16:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1973" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1973" t="n">
+        <v>47010089</v>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E1973" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1974" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1974" t="n">
+        <v>47010089</v>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>gtq</t>
+        </is>
+      </c>
+      <c r="E1974" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1975" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1975" t="n">
+        <v>47004414</v>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E1975" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:17:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1976" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1976" t="n">
+        <v>47004414</v>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E1976" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:17:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1977" t="n">
+        <v>1000258</v>
+      </c>
+      <c r="C1977" t="n">
+        <v>47004414</v>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>인디자인</t>
+        </is>
+      </c>
+      <c r="E1977" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:17:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1978" t="n">
+        <v>1000259</v>
+      </c>
+      <c r="C1978" t="n">
+        <v>47052656</v>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1978" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:35:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1979" t="n">
+        <v>1000259</v>
+      </c>
+      <c r="C1979" t="n">
+        <v>47052656</v>
+      </c>
+      <c r="D1979" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1979" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:35:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1980" t="n">
+        <v>1000259</v>
+      </c>
+      <c r="C1980" t="n">
+        <v>47052656</v>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1980" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:35:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1981" t="n">
+        <v>1000259</v>
+      </c>
+      <c r="C1981" t="n">
+        <v>47052632</v>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1981" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:35:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1982" t="n">
+        <v>1000259</v>
+      </c>
+      <c r="C1982" t="n">
+        <v>47052632</v>
+      </c>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1982" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:35:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1983" t="n">
+        <v>1000259</v>
+      </c>
+      <c r="C1983" t="n">
+        <v>47052632</v>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>건설안전기사</t>
+        </is>
+      </c>
+      <c r="E1983" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:35:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1984" t="n">
+        <v>1000259</v>
+      </c>
+      <c r="C1984" t="n">
+        <v>47011177</v>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1984" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:41:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1985" t="n">
+        <v>1000259</v>
+      </c>
+      <c r="C1985" t="n">
+        <v>47011177</v>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1985" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:41:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B1986" t="n">
+        <v>1000259</v>
+      </c>
+      <c r="C1986" t="n">
+        <v>47011177</v>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1986" t="inlineStr">
+        <is>
+          <t>2025.06.03 - 23:41:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1953" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1953" t="inlineStr">
-        <is>
-          <t>47074406</t>
-        </is>
-      </c>
-      <c r="D1953" t="inlineStr">
-        <is>
-          <t>GTA포토샵</t>
-        </is>
-      </c>
-      <c r="E1953" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:09:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="1954">
-      <c r="A1954" t="inlineStr">
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>46987356</t>
+        </is>
+      </c>
+      <c r="D1987" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1987" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:11:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1954" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1954" t="inlineStr">
-        <is>
-          <t>47074406</t>
-        </is>
-      </c>
-      <c r="D1954" t="inlineStr">
-        <is>
-          <t>일러스트레이터(Illustrator)</t>
-        </is>
-      </c>
-      <c r="E1954" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:09:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="1955">
-      <c r="A1955" t="inlineStr">
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>46987356</t>
+        </is>
+      </c>
+      <c r="D1988" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1988" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:11:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1955" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1955" t="inlineStr">
-        <is>
-          <t>47060581</t>
-        </is>
-      </c>
-      <c r="D1955" t="inlineStr">
-        <is>
-          <t>컴퓨터그래픽스운용기능사</t>
-        </is>
-      </c>
-      <c r="E1955" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:11:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="1956">
-      <c r="A1956" t="inlineStr">
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>46987356</t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1989" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:11:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1956" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1956" t="inlineStr">
-        <is>
-          <t>47060044</t>
-        </is>
-      </c>
-      <c r="D1956" t="inlineStr">
-        <is>
-          <t>GTQi(그래픽기술자격 일러스...</t>
-        </is>
-      </c>
-      <c r="E1956" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:11:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="1957">
-      <c r="A1957" t="inlineStr">
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>46985538</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1990" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:11:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1957" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1957" t="inlineStr">
-        <is>
-          <t>47035287</t>
-        </is>
-      </c>
-      <c r="D1957" t="inlineStr">
-        <is>
-          <t>시각디자인기사</t>
-        </is>
-      </c>
-      <c r="E1957" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:14:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="1958">
-      <c r="A1958" t="inlineStr">
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>46985525</t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E1991" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:11:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1958" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1958" t="inlineStr">
-        <is>
-          <t>47035287</t>
-        </is>
-      </c>
-      <c r="D1958" t="inlineStr">
-        <is>
-          <t>시각디자인산업기사</t>
-        </is>
-      </c>
-      <c r="E1958" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:14:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="1959">
-      <c r="A1959" t="inlineStr">
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>46985525</t>
+        </is>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1992" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:11:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1959" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1959" t="inlineStr">
-        <is>
-          <t>47035287</t>
-        </is>
-      </c>
-      <c r="D1959" t="inlineStr">
-        <is>
-          <t>컬러리스트산업기사</t>
-        </is>
-      </c>
-      <c r="E1959" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:14:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="1960">
-      <c r="A1960" t="inlineStr">
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>46984291</t>
+        </is>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E1993" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:11:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1960" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1960" t="inlineStr">
-        <is>
-          <t>47031148</t>
-        </is>
-      </c>
-      <c r="D1960" t="inlineStr">
-        <is>
-          <t>ACA Illustrator</t>
-        </is>
-      </c>
-      <c r="E1960" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:14:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="1961">
-      <c r="A1961" t="inlineStr">
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>46984291</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1994" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:11:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1961" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1961" t="inlineStr">
-        <is>
-          <t>47031148</t>
-        </is>
-      </c>
-      <c r="D1961" t="inlineStr">
-        <is>
-          <t>ACA Indesign</t>
-        </is>
-      </c>
-      <c r="E1961" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:14:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="1962">
-      <c r="A1962" t="inlineStr">
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>46984283</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E1995" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:11:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1962" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1962" t="inlineStr">
-        <is>
-          <t>47031148</t>
-        </is>
-      </c>
-      <c r="D1962" t="inlineStr">
-        <is>
-          <t>ACA Photoshop</t>
-        </is>
-      </c>
-      <c r="E1962" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:14:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="1963">
-      <c r="A1963" t="inlineStr">
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>46984283</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1996" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:11:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1963" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1963" t="inlineStr">
-        <is>
-          <t>47031090</t>
-        </is>
-      </c>
-      <c r="D1963" t="inlineStr">
-        <is>
-          <t>시각디자인기사</t>
-        </is>
-      </c>
-      <c r="E1963" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:14:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="1964">
-      <c r="A1964" t="inlineStr">
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>46984229</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E1997" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:11:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1964" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1964" t="inlineStr">
-        <is>
-          <t>47031090</t>
-        </is>
-      </c>
-      <c r="D1964" t="inlineStr">
-        <is>
-          <t>시각디자인산업기사</t>
-        </is>
-      </c>
-      <c r="E1964" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:14:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="1965">
-      <c r="A1965" t="inlineStr">
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>46984229</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E1998" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:11:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1965" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1965" t="inlineStr">
-        <is>
-          <t>47026067</t>
-        </is>
-      </c>
-      <c r="D1965" t="inlineStr">
-        <is>
-          <t>컴퓨터그래픽스운용기능사</t>
-        </is>
-      </c>
-      <c r="E1965" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:15:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="1966">
-      <c r="A1966" t="inlineStr">
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>46984037</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E1999" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:11:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1966" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1966" t="inlineStr">
-        <is>
-          <t>47026057</t>
-        </is>
-      </c>
-      <c r="D1966" t="inlineStr">
-        <is>
-          <t>컴퓨터그래픽스운용기능사</t>
-        </is>
-      </c>
-      <c r="E1966" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:15:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="1967">
-      <c r="A1967" t="inlineStr">
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>46984037</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2000" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:11:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1967" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1967" t="inlineStr">
-        <is>
-          <t>47026057</t>
-        </is>
-      </c>
-      <c r="D1967" t="inlineStr">
-        <is>
-          <t>웹디자인 기능사</t>
-        </is>
-      </c>
-      <c r="E1967" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:15:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="1968">
-      <c r="A1968" t="inlineStr">
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>46984037</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2001" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:11:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1968" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1968" t="inlineStr">
-        <is>
-          <t>47026051</t>
-        </is>
-      </c>
-      <c r="D1968" t="inlineStr">
-        <is>
-          <t>컴퓨터그래픽스운용기능사</t>
-        </is>
-      </c>
-      <c r="E1968" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:16:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="1969">
-      <c r="A1969" t="inlineStr">
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>46981693</t>
+        </is>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2002" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:12:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1969" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1969" t="inlineStr">
-        <is>
-          <t>47022517</t>
-        </is>
-      </c>
-      <c r="D1969" t="inlineStr">
-        <is>
-          <t>컴퓨터그래픽스운용기능사</t>
-        </is>
-      </c>
-      <c r="E1969" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:16:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="1970">
-      <c r="A1970" t="inlineStr">
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>46981108</t>
+        </is>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2003" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:12:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1970" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1970" t="inlineStr">
-        <is>
-          <t>47022517</t>
-        </is>
-      </c>
-      <c r="D1970" t="inlineStr">
-        <is>
-          <t>옥외광고사</t>
-        </is>
-      </c>
-      <c r="E1970" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:16:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="1971">
-      <c r="A1971" t="inlineStr">
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t>46981108</t>
+        </is>
+      </c>
+      <c r="D2004" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2004" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:12:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1971" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1971" t="inlineStr">
-        <is>
-          <t>47019283</t>
-        </is>
-      </c>
-      <c r="D1971" t="inlineStr">
-        <is>
-          <t>컬러리스트산업기사</t>
-        </is>
-      </c>
-      <c r="E1971" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:16:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1972">
-      <c r="A1972" t="inlineStr">
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t>46981108</t>
+        </is>
+      </c>
+      <c r="D2005" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2005" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:12:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1972" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1972" t="inlineStr">
-        <is>
-          <t>47019283</t>
-        </is>
-      </c>
-      <c r="D1972" t="inlineStr">
-        <is>
-          <t>컴퓨터그래픽스운용기능사</t>
-        </is>
-      </c>
-      <c r="E1972" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:16:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1973">
-      <c r="A1973" t="inlineStr">
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t>46975790</t>
+        </is>
+      </c>
+      <c r="D2006" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2006" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:12:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1973" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1973" t="inlineStr">
-        <is>
-          <t>47010089</t>
-        </is>
-      </c>
-      <c r="D1973" t="inlineStr">
-        <is>
-          <t>컴퓨터그래픽스운용기능사</t>
-        </is>
-      </c>
-      <c r="E1973" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:17:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="1974">
-      <c r="A1974" t="inlineStr">
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t>46975790</t>
+        </is>
+      </c>
+      <c r="D2007" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2007" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:12:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1974" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1974" t="inlineStr">
-        <is>
-          <t>47010089</t>
-        </is>
-      </c>
-      <c r="D1974" t="inlineStr">
-        <is>
-          <t>gtq</t>
-        </is>
-      </c>
-      <c r="E1974" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:17:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="1975">
-      <c r="A1975" t="inlineStr">
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2008" t="inlineStr">
+        <is>
+          <t>46975790</t>
+        </is>
+      </c>
+      <c r="D2008" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2008" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:12:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1975" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1975" t="inlineStr">
-        <is>
-          <t>47004414</t>
-        </is>
-      </c>
-      <c r="D1975" t="inlineStr">
-        <is>
-          <t>포토샵</t>
-        </is>
-      </c>
-      <c r="E1975" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:17:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="1976">
-      <c r="A1976" t="inlineStr">
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2009" t="inlineStr">
+        <is>
+          <t>46973459</t>
+        </is>
+      </c>
+      <c r="D2009" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2009" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:13:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1976" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1976" t="inlineStr">
-        <is>
-          <t>47004414</t>
-        </is>
-      </c>
-      <c r="D1976" t="inlineStr">
-        <is>
-          <t>일러스트</t>
-        </is>
-      </c>
-      <c r="E1976" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:17:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="1977">
-      <c r="A1977" t="inlineStr">
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t>46973459</t>
+        </is>
+      </c>
+      <c r="D2010" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2010" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:13:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B1977" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-      <c r="C1977" t="inlineStr">
-        <is>
-          <t>47004414</t>
-        </is>
-      </c>
-      <c r="D1977" t="inlineStr">
-        <is>
-          <t>인디자인</t>
-        </is>
-      </c>
-      <c r="E1977" t="inlineStr">
-        <is>
-          <t>2025.06.03 - 23:17:48</t>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2011" t="inlineStr">
+        <is>
+          <t>46973459</t>
+        </is>
+      </c>
+      <c r="D2011" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2011" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:13:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2012" t="inlineStr">
+        <is>
+          <t>46968989</t>
+        </is>
+      </c>
+      <c r="D2012" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2012" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:13:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2013" t="inlineStr">
+        <is>
+          <t>46968989</t>
+        </is>
+      </c>
+      <c r="D2013" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2013" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:13:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2014" t="inlineStr">
+        <is>
+          <t>46968989</t>
+        </is>
+      </c>
+      <c r="D2014" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2014" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:13:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2015" t="inlineStr">
+        <is>
+          <t>46968804</t>
+        </is>
+      </c>
+      <c r="D2015" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2015" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:13:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2016" t="inlineStr">
+        <is>
+          <t>46968804</t>
+        </is>
+      </c>
+      <c r="D2016" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2016" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:13:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2017" t="inlineStr">
+        <is>
+          <t>46968655</t>
+        </is>
+      </c>
+      <c r="D2017" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2017" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:13:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2018" t="inlineStr">
+        <is>
+          <t>46968655</t>
+        </is>
+      </c>
+      <c r="D2018" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2018" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:13:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2019" t="inlineStr">
+        <is>
+          <t>46968655</t>
+        </is>
+      </c>
+      <c r="D2019" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2019" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:13:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2020" t="inlineStr">
+        <is>
+          <t>46967139</t>
+        </is>
+      </c>
+      <c r="D2020" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2020" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:14:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2021" t="inlineStr">
+        <is>
+          <t>46967139</t>
+        </is>
+      </c>
+      <c r="D2021" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2021" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:14:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2022" t="inlineStr">
+        <is>
+          <t>46966327</t>
+        </is>
+      </c>
+      <c r="D2022" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2022" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:14:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2023" t="inlineStr">
+        <is>
+          <t>46966327</t>
+        </is>
+      </c>
+      <c r="D2023" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2023" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:14:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2024" t="inlineStr">
+        <is>
+          <t>46966327</t>
+        </is>
+      </c>
+      <c r="D2024" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2024" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:14:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2025" t="inlineStr">
+        <is>
+          <t>46962011</t>
+        </is>
+      </c>
+      <c r="D2025" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2025" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2026" t="inlineStr">
+        <is>
+          <t>46960577</t>
+        </is>
+      </c>
+      <c r="D2026" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2026" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:14:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2027" t="inlineStr">
+        <is>
+          <t>46960577</t>
+        </is>
+      </c>
+      <c r="D2027" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2027" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:14:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2028" t="inlineStr">
+        <is>
+          <t>46958463</t>
+        </is>
+      </c>
+      <c r="D2028" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2028" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:15:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2029" t="inlineStr">
+        <is>
+          <t>46958463</t>
+        </is>
+      </c>
+      <c r="D2029" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2029" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:15:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2030" t="inlineStr">
+        <is>
+          <t>46958463</t>
+        </is>
+      </c>
+      <c r="D2030" t="inlineStr">
+        <is>
+          <t>건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2030" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:15:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2031" t="inlineStr">
+        <is>
+          <t>46955208</t>
+        </is>
+      </c>
+      <c r="D2031" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2031" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:15:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2032" t="inlineStr">
+        <is>
+          <t>46955028</t>
+        </is>
+      </c>
+      <c r="D2032" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2032" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:15:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2033" t="inlineStr">
+        <is>
+          <t>46955028</t>
+        </is>
+      </c>
+      <c r="D2033" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2033" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:15:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2034" t="inlineStr">
+        <is>
+          <t>46955028</t>
+        </is>
+      </c>
+      <c r="D2034" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2034" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:15:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2035" t="inlineStr">
+        <is>
+          <t>46952346</t>
+        </is>
+      </c>
+      <c r="D2035" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2035" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:15:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2036" t="inlineStr">
+        <is>
+          <t>46952346</t>
+        </is>
+      </c>
+      <c r="D2036" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2036" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:15:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t>46952346</t>
+        </is>
+      </c>
+      <c r="D2037" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2037" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:15:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>46951257</t>
+        </is>
+      </c>
+      <c r="D2038" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2038" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:15:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>46951257</t>
+        </is>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2039" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:15:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>46951257</t>
+        </is>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2040" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:15:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>46951088</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2041" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>46951088</t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2042" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>46951088</t>
+        </is>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2043" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>46949729</t>
+        </is>
+      </c>
+      <c r="D2044" t="inlineStr">
+        <is>
+          <t>건축도장기능사</t>
+        </is>
+      </c>
+      <c r="E2044" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:16:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>46949729</t>
+        </is>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2045" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:16:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t>46949729</t>
+        </is>
+      </c>
+      <c r="D2046" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E2046" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:16:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>46948784</t>
+        </is>
+      </c>
+      <c r="D2047" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2047" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:16:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t>46946499</t>
+        </is>
+      </c>
+      <c r="D2048" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2048" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:16:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>46946499</t>
+        </is>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2049" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:16:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>46946499</t>
+        </is>
+      </c>
+      <c r="D2050" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2050" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:16:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>46944371</t>
+        </is>
+      </c>
+      <c r="D2051" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2051" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2052" t="inlineStr">
+        <is>
+          <t>46944371</t>
+        </is>
+      </c>
+      <c r="D2052" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2052" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2053" t="inlineStr">
+        <is>
+          <t>46944371</t>
+        </is>
+      </c>
+      <c r="D2053" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2053" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2054" t="inlineStr">
+        <is>
+          <t>46944320</t>
+        </is>
+      </c>
+      <c r="D2054" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2054" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2055" t="inlineStr">
+        <is>
+          <t>46944320</t>
+        </is>
+      </c>
+      <c r="D2055" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2055" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2056" t="inlineStr">
+        <is>
+          <t>46944320</t>
+        </is>
+      </c>
+      <c r="D2056" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2056" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>46943712</t>
+        </is>
+      </c>
+      <c r="D2057" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2057" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>46943712</t>
+        </is>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2058" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>46943703</t>
+        </is>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2059" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t>46943703</t>
+        </is>
+      </c>
+      <c r="D2060" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2060" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t>46943703</t>
+        </is>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2061" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t>46943696</t>
+        </is>
+      </c>
+      <c r="D2062" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2062" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>46943696</t>
+        </is>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2063" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t>46942434</t>
+        </is>
+      </c>
+      <c r="D2064" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2064" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t>46942434</t>
+        </is>
+      </c>
+      <c r="D2065" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2065" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t>46942434</t>
+        </is>
+      </c>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2066" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t>46942195</t>
+        </is>
+      </c>
+      <c r="D2067" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2067" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t>46942195</t>
+        </is>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2068" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t>46941379</t>
+        </is>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2069" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t>46941379</t>
+        </is>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2070" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t>46941379</t>
+        </is>
+      </c>
+      <c r="D2071" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2071" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:17:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2072" t="inlineStr">
+        <is>
+          <t>46935651</t>
+        </is>
+      </c>
+      <c r="D2072" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2072" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:18:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2073" t="inlineStr">
+        <is>
+          <t>46935651</t>
+        </is>
+      </c>
+      <c r="D2073" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2073" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:18:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2074" t="inlineStr">
+        <is>
+          <t>46935651</t>
+        </is>
+      </c>
+      <c r="D2074" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2074" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:18:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>46929998</t>
+        </is>
+      </c>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>건축도장기능사</t>
+        </is>
+      </c>
+      <c r="E2075" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:18:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>46929998</t>
+        </is>
+      </c>
+      <c r="D2076" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2076" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:18:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t>46929998</t>
+        </is>
+      </c>
+      <c r="D2077" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2077" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:18:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2078" t="inlineStr">
+        <is>
+          <t>46929696</t>
+        </is>
+      </c>
+      <c r="D2078" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2078" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>46929696</t>
+        </is>
+      </c>
+      <c r="D2079" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2079" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t>46926493</t>
+        </is>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2080" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>46926493</t>
+        </is>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2081" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t>46926493</t>
+        </is>
+      </c>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2082" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2083" t="inlineStr">
+        <is>
+          <t>46926482</t>
+        </is>
+      </c>
+      <c r="D2083" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2083" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2084" t="inlineStr">
+        <is>
+          <t>46926482</t>
+        </is>
+      </c>
+      <c r="D2084" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2084" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t>46926482</t>
+        </is>
+      </c>
+      <c r="D2085" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2085" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2086" t="inlineStr">
+        <is>
+          <t>46926475</t>
+        </is>
+      </c>
+      <c r="D2086" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2086" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t>46926475</t>
+        </is>
+      </c>
+      <c r="D2087" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2087" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>46926475</t>
+        </is>
+      </c>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2088" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>46925488</t>
+        </is>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2089" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t>46925201</t>
+        </is>
+      </c>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2090" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>46925201</t>
+        </is>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2091" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>46925201</t>
+        </is>
+      </c>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2092" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>46924842</t>
+        </is>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2093" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2094" t="inlineStr">
+        <is>
+          <t>46924842</t>
+        </is>
+      </c>
+      <c r="D2094" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2094" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t>46924842</t>
+        </is>
+      </c>
+      <c r="D2095" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2095" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:19:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t>46920114</t>
+        </is>
+      </c>
+      <c r="D2096" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2096" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:20:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>46920114</t>
+        </is>
+      </c>
+      <c r="D2097" t="inlineStr">
+        <is>
+          <t>건축도장기능사</t>
+        </is>
+      </c>
+      <c r="E2097" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:20:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>46920114</t>
+        </is>
+      </c>
+      <c r="D2098" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2098" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:20:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t>46916689</t>
+        </is>
+      </c>
+      <c r="D2099" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2099" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:20:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>46916689</t>
+        </is>
+      </c>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2100" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:20:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>46916689</t>
+        </is>
+      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2101" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:20:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>46916684</t>
+        </is>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2102" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:20:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>46916684</t>
+        </is>
+      </c>
+      <c r="D2103" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2103" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:20:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>46913736</t>
+        </is>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2104" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:20:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>46913736</t>
+        </is>
+      </c>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2105" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:20:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>46913697</t>
+        </is>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2106" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:20:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>46913697</t>
+        </is>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2107" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:20:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>46913697</t>
+        </is>
+      </c>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2108" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:20:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t>46910497</t>
+        </is>
+      </c>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2109" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:21:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>46910497</t>
+        </is>
+      </c>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2110" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:21:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t>46910497</t>
+        </is>
+      </c>
+      <c r="D2111" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2111" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:21:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2112" t="inlineStr">
+        <is>
+          <t>46908339</t>
+        </is>
+      </c>
+      <c r="D2112" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2112" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:21:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2113" t="inlineStr">
+        <is>
+          <t>46908339</t>
+        </is>
+      </c>
+      <c r="D2113" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2113" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:21:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2114" t="inlineStr">
+        <is>
+          <t>46908339</t>
+        </is>
+      </c>
+      <c r="D2114" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2114" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:21:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2115" t="inlineStr">
+        <is>
+          <t>46908106</t>
+        </is>
+      </c>
+      <c r="D2115" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2115" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2116" t="inlineStr">
+        <is>
+          <t>46908106</t>
+        </is>
+      </c>
+      <c r="D2116" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2116" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>46908106</t>
+        </is>
+      </c>
+      <c r="D2117" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2117" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2118" t="inlineStr">
+        <is>
+          <t>46907955</t>
+        </is>
+      </c>
+      <c r="D2118" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2118" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:21:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2119" t="inlineStr">
+        <is>
+          <t>46907955</t>
+        </is>
+      </c>
+      <c r="D2119" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2119" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:21:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t>46907367</t>
+        </is>
+      </c>
+      <c r="D2120" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2120" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2121" t="inlineStr">
+        <is>
+          <t>46907367</t>
+        </is>
+      </c>
+      <c r="D2121" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2121" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t>46907367</t>
+        </is>
+      </c>
+      <c r="D2122" t="inlineStr">
+        <is>
+          <t>CAD실무능력평가 1급</t>
+        </is>
+      </c>
+      <c r="E2122" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>46903083</t>
+        </is>
+      </c>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2123" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>46903083</t>
+        </is>
+      </c>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2124" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>46903083</t>
+        </is>
+      </c>
+      <c r="D2125" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2125" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>46893047</t>
+        </is>
+      </c>
+      <c r="D2126" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2126" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>46893047</t>
+        </is>
+      </c>
+      <c r="D2127" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2127" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>46888178</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2128" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>46888178</t>
+        </is>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2129" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>46888178</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2130" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>46885596</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2131" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>46885596</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2132" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>46885596</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2133" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>46884267</t>
+        </is>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2134" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>46884267</t>
+        </is>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2135" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>46884267</t>
+        </is>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2136" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>46882267</t>
+        </is>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2137" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>46878632</t>
+        </is>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2138" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>46878632</t>
+        </is>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>건설안전산업기사</t>
+        </is>
+      </c>
+      <c r="E2139" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>46878632</t>
+        </is>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2140" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>46876802</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2141" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>46876802</t>
+        </is>
+      </c>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2142" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>46876802</t>
+        </is>
+      </c>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2143" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>46872789</t>
+        </is>
+      </c>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2144" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>46872789</t>
+        </is>
+      </c>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2145" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>46872789</t>
+        </is>
+      </c>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2146" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>46864663</t>
+        </is>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2147" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>46864663</t>
+        </is>
+      </c>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2148" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>46864663</t>
+        </is>
+      </c>
+      <c r="D2149" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2149" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:22:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>46858241</t>
+        </is>
+      </c>
+      <c r="D2150" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2150" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>46858241</t>
+        </is>
+      </c>
+      <c r="D2151" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2151" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>46844177</t>
+        </is>
+      </c>
+      <c r="D2152" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2152" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>46841269</t>
+        </is>
+      </c>
+      <c r="D2153" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2153" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2154" t="inlineStr">
+        <is>
+          <t>46838223</t>
+        </is>
+      </c>
+      <c r="D2154" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2154" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>46838223</t>
+        </is>
+      </c>
+      <c r="D2155" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2155" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2156" t="inlineStr">
+        <is>
+          <t>46834524</t>
+        </is>
+      </c>
+      <c r="D2156" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2156" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2157" t="inlineStr">
+        <is>
+          <t>46834524</t>
+        </is>
+      </c>
+      <c r="D2157" t="inlineStr">
+        <is>
+          <t>건설안전기사</t>
+        </is>
+      </c>
+      <c r="E2157" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2158" t="inlineStr">
+        <is>
+          <t>46829420</t>
+        </is>
+      </c>
+      <c r="D2158" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2158" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2159" t="inlineStr">
+        <is>
+          <t>46829420</t>
+        </is>
+      </c>
+      <c r="D2159" t="inlineStr">
+        <is>
+          <t>건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2159" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2160" t="inlineStr">
+        <is>
+          <t>46829420</t>
+        </is>
+      </c>
+      <c r="D2160" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2160" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2161" t="inlineStr">
+        <is>
+          <t>46825548</t>
+        </is>
+      </c>
+      <c r="D2161" t="inlineStr">
+        <is>
+          <t>한국사</t>
+        </is>
+      </c>
+      <c r="E2161" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2162" t="inlineStr">
+        <is>
+          <t>46813027</t>
+        </is>
+      </c>
+      <c r="D2162" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2162" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2163" t="inlineStr">
+        <is>
+          <t>46813027</t>
+        </is>
+      </c>
+      <c r="D2163" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2163" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2164" t="inlineStr">
+        <is>
+          <t>46810264</t>
+        </is>
+      </c>
+      <c r="D2164" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2164" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:24:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2165" t="inlineStr">
+        <is>
+          <t>46810264</t>
+        </is>
+      </c>
+      <c r="D2165" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2165" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:24:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2166" t="inlineStr">
+        <is>
+          <t>46807939</t>
+        </is>
+      </c>
+      <c r="D2166" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2166" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2167" t="inlineStr">
+        <is>
+          <t>46807939</t>
+        </is>
+      </c>
+      <c r="D2167" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2167" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2168" t="inlineStr">
+        <is>
+          <t>46796933</t>
+        </is>
+      </c>
+      <c r="D2168" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2168" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:25:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2169" t="inlineStr">
+        <is>
+          <t>46796933</t>
+        </is>
+      </c>
+      <c r="D2169" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2169" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:25:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2170" t="inlineStr">
+        <is>
+          <t>46789793</t>
+        </is>
+      </c>
+      <c r="D2170" t="inlineStr">
+        <is>
+          <t>실내건축</t>
+        </is>
+      </c>
+      <c r="E2170" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:25:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2171" t="inlineStr">
+        <is>
+          <t>46781698</t>
+        </is>
+      </c>
+      <c r="D2171" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2171" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:25:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>46781698</t>
+        </is>
+      </c>
+      <c r="D2172" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2172" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:25:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>46781698</t>
+        </is>
+      </c>
+      <c r="D2173" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2173" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:25:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>46776627</t>
+        </is>
+      </c>
+      <c r="D2174" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2174" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:25:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>46776627</t>
+        </is>
+      </c>
+      <c r="D2175" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2175" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:25:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>46776627</t>
+        </is>
+      </c>
+      <c r="D2176" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2176" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:25:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>46775386</t>
+        </is>
+      </c>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2177" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:25:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>46775386</t>
+        </is>
+      </c>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2178" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:25:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>46775375</t>
+        </is>
+      </c>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2179" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:25:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>46775375</t>
+        </is>
+      </c>
+      <c r="D2180" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2180" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:25:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>46768938</t>
+        </is>
+      </c>
+      <c r="D2181" t="inlineStr">
+        <is>
+          <t>3DS MAX 기술자격시험</t>
+        </is>
+      </c>
+      <c r="E2181" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:26:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>46762481</t>
+        </is>
+      </c>
+      <c r="D2182" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2182" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>46762481</t>
+        </is>
+      </c>
+      <c r="D2183" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2183" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>46758955</t>
+        </is>
+      </c>
+      <c r="D2184" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2184" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:26:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>46758091</t>
+        </is>
+      </c>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2185" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:26:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>46758091</t>
+        </is>
+      </c>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2186" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:26:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>46758091</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>실내건축 산업기사</t>
+        </is>
+      </c>
+      <c r="E2187" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:26:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>46752329</t>
+        </is>
+      </c>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2188" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:26:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>46752329</t>
+        </is>
+      </c>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2189" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:26:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>46752329</t>
+        </is>
+      </c>
+      <c r="D2190" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2190" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:26:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>46750113</t>
+        </is>
+      </c>
+      <c r="D2191" t="inlineStr">
+        <is>
+          <t>건설기술인 초급 이상</t>
+        </is>
+      </c>
+      <c r="E2191" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:27:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>46743033</t>
+        </is>
+      </c>
+      <c r="D2192" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2192" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:27:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>46743033</t>
+        </is>
+      </c>
+      <c r="D2193" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2193" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:27:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>1000259</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>46743033</t>
+        </is>
+      </c>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2194" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 00:27:09</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2441"/>
+  <dimension ref="A1:E2453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48646,2837 +48646,2531 @@
       </c>
     </row>
     <row r="2337">
-      <c r="A2337" t="inlineStr">
+      <c r="A2337" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2337" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2337" t="n">
+        <v>46960577</v>
+      </c>
+      <c r="D2337" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2337" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:29:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2338" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2338" t="n">
+        <v>46960577</v>
+      </c>
+      <c r="D2338" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2338" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:29:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2339" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2339" t="n">
+        <v>46958463</v>
+      </c>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2339" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:29:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2340" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2340" t="n">
+        <v>46958463</v>
+      </c>
+      <c r="D2340" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2340" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:29:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2341" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2341" t="n">
+        <v>46958463</v>
+      </c>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2341" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:29:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2342" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2342" t="n">
+        <v>46958184</v>
+      </c>
+      <c r="D2342" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E2342" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:30:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2343" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2343" t="n">
+        <v>46958184</v>
+      </c>
+      <c r="D2343" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E2343" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:30:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2344" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2344" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D2344" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2344" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:30:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2345" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2345" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D2345" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2345" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:30:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2346" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2346" t="n">
+        <v>46955028</v>
+      </c>
+      <c r="D2346" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2346" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:30:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2347" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2347" t="n">
+        <v>46951088</v>
+      </c>
+      <c r="D2347" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2347" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:30:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2348" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2348" t="n">
+        <v>46951088</v>
+      </c>
+      <c r="D2348" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2348" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:30:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2349" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2349" t="n">
+        <v>46951088</v>
+      </c>
+      <c r="D2349" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:30:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2350" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2350" t="n">
+        <v>46949729</v>
+      </c>
+      <c r="D2350" t="inlineStr">
+        <is>
+          <t>건축도장기능사</t>
+        </is>
+      </c>
+      <c r="E2350" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:30:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2351" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2351" t="n">
+        <v>46949729</v>
+      </c>
+      <c r="D2351" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2351" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:30:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2352" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2352" t="n">
+        <v>46949729</v>
+      </c>
+      <c r="D2352" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E2352" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:30:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2353" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2353" t="n">
+        <v>46944320</v>
+      </c>
+      <c r="D2353" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2353" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:31:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2354" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2354" t="n">
+        <v>46944320</v>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2354" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:31:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2355" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2355" t="n">
+        <v>46944320</v>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2355" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:31:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2356" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2356" t="n">
+        <v>46943703</v>
+      </c>
+      <c r="D2356" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2356" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:31:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2357" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2357" t="n">
+        <v>46943703</v>
+      </c>
+      <c r="D2357" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2357" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:31:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2358" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2358" t="n">
+        <v>46943703</v>
+      </c>
+      <c r="D2358" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2358" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:31:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2359" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2359" t="n">
+        <v>46942434</v>
+      </c>
+      <c r="D2359" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2359" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:31:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2360" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2360" t="n">
+        <v>46942434</v>
+      </c>
+      <c r="D2360" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2360" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:31:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2361" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2361" t="n">
+        <v>46942434</v>
+      </c>
+      <c r="D2361" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2361" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:31:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2362" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2362" t="n">
+        <v>46941379</v>
+      </c>
+      <c r="D2362" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2362" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:31:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2363" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2363" t="n">
+        <v>46941379</v>
+      </c>
+      <c r="D2363" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2363" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:31:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2364" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2364" t="n">
+        <v>46941379</v>
+      </c>
+      <c r="D2364" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2364" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:31:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2365" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2365" t="n">
+        <v>46936430</v>
+      </c>
+      <c r="D2365" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2365" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:32:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2366" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2366" t="n">
+        <v>46936430</v>
+      </c>
+      <c r="D2366" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2366" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:32:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2367" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2367" t="n">
+        <v>46926493</v>
+      </c>
+      <c r="D2367" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2367" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2368" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2368" t="n">
+        <v>46926493</v>
+      </c>
+      <c r="D2368" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2368" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2369" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2369" t="n">
+        <v>46926493</v>
+      </c>
+      <c r="D2369" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2369" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2370" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2370" t="n">
+        <v>46926482</v>
+      </c>
+      <c r="D2370" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2370" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2371" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2371" t="n">
+        <v>46926482</v>
+      </c>
+      <c r="D2371" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2371" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2372" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2372" t="n">
+        <v>46926482</v>
+      </c>
+      <c r="D2372" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2372" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2373" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2373" t="n">
+        <v>46926475</v>
+      </c>
+      <c r="D2373" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2373" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2374" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2374" t="n">
+        <v>46926475</v>
+      </c>
+      <c r="D2374" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2374" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2375" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2375" t="n">
+        <v>46926475</v>
+      </c>
+      <c r="D2375" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2375" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2376" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2376" t="n">
+        <v>46925488</v>
+      </c>
+      <c r="D2376" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2376" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2377" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2377" t="n">
+        <v>46925349</v>
+      </c>
+      <c r="D2377" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E2377" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2378" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2378" t="n">
+        <v>46925349</v>
+      </c>
+      <c r="D2378" t="inlineStr">
+        <is>
+          <t>캐드</t>
+        </is>
+      </c>
+      <c r="E2378" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2379" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2379" t="n">
+        <v>46925349</v>
+      </c>
+      <c r="D2379" t="inlineStr">
+        <is>
+          <t>3D MAX</t>
+        </is>
+      </c>
+      <c r="E2379" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2380" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2380" t="n">
+        <v>46924842</v>
+      </c>
+      <c r="D2380" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2380" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2381" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2381" t="n">
+        <v>46924842</v>
+      </c>
+      <c r="D2381" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2381" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2382" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2382" t="n">
+        <v>46924842</v>
+      </c>
+      <c r="D2382" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2382" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2383" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2383" t="n">
+        <v>46920114</v>
+      </c>
+      <c r="D2383" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2383" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2384" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2384" t="n">
+        <v>46920114</v>
+      </c>
+      <c r="D2384" t="inlineStr">
+        <is>
+          <t>건축도장기능사</t>
+        </is>
+      </c>
+      <c r="E2384" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2385" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2385" t="n">
+        <v>46920114</v>
+      </c>
+      <c r="D2385" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2385" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2386" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2386" t="n">
+        <v>46917379</v>
+      </c>
+      <c r="D2386" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2386" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:34:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2387" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2387" t="n">
+        <v>46917379</v>
+      </c>
+      <c r="D2387" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2387" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:34:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2388" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2388" t="n">
+        <v>46917379</v>
+      </c>
+      <c r="D2388" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2388" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:34:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2389" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2389" t="n">
+        <v>46913736</v>
+      </c>
+      <c r="D2389" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2389" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:34:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2390" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2390" t="n">
+        <v>46913736</v>
+      </c>
+      <c r="D2390" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2390" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:34:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2391" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2391" t="n">
+        <v>46913697</v>
+      </c>
+      <c r="D2391" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2391" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:34:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2392" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2392" t="n">
+        <v>46913697</v>
+      </c>
+      <c r="D2392" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2392" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:34:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2393" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2393" t="n">
+        <v>46913697</v>
+      </c>
+      <c r="D2393" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2393" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:34:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2394" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2394" t="n">
+        <v>46910497</v>
+      </c>
+      <c r="D2394" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2394" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:35:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2395" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2395" t="n">
+        <v>46910497</v>
+      </c>
+      <c r="D2395" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2395" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:35:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2396" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2396" t="n">
+        <v>46910497</v>
+      </c>
+      <c r="D2396" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2396" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:35:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2397" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2397" t="n">
+        <v>46908106</v>
+      </c>
+      <c r="D2397" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2397" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:35:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2398" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2398" t="n">
+        <v>46908106</v>
+      </c>
+      <c r="D2398" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2398" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:35:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2399" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2399" t="n">
+        <v>46908106</v>
+      </c>
+      <c r="D2399" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2399" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:35:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2400" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2400" t="n">
+        <v>46903083</v>
+      </c>
+      <c r="D2400" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2400" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:35:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2401" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2401" t="n">
+        <v>46903083</v>
+      </c>
+      <c r="D2401" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2401" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:35:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2402" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2402" t="n">
+        <v>46903083</v>
+      </c>
+      <c r="D2402" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2402" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:35:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2403" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2403" t="n">
+        <v>46893047</v>
+      </c>
+      <c r="D2403" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2403" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:35:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2404" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2404" t="n">
+        <v>46893047</v>
+      </c>
+      <c r="D2404" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2404" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:35:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2405" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2405" t="n">
+        <v>46888178</v>
+      </c>
+      <c r="D2405" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2405" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:35:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2406" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2406" t="n">
+        <v>46888178</v>
+      </c>
+      <c r="D2406" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2406" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:35:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2407" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2407" t="n">
+        <v>46888178</v>
+      </c>
+      <c r="D2407" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2407" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:35:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2408" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2408" t="n">
+        <v>46884267</v>
+      </c>
+      <c r="D2408" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2408" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:35:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2409" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2409" t="n">
+        <v>46884267</v>
+      </c>
+      <c r="D2409" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2409" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:35:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2410" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2410" t="n">
+        <v>46884267</v>
+      </c>
+      <c r="D2410" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2410" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:35:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2411" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2411" t="n">
+        <v>46876802</v>
+      </c>
+      <c r="D2411" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2411" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:36:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2412" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2412" t="n">
+        <v>46876802</v>
+      </c>
+      <c r="D2412" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2412" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:36:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2413" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2413" t="n">
+        <v>46876802</v>
+      </c>
+      <c r="D2413" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2413" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:36:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2414" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2414" t="n">
+        <v>46865987</v>
+      </c>
+      <c r="D2414" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2414" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:36:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2415" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2415" t="n">
+        <v>46865987</v>
+      </c>
+      <c r="D2415" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2415" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:36:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2416" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2416" t="n">
+        <v>46865987</v>
+      </c>
+      <c r="D2416" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2416" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:36:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2417" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2417" t="n">
+        <v>46858422</v>
+      </c>
+      <c r="D2417" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2417" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:36:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2418" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2418" t="n">
+        <v>46855038</v>
+      </c>
+      <c r="D2418" t="inlineStr">
+        <is>
+          <t>건축목공산업기사</t>
+        </is>
+      </c>
+      <c r="E2418" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:36:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2419" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2419" t="n">
+        <v>46855038</v>
+      </c>
+      <c r="D2419" t="inlineStr">
+        <is>
+          <t>건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2419" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:36:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2420" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2420" t="n">
+        <v>46855038</v>
+      </c>
+      <c r="D2420" t="inlineStr">
+        <is>
+          <t>CAD실무능력평가 2급</t>
+        </is>
+      </c>
+      <c r="E2420" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:36:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2421" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2421" t="n">
+        <v>46838223</v>
+      </c>
+      <c r="D2421" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2421" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:36:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2422" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2422" t="n">
+        <v>46838223</v>
+      </c>
+      <c r="D2422" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2422" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:36:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2423" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2423" t="n">
+        <v>46834524</v>
+      </c>
+      <c r="D2423" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2423" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:36:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2424" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2424" t="n">
+        <v>46834524</v>
+      </c>
+      <c r="D2424" t="inlineStr">
+        <is>
+          <t>건설안전기사</t>
+        </is>
+      </c>
+      <c r="E2424" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:36:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2425" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2425" t="n">
+        <v>46832737</v>
+      </c>
+      <c r="D2425" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2425" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:37:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2426" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2426" t="n">
+        <v>46832737</v>
+      </c>
+      <c r="D2426" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2426" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:37:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2427" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2427" t="n">
+        <v>46832737</v>
+      </c>
+      <c r="D2427" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2427" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:37:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2428" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2428" t="n">
+        <v>46832221</v>
+      </c>
+      <c r="D2428" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2428" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:37:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2429" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2429" t="n">
+        <v>46832221</v>
+      </c>
+      <c r="D2429" t="inlineStr">
+        <is>
+          <t>건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2429" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:37:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2430" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2430" t="n">
+        <v>46832221</v>
+      </c>
+      <c r="D2430" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E2430" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:37:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2431" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2431" t="n">
+        <v>46825548</v>
+      </c>
+      <c r="D2431" t="inlineStr">
+        <is>
+          <t>한국사</t>
+        </is>
+      </c>
+      <c r="E2431" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:37:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2432" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2432" t="n">
+        <v>46825256</v>
+      </c>
+      <c r="D2432" t="inlineStr">
+        <is>
+          <t>조경산업기사</t>
+        </is>
+      </c>
+      <c r="E2432" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:37:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2433" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2433" t="n">
+        <v>46825256</v>
+      </c>
+      <c r="D2433" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E2433" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:37:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="A2434" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2434" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2434" t="n">
+        <v>46813027</v>
+      </c>
+      <c r="D2434" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2434" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:37:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2435" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2435" t="n">
+        <v>46813027</v>
+      </c>
+      <c r="D2435" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2435" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:37:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2436" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2436" t="n">
+        <v>46810487</v>
+      </c>
+      <c r="D2436" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2436" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:37:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2437" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2437" t="n">
+        <v>46810487</v>
+      </c>
+      <c r="D2437" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2437" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:37:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2438" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2438" t="n">
+        <v>46796933</v>
+      </c>
+      <c r="D2438" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2438" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:38:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2439" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2439" t="n">
+        <v>46796933</v>
+      </c>
+      <c r="D2439" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2439" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:38:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2440" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2440" t="n">
+        <v>46775375</v>
+      </c>
+      <c r="D2440" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2440" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:38:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2441" t="n">
+        <v>1000260</v>
+      </c>
+      <c r="C2441" t="n">
+        <v>46775375</v>
+      </c>
+      <c r="D2441" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2441" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:38:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2337" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2337" t="inlineStr">
-        <is>
-          <t>46960577</t>
-        </is>
-      </c>
-      <c r="D2337" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2337" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:29:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="2338">
-      <c r="A2338" t="inlineStr">
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>1000261</t>
+        </is>
+      </c>
+      <c r="C2442" t="inlineStr">
+        <is>
+          <t>47057635</t>
+        </is>
+      </c>
+      <c r="D2442" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E2442" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:51:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2338" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2338" t="inlineStr">
-        <is>
-          <t>46960577</t>
-        </is>
-      </c>
-      <c r="D2338" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2338" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:29:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="2339">
-      <c r="A2339" t="inlineStr">
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>1000261</t>
+        </is>
+      </c>
+      <c r="C2443" t="inlineStr">
+        <is>
+          <t>47057635</t>
+        </is>
+      </c>
+      <c r="D2443" t="inlineStr">
+        <is>
+          <t>컬러리스트산업기사</t>
+        </is>
+      </c>
+      <c r="E2443" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:51:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2339" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2339" t="inlineStr">
-        <is>
-          <t>46958463</t>
-        </is>
-      </c>
-      <c r="D2339" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2339" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:29:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="2340">
-      <c r="A2340" t="inlineStr">
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>1000261</t>
+        </is>
+      </c>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>47057635</t>
+        </is>
+      </c>
+      <c r="D2444" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E2444" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:51:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2340" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2340" t="inlineStr">
-        <is>
-          <t>46958463</t>
-        </is>
-      </c>
-      <c r="D2340" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E2340" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:29:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="2341">
-      <c r="A2341" t="inlineStr">
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>1000261</t>
+        </is>
+      </c>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t>47014471</t>
+        </is>
+      </c>
+      <c r="D2445" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2445" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:53:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2341" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2341" t="inlineStr">
-        <is>
-          <t>46958463</t>
-        </is>
-      </c>
-      <c r="D2341" t="inlineStr">
-        <is>
-          <t>건축제도기능사</t>
-        </is>
-      </c>
-      <c r="E2341" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:29:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="2342">
-      <c r="A2342" t="inlineStr">
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>1000261</t>
+        </is>
+      </c>
+      <c r="C2446" t="inlineStr">
+        <is>
+          <t>47014471</t>
+        </is>
+      </c>
+      <c r="D2446" t="inlineStr">
+        <is>
+          <t>전산응용토목제도기능사</t>
+        </is>
+      </c>
+      <c r="E2446" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:53:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2342" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2342" t="inlineStr">
-        <is>
-          <t>46958184</t>
-        </is>
-      </c>
-      <c r="D2342" t="inlineStr">
-        <is>
-          <t>컴퓨터그래픽스운용기능사</t>
-        </is>
-      </c>
-      <c r="E2342" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:30:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="2343">
-      <c r="A2343" t="inlineStr">
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>1000261</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>47014471</t>
+        </is>
+      </c>
+      <c r="D2447" t="inlineStr">
+        <is>
+          <t>전산응용기계제도기능사</t>
+        </is>
+      </c>
+      <c r="E2447" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:53:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2343" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2343" t="inlineStr">
-        <is>
-          <t>46958184</t>
-        </is>
-      </c>
-      <c r="D2343" t="inlineStr">
-        <is>
-          <t>시각디자인산업기사</t>
-        </is>
-      </c>
-      <c r="E2343" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:30:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="2344">
-      <c r="A2344" t="inlineStr">
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>1000261</t>
+        </is>
+      </c>
+      <c r="C2448" t="inlineStr">
+        <is>
+          <t>46949962</t>
+        </is>
+      </c>
+      <c r="D2448" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E2448" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:55:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2344" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2344" t="inlineStr">
-        <is>
-          <t>46955028</t>
-        </is>
-      </c>
-      <c r="D2344" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2344" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:30:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="2345">
-      <c r="A2345" t="inlineStr">
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>1000261</t>
+        </is>
+      </c>
+      <c r="C2449" t="inlineStr">
+        <is>
+          <t>46949962</t>
+        </is>
+      </c>
+      <c r="D2449" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E2449" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:55:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2345" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2345" t="inlineStr">
-        <is>
-          <t>46955028</t>
-        </is>
-      </c>
-      <c r="D2345" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2345" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:30:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="2346">
-      <c r="A2346" t="inlineStr">
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>1000261</t>
+        </is>
+      </c>
+      <c r="C2450" t="inlineStr">
+        <is>
+          <t>46949960</t>
+        </is>
+      </c>
+      <c r="D2450" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E2450" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:55:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2346" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2346" t="inlineStr">
-        <is>
-          <t>46955028</t>
-        </is>
-      </c>
-      <c r="D2346" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E2346" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:30:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="2347">
-      <c r="A2347" t="inlineStr">
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>1000261</t>
+        </is>
+      </c>
+      <c r="C2451" t="inlineStr">
+        <is>
+          <t>46949960</t>
+        </is>
+      </c>
+      <c r="D2451" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E2451" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:55:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2347" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2347" t="inlineStr">
-        <is>
-          <t>46951088</t>
-        </is>
-      </c>
-      <c r="D2347" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2347" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:30:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="2348">
-      <c r="A2348" t="inlineStr">
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>1000261</t>
+        </is>
+      </c>
+      <c r="C2452" t="inlineStr">
+        <is>
+          <t>46949959</t>
+        </is>
+      </c>
+      <c r="D2452" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E2452" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:55:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2348" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2348" t="inlineStr">
-        <is>
-          <t>46951088</t>
-        </is>
-      </c>
-      <c r="D2348" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2348" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:30:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="2349">
-      <c r="A2349" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2349" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2349" t="inlineStr">
-        <is>
-          <t>46951088</t>
-        </is>
-      </c>
-      <c r="D2349" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E2349" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:30:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="2350">
-      <c r="A2350" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2350" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2350" t="inlineStr">
-        <is>
-          <t>46949729</t>
-        </is>
-      </c>
-      <c r="D2350" t="inlineStr">
-        <is>
-          <t>건축도장기능사</t>
-        </is>
-      </c>
-      <c r="E2350" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:30:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="2351">
-      <c r="A2351" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2351" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2351" t="inlineStr">
-        <is>
-          <t>46949729</t>
-        </is>
-      </c>
-      <c r="D2351" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2351" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:30:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="2352">
-      <c r="A2352" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2352" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2352" t="inlineStr">
-        <is>
-          <t>46949729</t>
-        </is>
-      </c>
-      <c r="D2352" t="inlineStr">
-        <is>
-          <t>1종대형운전면허</t>
-        </is>
-      </c>
-      <c r="E2352" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:30:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="2353">
-      <c r="A2353" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2353" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2353" t="inlineStr">
-        <is>
-          <t>46944320</t>
-        </is>
-      </c>
-      <c r="D2353" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2353" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:31:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="2354">
-      <c r="A2354" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2354" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2354" t="inlineStr">
-        <is>
-          <t>46944320</t>
-        </is>
-      </c>
-      <c r="D2354" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E2354" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:31:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="2355">
-      <c r="A2355" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2355" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2355" t="inlineStr">
-        <is>
-          <t>46944320</t>
-        </is>
-      </c>
-      <c r="D2355" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2355" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:31:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="2356">
-      <c r="A2356" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2356" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2356" t="inlineStr">
-        <is>
-          <t>46943703</t>
-        </is>
-      </c>
-      <c r="D2356" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2356" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:31:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="2357">
-      <c r="A2357" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2357" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2357" t="inlineStr">
-        <is>
-          <t>46943703</t>
-        </is>
-      </c>
-      <c r="D2357" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2357" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:31:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="2358">
-      <c r="A2358" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2358" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2358" t="inlineStr">
-        <is>
-          <t>46943703</t>
-        </is>
-      </c>
-      <c r="D2358" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E2358" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:31:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="2359">
-      <c r="A2359" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2359" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2359" t="inlineStr">
-        <is>
-          <t>46942434</t>
-        </is>
-      </c>
-      <c r="D2359" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2359" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:31:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="2360">
-      <c r="A2360" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2360" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2360" t="inlineStr">
-        <is>
-          <t>46942434</t>
-        </is>
-      </c>
-      <c r="D2360" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E2360" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:31:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="2361">
-      <c r="A2361" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2361" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2361" t="inlineStr">
-        <is>
-          <t>46942434</t>
-        </is>
-      </c>
-      <c r="D2361" t="inlineStr">
-        <is>
-          <t>전산응용건축제도기능사</t>
-        </is>
-      </c>
-      <c r="E2361" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:31:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="2362">
-      <c r="A2362" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2362" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2362" t="inlineStr">
-        <is>
-          <t>46941379</t>
-        </is>
-      </c>
-      <c r="D2362" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2362" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:31:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="2363">
-      <c r="A2363" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2363" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2363" t="inlineStr">
-        <is>
-          <t>46941379</t>
-        </is>
-      </c>
-      <c r="D2363" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E2363" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:31:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="2364">
-      <c r="A2364" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2364" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2364" t="inlineStr">
-        <is>
-          <t>46941379</t>
-        </is>
-      </c>
-      <c r="D2364" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E2364" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:31:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="2365">
-      <c r="A2365" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2365" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2365" t="inlineStr">
-        <is>
-          <t>46936430</t>
-        </is>
-      </c>
-      <c r="D2365" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2365" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:32:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="2366">
-      <c r="A2366" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2366" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2366" t="inlineStr">
-        <is>
-          <t>46936430</t>
-        </is>
-      </c>
-      <c r="D2366" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2366" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:32:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="2367">
-      <c r="A2367" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2367" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2367" t="inlineStr">
-        <is>
-          <t>46926493</t>
-        </is>
-      </c>
-      <c r="D2367" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E2367" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="2368">
-      <c r="A2368" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2368" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2368" t="inlineStr">
-        <is>
-          <t>46926493</t>
-        </is>
-      </c>
-      <c r="D2368" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2368" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="2369">
-      <c r="A2369" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2369" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2369" t="inlineStr">
-        <is>
-          <t>46926493</t>
-        </is>
-      </c>
-      <c r="D2369" t="inlineStr">
-        <is>
-          <t>전산응용건축제도기능사</t>
-        </is>
-      </c>
-      <c r="E2369" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="2370">
-      <c r="A2370" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2370" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2370" t="inlineStr">
-        <is>
-          <t>46926482</t>
-        </is>
-      </c>
-      <c r="D2370" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E2370" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="2371">
-      <c r="A2371" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2371" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2371" t="inlineStr">
-        <is>
-          <t>46926482</t>
-        </is>
-      </c>
-      <c r="D2371" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2371" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="2372">
-      <c r="A2372" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2372" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2372" t="inlineStr">
-        <is>
-          <t>46926482</t>
-        </is>
-      </c>
-      <c r="D2372" t="inlineStr">
-        <is>
-          <t>전산응용건축제도기능사</t>
-        </is>
-      </c>
-      <c r="E2372" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="2373">
-      <c r="A2373" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2373" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2373" t="inlineStr">
-        <is>
-          <t>46926475</t>
-        </is>
-      </c>
-      <c r="D2373" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E2373" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="2374">
-      <c r="A2374" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2374" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2374" t="inlineStr">
-        <is>
-          <t>46926475</t>
-        </is>
-      </c>
-      <c r="D2374" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2374" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="2375">
-      <c r="A2375" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2375" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2375" t="inlineStr">
-        <is>
-          <t>46926475</t>
-        </is>
-      </c>
-      <c r="D2375" t="inlineStr">
-        <is>
-          <t>전산응용건축제도기능사</t>
-        </is>
-      </c>
-      <c r="E2375" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="2376">
-      <c r="A2376" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2376" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2376" t="inlineStr">
-        <is>
-          <t>46925488</t>
-        </is>
-      </c>
-      <c r="D2376" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E2376" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="2377">
-      <c r="A2377" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2377" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2377" t="inlineStr">
-        <is>
-          <t>46925349</t>
-        </is>
-      </c>
-      <c r="D2377" t="inlineStr">
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>1000261</t>
+        </is>
+      </c>
+      <c r="C2453" t="inlineStr">
+        <is>
+          <t>46949959</t>
+        </is>
+      </c>
+      <c r="D2453" t="inlineStr">
         <is>
           <t>일러스트</t>
         </is>
       </c>
-      <c r="E2377" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="2378">
-      <c r="A2378" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2378" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2378" t="inlineStr">
-        <is>
-          <t>46925349</t>
-        </is>
-      </c>
-      <c r="D2378" t="inlineStr">
-        <is>
-          <t>캐드</t>
-        </is>
-      </c>
-      <c r="E2378" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="2379">
-      <c r="A2379" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2379" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2379" t="inlineStr">
-        <is>
-          <t>46925349</t>
-        </is>
-      </c>
-      <c r="D2379" t="inlineStr">
-        <is>
-          <t>3D MAX</t>
-        </is>
-      </c>
-      <c r="E2379" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="2380">
-      <c r="A2380" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2380" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2380" t="inlineStr">
-        <is>
-          <t>46924842</t>
-        </is>
-      </c>
-      <c r="D2380" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2380" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="2381">
-      <c r="A2381" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2381" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2381" t="inlineStr">
-        <is>
-          <t>46924842</t>
-        </is>
-      </c>
-      <c r="D2381" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2381" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="2382">
-      <c r="A2382" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2382" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2382" t="inlineStr">
-        <is>
-          <t>46924842</t>
-        </is>
-      </c>
-      <c r="D2382" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E2382" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="2383">
-      <c r="A2383" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2383" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2383" t="inlineStr">
-        <is>
-          <t>46920114</t>
-        </is>
-      </c>
-      <c r="D2383" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E2383" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="2384">
-      <c r="A2384" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2384" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2384" t="inlineStr">
-        <is>
-          <t>46920114</t>
-        </is>
-      </c>
-      <c r="D2384" t="inlineStr">
-        <is>
-          <t>건축도장기능사</t>
-        </is>
-      </c>
-      <c r="E2384" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="2385">
-      <c r="A2385" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2385" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2385" t="inlineStr">
-        <is>
-          <t>46920114</t>
-        </is>
-      </c>
-      <c r="D2385" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2385" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:33:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="2386">
-      <c r="A2386" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2386" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2386" t="inlineStr">
-        <is>
-          <t>46917379</t>
-        </is>
-      </c>
-      <c r="D2386" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2386" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:34:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="2387">
-      <c r="A2387" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2387" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2387" t="inlineStr">
-        <is>
-          <t>46917379</t>
-        </is>
-      </c>
-      <c r="D2387" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2387" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:34:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="2388">
-      <c r="A2388" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2388" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2388" t="inlineStr">
-        <is>
-          <t>46917379</t>
-        </is>
-      </c>
-      <c r="D2388" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E2388" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:34:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="2389">
-      <c r="A2389" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2389" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2389" t="inlineStr">
-        <is>
-          <t>46913736</t>
-        </is>
-      </c>
-      <c r="D2389" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2389" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:34:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="2390">
-      <c r="A2390" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2390" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2390" t="inlineStr">
-        <is>
-          <t>46913736</t>
-        </is>
-      </c>
-      <c r="D2390" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2390" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:34:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="2391">
-      <c r="A2391" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2391" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2391" t="inlineStr">
-        <is>
-          <t>46913697</t>
-        </is>
-      </c>
-      <c r="D2391" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2391" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:34:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="2392">
-      <c r="A2392" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2392" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2392" t="inlineStr">
-        <is>
-          <t>46913697</t>
-        </is>
-      </c>
-      <c r="D2392" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2392" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:34:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="2393">
-      <c r="A2393" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2393" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2393" t="inlineStr">
-        <is>
-          <t>46913697</t>
-        </is>
-      </c>
-      <c r="D2393" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E2393" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:34:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="2394">
-      <c r="A2394" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2394" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2394" t="inlineStr">
-        <is>
-          <t>46910497</t>
-        </is>
-      </c>
-      <c r="D2394" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E2394" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:35:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="2395">
-      <c r="A2395" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2395" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2395" t="inlineStr">
-        <is>
-          <t>46910497</t>
-        </is>
-      </c>
-      <c r="D2395" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2395" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:35:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="2396">
-      <c r="A2396" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2396" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2396" t="inlineStr">
-        <is>
-          <t>46910497</t>
-        </is>
-      </c>
-      <c r="D2396" t="inlineStr">
-        <is>
-          <t>전산응용건축제도기능사</t>
-        </is>
-      </c>
-      <c r="E2396" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:35:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="2397">
-      <c r="A2397" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2397" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2397" t="inlineStr">
-        <is>
-          <t>46908106</t>
-        </is>
-      </c>
-      <c r="D2397" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E2397" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:35:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="2398">
-      <c r="A2398" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2398" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2398" t="inlineStr">
-        <is>
-          <t>46908106</t>
-        </is>
-      </c>
-      <c r="D2398" t="inlineStr">
-        <is>
-          <t>2종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E2398" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:35:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="2399">
-      <c r="A2399" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2399" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2399" t="inlineStr">
-        <is>
-          <t>46908106</t>
-        </is>
-      </c>
-      <c r="D2399" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2399" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:35:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="2400">
-      <c r="A2400" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2400" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2400" t="inlineStr">
-        <is>
-          <t>46903083</t>
-        </is>
-      </c>
-      <c r="D2400" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2400" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:35:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="2401">
-      <c r="A2401" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2401" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2401" t="inlineStr">
-        <is>
-          <t>46903083</t>
-        </is>
-      </c>
-      <c r="D2401" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2401" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:35:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="2402">
-      <c r="A2402" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2402" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2402" t="inlineStr">
-        <is>
-          <t>46903083</t>
-        </is>
-      </c>
-      <c r="D2402" t="inlineStr">
-        <is>
-          <t>전산응용건축제도기능사</t>
-        </is>
-      </c>
-      <c r="E2402" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:35:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="2403">
-      <c r="A2403" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2403" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2403" t="inlineStr">
-        <is>
-          <t>46893047</t>
-        </is>
-      </c>
-      <c r="D2403" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2403" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:35:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="2404">
-      <c r="A2404" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2404" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2404" t="inlineStr">
-        <is>
-          <t>46893047</t>
-        </is>
-      </c>
-      <c r="D2404" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2404" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:35:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="2405">
-      <c r="A2405" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2405" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2405" t="inlineStr">
-        <is>
-          <t>46888178</t>
-        </is>
-      </c>
-      <c r="D2405" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2405" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:35:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="2406">
-      <c r="A2406" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2406" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2406" t="inlineStr">
-        <is>
-          <t>46888178</t>
-        </is>
-      </c>
-      <c r="D2406" t="inlineStr">
-        <is>
-          <t>전산응용건축제도기능사</t>
-        </is>
-      </c>
-      <c r="E2406" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:35:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="2407">
-      <c r="A2407" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2407" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2407" t="inlineStr">
-        <is>
-          <t>46888178</t>
-        </is>
-      </c>
-      <c r="D2407" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2407" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:35:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="2408">
-      <c r="A2408" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2408" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2408" t="inlineStr">
-        <is>
-          <t>46884267</t>
-        </is>
-      </c>
-      <c r="D2408" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E2408" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:35:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="2409">
-      <c r="A2409" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2409" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2409" t="inlineStr">
-        <is>
-          <t>46884267</t>
-        </is>
-      </c>
-      <c r="D2409" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2409" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:35:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="2410">
-      <c r="A2410" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2410" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2410" t="inlineStr">
-        <is>
-          <t>46884267</t>
-        </is>
-      </c>
-      <c r="D2410" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2410" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:35:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="2411">
-      <c r="A2411" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2411" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2411" t="inlineStr">
-        <is>
-          <t>46876802</t>
-        </is>
-      </c>
-      <c r="D2411" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E2411" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:36:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="2412">
-      <c r="A2412" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2412" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2412" t="inlineStr">
-        <is>
-          <t>46876802</t>
-        </is>
-      </c>
-      <c r="D2412" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2412" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:36:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="2413">
-      <c r="A2413" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2413" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2413" t="inlineStr">
-        <is>
-          <t>46876802</t>
-        </is>
-      </c>
-      <c r="D2413" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2413" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:36:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="2414">
-      <c r="A2414" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2414" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2414" t="inlineStr">
-        <is>
-          <t>46865987</t>
-        </is>
-      </c>
-      <c r="D2414" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2414" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:36:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="2415">
-      <c r="A2415" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2415" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2415" t="inlineStr">
-        <is>
-          <t>46865987</t>
-        </is>
-      </c>
-      <c r="D2415" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E2415" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:36:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="2416">
-      <c r="A2416" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2416" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2416" t="inlineStr">
-        <is>
-          <t>46865987</t>
-        </is>
-      </c>
-      <c r="D2416" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E2416" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:36:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="2417">
-      <c r="A2417" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2417" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2417" t="inlineStr">
-        <is>
-          <t>46858422</t>
-        </is>
-      </c>
-      <c r="D2417" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E2417" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:36:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="2418">
-      <c r="A2418" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2418" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2418" t="inlineStr">
-        <is>
-          <t>46855038</t>
-        </is>
-      </c>
-      <c r="D2418" t="inlineStr">
-        <is>
-          <t>건축목공산업기사</t>
-        </is>
-      </c>
-      <c r="E2418" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:36:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="2419">
-      <c r="A2419" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2419" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2419" t="inlineStr">
-        <is>
-          <t>46855038</t>
-        </is>
-      </c>
-      <c r="D2419" t="inlineStr">
-        <is>
-          <t>건축제도기능사</t>
-        </is>
-      </c>
-      <c r="E2419" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:36:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="2420">
-      <c r="A2420" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2420" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2420" t="inlineStr">
-        <is>
-          <t>46855038</t>
-        </is>
-      </c>
-      <c r="D2420" t="inlineStr">
-        <is>
-          <t>CAD실무능력평가 2급</t>
-        </is>
-      </c>
-      <c r="E2420" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:36:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="2421">
-      <c r="A2421" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2421" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2421" t="inlineStr">
-        <is>
-          <t>46838223</t>
-        </is>
-      </c>
-      <c r="D2421" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2421" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:36:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="2422">
-      <c r="A2422" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2422" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2422" t="inlineStr">
-        <is>
-          <t>46838223</t>
-        </is>
-      </c>
-      <c r="D2422" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2422" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:36:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="2423">
-      <c r="A2423" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2423" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2423" t="inlineStr">
-        <is>
-          <t>46834524</t>
-        </is>
-      </c>
-      <c r="D2423" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E2423" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:36:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="2424">
-      <c r="A2424" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2424" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2424" t="inlineStr">
-        <is>
-          <t>46834524</t>
-        </is>
-      </c>
-      <c r="D2424" t="inlineStr">
-        <is>
-          <t>건설안전기사</t>
-        </is>
-      </c>
-      <c r="E2424" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:36:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="2425">
-      <c r="A2425" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2425" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2425" t="inlineStr">
-        <is>
-          <t>46832737</t>
-        </is>
-      </c>
-      <c r="D2425" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2425" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:37:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="2426">
-      <c r="A2426" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2426" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2426" t="inlineStr">
-        <is>
-          <t>46832737</t>
-        </is>
-      </c>
-      <c r="D2426" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2426" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:37:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="2427">
-      <c r="A2427" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2427" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2427" t="inlineStr">
-        <is>
-          <t>46832737</t>
-        </is>
-      </c>
-      <c r="D2427" t="inlineStr">
-        <is>
-          <t>전산응용건축제도기능사</t>
-        </is>
-      </c>
-      <c r="E2427" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:37:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="2428">
-      <c r="A2428" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2428" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2428" t="inlineStr">
-        <is>
-          <t>46832221</t>
-        </is>
-      </c>
-      <c r="D2428" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2428" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:37:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="2429">
-      <c r="A2429" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2429" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2429" t="inlineStr">
-        <is>
-          <t>46832221</t>
-        </is>
-      </c>
-      <c r="D2429" t="inlineStr">
-        <is>
-          <t>건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2429" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:37:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="2430">
-      <c r="A2430" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2430" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2430" t="inlineStr">
-        <is>
-          <t>46832221</t>
-        </is>
-      </c>
-      <c r="D2430" t="inlineStr">
-        <is>
-          <t>시각디자인산업기사</t>
-        </is>
-      </c>
-      <c r="E2430" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:37:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="2431">
-      <c r="A2431" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2431" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2431" t="inlineStr">
-        <is>
-          <t>46825548</t>
-        </is>
-      </c>
-      <c r="D2431" t="inlineStr">
-        <is>
-          <t>한국사</t>
-        </is>
-      </c>
-      <c r="E2431" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:37:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="2432">
-      <c r="A2432" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2432" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2432" t="inlineStr">
-        <is>
-          <t>46825256</t>
-        </is>
-      </c>
-      <c r="D2432" t="inlineStr">
-        <is>
-          <t>조경산업기사</t>
-        </is>
-      </c>
-      <c r="E2432" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:37:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="2433">
-      <c r="A2433" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2433" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2433" t="inlineStr">
-        <is>
-          <t>46825256</t>
-        </is>
-      </c>
-      <c r="D2433" t="inlineStr">
-        <is>
-          <t>조경기사</t>
-        </is>
-      </c>
-      <c r="E2433" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:37:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="2434">
-      <c r="A2434" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2434" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2434" t="inlineStr">
-        <is>
-          <t>46813027</t>
-        </is>
-      </c>
-      <c r="D2434" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2434" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:37:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="2435">
-      <c r="A2435" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2435" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2435" t="inlineStr">
-        <is>
-          <t>46813027</t>
-        </is>
-      </c>
-      <c r="D2435" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2435" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:37:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="2436">
-      <c r="A2436" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2436" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2436" t="inlineStr">
-        <is>
-          <t>46810487</t>
-        </is>
-      </c>
-      <c r="D2436" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E2436" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:37:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="2437">
-      <c r="A2437" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2437" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2437" t="inlineStr">
-        <is>
-          <t>46810487</t>
-        </is>
-      </c>
-      <c r="D2437" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2437" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:37:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="2438">
-      <c r="A2438" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2438" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2438" t="inlineStr">
-        <is>
-          <t>46796933</t>
-        </is>
-      </c>
-      <c r="D2438" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2438" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:38:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="2439">
-      <c r="A2439" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2439" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2439" t="inlineStr">
-        <is>
-          <t>46796933</t>
-        </is>
-      </c>
-      <c r="D2439" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2439" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:38:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="2440">
-      <c r="A2440" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2440" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2440" t="inlineStr">
-        <is>
-          <t>46775375</t>
-        </is>
-      </c>
-      <c r="D2440" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2440" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:38:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="2441">
-      <c r="A2441" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2441" t="inlineStr">
-        <is>
-          <t>1000260</t>
-        </is>
-      </c>
-      <c r="C2441" t="inlineStr">
-        <is>
-          <t>46775375</t>
-        </is>
-      </c>
-      <c r="D2441" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E2441" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:38:38</t>
+      <c r="E2453" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:55:18</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2453"/>
+  <dimension ref="A1:E2505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50851,326 +50851,1658 @@
       </c>
     </row>
     <row r="2442">
-      <c r="A2442" t="inlineStr">
+      <c r="A2442" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2442" t="n">
+        <v>1000261</v>
+      </c>
+      <c r="C2442" t="n">
+        <v>47057635</v>
+      </c>
+      <c r="D2442" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E2442" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:51:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2443" t="n">
+        <v>1000261</v>
+      </c>
+      <c r="C2443" t="n">
+        <v>47057635</v>
+      </c>
+      <c r="D2443" t="inlineStr">
+        <is>
+          <t>컬러리스트산업기사</t>
+        </is>
+      </c>
+      <c r="E2443" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:51:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2444" t="n">
+        <v>1000261</v>
+      </c>
+      <c r="C2444" t="n">
+        <v>47057635</v>
+      </c>
+      <c r="D2444" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E2444" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:51:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2445" t="n">
+        <v>1000261</v>
+      </c>
+      <c r="C2445" t="n">
+        <v>47014471</v>
+      </c>
+      <c r="D2445" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2445" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:53:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2446" t="n">
+        <v>1000261</v>
+      </c>
+      <c r="C2446" t="n">
+        <v>47014471</v>
+      </c>
+      <c r="D2446" t="inlineStr">
+        <is>
+          <t>전산응용토목제도기능사</t>
+        </is>
+      </c>
+      <c r="E2446" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:53:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2447" t="n">
+        <v>1000261</v>
+      </c>
+      <c r="C2447" t="n">
+        <v>47014471</v>
+      </c>
+      <c r="D2447" t="inlineStr">
+        <is>
+          <t>전산응용기계제도기능사</t>
+        </is>
+      </c>
+      <c r="E2447" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:53:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2448" t="n">
+        <v>1000261</v>
+      </c>
+      <c r="C2448" t="n">
+        <v>46949962</v>
+      </c>
+      <c r="D2448" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E2448" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:55:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2449" t="n">
+        <v>1000261</v>
+      </c>
+      <c r="C2449" t="n">
+        <v>46949962</v>
+      </c>
+      <c r="D2449" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E2449" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:55:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2450" t="n">
+        <v>1000261</v>
+      </c>
+      <c r="C2450" t="n">
+        <v>46949960</v>
+      </c>
+      <c r="D2450" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E2450" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:55:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2451" t="n">
+        <v>1000261</v>
+      </c>
+      <c r="C2451" t="n">
+        <v>46949960</v>
+      </c>
+      <c r="D2451" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E2451" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:55:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2452" t="n">
+        <v>1000261</v>
+      </c>
+      <c r="C2452" t="n">
+        <v>46949959</v>
+      </c>
+      <c r="D2452" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E2452" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:55:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2453" t="n">
+        <v>1000261</v>
+      </c>
+      <c r="C2453" t="n">
+        <v>46949959</v>
+      </c>
+      <c r="D2453" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E2453" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 01:55:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2442" t="inlineStr">
-        <is>
-          <t>1000261</t>
-        </is>
-      </c>
-      <c r="C2442" t="inlineStr">
-        <is>
-          <t>47057635</t>
-        </is>
-      </c>
-      <c r="D2442" t="inlineStr">
-        <is>
-          <t>GTQ 1급</t>
-        </is>
-      </c>
-      <c r="E2442" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:51:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="2443">
-      <c r="A2443" t="inlineStr">
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2454" t="inlineStr">
+        <is>
+          <t>47065498</t>
+        </is>
+      </c>
+      <c r="D2454" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E2454" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:01:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2443" t="inlineStr">
-        <is>
-          <t>1000261</t>
-        </is>
-      </c>
-      <c r="C2443" t="inlineStr">
-        <is>
-          <t>47057635</t>
-        </is>
-      </c>
-      <c r="D2443" t="inlineStr">
-        <is>
-          <t>컬러리스트산업기사</t>
-        </is>
-      </c>
-      <c r="E2443" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:51:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="2444">
-      <c r="A2444" t="inlineStr">
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2455" t="inlineStr">
+        <is>
+          <t>47065489</t>
+        </is>
+      </c>
+      <c r="D2455" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2455" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:01:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2444" t="inlineStr">
-        <is>
-          <t>1000261</t>
-        </is>
-      </c>
-      <c r="C2444" t="inlineStr">
-        <is>
-          <t>47057635</t>
-        </is>
-      </c>
-      <c r="D2444" t="inlineStr">
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2456" t="inlineStr">
+        <is>
+          <t>47065489</t>
+        </is>
+      </c>
+      <c r="D2456" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E2456" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:01:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2457" t="inlineStr">
+        <is>
+          <t>47065489</t>
+        </is>
+      </c>
+      <c r="D2457" t="inlineStr">
+        <is>
+          <t>도시계획기사</t>
+        </is>
+      </c>
+      <c r="E2457" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:01:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2458" t="inlineStr">
+        <is>
+          <t>47059951</t>
+        </is>
+      </c>
+      <c r="D2458" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E2458" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:01:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2459" t="inlineStr">
+        <is>
+          <t>47034445</t>
+        </is>
+      </c>
+      <c r="D2459" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E2459" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:01:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2460" t="inlineStr">
+        <is>
+          <t>47034445</t>
+        </is>
+      </c>
+      <c r="D2460" t="inlineStr">
+        <is>
+          <t>산림기사</t>
+        </is>
+      </c>
+      <c r="E2460" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:01:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2461" t="inlineStr">
+        <is>
+          <t>47038682</t>
+        </is>
+      </c>
+      <c r="D2461" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2461" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:01:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2462" t="inlineStr">
+        <is>
+          <t>47032255</t>
+        </is>
+      </c>
+      <c r="D2462" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2462" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2463" t="inlineStr">
+        <is>
+          <t>47032255</t>
+        </is>
+      </c>
+      <c r="D2463" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2463" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2464" t="inlineStr">
+        <is>
+          <t>47032255</t>
+        </is>
+      </c>
+      <c r="D2464" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2464" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2465" t="inlineStr">
+        <is>
+          <t>47024629</t>
+        </is>
+      </c>
+      <c r="D2465" t="inlineStr">
+        <is>
+          <t>조경기능사</t>
+        </is>
+      </c>
+      <c r="E2465" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2466" t="inlineStr">
+        <is>
+          <t>47024629</t>
+        </is>
+      </c>
+      <c r="D2466" t="inlineStr">
+        <is>
+          <t>조경산업기사</t>
+        </is>
+      </c>
+      <c r="E2466" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2467" t="inlineStr">
+        <is>
+          <t>47024629</t>
+        </is>
+      </c>
+      <c r="D2467" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E2467" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2468" t="inlineStr">
+        <is>
+          <t>47019968</t>
+        </is>
+      </c>
+      <c r="D2468" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2468" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2469" t="inlineStr">
+        <is>
+          <t>47019968</t>
+        </is>
+      </c>
+      <c r="D2469" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2469" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2470" t="inlineStr">
+        <is>
+          <t>47017424</t>
+        </is>
+      </c>
+      <c r="D2470" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2470" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2471" t="inlineStr">
+        <is>
+          <t>47017424</t>
+        </is>
+      </c>
+      <c r="D2471" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2471" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2472" t="inlineStr">
+        <is>
+          <t>47017424</t>
+        </is>
+      </c>
+      <c r="D2472" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2472" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>47016867</t>
+        </is>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E2473" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>47016867</t>
+        </is>
+      </c>
+      <c r="D2474" t="inlineStr">
+        <is>
+          <t>도시계획기사</t>
+        </is>
+      </c>
+      <c r="E2474" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>47016867</t>
+        </is>
+      </c>
+      <c r="D2475" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2475" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>46999950</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>옥외광고사</t>
+        </is>
+      </c>
+      <c r="E2476" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>46960262</t>
+        </is>
+      </c>
+      <c r="D2477" t="inlineStr">
+        <is>
+          <t>디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E2477" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t>46960262</t>
+        </is>
+      </c>
+      <c r="D2478" t="inlineStr">
+        <is>
+          <t>디자인기사</t>
+        </is>
+      </c>
+      <c r="E2478" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t>46958463</t>
+        </is>
+      </c>
+      <c r="D2479" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2479" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>46958463</t>
+        </is>
+      </c>
+      <c r="D2480" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2480" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t>46958463</t>
+        </is>
+      </c>
+      <c r="D2481" t="inlineStr">
+        <is>
+          <t>건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2481" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t>46958184</t>
+        </is>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E2482" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t>46958184</t>
+        </is>
+      </c>
+      <c r="D2483" t="inlineStr">
         <is>
           <t>시각디자인산업기사</t>
         </is>
       </c>
-      <c r="E2444" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:51:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="2445">
-      <c r="A2445" t="inlineStr">
+      <c r="E2483" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2445" t="inlineStr">
-        <is>
-          <t>1000261</t>
-        </is>
-      </c>
-      <c r="C2445" t="inlineStr">
-        <is>
-          <t>47014471</t>
-        </is>
-      </c>
-      <c r="D2445" t="inlineStr">
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2484" t="inlineStr">
+        <is>
+          <t>46954358</t>
+        </is>
+      </c>
+      <c r="D2484" t="inlineStr">
         <is>
           <t>전산응용건축제도기능사</t>
         </is>
       </c>
-      <c r="E2445" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:53:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="2446">
-      <c r="A2446" t="inlineStr">
+      <c r="E2484" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2446" t="inlineStr">
-        <is>
-          <t>1000261</t>
-        </is>
-      </c>
-      <c r="C2446" t="inlineStr">
-        <is>
-          <t>47014471</t>
-        </is>
-      </c>
-      <c r="D2446" t="inlineStr">
-        <is>
-          <t>전산응용토목제도기능사</t>
-        </is>
-      </c>
-      <c r="E2446" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:53:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="2447">
-      <c r="A2447" t="inlineStr">
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2485" t="inlineStr">
+        <is>
+          <t>46944530</t>
+        </is>
+      </c>
+      <c r="D2485" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2485" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2447" t="inlineStr">
-        <is>
-          <t>1000261</t>
-        </is>
-      </c>
-      <c r="C2447" t="inlineStr">
-        <is>
-          <t>47014471</t>
-        </is>
-      </c>
-      <c r="D2447" t="inlineStr">
-        <is>
-          <t>전산응용기계제도기능사</t>
-        </is>
-      </c>
-      <c r="E2447" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:53:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="2448">
-      <c r="A2448" t="inlineStr">
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2486" t="inlineStr">
+        <is>
+          <t>46944530</t>
+        </is>
+      </c>
+      <c r="D2486" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2486" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2448" t="inlineStr">
-        <is>
-          <t>1000261</t>
-        </is>
-      </c>
-      <c r="C2448" t="inlineStr">
-        <is>
-          <t>46949962</t>
-        </is>
-      </c>
-      <c r="D2448" t="inlineStr">
-        <is>
-          <t>포토샵</t>
-        </is>
-      </c>
-      <c r="E2448" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:55:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="2449">
-      <c r="A2449" t="inlineStr">
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2487" t="inlineStr">
+        <is>
+          <t>46944530</t>
+        </is>
+      </c>
+      <c r="D2487" t="inlineStr">
+        <is>
+          <t>컬러리스트기사</t>
+        </is>
+      </c>
+      <c r="E2487" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2449" t="inlineStr">
-        <is>
-          <t>1000261</t>
-        </is>
-      </c>
-      <c r="C2449" t="inlineStr">
-        <is>
-          <t>46949962</t>
-        </is>
-      </c>
-      <c r="D2449" t="inlineStr">
-        <is>
-          <t>일러스트</t>
-        </is>
-      </c>
-      <c r="E2449" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:55:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="2450">
-      <c r="A2450" t="inlineStr">
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2488" t="inlineStr">
+        <is>
+          <t>46913736</t>
+        </is>
+      </c>
+      <c r="D2488" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2488" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2450" t="inlineStr">
-        <is>
-          <t>1000261</t>
-        </is>
-      </c>
-      <c r="C2450" t="inlineStr">
-        <is>
-          <t>46949960</t>
-        </is>
-      </c>
-      <c r="D2450" t="inlineStr">
-        <is>
-          <t>포토샵</t>
-        </is>
-      </c>
-      <c r="E2450" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:55:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="2451">
-      <c r="A2451" t="inlineStr">
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2489" t="inlineStr">
+        <is>
+          <t>46913736</t>
+        </is>
+      </c>
+      <c r="D2489" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2489" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2451" t="inlineStr">
-        <is>
-          <t>1000261</t>
-        </is>
-      </c>
-      <c r="C2451" t="inlineStr">
-        <is>
-          <t>46949960</t>
-        </is>
-      </c>
-      <c r="D2451" t="inlineStr">
-        <is>
-          <t>일러스트</t>
-        </is>
-      </c>
-      <c r="E2451" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:55:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="2452">
-      <c r="A2452" t="inlineStr">
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2490" t="inlineStr">
+        <is>
+          <t>46888178</t>
+        </is>
+      </c>
+      <c r="D2490" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2490" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2452" t="inlineStr">
-        <is>
-          <t>1000261</t>
-        </is>
-      </c>
-      <c r="C2452" t="inlineStr">
-        <is>
-          <t>46949959</t>
-        </is>
-      </c>
-      <c r="D2452" t="inlineStr">
-        <is>
-          <t>포토샵</t>
-        </is>
-      </c>
-      <c r="E2452" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:55:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="2453">
-      <c r="A2453" t="inlineStr">
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t>46888178</t>
+        </is>
+      </c>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2491" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2453" t="inlineStr">
-        <is>
-          <t>1000261</t>
-        </is>
-      </c>
-      <c r="C2453" t="inlineStr">
-        <is>
-          <t>46949959</t>
-        </is>
-      </c>
-      <c r="D2453" t="inlineStr">
-        <is>
-          <t>일러스트</t>
-        </is>
-      </c>
-      <c r="E2453" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 01:55:18</t>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t>46888178</t>
+        </is>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2492" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>46832221</t>
+        </is>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2493" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2494" t="inlineStr">
+        <is>
+          <t>46832221</t>
+        </is>
+      </c>
+      <c r="D2494" t="inlineStr">
+        <is>
+          <t>건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2494" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2495" t="inlineStr">
+        <is>
+          <t>46832221</t>
+        </is>
+      </c>
+      <c r="D2495" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E2495" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2496" t="inlineStr">
+        <is>
+          <t>46825256</t>
+        </is>
+      </c>
+      <c r="D2496" t="inlineStr">
+        <is>
+          <t>조경산업기사</t>
+        </is>
+      </c>
+      <c r="E2496" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2497" t="inlineStr">
+        <is>
+          <t>46825256</t>
+        </is>
+      </c>
+      <c r="D2497" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E2497" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2498" t="inlineStr">
+        <is>
+          <t>46811901</t>
+        </is>
+      </c>
+      <c r="D2498" t="inlineStr">
+        <is>
+          <t>컬러리스트</t>
+        </is>
+      </c>
+      <c r="E2498" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2499" t="inlineStr">
+        <is>
+          <t>46810487</t>
+        </is>
+      </c>
+      <c r="D2499" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2499" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2500" t="inlineStr">
+        <is>
+          <t>46810487</t>
+        </is>
+      </c>
+      <c r="D2500" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2500" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2501" t="inlineStr">
+        <is>
+          <t>46775375</t>
+        </is>
+      </c>
+      <c r="D2501" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2501" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2502" t="inlineStr">
+        <is>
+          <t>46775375</t>
+        </is>
+      </c>
+      <c r="D2502" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2502" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t>46614574</t>
+        </is>
+      </c>
+      <c r="D2503" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E2503" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t>46614574</t>
+        </is>
+      </c>
+      <c r="D2504" t="inlineStr">
+        <is>
+          <t>조경산업기사</t>
+        </is>
+      </c>
+      <c r="E2504" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>46614574</t>
+        </is>
+      </c>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>조경기술사</t>
+        </is>
+      </c>
+      <c r="E2505" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:35</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2505"/>
+  <dimension ref="A1:E2508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51103,1406 +51103,1175 @@
       </c>
     </row>
     <row r="2454">
-      <c r="A2454" t="inlineStr">
+      <c r="A2454" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2454" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2454" t="n">
+        <v>47065498</v>
+      </c>
+      <c r="D2454" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E2454" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:01:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2455" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2455" t="n">
+        <v>47065489</v>
+      </c>
+      <c r="D2455" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2455" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:01:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2456" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2456" t="n">
+        <v>47065489</v>
+      </c>
+      <c r="D2456" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E2456" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:01:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2457" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2457" t="n">
+        <v>47065489</v>
+      </c>
+      <c r="D2457" t="inlineStr">
+        <is>
+          <t>도시계획기사</t>
+        </is>
+      </c>
+      <c r="E2457" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:01:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2458" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2458" t="n">
+        <v>47059951</v>
+      </c>
+      <c r="D2458" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E2458" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:01:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2459" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2459" t="n">
+        <v>47034445</v>
+      </c>
+      <c r="D2459" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E2459" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:01:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2460" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2460" t="n">
+        <v>47034445</v>
+      </c>
+      <c r="D2460" t="inlineStr">
+        <is>
+          <t>산림기사</t>
+        </is>
+      </c>
+      <c r="E2460" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:01:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2461" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2461" t="n">
+        <v>47038682</v>
+      </c>
+      <c r="D2461" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2461" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:01:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2462" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2462" t="n">
+        <v>47032255</v>
+      </c>
+      <c r="D2462" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2462" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2463" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2463" t="n">
+        <v>47032255</v>
+      </c>
+      <c r="D2463" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2463" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2464" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2464" t="n">
+        <v>47032255</v>
+      </c>
+      <c r="D2464" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2464" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2465" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2465" t="n">
+        <v>47024629</v>
+      </c>
+      <c r="D2465" t="inlineStr">
+        <is>
+          <t>조경기능사</t>
+        </is>
+      </c>
+      <c r="E2465" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2466" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2466" t="n">
+        <v>47024629</v>
+      </c>
+      <c r="D2466" t="inlineStr">
+        <is>
+          <t>조경산업기사</t>
+        </is>
+      </c>
+      <c r="E2466" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2467" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2467" t="n">
+        <v>47024629</v>
+      </c>
+      <c r="D2467" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E2467" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2468" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2468" t="n">
+        <v>47019968</v>
+      </c>
+      <c r="D2468" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2468" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2469" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2469" t="n">
+        <v>47019968</v>
+      </c>
+      <c r="D2469" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2469" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2470" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2470" t="n">
+        <v>47017424</v>
+      </c>
+      <c r="D2470" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2470" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2471" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2471" t="n">
+        <v>47017424</v>
+      </c>
+      <c r="D2471" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2471" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2472" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2472" t="n">
+        <v>47017424</v>
+      </c>
+      <c r="D2472" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2472" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2473" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2473" t="n">
+        <v>47016867</v>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E2473" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2474" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2474" t="n">
+        <v>47016867</v>
+      </c>
+      <c r="D2474" t="inlineStr">
+        <is>
+          <t>도시계획기사</t>
+        </is>
+      </c>
+      <c r="E2474" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2475" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2475" t="n">
+        <v>47016867</v>
+      </c>
+      <c r="D2475" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2475" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2476" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2476" t="n">
+        <v>46999950</v>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>옥외광고사</t>
+        </is>
+      </c>
+      <c r="E2476" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:02:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2477" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2477" t="n">
+        <v>46960262</v>
+      </c>
+      <c r="D2477" t="inlineStr">
+        <is>
+          <t>디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E2477" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2478" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2478" t="n">
+        <v>46960262</v>
+      </c>
+      <c r="D2478" t="inlineStr">
+        <is>
+          <t>디자인기사</t>
+        </is>
+      </c>
+      <c r="E2478" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2479" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2479" t="n">
+        <v>46958463</v>
+      </c>
+      <c r="D2479" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2479" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2480" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2480" t="n">
+        <v>46958463</v>
+      </c>
+      <c r="D2480" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2480" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2481" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2481" t="n">
+        <v>46958463</v>
+      </c>
+      <c r="D2481" t="inlineStr">
+        <is>
+          <t>건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2481" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2482" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2482" t="n">
+        <v>46958184</v>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E2482" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2483" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2483" t="n">
+        <v>46958184</v>
+      </c>
+      <c r="D2483" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E2483" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2484" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2484" t="n">
+        <v>46954358</v>
+      </c>
+      <c r="D2484" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2484" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2485" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2485" t="n">
+        <v>46944530</v>
+      </c>
+      <c r="D2485" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2485" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2486" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2486" t="n">
+        <v>46944530</v>
+      </c>
+      <c r="D2486" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2486" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2487" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2487" t="n">
+        <v>46944530</v>
+      </c>
+      <c r="D2487" t="inlineStr">
+        <is>
+          <t>컬러리스트기사</t>
+        </is>
+      </c>
+      <c r="E2487" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2488" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2488" t="n">
+        <v>46913736</v>
+      </c>
+      <c r="D2488" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2488" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2489" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2489" t="n">
+        <v>46913736</v>
+      </c>
+      <c r="D2489" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2489" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:03:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2490" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2490" t="n">
+        <v>46888178</v>
+      </c>
+      <c r="D2490" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2490" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2491" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2491" t="n">
+        <v>46888178</v>
+      </c>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2491" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2492" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2492" t="n">
+        <v>46888178</v>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2492" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2493" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2493" t="n">
+        <v>46832221</v>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2493" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2494" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2494" t="n">
+        <v>46832221</v>
+      </c>
+      <c r="D2494" t="inlineStr">
+        <is>
+          <t>건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2494" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2495" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2495" t="n">
+        <v>46832221</v>
+      </c>
+      <c r="D2495" t="inlineStr">
+        <is>
+          <t>시각디자인산업기사</t>
+        </is>
+      </c>
+      <c r="E2495" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2496" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2496" t="n">
+        <v>46825256</v>
+      </c>
+      <c r="D2496" t="inlineStr">
+        <is>
+          <t>조경산업기사</t>
+        </is>
+      </c>
+      <c r="E2496" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2497" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2497" t="n">
+        <v>46825256</v>
+      </c>
+      <c r="D2497" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E2497" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2498" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2498" t="n">
+        <v>46811901</v>
+      </c>
+      <c r="D2498" t="inlineStr">
+        <is>
+          <t>컬러리스트</t>
+        </is>
+      </c>
+      <c r="E2498" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2499" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2499" t="n">
+        <v>46810487</v>
+      </c>
+      <c r="D2499" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2499" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2500" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2500" t="n">
+        <v>46810487</v>
+      </c>
+      <c r="D2500" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2500" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2501" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2501" t="n">
+        <v>46775375</v>
+      </c>
+      <c r="D2501" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2501" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2502" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2502" t="n">
+        <v>46775375</v>
+      </c>
+      <c r="D2502" t="inlineStr">
+        <is>
+          <t>건축기사</t>
+        </is>
+      </c>
+      <c r="E2502" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2503" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2503" t="n">
+        <v>46614574</v>
+      </c>
+      <c r="D2503" t="inlineStr">
+        <is>
+          <t>조경기사</t>
+        </is>
+      </c>
+      <c r="E2503" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2504" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2504" t="n">
+        <v>46614574</v>
+      </c>
+      <c r="D2504" t="inlineStr">
+        <is>
+          <t>조경산업기사</t>
+        </is>
+      </c>
+      <c r="E2504" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2505" t="n">
+        <v>1000262</v>
+      </c>
+      <c r="C2505" t="n">
+        <v>46614574</v>
+      </c>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>조경기술사</t>
+        </is>
+      </c>
+      <c r="E2505" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:04:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2454" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2454" t="inlineStr">
-        <is>
-          <t>47065498</t>
-        </is>
-      </c>
-      <c r="D2454" t="inlineStr">
-        <is>
-          <t>조경기사</t>
-        </is>
-      </c>
-      <c r="E2454" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:01:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="2455">
-      <c r="A2455" t="inlineStr">
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>1000263</t>
+        </is>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>46975790</t>
+        </is>
+      </c>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2506" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:08:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2455" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2455" t="inlineStr">
-        <is>
-          <t>47065489</t>
-        </is>
-      </c>
-      <c r="D2455" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E2455" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:01:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="2456">
-      <c r="A2456" t="inlineStr">
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>1000263</t>
+        </is>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>46975790</t>
+        </is>
+      </c>
+      <c r="D2507" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2507" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:08:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2456" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2456" t="inlineStr">
-        <is>
-          <t>47065489</t>
-        </is>
-      </c>
-      <c r="D2456" t="inlineStr">
-        <is>
-          <t>조경기사</t>
-        </is>
-      </c>
-      <c r="E2456" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:01:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="2457">
-      <c r="A2457" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2457" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2457" t="inlineStr">
-        <is>
-          <t>47065489</t>
-        </is>
-      </c>
-      <c r="D2457" t="inlineStr">
-        <is>
-          <t>도시계획기사</t>
-        </is>
-      </c>
-      <c r="E2457" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:01:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="2458">
-      <c r="A2458" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2458" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2458" t="inlineStr">
-        <is>
-          <t>47059951</t>
-        </is>
-      </c>
-      <c r="D2458" t="inlineStr">
-        <is>
-          <t>조경기사</t>
-        </is>
-      </c>
-      <c r="E2458" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:01:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="2459">
-      <c r="A2459" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2459" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2459" t="inlineStr">
-        <is>
-          <t>47034445</t>
-        </is>
-      </c>
-      <c r="D2459" t="inlineStr">
-        <is>
-          <t>조경기사</t>
-        </is>
-      </c>
-      <c r="E2459" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:01:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="2460">
-      <c r="A2460" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2460" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2460" t="inlineStr">
-        <is>
-          <t>47034445</t>
-        </is>
-      </c>
-      <c r="D2460" t="inlineStr">
-        <is>
-          <t>산림기사</t>
-        </is>
-      </c>
-      <c r="E2460" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:01:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="2461">
-      <c r="A2461" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2461" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2461" t="inlineStr">
-        <is>
-          <t>47038682</t>
-        </is>
-      </c>
-      <c r="D2461" t="inlineStr">
-        <is>
-          <t>2종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E2461" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:01:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="2462">
-      <c r="A2462" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2462" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2462" t="inlineStr">
-        <is>
-          <t>47032255</t>
-        </is>
-      </c>
-      <c r="D2462" t="inlineStr">
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>1000263</t>
+        </is>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t>46975790</t>
+        </is>
+      </c>
+      <c r="D2508" t="inlineStr">
         <is>
           <t>실내건축기능사</t>
         </is>
       </c>
-      <c r="E2462" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:02:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="2463">
-      <c r="A2463" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2463" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2463" t="inlineStr">
-        <is>
-          <t>47032255</t>
-        </is>
-      </c>
-      <c r="D2463" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2463" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:02:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="2464">
-      <c r="A2464" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2464" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2464" t="inlineStr">
-        <is>
-          <t>47032255</t>
-        </is>
-      </c>
-      <c r="D2464" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2464" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:02:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="2465">
-      <c r="A2465" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2465" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2465" t="inlineStr">
-        <is>
-          <t>47024629</t>
-        </is>
-      </c>
-      <c r="D2465" t="inlineStr">
-        <is>
-          <t>조경기능사</t>
-        </is>
-      </c>
-      <c r="E2465" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:02:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="2466">
-      <c r="A2466" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2466" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2466" t="inlineStr">
-        <is>
-          <t>47024629</t>
-        </is>
-      </c>
-      <c r="D2466" t="inlineStr">
-        <is>
-          <t>조경산업기사</t>
-        </is>
-      </c>
-      <c r="E2466" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:02:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="2467">
-      <c r="A2467" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2467" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2467" t="inlineStr">
-        <is>
-          <t>47024629</t>
-        </is>
-      </c>
-      <c r="D2467" t="inlineStr">
-        <is>
-          <t>조경기사</t>
-        </is>
-      </c>
-      <c r="E2467" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:02:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="2468">
-      <c r="A2468" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2468" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2468" t="inlineStr">
-        <is>
-          <t>47019968</t>
-        </is>
-      </c>
-      <c r="D2468" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2468" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:02:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="2469">
-      <c r="A2469" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2469" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2469" t="inlineStr">
-        <is>
-          <t>47019968</t>
-        </is>
-      </c>
-      <c r="D2469" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2469" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:02:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="2470">
-      <c r="A2470" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2470" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2470" t="inlineStr">
-        <is>
-          <t>47017424</t>
-        </is>
-      </c>
-      <c r="D2470" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2470" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:02:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="2471">
-      <c r="A2471" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2471" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2471" t="inlineStr">
-        <is>
-          <t>47017424</t>
-        </is>
-      </c>
-      <c r="D2471" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2471" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:02:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="2472">
-      <c r="A2472" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2472" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2472" t="inlineStr">
-        <is>
-          <t>47017424</t>
-        </is>
-      </c>
-      <c r="D2472" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E2472" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:02:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="2473">
-      <c r="A2473" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2473" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2473" t="inlineStr">
-        <is>
-          <t>47016867</t>
-        </is>
-      </c>
-      <c r="D2473" t="inlineStr">
-        <is>
-          <t>조경기사</t>
-        </is>
-      </c>
-      <c r="E2473" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:02:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="2474">
-      <c r="A2474" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2474" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2474" t="inlineStr">
-        <is>
-          <t>47016867</t>
-        </is>
-      </c>
-      <c r="D2474" t="inlineStr">
-        <is>
-          <t>도시계획기사</t>
-        </is>
-      </c>
-      <c r="E2474" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:02:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="2475">
-      <c r="A2475" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2475" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2475" t="inlineStr">
-        <is>
-          <t>47016867</t>
-        </is>
-      </c>
-      <c r="D2475" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E2475" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:02:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="2476">
-      <c r="A2476" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2476" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2476" t="inlineStr">
-        <is>
-          <t>46999950</t>
-        </is>
-      </c>
-      <c r="D2476" t="inlineStr">
-        <is>
-          <t>옥외광고사</t>
-        </is>
-      </c>
-      <c r="E2476" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:02:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="2477">
-      <c r="A2477" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2477" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2477" t="inlineStr">
-        <is>
-          <t>46960262</t>
-        </is>
-      </c>
-      <c r="D2477" t="inlineStr">
-        <is>
-          <t>디자인산업기사</t>
-        </is>
-      </c>
-      <c r="E2477" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:03:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="2478">
-      <c r="A2478" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2478" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2478" t="inlineStr">
-        <is>
-          <t>46960262</t>
-        </is>
-      </c>
-      <c r="D2478" t="inlineStr">
-        <is>
-          <t>디자인기사</t>
-        </is>
-      </c>
-      <c r="E2478" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:03:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="2479">
-      <c r="A2479" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2479" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2479" t="inlineStr">
-        <is>
-          <t>46958463</t>
-        </is>
-      </c>
-      <c r="D2479" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2479" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:03:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="2480">
-      <c r="A2480" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2480" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2480" t="inlineStr">
-        <is>
-          <t>46958463</t>
-        </is>
-      </c>
-      <c r="D2480" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E2480" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:03:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="2481">
-      <c r="A2481" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2481" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2481" t="inlineStr">
-        <is>
-          <t>46958463</t>
-        </is>
-      </c>
-      <c r="D2481" t="inlineStr">
-        <is>
-          <t>건축제도기능사</t>
-        </is>
-      </c>
-      <c r="E2481" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:03:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="2482">
-      <c r="A2482" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2482" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2482" t="inlineStr">
-        <is>
-          <t>46958184</t>
-        </is>
-      </c>
-      <c r="D2482" t="inlineStr">
-        <is>
-          <t>컴퓨터그래픽스운용기능사</t>
-        </is>
-      </c>
-      <c r="E2482" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:03:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="2483">
-      <c r="A2483" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2483" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2483" t="inlineStr">
-        <is>
-          <t>46958184</t>
-        </is>
-      </c>
-      <c r="D2483" t="inlineStr">
-        <is>
-          <t>시각디자인산업기사</t>
-        </is>
-      </c>
-      <c r="E2483" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:03:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="2484">
-      <c r="A2484" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2484" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2484" t="inlineStr">
-        <is>
-          <t>46954358</t>
-        </is>
-      </c>
-      <c r="D2484" t="inlineStr">
-        <is>
-          <t>전산응용건축제도기능사</t>
-        </is>
-      </c>
-      <c r="E2484" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:03:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="2485">
-      <c r="A2485" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2485" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2485" t="inlineStr">
-        <is>
-          <t>46944530</t>
-        </is>
-      </c>
-      <c r="D2485" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E2485" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:03:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="2486">
-      <c r="A2486" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2486" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2486" t="inlineStr">
-        <is>
-          <t>46944530</t>
-        </is>
-      </c>
-      <c r="D2486" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2486" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:03:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="2487">
-      <c r="A2487" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2487" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2487" t="inlineStr">
-        <is>
-          <t>46944530</t>
-        </is>
-      </c>
-      <c r="D2487" t="inlineStr">
-        <is>
-          <t>컬러리스트기사</t>
-        </is>
-      </c>
-      <c r="E2487" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:03:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="2488">
-      <c r="A2488" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2488" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2488" t="inlineStr">
-        <is>
-          <t>46913736</t>
-        </is>
-      </c>
-      <c r="D2488" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2488" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:03:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="2489">
-      <c r="A2489" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2489" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2489" t="inlineStr">
-        <is>
-          <t>46913736</t>
-        </is>
-      </c>
-      <c r="D2489" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2489" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:03:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="2490">
-      <c r="A2490" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2490" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2490" t="inlineStr">
-        <is>
-          <t>46888178</t>
-        </is>
-      </c>
-      <c r="D2490" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2490" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:04:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="2491">
-      <c r="A2491" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2491" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2491" t="inlineStr">
-        <is>
-          <t>46888178</t>
-        </is>
-      </c>
-      <c r="D2491" t="inlineStr">
-        <is>
-          <t>전산응용건축제도기능사</t>
-        </is>
-      </c>
-      <c r="E2491" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:04:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="2492">
-      <c r="A2492" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2492" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2492" t="inlineStr">
-        <is>
-          <t>46888178</t>
-        </is>
-      </c>
-      <c r="D2492" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2492" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:04:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="2493">
-      <c r="A2493" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2493" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2493" t="inlineStr">
-        <is>
-          <t>46832221</t>
-        </is>
-      </c>
-      <c r="D2493" t="inlineStr">
-        <is>
-          <t>실내건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2493" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:04:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="2494">
-      <c r="A2494" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2494" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2494" t="inlineStr">
-        <is>
-          <t>46832221</t>
-        </is>
-      </c>
-      <c r="D2494" t="inlineStr">
-        <is>
-          <t>건축산업기사</t>
-        </is>
-      </c>
-      <c r="E2494" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:04:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="2495">
-      <c r="A2495" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2495" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2495" t="inlineStr">
-        <is>
-          <t>46832221</t>
-        </is>
-      </c>
-      <c r="D2495" t="inlineStr">
-        <is>
-          <t>시각디자인산업기사</t>
-        </is>
-      </c>
-      <c r="E2495" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:04:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="2496">
-      <c r="A2496" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2496" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2496" t="inlineStr">
-        <is>
-          <t>46825256</t>
-        </is>
-      </c>
-      <c r="D2496" t="inlineStr">
-        <is>
-          <t>조경산업기사</t>
-        </is>
-      </c>
-      <c r="E2496" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:04:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="2497">
-      <c r="A2497" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2497" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2497" t="inlineStr">
-        <is>
-          <t>46825256</t>
-        </is>
-      </c>
-      <c r="D2497" t="inlineStr">
-        <is>
-          <t>조경기사</t>
-        </is>
-      </c>
-      <c r="E2497" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:04:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="2498">
-      <c r="A2498" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2498" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2498" t="inlineStr">
-        <is>
-          <t>46811901</t>
-        </is>
-      </c>
-      <c r="D2498" t="inlineStr">
-        <is>
-          <t>컬러리스트</t>
-        </is>
-      </c>
-      <c r="E2498" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:04:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="2499">
-      <c r="A2499" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2499" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2499" t="inlineStr">
-        <is>
-          <t>46810487</t>
-        </is>
-      </c>
-      <c r="D2499" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E2499" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:04:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="2500">
-      <c r="A2500" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2500" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2500" t="inlineStr">
-        <is>
-          <t>46810487</t>
-        </is>
-      </c>
-      <c r="D2500" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2500" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:04:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="2501">
-      <c r="A2501" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2501" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2501" t="inlineStr">
-        <is>
-          <t>46775375</t>
-        </is>
-      </c>
-      <c r="D2501" t="inlineStr">
-        <is>
-          <t>실내건축기사</t>
-        </is>
-      </c>
-      <c r="E2501" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:04:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="2502">
-      <c r="A2502" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2502" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2502" t="inlineStr">
-        <is>
-          <t>46775375</t>
-        </is>
-      </c>
-      <c r="D2502" t="inlineStr">
-        <is>
-          <t>건축기사</t>
-        </is>
-      </c>
-      <c r="E2502" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:04:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="2503">
-      <c r="A2503" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2503" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2503" t="inlineStr">
-        <is>
-          <t>46614574</t>
-        </is>
-      </c>
-      <c r="D2503" t="inlineStr">
-        <is>
-          <t>조경기사</t>
-        </is>
-      </c>
-      <c r="E2503" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:04:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="2504">
-      <c r="A2504" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2504" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2504" t="inlineStr">
-        <is>
-          <t>46614574</t>
-        </is>
-      </c>
-      <c r="D2504" t="inlineStr">
-        <is>
-          <t>조경산업기사</t>
-        </is>
-      </c>
-      <c r="E2504" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:04:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="2505">
-      <c r="A2505" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2505" t="inlineStr">
-        <is>
-          <t>1000262</t>
-        </is>
-      </c>
-      <c r="C2505" t="inlineStr">
-        <is>
-          <t>46614574</t>
-        </is>
-      </c>
-      <c r="D2505" t="inlineStr">
-        <is>
-          <t>조경기술사</t>
-        </is>
-      </c>
-      <c r="E2505" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:04:35</t>
+      <c r="E2508" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:08:27</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2508"/>
+  <dimension ref="A1:E2547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52195,83 +52195,1118 @@
       </c>
     </row>
     <row r="2506">
-      <c r="A2506" t="inlineStr">
+      <c r="A2506" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2506" t="n">
+        <v>1000263</v>
+      </c>
+      <c r="C2506" t="n">
+        <v>46975790</v>
+      </c>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>실내건축기사</t>
+        </is>
+      </c>
+      <c r="E2506" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:08:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2507" t="n">
+        <v>1000263</v>
+      </c>
+      <c r="C2507" t="n">
+        <v>46975790</v>
+      </c>
+      <c r="D2507" t="inlineStr">
+        <is>
+          <t>실내건축산업기사</t>
+        </is>
+      </c>
+      <c r="E2507" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:08:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2508" t="n">
+        <v>1000263</v>
+      </c>
+      <c r="C2508" t="n">
+        <v>46975790</v>
+      </c>
+      <c r="D2508" t="inlineStr">
+        <is>
+          <t>실내건축기능사</t>
+        </is>
+      </c>
+      <c r="E2508" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:08:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2506" t="inlineStr">
-        <is>
-          <t>1000263</t>
-        </is>
-      </c>
-      <c r="C2506" t="inlineStr">
-        <is>
-          <t>46975790</t>
-        </is>
-      </c>
-      <c r="D2506" t="inlineStr">
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t>47074423</t>
+        </is>
+      </c>
+      <c r="D2509" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2509" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>47074398</t>
+        </is>
+      </c>
+      <c r="D2510" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2510" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t>47070389</t>
+        </is>
+      </c>
+      <c r="D2511" t="inlineStr">
         <is>
           <t>실내건축기사</t>
         </is>
       </c>
-      <c r="E2506" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:08:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="2507">
-      <c r="A2507" t="inlineStr">
+      <c r="E2511" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2507" t="inlineStr">
-        <is>
-          <t>1000263</t>
-        </is>
-      </c>
-      <c r="C2507" t="inlineStr">
-        <is>
-          <t>46975790</t>
-        </is>
-      </c>
-      <c r="D2507" t="inlineStr">
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t>47070389</t>
+        </is>
+      </c>
+      <c r="D2512" t="inlineStr">
         <is>
           <t>실내건축산업기사</t>
         </is>
       </c>
-      <c r="E2507" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:08:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="2508">
-      <c r="A2508" t="inlineStr">
+      <c r="E2512" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" t="inlineStr">
         <is>
           <t>10032</t>
         </is>
       </c>
-      <c r="B2508" t="inlineStr">
-        <is>
-          <t>1000263</t>
-        </is>
-      </c>
-      <c r="C2508" t="inlineStr">
-        <is>
-          <t>46975790</t>
-        </is>
-      </c>
-      <c r="D2508" t="inlineStr">
-        <is>
-          <t>실내건축기능사</t>
-        </is>
-      </c>
-      <c r="E2508" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 02:08:27</t>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>47070389</t>
+        </is>
+      </c>
+      <c r="D2513" t="inlineStr">
+        <is>
+          <t>전산응용건축제도기능사</t>
+        </is>
+      </c>
+      <c r="E2513" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>47069715</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2514" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:18:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>47069715</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E2515" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:18:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t>47061712</t>
+        </is>
+      </c>
+      <c r="D2516" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E2516" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:18:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2517" t="inlineStr">
+        <is>
+          <t>47061712</t>
+        </is>
+      </c>
+      <c r="D2517" t="inlineStr">
+        <is>
+          <t>GTQi(그래픽기술자격 일러스트) 1급</t>
+        </is>
+      </c>
+      <c r="E2517" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:18:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2518" t="inlineStr">
+        <is>
+          <t>47061712</t>
+        </is>
+      </c>
+      <c r="D2518" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E2518" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:18:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2519" t="inlineStr">
+        <is>
+          <t>47057579</t>
+        </is>
+      </c>
+      <c r="D2519" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E2519" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:19:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2520" t="inlineStr">
+        <is>
+          <t>47057579</t>
+        </is>
+      </c>
+      <c r="D2520" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E2520" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:19:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2521" t="inlineStr">
+        <is>
+          <t>47057579</t>
+        </is>
+      </c>
+      <c r="D2521" t="inlineStr">
+        <is>
+          <t>GTQi(그래픽기술자격 일러스트) 3급</t>
+        </is>
+      </c>
+      <c r="E2521" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:19:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2522" t="inlineStr">
+        <is>
+          <t>46983311</t>
+        </is>
+      </c>
+      <c r="D2522" t="inlineStr">
+        <is>
+          <t>GTQ 2급</t>
+        </is>
+      </c>
+      <c r="E2522" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:19:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2523" t="inlineStr">
+        <is>
+          <t>46983311</t>
+        </is>
+      </c>
+      <c r="D2523" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E2523" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:19:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2524" t="inlineStr">
+        <is>
+          <t>47045696</t>
+        </is>
+      </c>
+      <c r="D2524" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2524" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:20:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2525" t="inlineStr">
+        <is>
+          <t>47045696</t>
+        </is>
+      </c>
+      <c r="D2525" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E2525" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:20:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2526" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2526" t="inlineStr">
+        <is>
+          <t>47045696</t>
+        </is>
+      </c>
+      <c r="D2526" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E2526" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:20:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2527" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2527" t="inlineStr">
+        <is>
+          <t>47038664</t>
+        </is>
+      </c>
+      <c r="D2527" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2527" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:20:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2528" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2528" t="inlineStr">
+        <is>
+          <t>47038664</t>
+        </is>
+      </c>
+      <c r="D2528" t="inlineStr">
+        <is>
+          <t>포토샵</t>
+        </is>
+      </c>
+      <c r="E2528" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:20:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2529" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2529" t="inlineStr">
+        <is>
+          <t>47038664</t>
+        </is>
+      </c>
+      <c r="D2529" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E2529" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:20:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2530" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2530" t="inlineStr">
+        <is>
+          <t>47034963</t>
+        </is>
+      </c>
+      <c r="D2530" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E2530" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:21:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2531" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2531" t="inlineStr">
+        <is>
+          <t>47034963</t>
+        </is>
+      </c>
+      <c r="D2531" t="inlineStr">
+        <is>
+          <t>GTQ포토샵1급</t>
+        </is>
+      </c>
+      <c r="E2531" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:21:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2532" t="inlineStr">
+        <is>
+          <t>47034963</t>
+        </is>
+      </c>
+      <c r="D2532" t="inlineStr">
+        <is>
+          <t>GTQ일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E2532" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:21:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2533" t="inlineStr">
+        <is>
+          <t>47021565</t>
+        </is>
+      </c>
+      <c r="D2533" t="inlineStr">
+        <is>
+          <t>GAIQ</t>
+        </is>
+      </c>
+      <c r="E2533" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2534" t="inlineStr">
+        <is>
+          <t>47021565</t>
+        </is>
+      </c>
+      <c r="D2534" t="inlineStr">
+        <is>
+          <t>디지털영상편집 1급</t>
+        </is>
+      </c>
+      <c r="E2534" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2535" t="inlineStr">
+        <is>
+          <t>47021565</t>
+        </is>
+      </c>
+      <c r="D2535" t="inlineStr">
+        <is>
+          <t>디지털영상편집 2급</t>
+        </is>
+      </c>
+      <c r="E2535" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2536" t="inlineStr">
+        <is>
+          <t>47000185</t>
+        </is>
+      </c>
+      <c r="D2536" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E2536" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2537" t="inlineStr">
+        <is>
+          <t>47000185</t>
+        </is>
+      </c>
+      <c r="D2537" t="inlineStr">
+        <is>
+          <t>GTQ 2급</t>
+        </is>
+      </c>
+      <c r="E2537" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2538" t="inlineStr">
+        <is>
+          <t>46999648</t>
+        </is>
+      </c>
+      <c r="D2538" t="inlineStr">
+        <is>
+          <t>웹디자인기능사</t>
+        </is>
+      </c>
+      <c r="E2538" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t>46989674</t>
+        </is>
+      </c>
+      <c r="D2539" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E2539" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2540" t="inlineStr">
+        <is>
+          <t>46961319</t>
+        </is>
+      </c>
+      <c r="D2540" t="inlineStr">
+        <is>
+          <t>컴퓨터그래픽스운용기능사</t>
+        </is>
+      </c>
+      <c r="E2540" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:25:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2541" t="inlineStr">
+        <is>
+          <t>46947437</t>
+        </is>
+      </c>
+      <c r="D2541" t="inlineStr">
+        <is>
+          <t>전기기능사</t>
+        </is>
+      </c>
+      <c r="E2541" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:25:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t>46947437</t>
+        </is>
+      </c>
+      <c r="D2542" t="inlineStr">
+        <is>
+          <t>전기기사</t>
+        </is>
+      </c>
+      <c r="E2542" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:25:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t>46947437</t>
+        </is>
+      </c>
+      <c r="D2543" t="inlineStr">
+        <is>
+          <t>전기산업기사</t>
+        </is>
+      </c>
+      <c r="E2543" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:25:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2544" t="inlineStr">
+        <is>
+          <t>46945653</t>
+        </is>
+      </c>
+      <c r="D2544" t="inlineStr">
+        <is>
+          <t>GTQ 일러스트 1급</t>
+        </is>
+      </c>
+      <c r="E2544" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:25:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2545" t="inlineStr">
+        <is>
+          <t>46925349</t>
+        </is>
+      </c>
+      <c r="D2545" t="inlineStr">
+        <is>
+          <t>일러스트</t>
+        </is>
+      </c>
+      <c r="E2545" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:26:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2546" t="inlineStr">
+        <is>
+          <t>46925349</t>
+        </is>
+      </c>
+      <c r="D2546" t="inlineStr">
+        <is>
+          <t>캐드</t>
+        </is>
+      </c>
+      <c r="E2546" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:26:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>1000264</t>
+        </is>
+      </c>
+      <c r="C2547" t="inlineStr">
+        <is>
+          <t>46925349</t>
+        </is>
+      </c>
+      <c r="D2547" t="inlineStr">
+        <is>
+          <t>3D MAX</t>
+        </is>
+      </c>
+      <c r="E2547" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 02:26:40</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2547"/>
+  <dimension ref="A1:E2824"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52258,20 +52258,14 @@
       </c>
     </row>
     <row r="2509">
-      <c r="A2509" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2509" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2509" t="inlineStr">
-        <is>
-          <t>47074423</t>
-        </is>
+      <c r="A2509" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2509" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2509" t="n">
+        <v>47074423</v>
       </c>
       <c r="D2509" t="inlineStr">
         <is>
@@ -52285,20 +52279,14 @@
       </c>
     </row>
     <row r="2510">
-      <c r="A2510" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2510" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2510" t="inlineStr">
-        <is>
-          <t>47074398</t>
-        </is>
+      <c r="A2510" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2510" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2510" t="n">
+        <v>47074398</v>
       </c>
       <c r="D2510" t="inlineStr">
         <is>
@@ -52312,20 +52300,14 @@
       </c>
     </row>
     <row r="2511">
-      <c r="A2511" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2511" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2511" t="inlineStr">
-        <is>
-          <t>47070389</t>
-        </is>
+      <c r="A2511" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2511" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2511" t="n">
+        <v>47070389</v>
       </c>
       <c r="D2511" t="inlineStr">
         <is>
@@ -52339,20 +52321,14 @@
       </c>
     </row>
     <row r="2512">
-      <c r="A2512" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2512" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2512" t="inlineStr">
-        <is>
-          <t>47070389</t>
-        </is>
+      <c r="A2512" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2512" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2512" t="n">
+        <v>47070389</v>
       </c>
       <c r="D2512" t="inlineStr">
         <is>
@@ -52366,20 +52342,14 @@
       </c>
     </row>
     <row r="2513">
-      <c r="A2513" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2513" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2513" t="inlineStr">
-        <is>
-          <t>47070389</t>
-        </is>
+      <c r="A2513" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2513" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2513" t="n">
+        <v>47070389</v>
       </c>
       <c r="D2513" t="inlineStr">
         <is>
@@ -52393,20 +52363,14 @@
       </c>
     </row>
     <row r="2514">
-      <c r="A2514" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2514" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2514" t="inlineStr">
-        <is>
-          <t>47069715</t>
-        </is>
+      <c r="A2514" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2514" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2514" t="n">
+        <v>47069715</v>
       </c>
       <c r="D2514" t="inlineStr">
         <is>
@@ -52420,20 +52384,14 @@
       </c>
     </row>
     <row r="2515">
-      <c r="A2515" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2515" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2515" t="inlineStr">
-        <is>
-          <t>47069715</t>
-        </is>
+      <c r="A2515" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2515" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2515" t="n">
+        <v>47069715</v>
       </c>
       <c r="D2515" t="inlineStr">
         <is>
@@ -52447,20 +52405,14 @@
       </c>
     </row>
     <row r="2516">
-      <c r="A2516" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2516" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2516" t="inlineStr">
-        <is>
-          <t>47061712</t>
-        </is>
+      <c r="A2516" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2516" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2516" t="n">
+        <v>47061712</v>
       </c>
       <c r="D2516" t="inlineStr">
         <is>
@@ -52474,20 +52426,14 @@
       </c>
     </row>
     <row r="2517">
-      <c r="A2517" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2517" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2517" t="inlineStr">
-        <is>
-          <t>47061712</t>
-        </is>
+      <c r="A2517" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2517" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2517" t="n">
+        <v>47061712</v>
       </c>
       <c r="D2517" t="inlineStr">
         <is>
@@ -52501,20 +52447,14 @@
       </c>
     </row>
     <row r="2518">
-      <c r="A2518" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2518" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2518" t="inlineStr">
-        <is>
-          <t>47061712</t>
-        </is>
+      <c r="A2518" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2518" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2518" t="n">
+        <v>47061712</v>
       </c>
       <c r="D2518" t="inlineStr">
         <is>
@@ -52528,20 +52468,14 @@
       </c>
     </row>
     <row r="2519">
-      <c r="A2519" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2519" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2519" t="inlineStr">
-        <is>
-          <t>47057579</t>
-        </is>
+      <c r="A2519" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2519" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2519" t="n">
+        <v>47057579</v>
       </c>
       <c r="D2519" t="inlineStr">
         <is>
@@ -52555,20 +52489,14 @@
       </c>
     </row>
     <row r="2520">
-      <c r="A2520" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2520" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2520" t="inlineStr">
-        <is>
-          <t>47057579</t>
-        </is>
+      <c r="A2520" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2520" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2520" t="n">
+        <v>47057579</v>
       </c>
       <c r="D2520" t="inlineStr">
         <is>
@@ -52582,20 +52510,14 @@
       </c>
     </row>
     <row r="2521">
-      <c r="A2521" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2521" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2521" t="inlineStr">
-        <is>
-          <t>47057579</t>
-        </is>
+      <c r="A2521" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2521" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2521" t="n">
+        <v>47057579</v>
       </c>
       <c r="D2521" t="inlineStr">
         <is>
@@ -52609,20 +52531,14 @@
       </c>
     </row>
     <row r="2522">
-      <c r="A2522" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2522" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2522" t="inlineStr">
-        <is>
-          <t>46983311</t>
-        </is>
+      <c r="A2522" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2522" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2522" t="n">
+        <v>46983311</v>
       </c>
       <c r="D2522" t="inlineStr">
         <is>
@@ -52636,20 +52552,14 @@
       </c>
     </row>
     <row r="2523">
-      <c r="A2523" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2523" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2523" t="inlineStr">
-        <is>
-          <t>46983311</t>
-        </is>
+      <c r="A2523" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2523" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2523" t="n">
+        <v>46983311</v>
       </c>
       <c r="D2523" t="inlineStr">
         <is>
@@ -52663,20 +52573,14 @@
       </c>
     </row>
     <row r="2524">
-      <c r="A2524" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2524" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2524" t="inlineStr">
-        <is>
-          <t>47045696</t>
-        </is>
+      <c r="A2524" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2524" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2524" t="n">
+        <v>47045696</v>
       </c>
       <c r="D2524" t="inlineStr">
         <is>
@@ -52690,20 +52594,14 @@
       </c>
     </row>
     <row r="2525">
-      <c r="A2525" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2525" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2525" t="inlineStr">
-        <is>
-          <t>47045696</t>
-        </is>
+      <c r="A2525" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2525" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2525" t="n">
+        <v>47045696</v>
       </c>
       <c r="D2525" t="inlineStr">
         <is>
@@ -52717,20 +52615,14 @@
       </c>
     </row>
     <row r="2526">
-      <c r="A2526" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2526" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2526" t="inlineStr">
-        <is>
-          <t>47045696</t>
-        </is>
+      <c r="A2526" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2526" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2526" t="n">
+        <v>47045696</v>
       </c>
       <c r="D2526" t="inlineStr">
         <is>
@@ -52744,20 +52636,14 @@
       </c>
     </row>
     <row r="2527">
-      <c r="A2527" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2527" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2527" t="inlineStr">
-        <is>
-          <t>47038664</t>
-        </is>
+      <c r="A2527" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2527" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2527" t="n">
+        <v>47038664</v>
       </c>
       <c r="D2527" t="inlineStr">
         <is>
@@ -52771,20 +52657,14 @@
       </c>
     </row>
     <row r="2528">
-      <c r="A2528" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2528" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2528" t="inlineStr">
-        <is>
-          <t>47038664</t>
-        </is>
+      <c r="A2528" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2528" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2528" t="n">
+        <v>47038664</v>
       </c>
       <c r="D2528" t="inlineStr">
         <is>
@@ -52798,20 +52678,14 @@
       </c>
     </row>
     <row r="2529">
-      <c r="A2529" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2529" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2529" t="inlineStr">
-        <is>
-          <t>47038664</t>
-        </is>
+      <c r="A2529" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2529" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2529" t="n">
+        <v>47038664</v>
       </c>
       <c r="D2529" t="inlineStr">
         <is>
@@ -52825,20 +52699,14 @@
       </c>
     </row>
     <row r="2530">
-      <c r="A2530" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2530" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2530" t="inlineStr">
-        <is>
-          <t>47034963</t>
-        </is>
+      <c r="A2530" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2530" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2530" t="n">
+        <v>47034963</v>
       </c>
       <c r="D2530" t="inlineStr">
         <is>
@@ -52852,20 +52720,14 @@
       </c>
     </row>
     <row r="2531">
-      <c r="A2531" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2531" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2531" t="inlineStr">
-        <is>
-          <t>47034963</t>
-        </is>
+      <c r="A2531" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2531" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2531" t="n">
+        <v>47034963</v>
       </c>
       <c r="D2531" t="inlineStr">
         <is>
@@ -52879,20 +52741,14 @@
       </c>
     </row>
     <row r="2532">
-      <c r="A2532" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2532" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2532" t="inlineStr">
-        <is>
-          <t>47034963</t>
-        </is>
+      <c r="A2532" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2532" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2532" t="n">
+        <v>47034963</v>
       </c>
       <c r="D2532" t="inlineStr">
         <is>
@@ -52906,20 +52762,14 @@
       </c>
     </row>
     <row r="2533">
-      <c r="A2533" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2533" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2533" t="inlineStr">
-        <is>
-          <t>47021565</t>
-        </is>
+      <c r="A2533" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2533" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2533" t="n">
+        <v>47021565</v>
       </c>
       <c r="D2533" t="inlineStr">
         <is>
@@ -52933,20 +52783,14 @@
       </c>
     </row>
     <row r="2534">
-      <c r="A2534" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2534" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2534" t="inlineStr">
-        <is>
-          <t>47021565</t>
-        </is>
+      <c r="A2534" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2534" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2534" t="n">
+        <v>47021565</v>
       </c>
       <c r="D2534" t="inlineStr">
         <is>
@@ -52960,20 +52804,14 @@
       </c>
     </row>
     <row r="2535">
-      <c r="A2535" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2535" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2535" t="inlineStr">
-        <is>
-          <t>47021565</t>
-        </is>
+      <c r="A2535" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2535" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2535" t="n">
+        <v>47021565</v>
       </c>
       <c r="D2535" t="inlineStr">
         <is>
@@ -52987,20 +52825,14 @@
       </c>
     </row>
     <row r="2536">
-      <c r="A2536" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2536" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2536" t="inlineStr">
-        <is>
-          <t>47000185</t>
-        </is>
+      <c r="A2536" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2536" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2536" t="n">
+        <v>47000185</v>
       </c>
       <c r="D2536" t="inlineStr">
         <is>
@@ -53014,20 +52846,14 @@
       </c>
     </row>
     <row r="2537">
-      <c r="A2537" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2537" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2537" t="inlineStr">
-        <is>
-          <t>47000185</t>
-        </is>
+      <c r="A2537" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2537" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2537" t="n">
+        <v>47000185</v>
       </c>
       <c r="D2537" t="inlineStr">
         <is>
@@ -53041,20 +52867,14 @@
       </c>
     </row>
     <row r="2538">
-      <c r="A2538" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2538" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2538" t="inlineStr">
-        <is>
-          <t>46999648</t>
-        </is>
+      <c r="A2538" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2538" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2538" t="n">
+        <v>46999648</v>
       </c>
       <c r="D2538" t="inlineStr">
         <is>
@@ -53068,20 +52888,14 @@
       </c>
     </row>
     <row r="2539">
-      <c r="A2539" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2539" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2539" t="inlineStr">
-        <is>
-          <t>46989674</t>
-        </is>
+      <c r="A2539" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2539" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2539" t="n">
+        <v>46989674</v>
       </c>
       <c r="D2539" t="inlineStr">
         <is>
@@ -53095,20 +52909,14 @@
       </c>
     </row>
     <row r="2540">
-      <c r="A2540" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2540" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2540" t="inlineStr">
-        <is>
-          <t>46961319</t>
-        </is>
+      <c r="A2540" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2540" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2540" t="n">
+        <v>46961319</v>
       </c>
       <c r="D2540" t="inlineStr">
         <is>
@@ -53122,20 +52930,14 @@
       </c>
     </row>
     <row r="2541">
-      <c r="A2541" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2541" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2541" t="inlineStr">
-        <is>
-          <t>46947437</t>
-        </is>
+      <c r="A2541" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2541" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2541" t="n">
+        <v>46947437</v>
       </c>
       <c r="D2541" t="inlineStr">
         <is>
@@ -53149,20 +52951,14 @@
       </c>
     </row>
     <row r="2542">
-      <c r="A2542" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2542" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2542" t="inlineStr">
-        <is>
-          <t>46947437</t>
-        </is>
+      <c r="A2542" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2542" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2542" t="n">
+        <v>46947437</v>
       </c>
       <c r="D2542" t="inlineStr">
         <is>
@@ -53176,20 +52972,14 @@
       </c>
     </row>
     <row r="2543">
-      <c r="A2543" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2543" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2543" t="inlineStr">
-        <is>
-          <t>46947437</t>
-        </is>
+      <c r="A2543" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2543" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2543" t="n">
+        <v>46947437</v>
       </c>
       <c r="D2543" t="inlineStr">
         <is>
@@ -53203,20 +52993,14 @@
       </c>
     </row>
     <row r="2544">
-      <c r="A2544" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2544" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2544" t="inlineStr">
-        <is>
-          <t>46945653</t>
-        </is>
+      <c r="A2544" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2544" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2544" t="n">
+        <v>46945653</v>
       </c>
       <c r="D2544" t="inlineStr">
         <is>
@@ -53230,20 +53014,14 @@
       </c>
     </row>
     <row r="2545">
-      <c r="A2545" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2545" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2545" t="inlineStr">
-        <is>
-          <t>46925349</t>
-        </is>
+      <c r="A2545" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2545" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2545" t="n">
+        <v>46925349</v>
       </c>
       <c r="D2545" t="inlineStr">
         <is>
@@ -53257,20 +53035,14 @@
       </c>
     </row>
     <row r="2546">
-      <c r="A2546" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2546" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2546" t="inlineStr">
-        <is>
-          <t>46925349</t>
-        </is>
+      <c r="A2546" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2546" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2546" t="n">
+        <v>46925349</v>
       </c>
       <c r="D2546" t="inlineStr">
         <is>
@@ -53284,20 +53056,14 @@
       </c>
     </row>
     <row r="2547">
-      <c r="A2547" t="inlineStr">
-        <is>
-          <t>10032</t>
-        </is>
-      </c>
-      <c r="B2547" t="inlineStr">
-        <is>
-          <t>1000264</t>
-        </is>
-      </c>
-      <c r="C2547" t="inlineStr">
-        <is>
-          <t>46925349</t>
-        </is>
+      <c r="A2547" t="n">
+        <v>10032</v>
+      </c>
+      <c r="B2547" t="n">
+        <v>1000264</v>
+      </c>
+      <c r="C2547" t="n">
+        <v>46925349</v>
       </c>
       <c r="D2547" t="inlineStr">
         <is>
@@ -53307,6 +53073,6633 @@
       <c r="E2547" t="inlineStr">
         <is>
           <t>2025.06.04 - 02:26:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2548" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2548" t="n">
+        <v>47078622</v>
+      </c>
+      <c r="D2548" t="inlineStr">
+        <is>
+          <t>화물운송종사자</t>
+        </is>
+      </c>
+      <c r="E2548" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:40:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2549" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2549" t="n">
+        <v>47078518</v>
+      </c>
+      <c r="D2549" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2549" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:40:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2550" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2550" t="n">
+        <v>47078263</v>
+      </c>
+      <c r="D2550" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2550" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:40:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2551" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2551" t="n">
+        <v>47077969</v>
+      </c>
+      <c r="D2551" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2551" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2552" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2552" t="n">
+        <v>47077930</v>
+      </c>
+      <c r="D2552" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2552" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2553" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2553" t="n">
+        <v>47077930</v>
+      </c>
+      <c r="D2553" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E2553" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2554" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2554" t="n">
+        <v>47077606</v>
+      </c>
+      <c r="D2554" t="inlineStr">
+        <is>
+          <t>위험물운반책임자</t>
+        </is>
+      </c>
+      <c r="E2554" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2555" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2555" t="n">
+        <v>47077606</v>
+      </c>
+      <c r="D2555" t="inlineStr">
+        <is>
+          <t>충전시설안전관리자 교육이수</t>
+        </is>
+      </c>
+      <c r="E2555" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2556" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2556" t="n">
+        <v>47077606</v>
+      </c>
+      <c r="D2556" t="inlineStr">
+        <is>
+          <t>가스관련자격증소지자</t>
+        </is>
+      </c>
+      <c r="E2556" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2557" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2557" t="n">
+        <v>47077475</v>
+      </c>
+      <c r="D2557" t="inlineStr">
+        <is>
+          <t>물류관리사</t>
+        </is>
+      </c>
+      <c r="E2557" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2558" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2558" t="n">
+        <v>47077363</v>
+      </c>
+      <c r="D2558" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2558" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2559" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2559" t="n">
+        <v>47077356</v>
+      </c>
+      <c r="D2559" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2559" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2560" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2560" t="n">
+        <v>47077371</v>
+      </c>
+      <c r="D2560" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2560" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2561" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2561" t="n">
+        <v>47077367</v>
+      </c>
+      <c r="D2561" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2561" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2562" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2562" t="n">
+        <v>47077346</v>
+      </c>
+      <c r="D2562" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2562" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2563" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2563" t="n">
+        <v>47077325</v>
+      </c>
+      <c r="D2563" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2563" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2564" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2564" t="n">
+        <v>47077320</v>
+      </c>
+      <c r="D2564" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2564" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2565" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2565" t="n">
+        <v>47077309</v>
+      </c>
+      <c r="D2565" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2565" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2566" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2566" t="n">
+        <v>47077293</v>
+      </c>
+      <c r="D2566" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2566" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2567">
+      <c r="A2567" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2567" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2567" t="n">
+        <v>47077293</v>
+      </c>
+      <c r="D2567" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E2567" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2568">
+      <c r="A2568" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2568" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2568" t="n">
+        <v>47077289</v>
+      </c>
+      <c r="D2568" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2568" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2569" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2569" t="n">
+        <v>47076336</v>
+      </c>
+      <c r="D2569" t="inlineStr">
+        <is>
+          <t>로더운전기능사</t>
+        </is>
+      </c>
+      <c r="E2569" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2570" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2570" t="n">
+        <v>47076178</v>
+      </c>
+      <c r="D2570" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E2570" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2571">
+      <c r="A2571" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2571" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2571" t="n">
+        <v>47076178</v>
+      </c>
+      <c r="D2571" t="inlineStr">
+        <is>
+          <t>건설기계조종사(3톤이상지게차)</t>
+        </is>
+      </c>
+      <c r="E2571" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:41:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2572">
+      <c r="A2572" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2572" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2572" t="n">
+        <v>47075548</v>
+      </c>
+      <c r="D2572" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2572" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:42:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2573">
+      <c r="A2573" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2573" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2573" t="n">
+        <v>47075465</v>
+      </c>
+      <c r="D2573" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2573" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:42:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2574">
+      <c r="A2574" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2574" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2574" t="n">
+        <v>47075465</v>
+      </c>
+      <c r="D2574" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2574" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:42:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2575">
+      <c r="A2575" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2575" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2575" t="n">
+        <v>47075094</v>
+      </c>
+      <c r="D2575" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2575" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:42:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2576" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2576" t="n">
+        <v>47075094</v>
+      </c>
+      <c r="D2576" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E2576" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:42:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2577">
+      <c r="A2577" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2577" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2577" t="n">
+        <v>47074608</v>
+      </c>
+      <c r="D2577" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2577" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:42:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2578">
+      <c r="A2578" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2578" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2578" t="n">
+        <v>47074393</v>
+      </c>
+      <c r="D2578" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2578" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:42:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2579">
+      <c r="A2579" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2579" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2579" t="n">
+        <v>47074282</v>
+      </c>
+      <c r="D2579" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2579" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2580">
+      <c r="A2580" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2580" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2580" t="n">
+        <v>47074281</v>
+      </c>
+      <c r="D2580" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2580" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2581">
+      <c r="A2581" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2581" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2581" t="n">
+        <v>47074280</v>
+      </c>
+      <c r="D2581" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2581" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2582" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2582" t="n">
+        <v>47074278</v>
+      </c>
+      <c r="D2582" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2582" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2583">
+      <c r="A2583" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2583" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2583" t="n">
+        <v>47074277</v>
+      </c>
+      <c r="D2583" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2583" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2584">
+      <c r="A2584" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2584" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2584" t="n">
+        <v>47074253</v>
+      </c>
+      <c r="D2584" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2584" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2585" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2585" t="n">
+        <v>47074252</v>
+      </c>
+      <c r="D2585" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2585" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2586" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2586" t="n">
+        <v>47074251</v>
+      </c>
+      <c r="D2586" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2586" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2587" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2587" t="n">
+        <v>47074250</v>
+      </c>
+      <c r="D2587" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2587" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="A2588" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2588" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2588" t="n">
+        <v>47074249</v>
+      </c>
+      <c r="D2588" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2588" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="A2589" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2589" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2589" t="n">
+        <v>47074231</v>
+      </c>
+      <c r="D2589" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2589" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2590" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2590" t="n">
+        <v>47074230</v>
+      </c>
+      <c r="D2590" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2590" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2591" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2591" t="n">
+        <v>47074243</v>
+      </c>
+      <c r="D2591" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E2591" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2592" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2592" t="n">
+        <v>47074228</v>
+      </c>
+      <c r="D2592" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2592" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2593" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2593" t="n">
+        <v>47074227</v>
+      </c>
+      <c r="D2593" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2593" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2594" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2594" t="n">
+        <v>47074226</v>
+      </c>
+      <c r="D2594" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2594" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2595" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2595" t="n">
+        <v>47074199</v>
+      </c>
+      <c r="D2595" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2595" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2596" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2596" t="n">
+        <v>47074200</v>
+      </c>
+      <c r="D2596" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2596" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2597" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2597" t="n">
+        <v>47074201</v>
+      </c>
+      <c r="D2597" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2597" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2598" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2598" t="n">
+        <v>47074202</v>
+      </c>
+      <c r="D2598" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2598" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2599" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2599" t="n">
+        <v>47074203</v>
+      </c>
+      <c r="D2599" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2599" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:43:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2600" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2600" t="n">
+        <v>47073818</v>
+      </c>
+      <c r="D2600" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2600" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:44:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2601" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2601" t="n">
+        <v>47073818</v>
+      </c>
+      <c r="D2601" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2601" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:44:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2602" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2602" t="n">
+        <v>47073806</v>
+      </c>
+      <c r="D2602" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2602" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:44:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2603" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2603" t="n">
+        <v>47073806</v>
+      </c>
+      <c r="D2603" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2603" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:44:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2604" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2604" t="n">
+        <v>47073796</v>
+      </c>
+      <c r="D2604" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2604" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:44:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2605" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2605" t="n">
+        <v>47073796</v>
+      </c>
+      <c r="D2605" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2605" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:44:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2606" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2606" t="n">
+        <v>47073563</v>
+      </c>
+      <c r="D2606" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2606" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:44:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2607" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2607" t="n">
+        <v>47073258</v>
+      </c>
+      <c r="D2607" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2607" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:44:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2608" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2608" t="n">
+        <v>47073058</v>
+      </c>
+      <c r="D2608" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2608" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:44:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2609" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2609" t="n">
+        <v>47072679</v>
+      </c>
+      <c r="D2609" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2609" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:44:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2610" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2610" t="n">
+        <v>47072679</v>
+      </c>
+      <c r="D2610" t="inlineStr">
+        <is>
+          <t>1종특수운전면허(대형견인차)</t>
+        </is>
+      </c>
+      <c r="E2610" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:44:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2611" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2611" t="n">
+        <v>47072293</v>
+      </c>
+      <c r="D2611" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2611" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:45:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2612" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2612" t="n">
+        <v>47072283</v>
+      </c>
+      <c r="D2612" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2612" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:45:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2613" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2613" t="n">
+        <v>47072057</v>
+      </c>
+      <c r="D2613" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E2613" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:45:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2614" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2614" t="n">
+        <v>47072057</v>
+      </c>
+      <c r="D2614" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2614" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:45:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2615" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2615" t="n">
+        <v>47071512</v>
+      </c>
+      <c r="D2615" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2615" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:45:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2616" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2616" t="n">
+        <v>47070566</v>
+      </c>
+      <c r="D2616" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2616" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:45:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2617" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2617" t="n">
+        <v>47069424</v>
+      </c>
+      <c r="D2617" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2617" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:46:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2618" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2618" t="n">
+        <v>47069379</v>
+      </c>
+      <c r="D2618" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2618" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:46:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2619" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2619" t="n">
+        <v>47069212</v>
+      </c>
+      <c r="D2619" t="inlineStr">
+        <is>
+          <t>소방설비산업기사</t>
+        </is>
+      </c>
+      <c r="E2619" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:46:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2620" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2620" t="n">
+        <v>47069212</v>
+      </c>
+      <c r="D2620" t="inlineStr">
+        <is>
+          <t>전기기능사</t>
+        </is>
+      </c>
+      <c r="E2620" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:46:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2621" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2621" t="n">
+        <v>47069212</v>
+      </c>
+      <c r="D2621" t="inlineStr">
+        <is>
+          <t>산업안전기사</t>
+        </is>
+      </c>
+      <c r="E2621" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:46:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2622" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2622" t="n">
+        <v>47068317</v>
+      </c>
+      <c r="D2622" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2622" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:46:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2623" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2623" t="n">
+        <v>47068286</v>
+      </c>
+      <c r="D2623" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2623" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:46:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2624" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2624" t="n">
+        <v>47068256</v>
+      </c>
+      <c r="D2624" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E2624" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:46:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2625" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2625" t="n">
+        <v>47067995</v>
+      </c>
+      <c r="D2625" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2625" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:47:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2626" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2626" t="n">
+        <v>47066519</v>
+      </c>
+      <c r="D2626" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E2626" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:47:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2627" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2627" t="n">
+        <v>47066519</v>
+      </c>
+      <c r="D2627" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2627" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:47:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2628" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2628" t="n">
+        <v>47066519</v>
+      </c>
+      <c r="D2628" t="inlineStr">
+        <is>
+          <t>위험물운송자</t>
+        </is>
+      </c>
+      <c r="E2628" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:47:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2629" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2629" t="n">
+        <v>47065889</v>
+      </c>
+      <c r="D2629" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2629" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:47:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2630" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2630" t="n">
+        <v>47061778</v>
+      </c>
+      <c r="D2630" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2630" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:48:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2631" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2631" t="n">
+        <v>47061778</v>
+      </c>
+      <c r="D2631" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2631" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:48:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2632" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2632" t="n">
+        <v>47063242</v>
+      </c>
+      <c r="D2632" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2632" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2633" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2633" t="n">
+        <v>47063241</v>
+      </c>
+      <c r="D2633" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2633" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2634" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2634" t="n">
+        <v>47063239</v>
+      </c>
+      <c r="D2634" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2634" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2635" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2635" t="n">
+        <v>47063238</v>
+      </c>
+      <c r="D2635" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2635" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2636" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2636" t="n">
+        <v>47063236</v>
+      </c>
+      <c r="D2636" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2636" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2637" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2637" t="n">
+        <v>47063164</v>
+      </c>
+      <c r="D2637" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2637" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2638" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2638" t="n">
+        <v>47063163</v>
+      </c>
+      <c r="D2638" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2638" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2639" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2639" t="n">
+        <v>47063162</v>
+      </c>
+      <c r="D2639" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2639" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2640" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2640" t="n">
+        <v>47063161</v>
+      </c>
+      <c r="D2640" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2640" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2641" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2641" t="n">
+        <v>47063160</v>
+      </c>
+      <c r="D2641" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2641" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="A2642" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2642" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2642" t="n">
+        <v>47063086</v>
+      </c>
+      <c r="D2642" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2642" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2643" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2643" t="n">
+        <v>47063085</v>
+      </c>
+      <c r="D2643" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2643" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2644" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2644" t="n">
+        <v>47063084</v>
+      </c>
+      <c r="D2644" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2644" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2645" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2645" t="n">
+        <v>47063082</v>
+      </c>
+      <c r="D2645" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2645" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2646" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2646" t="n">
+        <v>47063080</v>
+      </c>
+      <c r="D2646" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2646" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2647" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2647" t="n">
+        <v>47063022</v>
+      </c>
+      <c r="D2647" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2647" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2648" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2648" t="n">
+        <v>47063021</v>
+      </c>
+      <c r="D2648" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2648" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2649" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2649" t="n">
+        <v>47063020</v>
+      </c>
+      <c r="D2649" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2649" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2650" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2650" t="n">
+        <v>47063019</v>
+      </c>
+      <c r="D2650" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2650" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2651" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2651" t="n">
+        <v>47063018</v>
+      </c>
+      <c r="D2651" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2651" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2652" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2652" t="n">
+        <v>47062989</v>
+      </c>
+      <c r="D2652" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2652" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2653" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2653" t="n">
+        <v>47062988</v>
+      </c>
+      <c r="D2653" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2653" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2654" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2654" t="n">
+        <v>47062986</v>
+      </c>
+      <c r="D2654" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:49:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2655" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2655" t="n">
+        <v>47062985</v>
+      </c>
+      <c r="D2655" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2655" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:50:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2656">
+      <c r="A2656" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2656" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2656" t="n">
+        <v>47062984</v>
+      </c>
+      <c r="D2656" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2656" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:50:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2657" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2657" t="n">
+        <v>47062955</v>
+      </c>
+      <c r="D2657" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2657" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:50:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2658" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2658" t="n">
+        <v>47062954</v>
+      </c>
+      <c r="D2658" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2658" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:50:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2659" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2659" t="n">
+        <v>47062953</v>
+      </c>
+      <c r="D2659" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:50:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2660" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2660" t="n">
+        <v>47062952</v>
+      </c>
+      <c r="D2660" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2660" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:50:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2661" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2661" t="n">
+        <v>47062950</v>
+      </c>
+      <c r="D2661" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2661" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:50:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2662" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2662" t="n">
+        <v>47061788</v>
+      </c>
+      <c r="D2662" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2662" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:51:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2663" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2663" t="n">
+        <v>47060929</v>
+      </c>
+      <c r="D2663" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2663" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:52:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2664" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2664" t="n">
+        <v>47060928</v>
+      </c>
+      <c r="D2664" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2664" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:52:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2665" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2665" t="n">
+        <v>47060927</v>
+      </c>
+      <c r="D2665" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2665" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:52:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2666" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2666" t="n">
+        <v>47060926</v>
+      </c>
+      <c r="D2666" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2666" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:52:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2667" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2667" t="n">
+        <v>47060871</v>
+      </c>
+      <c r="D2667" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2667" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:52:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2668" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2668" t="n">
+        <v>47060872</v>
+      </c>
+      <c r="D2668" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2668" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:52:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2669" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2669" t="n">
+        <v>47060875</v>
+      </c>
+      <c r="D2669" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2669" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:52:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2670" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2670" t="n">
+        <v>47060876</v>
+      </c>
+      <c r="D2670" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2670" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:52:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2671" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2671" t="n">
+        <v>47060877</v>
+      </c>
+      <c r="D2671" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2671" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:52:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2672" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2672" t="n">
+        <v>47060299</v>
+      </c>
+      <c r="D2672" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2672" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:52:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2673" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2673" t="n">
+        <v>47059146</v>
+      </c>
+      <c r="D2673" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E2673" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:53:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2674" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2674" t="n">
+        <v>47059146</v>
+      </c>
+      <c r="D2674" t="inlineStr">
+        <is>
+          <t>정보처리산업기사</t>
+        </is>
+      </c>
+      <c r="E2674" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:53:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2675" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2675" t="n">
+        <v>47059146</v>
+      </c>
+      <c r="D2675" t="inlineStr">
+        <is>
+          <t>컴퓨터 하드웨어 소프트웨어</t>
+        </is>
+      </c>
+      <c r="E2675" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:53:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2676" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2676" t="n">
+        <v>47056250</v>
+      </c>
+      <c r="D2676" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2676" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:54:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2677" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2677" t="n">
+        <v>47055894</v>
+      </c>
+      <c r="D2677" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2677" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:54:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2678" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2678" t="n">
+        <v>47055736</v>
+      </c>
+      <c r="D2678" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2678" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:54:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2679" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2679" t="n">
+        <v>47055481</v>
+      </c>
+      <c r="D2679" t="inlineStr">
+        <is>
+          <t>운전면허증</t>
+        </is>
+      </c>
+      <c r="E2679" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:54:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2680" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2680" t="n">
+        <v>47055330</v>
+      </c>
+      <c r="D2680" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2680" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:54:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2681" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2681" t="n">
+        <v>47055330</v>
+      </c>
+      <c r="D2681" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2681" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:54:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2682" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2682" t="n">
+        <v>47055321</v>
+      </c>
+      <c r="D2682" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2682" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:54:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2683" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2683" t="n">
+        <v>47055321</v>
+      </c>
+      <c r="D2683" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2683" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:54:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2684" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2684" t="n">
+        <v>47054543</v>
+      </c>
+      <c r="D2684" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2684" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:55:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2685">
+      <c r="A2685" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2685" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2685" t="n">
+        <v>47054533</v>
+      </c>
+      <c r="D2685" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2685" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:55:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2686" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2686" t="n">
+        <v>47054395</v>
+      </c>
+      <c r="D2686" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2686" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:55:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2687" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2687" t="n">
+        <v>47054117</v>
+      </c>
+      <c r="D2687" t="inlineStr">
+        <is>
+          <t>운전면허</t>
+        </is>
+      </c>
+      <c r="E2687" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:55:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2688" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2688" t="n">
+        <v>47054077</v>
+      </c>
+      <c r="D2688" t="inlineStr">
+        <is>
+          <t>운전면허</t>
+        </is>
+      </c>
+      <c r="E2688" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:55:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2689">
+      <c r="A2689" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B2689" t="n">
+        <v>1000270</v>
+      </c>
+      <c r="C2689" t="n">
+        <v>47053763</v>
+      </c>
+      <c r="D2689" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2689" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 07:55:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2690" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2690" t="inlineStr">
+        <is>
+          <t>47053763</t>
+        </is>
+      </c>
+      <c r="D2690" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2690" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:01:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2691" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2691" t="inlineStr">
+        <is>
+          <t>47053759</t>
+        </is>
+      </c>
+      <c r="D2691" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2691" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:01:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2692" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2692" t="inlineStr">
+        <is>
+          <t>47053759</t>
+        </is>
+      </c>
+      <c r="D2692" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:01:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2693" t="inlineStr">
+        <is>
+          <t>47053655</t>
+        </is>
+      </c>
+      <c r="D2693" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2693" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:01:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2694" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2694" t="inlineStr">
+        <is>
+          <t>47053542</t>
+        </is>
+      </c>
+      <c r="D2694" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2694" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:01:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2695" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2695" t="inlineStr">
+        <is>
+          <t>47052942</t>
+        </is>
+      </c>
+      <c r="D2695" t="inlineStr">
+        <is>
+          <t>자동차운전1종</t>
+        </is>
+      </c>
+      <c r="E2695" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:02:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2696" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2696" t="inlineStr">
+        <is>
+          <t>47052120</t>
+        </is>
+      </c>
+      <c r="D2696" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2696" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:02:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="A2697" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2697" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2697" t="inlineStr">
+        <is>
+          <t>47051638</t>
+        </is>
+      </c>
+      <c r="D2697" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2697" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:02:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="A2698" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2698" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2698" t="inlineStr">
+        <is>
+          <t>47050877</t>
+        </is>
+      </c>
+      <c r="D2698" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2698" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2699" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2699" t="inlineStr">
+        <is>
+          <t>47050315</t>
+        </is>
+      </c>
+      <c r="D2699" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2699" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2700" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2700" t="inlineStr">
+        <is>
+          <t>47047650</t>
+        </is>
+      </c>
+      <c r="D2700" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2700" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2701" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2701" t="inlineStr">
+        <is>
+          <t>47047650</t>
+        </is>
+      </c>
+      <c r="D2701" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2702" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2702" t="inlineStr">
+        <is>
+          <t>47047647</t>
+        </is>
+      </c>
+      <c r="D2702" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2703" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2703" t="inlineStr">
+        <is>
+          <t>47047647</t>
+        </is>
+      </c>
+      <c r="D2703" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2703" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2704">
+      <c r="A2704" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2704" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2704" t="inlineStr">
+        <is>
+          <t>47047649</t>
+        </is>
+      </c>
+      <c r="D2704" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2704" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2705" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2705" t="inlineStr">
+        <is>
+          <t>47047649</t>
+        </is>
+      </c>
+      <c r="D2705" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2705" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2706" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2706" t="inlineStr">
+        <is>
+          <t>47047646</t>
+        </is>
+      </c>
+      <c r="D2706" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2706" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2707" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2707" t="inlineStr">
+        <is>
+          <t>47047646</t>
+        </is>
+      </c>
+      <c r="D2707" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2707" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2708">
+      <c r="A2708" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2708" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2708" t="inlineStr">
+        <is>
+          <t>47047644</t>
+        </is>
+      </c>
+      <c r="D2708" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2708" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="A2709" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2709" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2709" t="inlineStr">
+        <is>
+          <t>47047644</t>
+        </is>
+      </c>
+      <c r="D2709" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2709" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="A2710" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2710" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2710" t="inlineStr">
+        <is>
+          <t>47047642</t>
+        </is>
+      </c>
+      <c r="D2710" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2710" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2711" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2711" t="inlineStr">
+        <is>
+          <t>47047642</t>
+        </is>
+      </c>
+      <c r="D2711" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2712" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2712" t="inlineStr">
+        <is>
+          <t>47047641</t>
+        </is>
+      </c>
+      <c r="D2712" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2713">
+      <c r="A2713" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2713" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2713" t="inlineStr">
+        <is>
+          <t>47047641</t>
+        </is>
+      </c>
+      <c r="D2713" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2713" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2714" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2714" t="inlineStr">
+        <is>
+          <t>47047639</t>
+        </is>
+      </c>
+      <c r="D2714" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2714" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>47047639</t>
+        </is>
+      </c>
+      <c r="D2715" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2715" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2716" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2716" t="inlineStr">
+        <is>
+          <t>47047638</t>
+        </is>
+      </c>
+      <c r="D2716" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2716" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2717" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2717" t="inlineStr">
+        <is>
+          <t>47047638</t>
+        </is>
+      </c>
+      <c r="D2717" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2717" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2718" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2718" t="inlineStr">
+        <is>
+          <t>47047351</t>
+        </is>
+      </c>
+      <c r="D2718" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2718" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2719" t="inlineStr">
+        <is>
+          <t>47047351</t>
+        </is>
+      </c>
+      <c r="D2719" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2719" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2720" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2720" t="inlineStr">
+        <is>
+          <t>47049738</t>
+        </is>
+      </c>
+      <c r="D2720" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2720" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2721" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2721" t="inlineStr">
+        <is>
+          <t>47049694</t>
+        </is>
+      </c>
+      <c r="D2721" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2721" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:03:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2722">
+      <c r="A2722" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2722" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2722" t="inlineStr">
+        <is>
+          <t>47049336</t>
+        </is>
+      </c>
+      <c r="D2722" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E2722" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:04:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="A2723" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2723" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2723" t="inlineStr">
+        <is>
+          <t>47048600</t>
+        </is>
+      </c>
+      <c r="D2723" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E2723" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:04:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="A2724" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2724" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2724" t="inlineStr">
+        <is>
+          <t>47048600</t>
+        </is>
+      </c>
+      <c r="D2724" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2724" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:04:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2725" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2725" t="inlineStr">
+        <is>
+          <t>47048492</t>
+        </is>
+      </c>
+      <c r="D2725" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:04:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2726" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2726" t="inlineStr">
+        <is>
+          <t>47048027</t>
+        </is>
+      </c>
+      <c r="D2726" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:04:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2727" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2727" t="inlineStr">
+        <is>
+          <t>47047046</t>
+        </is>
+      </c>
+      <c r="D2727" t="inlineStr">
+        <is>
+          <t>운전면허</t>
+        </is>
+      </c>
+      <c r="E2727" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:05:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2728">
+      <c r="A2728" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2728" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2728" t="inlineStr">
+        <is>
+          <t>47046846</t>
+        </is>
+      </c>
+      <c r="D2728" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2728" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:05:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2729" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2729" t="inlineStr">
+        <is>
+          <t>47046823</t>
+        </is>
+      </c>
+      <c r="D2729" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2729" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:05:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2730">
+      <c r="A2730" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2730" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2730" t="inlineStr">
+        <is>
+          <t>47046668</t>
+        </is>
+      </c>
+      <c r="D2730" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2730" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:05:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2731" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2731" t="inlineStr">
+        <is>
+          <t>47046445</t>
+        </is>
+      </c>
+      <c r="D2731" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2731" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2732" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2732" t="inlineStr">
+        <is>
+          <t>47046444</t>
+        </is>
+      </c>
+      <c r="D2732" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2732" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:05:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2733" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2733" t="inlineStr">
+        <is>
+          <t>47046443</t>
+        </is>
+      </c>
+      <c r="D2733" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2733" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:06:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2734" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2734" t="inlineStr">
+        <is>
+          <t>47046442</t>
+        </is>
+      </c>
+      <c r="D2734" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2734" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:06:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2735" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2735" t="inlineStr">
+        <is>
+          <t>47046415</t>
+        </is>
+      </c>
+      <c r="D2735" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2735" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:06:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2736">
+      <c r="A2736" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2736" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2736" t="inlineStr">
+        <is>
+          <t>47046414</t>
+        </is>
+      </c>
+      <c r="D2736" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2736" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:06:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2737" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2737" t="inlineStr">
+        <is>
+          <t>47046413</t>
+        </is>
+      </c>
+      <c r="D2737" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2737" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:06:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2738">
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2738" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2738" t="inlineStr">
+        <is>
+          <t>47046412</t>
+        </is>
+      </c>
+      <c r="D2738" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2738" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:06:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2739" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2739" t="inlineStr">
+        <is>
+          <t>47046411</t>
+        </is>
+      </c>
+      <c r="D2739" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2739" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:06:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2740" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2740" t="inlineStr">
+        <is>
+          <t>47045573</t>
+        </is>
+      </c>
+      <c r="D2740" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2740" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:06:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="A2741" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>47045413</t>
+        </is>
+      </c>
+      <c r="D2741" t="inlineStr">
+        <is>
+          <t>화물운송종사자</t>
+        </is>
+      </c>
+      <c r="E2741" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:06:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="A2742" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2742" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2742" t="inlineStr">
+        <is>
+          <t>47044499</t>
+        </is>
+      </c>
+      <c r="D2742" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2742" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:06:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2743">
+      <c r="A2743" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2743" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2743" t="inlineStr">
+        <is>
+          <t>47044449</t>
+        </is>
+      </c>
+      <c r="D2743" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E2743" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:06:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2744">
+      <c r="A2744" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2744" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2744" t="inlineStr">
+        <is>
+          <t>47044163</t>
+        </is>
+      </c>
+      <c r="D2744" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2744" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:06:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2745">
+      <c r="A2745" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2745" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2745" t="inlineStr">
+        <is>
+          <t>47043929</t>
+        </is>
+      </c>
+      <c r="D2745" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2745" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2746" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2746" t="inlineStr">
+        <is>
+          <t>47043929</t>
+        </is>
+      </c>
+      <c r="D2746" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2746" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2747">
+      <c r="A2747" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2747" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2747" t="inlineStr">
+        <is>
+          <t>47043750</t>
+        </is>
+      </c>
+      <c r="D2747" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2747" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2748" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2748" t="inlineStr">
+        <is>
+          <t>47043749</t>
+        </is>
+      </c>
+      <c r="D2748" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2748" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2749" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2749" t="inlineStr">
+        <is>
+          <t>47043748</t>
+        </is>
+      </c>
+      <c r="D2749" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2749" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="A2750" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2750" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2750" t="inlineStr">
+        <is>
+          <t>47043747</t>
+        </is>
+      </c>
+      <c r="D2750" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2750" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2751">
+      <c r="A2751" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2751" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2751" t="inlineStr">
+        <is>
+          <t>47043648</t>
+        </is>
+      </c>
+      <c r="D2751" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2751" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2752" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2752" t="inlineStr">
+        <is>
+          <t>47043647</t>
+        </is>
+      </c>
+      <c r="D2752" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2752" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2753" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2753" t="inlineStr">
+        <is>
+          <t>47043646</t>
+        </is>
+      </c>
+      <c r="D2753" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2753" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2754" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2754" t="inlineStr">
+        <is>
+          <t>47043645</t>
+        </is>
+      </c>
+      <c r="D2754" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2754" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2755" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2755" t="inlineStr">
+        <is>
+          <t>47043644</t>
+        </is>
+      </c>
+      <c r="D2755" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2755" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2756" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2756" t="inlineStr">
+        <is>
+          <t>47043686</t>
+        </is>
+      </c>
+      <c r="D2756" t="inlineStr">
+        <is>
+          <t>운전면허</t>
+        </is>
+      </c>
+      <c r="E2756" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2757" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2757" t="inlineStr">
+        <is>
+          <t>47043531</t>
+        </is>
+      </c>
+      <c r="D2757" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2757" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2758" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2758" t="inlineStr">
+        <is>
+          <t>47043529</t>
+        </is>
+      </c>
+      <c r="D2758" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2758" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2759" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2759" t="inlineStr">
+        <is>
+          <t>47043528</t>
+        </is>
+      </c>
+      <c r="D2759" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2759" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2760" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2760" t="inlineStr">
+        <is>
+          <t>47043527</t>
+        </is>
+      </c>
+      <c r="D2760" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2760" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2761" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2761" t="inlineStr">
+        <is>
+          <t>47043525</t>
+        </is>
+      </c>
+      <c r="D2761" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2761" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2762">
+      <c r="A2762" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2762" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2762" t="inlineStr">
+        <is>
+          <t>47042776</t>
+        </is>
+      </c>
+      <c r="D2762" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2762" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:07:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2763" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2763" t="inlineStr">
+        <is>
+          <t>47042458</t>
+        </is>
+      </c>
+      <c r="D2763" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E2763" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:08:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2764" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2764" t="inlineStr">
+        <is>
+          <t>47042083</t>
+        </is>
+      </c>
+      <c r="D2764" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2764" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2765" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2765" t="inlineStr">
+        <is>
+          <t>47041706</t>
+        </is>
+      </c>
+      <c r="D2765" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2765" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:08:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2766" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2766" t="inlineStr">
+        <is>
+          <t>47041706</t>
+        </is>
+      </c>
+      <c r="D2766" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E2766" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:08:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2767" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2767" t="inlineStr">
+        <is>
+          <t>47041493</t>
+        </is>
+      </c>
+      <c r="D2767" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2767" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:08:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2768" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2768" t="inlineStr">
+        <is>
+          <t>47041365</t>
+        </is>
+      </c>
+      <c r="D2768" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2768" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:08:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2769">
+      <c r="A2769" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2769" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2769" t="inlineStr">
+        <is>
+          <t>47041324</t>
+        </is>
+      </c>
+      <c r="D2769" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2769" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:08:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2770">
+      <c r="A2770" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2770" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2770" t="inlineStr">
+        <is>
+          <t>47041155</t>
+        </is>
+      </c>
+      <c r="D2770" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2770" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:08:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2771">
+      <c r="A2771" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2771" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2771" t="inlineStr">
+        <is>
+          <t>47040720</t>
+        </is>
+      </c>
+      <c r="D2771" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2771" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:09:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2772" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2772" t="inlineStr">
+        <is>
+          <t>47040710</t>
+        </is>
+      </c>
+      <c r="D2772" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2772" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:09:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2773" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2773" t="inlineStr">
+        <is>
+          <t>47040696</t>
+        </is>
+      </c>
+      <c r="D2773" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2773" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:09:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2774" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2774" t="inlineStr">
+        <is>
+          <t>47040666</t>
+        </is>
+      </c>
+      <c r="D2774" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2774" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:09:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2775">
+      <c r="A2775" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2775" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2775" t="inlineStr">
+        <is>
+          <t>47040646</t>
+        </is>
+      </c>
+      <c r="D2775" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2775" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:09:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2776">
+      <c r="A2776" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2776" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2776" t="inlineStr">
+        <is>
+          <t>47040538</t>
+        </is>
+      </c>
+      <c r="D2776" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2776" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:09:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2777">
+      <c r="A2777" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2777" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2777" t="inlineStr">
+        <is>
+          <t>47040521</t>
+        </is>
+      </c>
+      <c r="D2777" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2777" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:09:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2778">
+      <c r="A2778" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2778" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2778" t="inlineStr">
+        <is>
+          <t>47040482</t>
+        </is>
+      </c>
+      <c r="D2778" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2778" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="A2779" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2779" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2779" t="inlineStr">
+        <is>
+          <t>47040465</t>
+        </is>
+      </c>
+      <c r="D2779" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2779" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:09:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2780">
+      <c r="A2780" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2780" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2780" t="inlineStr">
+        <is>
+          <t>47039731</t>
+        </is>
+      </c>
+      <c r="D2780" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2780" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:09:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="A2781" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2781" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2781" t="inlineStr">
+        <is>
+          <t>47039731</t>
+        </is>
+      </c>
+      <c r="D2781" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E2781" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:09:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2782" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2782" t="inlineStr">
+        <is>
+          <t>47039674</t>
+        </is>
+      </c>
+      <c r="D2782" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2782" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:09:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2783" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2783" t="inlineStr">
+        <is>
+          <t>47039674</t>
+        </is>
+      </c>
+      <c r="D2783" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E2783" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:09:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="A2784" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2784" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2784" t="inlineStr">
+        <is>
+          <t>47039537</t>
+        </is>
+      </c>
+      <c r="D2784" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2784" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:09:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2785" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2785" t="inlineStr">
+        <is>
+          <t>47039537</t>
+        </is>
+      </c>
+      <c r="D2785" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E2785" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:09:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="A2786" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2786" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2786" t="inlineStr">
+        <is>
+          <t>47039504</t>
+        </is>
+      </c>
+      <c r="D2786" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2786" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:09:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2787" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2787" t="inlineStr">
+        <is>
+          <t>47039198</t>
+        </is>
+      </c>
+      <c r="D2787" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2787" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:10:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2788" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2788" t="inlineStr">
+        <is>
+          <t>47038812</t>
+        </is>
+      </c>
+      <c r="D2788" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2788" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:10:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2789" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2789" t="inlineStr">
+        <is>
+          <t>47037711</t>
+        </is>
+      </c>
+      <c r="D2789" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2789" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:10:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2790" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2790" t="inlineStr">
+        <is>
+          <t>47037711</t>
+        </is>
+      </c>
+      <c r="D2790" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2790" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:10:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2791" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2791" t="inlineStr">
+        <is>
+          <t>47037490</t>
+        </is>
+      </c>
+      <c r="D2791" t="inlineStr">
+        <is>
+          <t>운전면허증</t>
+        </is>
+      </c>
+      <c r="E2791" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:10:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2792" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2792" t="inlineStr">
+        <is>
+          <t>47037169</t>
+        </is>
+      </c>
+      <c r="D2792" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2792" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:10:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2793">
+      <c r="A2793" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2793" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2793" t="inlineStr">
+        <is>
+          <t>47035538</t>
+        </is>
+      </c>
+      <c r="D2793" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E2793" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="A2794" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2794" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2794" t="inlineStr">
+        <is>
+          <t>47034624</t>
+        </is>
+      </c>
+      <c r="D2794" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2794" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:11:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="A2795" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2795" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2795" t="inlineStr">
+        <is>
+          <t>47033743</t>
+        </is>
+      </c>
+      <c r="D2795" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E2795" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:11:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="A2796" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2796" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2796" t="inlineStr">
+        <is>
+          <t>47033743</t>
+        </is>
+      </c>
+      <c r="D2796" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2796" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:11:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="A2797" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2797" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2797" t="inlineStr">
+        <is>
+          <t>47033743</t>
+        </is>
+      </c>
+      <c r="D2797" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2797" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:11:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="A2798" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2798" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2798" t="inlineStr">
+        <is>
+          <t>47033252</t>
+        </is>
+      </c>
+      <c r="D2798" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2798" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:12:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="A2799" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2799" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2799" t="inlineStr">
+        <is>
+          <t>47033167</t>
+        </is>
+      </c>
+      <c r="D2799" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2799" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:12:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="A2800" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2800" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2800" t="inlineStr">
+        <is>
+          <t>47033085</t>
+        </is>
+      </c>
+      <c r="D2800" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2800" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="A2801" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2801" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2801" t="inlineStr">
+        <is>
+          <t>47032827</t>
+        </is>
+      </c>
+      <c r="D2801" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2801" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:12:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2802">
+      <c r="A2802" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2802" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2802" t="inlineStr">
+        <is>
+          <t>47032827</t>
+        </is>
+      </c>
+      <c r="D2802" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2802" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:12:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2803">
+      <c r="A2803" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2803" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2803" t="inlineStr">
+        <is>
+          <t>47032315</t>
+        </is>
+      </c>
+      <c r="D2803" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2803" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="A2804" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2804" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2804" t="inlineStr">
+        <is>
+          <t>47032315</t>
+        </is>
+      </c>
+      <c r="D2804" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2804" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="A2805" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2805" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2805" t="inlineStr">
+        <is>
+          <t>47031612</t>
+        </is>
+      </c>
+      <c r="D2805" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2805" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:13:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2806">
+      <c r="A2806" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2806" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2806" t="inlineStr">
+        <is>
+          <t>47030922</t>
+        </is>
+      </c>
+      <c r="D2806" t="inlineStr">
+        <is>
+          <t>자동차정비</t>
+        </is>
+      </c>
+      <c r="E2806" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:13:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2807">
+      <c r="A2807" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2807" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2807" t="inlineStr">
+        <is>
+          <t>47030363</t>
+        </is>
+      </c>
+      <c r="D2807" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2807" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:13:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2808" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2808" t="inlineStr">
+        <is>
+          <t>47030034</t>
+        </is>
+      </c>
+      <c r="D2808" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2808" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:13:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="A2809" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2809" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2809" t="inlineStr">
+        <is>
+          <t>47029759</t>
+        </is>
+      </c>
+      <c r="D2809" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E2809" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:14:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2810">
+      <c r="A2810" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2810" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2810" t="inlineStr">
+        <is>
+          <t>47029759</t>
+        </is>
+      </c>
+      <c r="D2810" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E2810" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:14:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2811" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2811" t="inlineStr">
+        <is>
+          <t>47027798</t>
+        </is>
+      </c>
+      <c r="D2811" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E2811" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:14:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2812">
+      <c r="A2812" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2812" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2812" t="inlineStr">
+        <is>
+          <t>47027798</t>
+        </is>
+      </c>
+      <c r="D2812" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2812" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:14:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2813">
+      <c r="A2813" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2813" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2813" t="inlineStr">
+        <is>
+          <t>47027496</t>
+        </is>
+      </c>
+      <c r="D2813" t="inlineStr">
+        <is>
+          <t>자동차정비기능사</t>
+        </is>
+      </c>
+      <c r="E2813" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:14:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2814">
+      <c r="A2814" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2814" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2814" t="inlineStr">
+        <is>
+          <t>47027496</t>
+        </is>
+      </c>
+      <c r="D2814" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2814" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:14:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2815" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2815" t="inlineStr">
+        <is>
+          <t>47027466</t>
+        </is>
+      </c>
+      <c r="D2815" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2815" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:14:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2816" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2816" t="inlineStr">
+        <is>
+          <t>47027466</t>
+        </is>
+      </c>
+      <c r="D2816" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E2816" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:14:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2817" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2817" t="inlineStr">
+        <is>
+          <t>47027198</t>
+        </is>
+      </c>
+      <c r="D2817" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2817" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:15:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2818">
+      <c r="A2818" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2818" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2818" t="inlineStr">
+        <is>
+          <t>47026456</t>
+        </is>
+      </c>
+      <c r="D2818" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E2818" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:15:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="A2819" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2819" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2819" t="inlineStr">
+        <is>
+          <t>47025369</t>
+        </is>
+      </c>
+      <c r="D2819" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2819" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:15:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2820" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2820" t="inlineStr">
+        <is>
+          <t>47024758</t>
+        </is>
+      </c>
+      <c r="D2820" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2820" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="A2821" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2821" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2821" t="inlineStr">
+        <is>
+          <t>47024174</t>
+        </is>
+      </c>
+      <c r="D2821" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2821" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:16:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2822">
+      <c r="A2822" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2822" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2822" t="inlineStr">
+        <is>
+          <t>47023924</t>
+        </is>
+      </c>
+      <c r="D2822" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E2822" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:16:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2823" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2823" t="inlineStr">
+        <is>
+          <t>47023251</t>
+        </is>
+      </c>
+      <c r="D2823" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E2823" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:16:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B2824" t="inlineStr">
+        <is>
+          <t>1000270</t>
+        </is>
+      </c>
+      <c r="C2824" t="inlineStr">
+        <is>
+          <t>47022058</t>
+        </is>
+      </c>
+      <c r="D2824" t="inlineStr">
+        <is>
+          <t>1종보통</t>
+        </is>
+      </c>
+      <c r="E2824" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 08:16:19</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4503"/>
+  <dimension ref="A1:E4552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90583,4592 +90583,4895 @@
       </c>
     </row>
     <row r="4334">
-      <c r="A4334" t="inlineStr">
+      <c r="A4334" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4334" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4334" t="n">
+        <v>46996734</v>
+      </c>
+      <c r="D4334" t="inlineStr">
+        <is>
+          <t>지게차</t>
+        </is>
+      </c>
+      <c r="E4334" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4335">
+      <c r="A4335" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4335" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4335" t="n">
+        <v>46996734</v>
+      </c>
+      <c r="D4335" t="inlineStr">
+        <is>
+          <t>3톤미만 지게차</t>
+        </is>
+      </c>
+      <c r="E4335" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4336">
+      <c r="A4336" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4336" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4336" t="n">
+        <v>46994852</v>
+      </c>
+      <c r="D4336" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4336" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4337">
+      <c r="A4337" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4337" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4337" t="n">
+        <v>46994852</v>
+      </c>
+      <c r="D4337" t="inlineStr">
+        <is>
+          <t>1종 대형 특수트레일러</t>
+        </is>
+      </c>
+      <c r="E4337" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4338">
+      <c r="A4338" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4338" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4338" t="n">
+        <v>46994852</v>
+      </c>
+      <c r="D4338" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4338" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4339">
+      <c r="A4339" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4339" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4339" t="n">
+        <v>46994442</v>
+      </c>
+      <c r="D4339" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4339" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4340">
+      <c r="A4340" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4340" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4340" t="n">
+        <v>46994280</v>
+      </c>
+      <c r="D4340" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4340" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:24:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4341">
+      <c r="A4341" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4341" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4341" t="n">
+        <v>46990839</v>
+      </c>
+      <c r="D4341" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4341" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4342">
+      <c r="A4342" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4342" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4342" t="n">
+        <v>46989936</v>
+      </c>
+      <c r="D4342" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4342" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="4343">
+      <c r="A4343" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4343" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4343" t="n">
+        <v>46989894</v>
+      </c>
+      <c r="D4343" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4343" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4344">
+      <c r="A4344" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4344" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4344" t="n">
+        <v>46989075</v>
+      </c>
+      <c r="D4344" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4344" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4345">
+      <c r="A4345" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4345" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4345" t="n">
+        <v>46988374</v>
+      </c>
+      <c r="D4345" t="inlineStr">
+        <is>
+          <t>로더운전기능사</t>
+        </is>
+      </c>
+      <c r="E4345" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4346">
+      <c r="A4346" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4346" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4346" t="n">
+        <v>46988374</v>
+      </c>
+      <c r="D4346" t="inlineStr">
+        <is>
+          <t>롤러운전기능사</t>
+        </is>
+      </c>
+      <c r="E4346" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4347">
+      <c r="A4347" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4347" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4347" t="n">
+        <v>46988374</v>
+      </c>
+      <c r="D4347" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4347" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4348">
+      <c r="A4348" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4348" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4348" t="n">
+        <v>46987802</v>
+      </c>
+      <c r="D4348" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4348" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="4349">
+      <c r="A4349" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4349" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4349" t="n">
+        <v>46986107</v>
+      </c>
+      <c r="D4349" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4349" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4350">
+      <c r="A4350" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4350" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4350" t="n">
+        <v>46986107</v>
+      </c>
+      <c r="D4350" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4350" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4351">
+      <c r="A4351" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4351" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4351" t="n">
+        <v>46986107</v>
+      </c>
+      <c r="D4351" t="inlineStr">
+        <is>
+          <t>리치지게차운전</t>
+        </is>
+      </c>
+      <c r="E4351" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4352">
+      <c r="A4352" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4352" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4352" t="n">
+        <v>46986075</v>
+      </c>
+      <c r="D4352" t="inlineStr">
+        <is>
+          <t>화물종사자격증</t>
+        </is>
+      </c>
+      <c r="E4352" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="4353">
+      <c r="A4353" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4353" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4353" t="n">
+        <v>46986075</v>
+      </c>
+      <c r="D4353" t="inlineStr">
+        <is>
+          <t>1종대형면허</t>
+        </is>
+      </c>
+      <c r="E4353" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="4354">
+      <c r="A4354" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4354" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4354" t="n">
+        <v>46986075</v>
+      </c>
+      <c r="D4354" t="inlineStr">
+        <is>
+          <t>특수(대형견인)면허</t>
+        </is>
+      </c>
+      <c r="E4354" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="4355">
+      <c r="A4355" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4355" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4355" t="n">
+        <v>46985905</v>
+      </c>
+      <c r="D4355" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4355" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4356">
+      <c r="A4356" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4356" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4356" t="n">
+        <v>46985905</v>
+      </c>
+      <c r="D4356" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4356" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4357">
+      <c r="A4357" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4357" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4357" t="n">
+        <v>46985905</v>
+      </c>
+      <c r="D4357" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4357" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4358">
+      <c r="A4358" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4358" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4358" t="n">
+        <v>46985831</v>
+      </c>
+      <c r="D4358" t="inlineStr">
+        <is>
+          <t>1종대형면허필수(운행차량 8톤...</t>
+        </is>
+      </c>
+      <c r="E4358" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:25:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4359">
+      <c r="A4359" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4359" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4359" t="n">
+        <v>46983931</v>
+      </c>
+      <c r="D4359" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4359" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:26:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4360">
+      <c r="A4360" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4360" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4360" t="n">
+        <v>46983019</v>
+      </c>
+      <c r="D4360" t="inlineStr">
+        <is>
+          <t>3톤미만 지게차</t>
+        </is>
+      </c>
+      <c r="E4360" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:26:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="4361">
+      <c r="A4361" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4361" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4361" t="n">
+        <v>46983019</v>
+      </c>
+      <c r="D4361" t="inlineStr">
+        <is>
+          <t>건설기계조종면허증</t>
+        </is>
+      </c>
+      <c r="E4361" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:26:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="4362">
+      <c r="A4362" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4362" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4362" t="n">
+        <v>46982310</v>
+      </c>
+      <c r="D4362" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4362" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:26:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="4363">
+      <c r="A4363" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4363" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4363" t="n">
+        <v>46982310</v>
+      </c>
+      <c r="D4363" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4363" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:26:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="4364">
+      <c r="A4364" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4364" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4364" t="n">
+        <v>46978187</v>
+      </c>
+      <c r="D4364" t="inlineStr">
+        <is>
+          <t>건설기계조종사면허증</t>
+        </is>
+      </c>
+      <c r="E4364" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:26:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4365">
+      <c r="A4365" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4365" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4365" t="n">
+        <v>46978187</v>
+      </c>
+      <c r="D4365" t="inlineStr">
+        <is>
+          <t>3톤미만지게차</t>
+        </is>
+      </c>
+      <c r="E4365" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:26:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4366">
+      <c r="A4366" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4366" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4366" t="n">
+        <v>46978187</v>
+      </c>
+      <c r="D4366" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4366" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:26:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4367">
+      <c r="A4367" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4367" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4367" t="n">
+        <v>46977345</v>
+      </c>
+      <c r="D4367" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4367" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4368">
+      <c r="A4368" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4368" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4368" t="n">
+        <v>46977342</v>
+      </c>
+      <c r="D4368" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4368" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4369">
+      <c r="A4369" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4369" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4369" t="n">
+        <v>46977340</v>
+      </c>
+      <c r="D4369" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4369" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4370">
+      <c r="A4370" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4370" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4370" t="n">
+        <v>46977339</v>
+      </c>
+      <c r="D4370" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4370" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4371">
+      <c r="A4371" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4371" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4371" t="n">
+        <v>46977292</v>
+      </c>
+      <c r="D4371" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4371" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4372">
+      <c r="A4372" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4372" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4372" t="n">
+        <v>46977291</v>
+      </c>
+      <c r="D4372" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4372" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4373">
+      <c r="A4373" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4373" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4373" t="n">
+        <v>46977290</v>
+      </c>
+      <c r="D4373" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4373" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4374">
+      <c r="A4374" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4374" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4374" t="n">
+        <v>46977289</v>
+      </c>
+      <c r="D4374" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4374" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="4375">
+      <c r="A4375" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4375" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4375" t="n">
+        <v>46977288</v>
+      </c>
+      <c r="D4375" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4375" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4376">
+      <c r="A4376" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4376" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4376" t="n">
+        <v>46976587</v>
+      </c>
+      <c r="D4376" t="inlineStr">
+        <is>
+          <t>1종특수운전면허(대형견인차)</t>
+        </is>
+      </c>
+      <c r="E4376" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4377">
+      <c r="A4377" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4377" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4377" t="n">
+        <v>46976262</v>
+      </c>
+      <c r="D4377" t="inlineStr">
+        <is>
+          <t>굴삭기운전기능사</t>
+        </is>
+      </c>
+      <c r="E4377" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="4378">
+      <c r="A4378" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4378" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4378" t="n">
+        <v>46975804</v>
+      </c>
+      <c r="D4378" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4378" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="4379">
+      <c r="A4379" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4379" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4379" t="n">
+        <v>46975077</v>
+      </c>
+      <c r="D4379" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4379" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4380">
+      <c r="A4380" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4380" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4380" t="n">
+        <v>46975077</v>
+      </c>
+      <c r="D4380" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4380" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4381">
+      <c r="A4381" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4381" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4381" t="n">
+        <v>46975077</v>
+      </c>
+      <c r="D4381" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4381" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4382">
+      <c r="A4382" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4382" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4382" t="n">
+        <v>46974902</v>
+      </c>
+      <c r="D4382" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4382" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4383">
+      <c r="A4383" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4383" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4383" t="n">
+        <v>46973919</v>
+      </c>
+      <c r="D4383" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4383" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4384">
+      <c r="A4384" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4384" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4384" t="n">
+        <v>46973912</v>
+      </c>
+      <c r="D4384" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4384" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4385">
+      <c r="A4385" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4385" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4385" t="n">
+        <v>46973912</v>
+      </c>
+      <c r="D4385" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4385" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4386">
+      <c r="A4386" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4386" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4386" t="n">
+        <v>46973912</v>
+      </c>
+      <c r="D4386" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4386" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:27:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4387">
+      <c r="A4387" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4387" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4387" t="n">
+        <v>46969947</v>
+      </c>
+      <c r="D4387" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4387" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:28:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="4388">
+      <c r="A4388" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4388" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4388" t="n">
+        <v>46968421</v>
+      </c>
+      <c r="D4388" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4388" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4389">
+      <c r="A4389" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4389" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4389" t="n">
+        <v>46969185</v>
+      </c>
+      <c r="D4389" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4389" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4390">
+      <c r="A4390" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4390" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4390" t="n">
+        <v>46969104</v>
+      </c>
+      <c r="D4390" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4390" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4391">
+      <c r="A4391" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4391" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4391" t="n">
+        <v>46968540</v>
+      </c>
+      <c r="D4391" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4391" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4392">
+      <c r="A4392" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4392" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4392" t="n">
+        <v>46968480</v>
+      </c>
+      <c r="D4392" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4392" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4393">
+      <c r="A4393" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4393" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4393" t="n">
+        <v>46968132</v>
+      </c>
+      <c r="D4393" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4393" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4394">
+      <c r="A4394" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4394" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4394" t="n">
+        <v>46968102</v>
+      </c>
+      <c r="D4394" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4394" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4395">
+      <c r="A4395" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4395" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4395" t="n">
+        <v>46968102</v>
+      </c>
+      <c r="D4395" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4395" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4396">
+      <c r="A4396" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4396" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4396" t="n">
+        <v>46956020</v>
+      </c>
+      <c r="D4396" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4396" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4397">
+      <c r="A4397" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4397" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4397" t="n">
+        <v>46963715</v>
+      </c>
+      <c r="D4397" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4397" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="4398">
+      <c r="A4398" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4398" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4398" t="n">
+        <v>46963715</v>
+      </c>
+      <c r="D4398" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4398" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="4399">
+      <c r="A4399" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4399" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4399" t="n">
+        <v>46962900</v>
+      </c>
+      <c r="D4399" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4399" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4400">
+      <c r="A4400" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4400" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4400" t="n">
+        <v>46962899</v>
+      </c>
+      <c r="D4400" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4400" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4401">
+      <c r="A4401" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4401" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4401" t="n">
+        <v>46962898</v>
+      </c>
+      <c r="D4401" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4401" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4402">
+      <c r="A4402" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4402" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4402" t="n">
+        <v>46962897</v>
+      </c>
+      <c r="D4402" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4402" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="4403">
+      <c r="A4403" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4403" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4403" t="n">
+        <v>46962830</v>
+      </c>
+      <c r="D4403" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4403" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4404">
+      <c r="A4404" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4404" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4404" t="n">
+        <v>46962829</v>
+      </c>
+      <c r="D4404" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4404" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="4405">
+      <c r="A4405" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4405" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4405" t="n">
+        <v>46962828</v>
+      </c>
+      <c r="D4405" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4405" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:29:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="4406">
+      <c r="A4406" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4406" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4406" t="n">
+        <v>46962827</v>
+      </c>
+      <c r="D4406" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4406" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:30:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4407">
+      <c r="A4407" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4407" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4407" t="n">
+        <v>46962826</v>
+      </c>
+      <c r="D4407" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4407" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:30:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4408">
+      <c r="A4408" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4408" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4408" t="n">
+        <v>46962757</v>
+      </c>
+      <c r="D4408" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4408" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:30:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="4409">
+      <c r="A4409" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4409" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4409" t="n">
+        <v>46962756</v>
+      </c>
+      <c r="D4409" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4409" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:30:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4410">
+      <c r="A4410" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4410" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4410" t="n">
+        <v>46962755</v>
+      </c>
+      <c r="D4410" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4410" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:30:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4411">
+      <c r="A4411" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4411" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4411" t="n">
+        <v>46962754</v>
+      </c>
+      <c r="D4411" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4411" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:30:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4412">
+      <c r="A4412" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4412" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4412" t="n">
+        <v>46962636</v>
+      </c>
+      <c r="D4412" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4412" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:30:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4413">
+      <c r="A4413" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4413" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4413" t="n">
+        <v>46962635</v>
+      </c>
+      <c r="D4413" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4413" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:30:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4414">
+      <c r="A4414" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4414" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4414" t="n">
+        <v>46962633</v>
+      </c>
+      <c r="D4414" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4414" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:30:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="4415">
+      <c r="A4415" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4415" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4415" t="n">
+        <v>46962632</v>
+      </c>
+      <c r="D4415" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4415" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:30:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4416">
+      <c r="A4416" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4416" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4416" t="n">
+        <v>46962631</v>
+      </c>
+      <c r="D4416" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4416" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:30:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4417">
+      <c r="A4417" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4417" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4417" t="n">
+        <v>46962540</v>
+      </c>
+      <c r="D4417" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4417" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:30:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="4418">
+      <c r="A4418" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4418" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4418" t="n">
+        <v>46962539</v>
+      </c>
+      <c r="D4418" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4418" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:30:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="4419">
+      <c r="A4419" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4419" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4419" t="n">
+        <v>46962538</v>
+      </c>
+      <c r="D4419" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4419" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:30:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4420">
+      <c r="A4420" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4420" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4420" t="n">
+        <v>46962537</v>
+      </c>
+      <c r="D4420" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4420" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:30:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="4421">
+      <c r="A4421" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4421" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4421" t="n">
+        <v>46962534</v>
+      </c>
+      <c r="D4421" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4421" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:30:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="4422">
+      <c r="A4422" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4422" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4422" t="n">
+        <v>46959875</v>
+      </c>
+      <c r="D4422" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4422" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:31:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4423">
+      <c r="A4423" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4423" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4423" t="n">
+        <v>46953917</v>
+      </c>
+      <c r="D4423" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4423" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:32:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4424">
+      <c r="A4424" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4424" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4424" t="n">
+        <v>46953917</v>
+      </c>
+      <c r="D4424" t="inlineStr">
+        <is>
+          <t>건설기계조종사</t>
+        </is>
+      </c>
+      <c r="E4424" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:32:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4425">
+      <c r="A4425" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4425" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4425" t="n">
+        <v>46953873</v>
+      </c>
+      <c r="D4425" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4425" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:33:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4426">
+      <c r="A4426" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4426" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4426" t="n">
+        <v>46953873</v>
+      </c>
+      <c r="D4426" t="inlineStr">
+        <is>
+          <t>건설기계조종사</t>
+        </is>
+      </c>
+      <c r="E4426" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:33:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4427">
+      <c r="A4427" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4427" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4427" t="n">
+        <v>46953782</v>
+      </c>
+      <c r="D4427" t="inlineStr">
+        <is>
+          <t>건설기계조종사면허증(3톤미만지게차)</t>
+        </is>
+      </c>
+      <c r="E4427" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:33:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4428">
+      <c r="A4428" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4428" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4428" t="n">
+        <v>46953782</v>
+      </c>
+      <c r="D4428" t="inlineStr">
+        <is>
+          <t>소형건설기계조종교육이수증(3톤미만지게차)</t>
+        </is>
+      </c>
+      <c r="E4428" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:33:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4429">
+      <c r="A4429" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4429" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4429" t="n">
+        <v>46953807</v>
+      </c>
+      <c r="D4429" t="inlineStr">
+        <is>
+          <t>포크레인기능사</t>
+        </is>
+      </c>
+      <c r="E4429" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:33:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4430">
+      <c r="A4430" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4430" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4430" t="n">
+        <v>46953807</v>
+      </c>
+      <c r="D4430" t="inlineStr">
+        <is>
+          <t>굴삭기운전기능사</t>
+        </is>
+      </c>
+      <c r="E4430" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:33:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4431">
+      <c r="A4431" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4431" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4431" t="n">
+        <v>46951639</v>
+      </c>
+      <c r="D4431" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4431" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:33:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4432">
+      <c r="A4432" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4432" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4432" t="n">
+        <v>46951838</v>
+      </c>
+      <c r="D4432" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4432" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:34:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4433">
+      <c r="A4433" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4433" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4433" t="n">
+        <v>46951806</v>
+      </c>
+      <c r="D4433" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4433" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:34:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4434">
+      <c r="A4434" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4434" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4434" t="n">
+        <v>46951095</v>
+      </c>
+      <c r="D4434" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4434" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:34:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4435">
+      <c r="A4435" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4435" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4435" t="n">
+        <v>46951726</v>
+      </c>
+      <c r="D4435" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4435" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:34:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4436">
+      <c r="A4436" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4436" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4436" t="n">
+        <v>46950994</v>
+      </c>
+      <c r="D4436" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4436" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:34:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="4437">
+      <c r="A4437" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4437" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4437" t="n">
+        <v>46948141</v>
+      </c>
+      <c r="D4437" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4437" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:34:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4438">
+      <c r="A4438" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4438" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4438" t="n">
+        <v>46947289</v>
+      </c>
+      <c r="D4438" t="inlineStr">
+        <is>
+          <t>지게차</t>
+        </is>
+      </c>
+      <c r="E4438" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:35:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4439">
+      <c r="A4439" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4439" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4439" t="n">
+        <v>46947289</v>
+      </c>
+      <c r="D4439" t="inlineStr">
+        <is>
+          <t>입식리치</t>
+        </is>
+      </c>
+      <c r="E4439" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:35:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4440">
+      <c r="A4440" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4440" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4440" t="n">
+        <v>46946745</v>
+      </c>
+      <c r="D4440" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4440" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:35:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="4441">
+      <c r="A4441" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4441" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4441" t="n">
+        <v>46946711</v>
+      </c>
+      <c r="D4441" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4441" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:35:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4442">
+      <c r="A4442" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4442" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4442" t="n">
+        <v>46946659</v>
+      </c>
+      <c r="D4442" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4442" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:35:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4443">
+      <c r="A4443" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4443" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4443" t="n">
+        <v>46946638</v>
+      </c>
+      <c r="D4443" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4443" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:35:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4444">
+      <c r="A4444" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4444" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4444" t="n">
+        <v>46946623</v>
+      </c>
+      <c r="D4444" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4444" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:35:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4445">
+      <c r="A4445" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4445" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4445" t="n">
+        <v>46946623</v>
+      </c>
+      <c r="D4445" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4445" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:35:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4446">
+      <c r="A4446" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4446" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4446" t="n">
+        <v>46946147</v>
+      </c>
+      <c r="D4446" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4446" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:35:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4447">
+      <c r="A4447" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4447" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4447" t="n">
+        <v>46944596</v>
+      </c>
+      <c r="D4447" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4447" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:35:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4448">
+      <c r="A4448" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4448" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4448" t="n">
+        <v>46944596</v>
+      </c>
+      <c r="D4448" t="inlineStr">
+        <is>
+          <t>3톤미만지게차</t>
+        </is>
+      </c>
+      <c r="E4448" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:35:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4449">
+      <c r="A4449" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4449" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4449" t="n">
+        <v>46944596</v>
+      </c>
+      <c r="D4449" t="inlineStr">
+        <is>
+          <t>건설기계조종사면허증(3톤미만지게차)</t>
+        </is>
+      </c>
+      <c r="E4449" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:35:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4450">
+      <c r="A4450" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4450" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4450" t="n">
+        <v>46944188</v>
+      </c>
+      <c r="D4450" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4450" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:35:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="4451">
+      <c r="A4451" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4451" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4451" t="n">
+        <v>46943895</v>
+      </c>
+      <c r="D4451" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4451" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:35:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="4452">
+      <c r="A4452" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4452" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4452" t="n">
+        <v>46943074</v>
+      </c>
+      <c r="D4452" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4452" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:35:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="4453">
+      <c r="A4453" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4453" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4453" t="n">
+        <v>46941417</v>
+      </c>
+      <c r="D4453" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4453" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4454">
+      <c r="A4454" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4454" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4454" t="n">
+        <v>46941417</v>
+      </c>
+      <c r="D4454" t="inlineStr">
+        <is>
+          <t>굴삭기운전기능사</t>
+        </is>
+      </c>
+      <c r="E4454" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4455">
+      <c r="A4455" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4455" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4455" t="n">
+        <v>46941417</v>
+      </c>
+      <c r="D4455" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4455" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4456">
+      <c r="A4456" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4456" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4456" t="n">
+        <v>46941413</v>
+      </c>
+      <c r="D4456" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4456" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="4457">
+      <c r="A4457" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4457" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4457" t="n">
+        <v>46939479</v>
+      </c>
+      <c r="D4457" t="inlineStr">
+        <is>
+          <t>굴삭기운전기능사</t>
+        </is>
+      </c>
+      <c r="E4457" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4458">
+      <c r="A4458" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4458" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4458" t="n">
+        <v>46936656</v>
+      </c>
+      <c r="D4458" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4458" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4459">
+      <c r="A4459" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4459" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4459" t="n">
+        <v>46936656</v>
+      </c>
+      <c r="D4459" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4459" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4460">
+      <c r="A4460" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4460" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4460" t="n">
+        <v>46936618</v>
+      </c>
+      <c r="D4460" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4460" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4461">
+      <c r="A4461" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4461" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4461" t="n">
+        <v>46936618</v>
+      </c>
+      <c r="D4461" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4461" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4462">
+      <c r="A4462" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4462" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4462" t="n">
+        <v>46936573</v>
+      </c>
+      <c r="D4462" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4462" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="4463">
+      <c r="A4463" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4463" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4463" t="n">
+        <v>46936573</v>
+      </c>
+      <c r="D4463" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4463" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="4464">
+      <c r="A4464" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4464" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4464" t="n">
+        <v>46936523</v>
+      </c>
+      <c r="D4464" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4464" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4465">
+      <c r="A4465" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4465" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4465" t="n">
+        <v>46936523</v>
+      </c>
+      <c r="D4465" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4465" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4466">
+      <c r="A4466" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4466" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4466" t="n">
+        <v>46936331</v>
+      </c>
+      <c r="D4466" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4466" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4467">
+      <c r="A4467" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4467" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4467" t="n">
+        <v>46936331</v>
+      </c>
+      <c r="D4467" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4467" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4468">
+      <c r="A4468" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4468" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4468" t="n">
+        <v>46936267</v>
+      </c>
+      <c r="D4468" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4468" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="4469">
+      <c r="A4469" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4469" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4469" t="n">
+        <v>46936267</v>
+      </c>
+      <c r="D4469" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4469" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="4470">
+      <c r="A4470" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4470" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4470" t="n">
+        <v>46936233</v>
+      </c>
+      <c r="D4470" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4470" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="4471">
+      <c r="A4471" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4471" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4471" t="n">
+        <v>46936233</v>
+      </c>
+      <c r="D4471" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4471" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="4472">
+      <c r="A4472" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4472" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4472" t="n">
+        <v>46936197</v>
+      </c>
+      <c r="D4472" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4472" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="4473">
+      <c r="A4473" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4473" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4473" t="n">
+        <v>46936197</v>
+      </c>
+      <c r="D4473" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4473" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="4474">
+      <c r="A4474" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4474" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4474" t="n">
+        <v>46936163</v>
+      </c>
+      <c r="D4474" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4474" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="4475">
+      <c r="A4475" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4475" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4475" t="n">
+        <v>46936163</v>
+      </c>
+      <c r="D4475" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4475" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="4476">
+      <c r="A4476" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4476" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4476" t="n">
+        <v>46936114</v>
+      </c>
+      <c r="D4476" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4476" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="4477">
+      <c r="A4477" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4477" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4477" t="n">
+        <v>46936114</v>
+      </c>
+      <c r="D4477" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4477" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="4478">
+      <c r="A4478" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4478" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4478" t="n">
+        <v>46935912</v>
+      </c>
+      <c r="D4478" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4478" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4479">
+      <c r="A4479" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4479" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4479" t="n">
+        <v>46935912</v>
+      </c>
+      <c r="D4479" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4479" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4480">
+      <c r="A4480" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4480" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4480" t="n">
+        <v>46935903</v>
+      </c>
+      <c r="D4480" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4480" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4481">
+      <c r="A4481" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4481" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4481" t="n">
+        <v>46935903</v>
+      </c>
+      <c r="D4481" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4481" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4482">
+      <c r="A4482" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4482" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4482" t="n">
+        <v>46935862</v>
+      </c>
+      <c r="D4482" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4482" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4483">
+      <c r="A4483" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4483" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4483" t="n">
+        <v>46935862</v>
+      </c>
+      <c r="D4483" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4483" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4484">
+      <c r="A4484" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4484" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4484" t="n">
+        <v>46935808</v>
+      </c>
+      <c r="D4484" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4484" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4485">
+      <c r="A4485" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4485" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4485" t="n">
+        <v>46935808</v>
+      </c>
+      <c r="D4485" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4485" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:36:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4486">
+      <c r="A4486" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4486" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4486" t="n">
+        <v>46935769</v>
+      </c>
+      <c r="D4486" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4486" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4487">
+      <c r="A4487" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4487" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4487" t="n">
+        <v>46935769</v>
+      </c>
+      <c r="D4487" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4487" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4488">
+      <c r="A4488" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4488" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4488" t="n">
+        <v>46935707</v>
+      </c>
+      <c r="D4488" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4488" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4489">
+      <c r="A4489" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4489" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4489" t="n">
+        <v>46935707</v>
+      </c>
+      <c r="D4489" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4489" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4490">
+      <c r="A4490" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4490" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4490" t="n">
+        <v>46935468</v>
+      </c>
+      <c r="D4490" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4490" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4491">
+      <c r="A4491" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4491" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4491" t="n">
+        <v>46935468</v>
+      </c>
+      <c r="D4491" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4491" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4492">
+      <c r="A4492" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4492" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4492" t="n">
+        <v>46935427</v>
+      </c>
+      <c r="D4492" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4492" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4493">
+      <c r="A4493" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4493" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4493" t="n">
+        <v>46935427</v>
+      </c>
+      <c r="D4493" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4493" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4494">
+      <c r="A4494" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4494" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4494" t="n">
+        <v>46935389</v>
+      </c>
+      <c r="D4494" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4494" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4495">
+      <c r="A4495" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4495" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4495" t="n">
+        <v>46935389</v>
+      </c>
+      <c r="D4495" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4495" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4496">
+      <c r="A4496" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4496" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4496" t="n">
+        <v>46935387</v>
+      </c>
+      <c r="D4496" t="inlineStr">
+        <is>
+          <t>3톤미만 지게차</t>
+        </is>
+      </c>
+      <c r="E4496" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4497">
+      <c r="A4497" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4497" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4497" t="n">
+        <v>46935387</v>
+      </c>
+      <c r="D4497" t="inlineStr">
+        <is>
+          <t>건설기계조종면허증</t>
+        </is>
+      </c>
+      <c r="E4497" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4498">
+      <c r="A4498" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4498" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4498" t="n">
+        <v>46935341</v>
+      </c>
+      <c r="D4498" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4498" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4499">
+      <c r="A4499" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4499" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4499" t="n">
+        <v>46935341</v>
+      </c>
+      <c r="D4499" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4499" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4500">
+      <c r="A4500" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4500" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4500" t="n">
+        <v>46935278</v>
+      </c>
+      <c r="D4500" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4500" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4501">
+      <c r="A4501" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4501" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4501" t="n">
+        <v>46935278</v>
+      </c>
+      <c r="D4501" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4501" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4502">
+      <c r="A4502" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4502" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4502" t="n">
+        <v>46935208</v>
+      </c>
+      <c r="D4502" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4502" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4503">
+      <c r="A4503" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4503" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4503" t="n">
+        <v>46935208</v>
+      </c>
+      <c r="D4503" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4503" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:37:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4504">
+      <c r="A4504" t="inlineStr">
         <is>
           <t>10034</t>
         </is>
       </c>
-      <c r="B4334" t="inlineStr">
+      <c r="B4504" t="inlineStr">
         <is>
           <t>1000273</t>
         </is>
       </c>
-      <c r="C4334" t="inlineStr">
-        <is>
-          <t>46996734</t>
-        </is>
-      </c>
-      <c r="D4334" t="inlineStr">
-        <is>
-          <t>지게차</t>
-        </is>
-      </c>
-      <c r="E4334" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:24:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4335">
-      <c r="A4335" t="inlineStr">
+      <c r="C4504" t="inlineStr">
+        <is>
+          <t>46932740</t>
+        </is>
+      </c>
+      <c r="D4504" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4504" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4505">
+      <c r="A4505" t="inlineStr">
         <is>
           <t>10034</t>
         </is>
       </c>
-      <c r="B4335" t="inlineStr">
+      <c r="B4505" t="inlineStr">
         <is>
           <t>1000273</t>
         </is>
       </c>
-      <c r="C4335" t="inlineStr">
-        <is>
-          <t>46996734</t>
-        </is>
-      </c>
-      <c r="D4335" t="inlineStr">
-        <is>
-          <t>3톤미만 지게차</t>
-        </is>
-      </c>
-      <c r="E4335" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:24:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4336">
-      <c r="A4336" t="inlineStr">
+      <c r="C4505" t="inlineStr">
+        <is>
+          <t>46932739</t>
+        </is>
+      </c>
+      <c r="D4505" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4505" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4506">
+      <c r="A4506" t="inlineStr">
         <is>
           <t>10034</t>
         </is>
       </c>
-      <c r="B4336" t="inlineStr">
+      <c r="B4506" t="inlineStr">
         <is>
           <t>1000273</t>
         </is>
       </c>
-      <c r="C4336" t="inlineStr">
-        <is>
-          <t>46994852</t>
-        </is>
-      </c>
-      <c r="D4336" t="inlineStr">
+      <c r="C4506" t="inlineStr">
+        <is>
+          <t>46932738</t>
+        </is>
+      </c>
+      <c r="D4506" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4506" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4507">
+      <c r="A4507" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4507" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4507" t="inlineStr">
+        <is>
+          <t>46932737</t>
+        </is>
+      </c>
+      <c r="D4507" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4507" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4508">
+      <c r="A4508" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4508" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4508" t="inlineStr">
+        <is>
+          <t>46932703</t>
+        </is>
+      </c>
+      <c r="D4508" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4508" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4509">
+      <c r="A4509" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4509" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4509" t="inlineStr">
+        <is>
+          <t>46932706</t>
+        </is>
+      </c>
+      <c r="D4509" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4509" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4510">
+      <c r="A4510" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4510" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4510" t="inlineStr">
+        <is>
+          <t>46932707</t>
+        </is>
+      </c>
+      <c r="D4510" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4510" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4511">
+      <c r="A4511" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4511" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4511" t="inlineStr">
+        <is>
+          <t>46932709</t>
+        </is>
+      </c>
+      <c r="D4511" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4511" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4512">
+      <c r="A4512" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4512" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4512" t="inlineStr">
+        <is>
+          <t>46932710</t>
+        </is>
+      </c>
+      <c r="D4512" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4512" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4513">
+      <c r="A4513" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4513" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4513" t="inlineStr">
+        <is>
+          <t>46931115</t>
+        </is>
+      </c>
+      <c r="D4513" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4513" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4514">
+      <c r="A4514" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4514" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4514" t="inlineStr">
+        <is>
+          <t>46931115</t>
+        </is>
+      </c>
+      <c r="D4514" t="inlineStr">
+        <is>
+          <t>1종특수운전면허(대형견인차)</t>
+        </is>
+      </c>
+      <c r="E4514" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4515">
+      <c r="A4515" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4515" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4515" t="inlineStr">
+        <is>
+          <t>46929427</t>
+        </is>
+      </c>
+      <c r="D4515" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4515" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="4516">
+      <c r="A4516" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4516" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4516" t="inlineStr">
+        <is>
+          <t>46928996</t>
+        </is>
+      </c>
+      <c r="D4516" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4516" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="4517">
+      <c r="A4517" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4517" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4517" t="inlineStr">
+        <is>
+          <t>46928996</t>
+        </is>
+      </c>
+      <c r="D4517" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4517" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="4518">
+      <c r="A4518" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4518" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4518" t="inlineStr">
+        <is>
+          <t>46927322</t>
+        </is>
+      </c>
+      <c r="D4518" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4518" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4519">
+      <c r="A4519" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4519" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4519" t="inlineStr">
+        <is>
+          <t>46926561</t>
+        </is>
+      </c>
+      <c r="D4519" t="inlineStr">
+        <is>
+          <t>건설기계조종사(지게차)</t>
+        </is>
+      </c>
+      <c r="E4519" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="4520">
+      <c r="A4520" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4520" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4520" t="inlineStr">
+        <is>
+          <t>46926466</t>
+        </is>
+      </c>
+      <c r="D4520" t="inlineStr">
+        <is>
+          <t>굴삭기운전기능사</t>
+        </is>
+      </c>
+      <c r="E4520" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="4521">
+      <c r="A4521" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4521" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4521" t="inlineStr">
+        <is>
+          <t>46926466</t>
+        </is>
+      </c>
+      <c r="D4521" t="inlineStr">
+        <is>
+          <t>굴착기운전기능사</t>
+        </is>
+      </c>
+      <c r="E4521" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="4522">
+      <c r="A4522" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4522" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4522" t="inlineStr">
+        <is>
+          <t>46926466</t>
+        </is>
+      </c>
+      <c r="D4522" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4522" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:42:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="4523">
+      <c r="A4523" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4523" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4523" t="inlineStr">
+        <is>
+          <t>46924024</t>
+        </is>
+      </c>
+      <c r="D4523" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4523" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="4524">
+      <c r="A4524" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4524" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4524" t="inlineStr">
+        <is>
+          <t>46924024</t>
+        </is>
+      </c>
+      <c r="D4524" t="inlineStr">
+        <is>
+          <t>화물운송종사</t>
+        </is>
+      </c>
+      <c r="E4524" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="4525">
+      <c r="A4525" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4525" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4525" t="inlineStr">
+        <is>
+          <t>46924024</t>
+        </is>
+      </c>
+      <c r="D4525" t="inlineStr">
         <is>
           <t>1종대형운전면허</t>
         </is>
       </c>
-      <c r="E4336" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:24:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="4337">
-      <c r="A4337" t="inlineStr">
+      <c r="E4525" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="4526">
+      <c r="A4526" t="inlineStr">
         <is>
           <t>10034</t>
         </is>
       </c>
-      <c r="B4337" t="inlineStr">
+      <c r="B4526" t="inlineStr">
         <is>
           <t>1000273</t>
         </is>
       </c>
-      <c r="C4337" t="inlineStr">
-        <is>
-          <t>46994852</t>
-        </is>
-      </c>
-      <c r="D4337" t="inlineStr">
-        <is>
-          <t>1종 대형 특수트레일러</t>
-        </is>
-      </c>
-      <c r="E4337" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:24:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="4338">
-      <c r="A4338" t="inlineStr">
+      <c r="C4526" t="inlineStr">
+        <is>
+          <t>46921310</t>
+        </is>
+      </c>
+      <c r="D4526" t="inlineStr">
+        <is>
+          <t>굴삭기운전기능사</t>
+        </is>
+      </c>
+      <c r="E4526" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4527">
+      <c r="A4527" t="inlineStr">
         <is>
           <t>10034</t>
         </is>
       </c>
-      <c r="B4338" t="inlineStr">
+      <c r="B4527" t="inlineStr">
         <is>
           <t>1000273</t>
         </is>
       </c>
-      <c r="C4338" t="inlineStr">
-        <is>
-          <t>46994852</t>
-        </is>
-      </c>
-      <c r="D4338" t="inlineStr">
+      <c r="C4527" t="inlineStr">
+        <is>
+          <t>46916228</t>
+        </is>
+      </c>
+      <c r="D4527" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4527" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4528">
+      <c r="A4528" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4528" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4528" t="inlineStr">
+        <is>
+          <t>46916228</t>
+        </is>
+      </c>
+      <c r="D4528" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4528" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4529">
+      <c r="A4529" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4529" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4529" t="inlineStr">
+        <is>
+          <t>46916228</t>
+        </is>
+      </c>
+      <c r="D4529" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4529" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4530">
+      <c r="A4530" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4530" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4530" t="inlineStr">
+        <is>
+          <t>46919031</t>
+        </is>
+      </c>
+      <c r="D4530" t="inlineStr">
         <is>
           <t>화물운송종사</t>
         </is>
       </c>
-      <c r="E4338" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:24:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="4339">
-      <c r="A4339" t="inlineStr">
+      <c r="E4530" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4531">
+      <c r="A4531" t="inlineStr">
         <is>
           <t>10034</t>
         </is>
       </c>
-      <c r="B4339" t="inlineStr">
+      <c r="B4531" t="inlineStr">
         <is>
           <t>1000273</t>
         </is>
       </c>
-      <c r="C4339" t="inlineStr">
-        <is>
-          <t>46994442</t>
-        </is>
-      </c>
-      <c r="D4339" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4339" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:24:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="4340">
-      <c r="A4340" t="inlineStr">
+      <c r="C4531" t="inlineStr">
+        <is>
+          <t>46918983</t>
+        </is>
+      </c>
+      <c r="D4531" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4531" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="4532">
+      <c r="A4532" t="inlineStr">
         <is>
           <t>10034</t>
         </is>
       </c>
-      <c r="B4340" t="inlineStr">
+      <c r="B4532" t="inlineStr">
         <is>
           <t>1000273</t>
         </is>
       </c>
-      <c r="C4340" t="inlineStr">
-        <is>
-          <t>46994280</t>
-        </is>
-      </c>
-      <c r="D4340" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4340" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:24:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="4341">
-      <c r="A4341" t="inlineStr">
+      <c r="C4532" t="inlineStr">
+        <is>
+          <t>46918983</t>
+        </is>
+      </c>
+      <c r="D4532" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4532" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="4533">
+      <c r="A4533" t="inlineStr">
         <is>
           <t>10034</t>
         </is>
       </c>
-      <c r="B4341" t="inlineStr">
+      <c r="B4533" t="inlineStr">
         <is>
           <t>1000273</t>
         </is>
       </c>
-      <c r="C4341" t="inlineStr">
-        <is>
-          <t>46990839</t>
-        </is>
-      </c>
-      <c r="D4341" t="inlineStr">
+      <c r="C4533" t="inlineStr">
+        <is>
+          <t>46918983</t>
+        </is>
+      </c>
+      <c r="D4533" t="inlineStr">
+        <is>
+          <t>화물운송종사자격증</t>
+        </is>
+      </c>
+      <c r="E4533" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="4534">
+      <c r="A4534" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4534" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4534" t="inlineStr">
+        <is>
+          <t>46918969</t>
+        </is>
+      </c>
+      <c r="D4534" t="inlineStr">
         <is>
           <t>화물운송종사</t>
         </is>
       </c>
-      <c r="E4341" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4342">
-      <c r="A4342" t="inlineStr">
+      <c r="E4534" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="4535">
+      <c r="A4535" t="inlineStr">
         <is>
           <t>10034</t>
         </is>
       </c>
-      <c r="B4342" t="inlineStr">
+      <c r="B4535" t="inlineStr">
         <is>
           <t>1000273</t>
         </is>
       </c>
-      <c r="C4342" t="inlineStr">
-        <is>
-          <t>46989936</t>
-        </is>
-      </c>
-      <c r="D4342" t="inlineStr">
+      <c r="C4535" t="inlineStr">
+        <is>
+          <t>46918930</t>
+        </is>
+      </c>
+      <c r="D4535" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4535" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="4536">
+      <c r="A4536" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4536" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4536" t="inlineStr">
+        <is>
+          <t>46918930</t>
+        </is>
+      </c>
+      <c r="D4536" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4536" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="4537">
+      <c r="A4537" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4537" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4537" t="inlineStr">
+        <is>
+          <t>46918930</t>
+        </is>
+      </c>
+      <c r="D4537" t="inlineStr">
+        <is>
+          <t>화물운송종사자격증</t>
+        </is>
+      </c>
+      <c r="E4537" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="4538">
+      <c r="A4538" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4538" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4538" t="inlineStr">
+        <is>
+          <t>46918181</t>
+        </is>
+      </c>
+      <c r="D4538" t="inlineStr">
         <is>
           <t>화물운송종사</t>
         </is>
       </c>
-      <c r="E4342" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="4343">
-      <c r="A4343" t="inlineStr">
+      <c r="E4538" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4539">
+      <c r="A4539" t="inlineStr">
         <is>
           <t>10034</t>
         </is>
       </c>
-      <c r="B4343" t="inlineStr">
+      <c r="B4539" t="inlineStr">
         <is>
           <t>1000273</t>
         </is>
       </c>
-      <c r="C4343" t="inlineStr">
-        <is>
-          <t>46989894</t>
-        </is>
-      </c>
-      <c r="D4343" t="inlineStr">
+      <c r="C4539" t="inlineStr">
+        <is>
+          <t>46918883</t>
+        </is>
+      </c>
+      <c r="D4539" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4539" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4540">
+      <c r="A4540" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4540" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4540" t="inlineStr">
+        <is>
+          <t>46918883</t>
+        </is>
+      </c>
+      <c r="D4540" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4540" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4541">
+      <c r="A4541" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4541" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4541" t="inlineStr">
+        <is>
+          <t>46918883</t>
+        </is>
+      </c>
+      <c r="D4541" t="inlineStr">
+        <is>
+          <t>화물운송종사자격증</t>
+        </is>
+      </c>
+      <c r="E4541" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4542">
+      <c r="A4542" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4542" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4542" t="inlineStr">
+        <is>
+          <t>46918826</t>
+        </is>
+      </c>
+      <c r="D4542" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4542" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4543">
+      <c r="A4543" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4543" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4543" t="inlineStr">
+        <is>
+          <t>46918826</t>
+        </is>
+      </c>
+      <c r="D4543" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4543" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4544">
+      <c r="A4544" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4544" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4544" t="inlineStr">
+        <is>
+          <t>46918826</t>
+        </is>
+      </c>
+      <c r="D4544" t="inlineStr">
+        <is>
+          <t>화물운송종사자격증</t>
+        </is>
+      </c>
+      <c r="E4544" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4545">
+      <c r="A4545" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4545" t="inlineStr">
+        <is>
+          <t>1000273</t>
+        </is>
+      </c>
+      <c r="C4545" t="inlineStr">
+        <is>
+          <t>46918617</t>
+        </is>
+      </c>
+      <c r="D4545" t="inlineStr">
         <is>
           <t>화물운송종사</t>
         </is>
       </c>
-      <c r="E4343" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="4344">
-      <c r="A4344" t="inlineStr">
+      <c r="E4545" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="4546">
+      <c r="A4546" t="inlineStr">
         <is>
           <t>10034</t>
         </is>
       </c>
-      <c r="B4344" t="inlineStr">
+      <c r="B4546" t="inlineStr">
         <is>
           <t>1000273</t>
         </is>
       </c>
-      <c r="C4344" t="inlineStr">
-        <is>
-          <t>46989075</t>
-        </is>
-      </c>
-      <c r="D4344" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4344" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="4345">
-      <c r="A4345" t="inlineStr">
+      <c r="C4546" t="inlineStr">
+        <is>
+          <t>46917848</t>
+        </is>
+      </c>
+      <c r="D4546" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4546" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4547">
+      <c r="A4547" t="inlineStr">
         <is>
           <t>10034</t>
         </is>
       </c>
-      <c r="B4345" t="inlineStr">
+      <c r="B4547" t="inlineStr">
         <is>
           <t>1000273</t>
         </is>
       </c>
-      <c r="C4345" t="inlineStr">
-        <is>
-          <t>46988374</t>
-        </is>
-      </c>
-      <c r="D4345" t="inlineStr">
-        <is>
-          <t>로더운전기능사</t>
-        </is>
-      </c>
-      <c r="E4345" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="4346">
-      <c r="A4346" t="inlineStr">
+      <c r="C4547" t="inlineStr">
+        <is>
+          <t>46917848</t>
+        </is>
+      </c>
+      <c r="D4547" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4547" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4548">
+      <c r="A4548" t="inlineStr">
         <is>
           <t>10034</t>
         </is>
       </c>
-      <c r="B4346" t="inlineStr">
+      <c r="B4548" t="inlineStr">
         <is>
           <t>1000273</t>
         </is>
       </c>
-      <c r="C4346" t="inlineStr">
-        <is>
-          <t>46988374</t>
-        </is>
-      </c>
-      <c r="D4346" t="inlineStr">
-        <is>
-          <t>롤러운전기능사</t>
-        </is>
-      </c>
-      <c r="E4346" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="4347">
-      <c r="A4347" t="inlineStr">
+      <c r="C4548" t="inlineStr">
+        <is>
+          <t>46917848</t>
+        </is>
+      </c>
+      <c r="D4548" t="inlineStr">
+        <is>
+          <t>화물운송종사자격증</t>
+        </is>
+      </c>
+      <c r="E4548" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:43:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4549">
+      <c r="A4549" t="inlineStr">
         <is>
           <t>10034</t>
         </is>
       </c>
-      <c r="B4347" t="inlineStr">
+      <c r="B4549" t="inlineStr">
         <is>
           <t>1000273</t>
         </is>
       </c>
-      <c r="C4347" t="inlineStr">
-        <is>
-          <t>46988374</t>
-        </is>
-      </c>
-      <c r="D4347" t="inlineStr">
-        <is>
-          <t>1종대형운전면허</t>
-        </is>
-      </c>
-      <c r="E4347" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="4348">
-      <c r="A4348" t="inlineStr">
+      <c r="C4549" t="inlineStr">
+        <is>
+          <t>46915911</t>
+        </is>
+      </c>
+      <c r="D4549" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4549" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:44:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="4550">
+      <c r="A4550" t="inlineStr">
         <is>
           <t>10034</t>
         </is>
       </c>
-      <c r="B4348" t="inlineStr">
+      <c r="B4550" t="inlineStr">
         <is>
           <t>1000273</t>
         </is>
       </c>
-      <c r="C4348" t="inlineStr">
-        <is>
-          <t>46987802</t>
-        </is>
-      </c>
-      <c r="D4348" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4348" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="4349">
-      <c r="A4349" t="inlineStr">
+      <c r="C4550" t="inlineStr">
+        <is>
+          <t>46852818</t>
+        </is>
+      </c>
+      <c r="D4550" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4550" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:48:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4551">
+      <c r="A4551" t="inlineStr">
         <is>
           <t>10034</t>
         </is>
       </c>
-      <c r="B4349" t="inlineStr">
+      <c r="B4551" t="inlineStr">
         <is>
           <t>1000273</t>
         </is>
       </c>
-      <c r="C4349" t="inlineStr">
-        <is>
-          <t>46986107</t>
-        </is>
-      </c>
-      <c r="D4349" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4349" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="4350">
-      <c r="A4350" t="inlineStr">
+      <c r="C4551" t="inlineStr">
+        <is>
+          <t>46808136</t>
+        </is>
+      </c>
+      <c r="D4551" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4551" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:50:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4552">
+      <c r="A4552" t="inlineStr">
         <is>
           <t>10034</t>
         </is>
       </c>
-      <c r="B4350" t="inlineStr">
+      <c r="B4552" t="inlineStr">
         <is>
           <t>1000273</t>
         </is>
       </c>
-      <c r="C4350" t="inlineStr">
-        <is>
-          <t>46986107</t>
-        </is>
-      </c>
-      <c r="D4350" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4350" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="4351">
-      <c r="A4351" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4351" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4351" t="inlineStr">
-        <is>
-          <t>46986107</t>
-        </is>
-      </c>
-      <c r="D4351" t="inlineStr">
-        <is>
-          <t>리치지게차운전</t>
-        </is>
-      </c>
-      <c r="E4351" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="4352">
-      <c r="A4352" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4352" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4352" t="inlineStr">
-        <is>
-          <t>46986075</t>
-        </is>
-      </c>
-      <c r="D4352" t="inlineStr">
-        <is>
-          <t>화물종사자격증</t>
-        </is>
-      </c>
-      <c r="E4352" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="4353">
-      <c r="A4353" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4353" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4353" t="inlineStr">
-        <is>
-          <t>46986075</t>
-        </is>
-      </c>
-      <c r="D4353" t="inlineStr">
-        <is>
-          <t>1종대형면허</t>
-        </is>
-      </c>
-      <c r="E4353" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="4354">
-      <c r="A4354" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4354" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4354" t="inlineStr">
-        <is>
-          <t>46986075</t>
-        </is>
-      </c>
-      <c r="D4354" t="inlineStr">
-        <is>
-          <t>특수(대형견인)면허</t>
-        </is>
-      </c>
-      <c r="E4354" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="4355">
-      <c r="A4355" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4355" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4355" t="inlineStr">
-        <is>
-          <t>46985905</t>
-        </is>
-      </c>
-      <c r="D4355" t="inlineStr">
-        <is>
-          <t>1종대형운전면허</t>
-        </is>
-      </c>
-      <c r="E4355" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="4356">
-      <c r="A4356" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4356" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4356" t="inlineStr">
-        <is>
-          <t>46985905</t>
-        </is>
-      </c>
-      <c r="D4356" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4356" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="4357">
-      <c r="A4357" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4357" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4357" t="inlineStr">
-        <is>
-          <t>46985905</t>
-        </is>
-      </c>
-      <c r="D4357" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4357" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="4358">
-      <c r="A4358" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4358" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4358" t="inlineStr">
-        <is>
-          <t>46985831</t>
-        </is>
-      </c>
-      <c r="D4358" t="inlineStr">
-        <is>
-          <t>1종대형면허필수(운행차량 8톤...</t>
-        </is>
-      </c>
-      <c r="E4358" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:25:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="4359">
-      <c r="A4359" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4359" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4359" t="inlineStr">
-        <is>
-          <t>46983931</t>
-        </is>
-      </c>
-      <c r="D4359" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4359" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:26:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="4360">
-      <c r="A4360" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4360" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4360" t="inlineStr">
-        <is>
-          <t>46983019</t>
-        </is>
-      </c>
-      <c r="D4360" t="inlineStr">
-        <is>
-          <t>3톤미만 지게차</t>
-        </is>
-      </c>
-      <c r="E4360" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:26:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="4361">
-      <c r="A4361" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4361" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4361" t="inlineStr">
-        <is>
-          <t>46983019</t>
-        </is>
-      </c>
-      <c r="D4361" t="inlineStr">
-        <is>
-          <t>건설기계조종면허증</t>
-        </is>
-      </c>
-      <c r="E4361" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:26:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="4362">
-      <c r="A4362" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4362" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4362" t="inlineStr">
-        <is>
-          <t>46982310</t>
-        </is>
-      </c>
-      <c r="D4362" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4362" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:26:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="4363">
-      <c r="A4363" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4363" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4363" t="inlineStr">
-        <is>
-          <t>46982310</t>
-        </is>
-      </c>
-      <c r="D4363" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4363" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:26:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="4364">
-      <c r="A4364" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4364" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4364" t="inlineStr">
-        <is>
-          <t>46978187</t>
-        </is>
-      </c>
-      <c r="D4364" t="inlineStr">
-        <is>
-          <t>건설기계조종사면허증</t>
-        </is>
-      </c>
-      <c r="E4364" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:26:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="4365">
-      <c r="A4365" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4365" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4365" t="inlineStr">
-        <is>
-          <t>46978187</t>
-        </is>
-      </c>
-      <c r="D4365" t="inlineStr">
-        <is>
-          <t>3톤미만지게차</t>
-        </is>
-      </c>
-      <c r="E4365" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:26:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="4366">
-      <c r="A4366" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4366" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4366" t="inlineStr">
-        <is>
-          <t>46978187</t>
-        </is>
-      </c>
-      <c r="D4366" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4366" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:26:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="4367">
-      <c r="A4367" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4367" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4367" t="inlineStr">
-        <is>
-          <t>46977345</t>
-        </is>
-      </c>
-      <c r="D4367" t="inlineStr">
+      <c r="C4552" t="inlineStr">
+        <is>
+          <t>46029165</t>
+        </is>
+      </c>
+      <c r="D4552" t="inlineStr">
         <is>
           <t>자동차운전면허</t>
         </is>
       </c>
-      <c r="E4367" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="4368">
-      <c r="A4368" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4368" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4368" t="inlineStr">
-        <is>
-          <t>46977342</t>
-        </is>
-      </c>
-      <c r="D4368" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4368" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4369">
-      <c r="A4369" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4369" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4369" t="inlineStr">
-        <is>
-          <t>46977340</t>
-        </is>
-      </c>
-      <c r="D4369" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4369" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="4370">
-      <c r="A4370" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4370" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4370" t="inlineStr">
-        <is>
-          <t>46977339</t>
-        </is>
-      </c>
-      <c r="D4370" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4370" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="4371">
-      <c r="A4371" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4371" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4371" t="inlineStr">
-        <is>
-          <t>46977292</t>
-        </is>
-      </c>
-      <c r="D4371" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4371" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="4372">
-      <c r="A4372" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4372" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4372" t="inlineStr">
-        <is>
-          <t>46977291</t>
-        </is>
-      </c>
-      <c r="D4372" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4372" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="4373">
-      <c r="A4373" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4373" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4373" t="inlineStr">
-        <is>
-          <t>46977290</t>
-        </is>
-      </c>
-      <c r="D4373" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4373" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="4374">
-      <c r="A4374" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4374" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4374" t="inlineStr">
-        <is>
-          <t>46977289</t>
-        </is>
-      </c>
-      <c r="D4374" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4374" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="4375">
-      <c r="A4375" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4375" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4375" t="inlineStr">
-        <is>
-          <t>46977288</t>
-        </is>
-      </c>
-      <c r="D4375" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4375" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="4376">
-      <c r="A4376" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4376" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4376" t="inlineStr">
-        <is>
-          <t>46976587</t>
-        </is>
-      </c>
-      <c r="D4376" t="inlineStr">
-        <is>
-          <t>1종특수운전면허(대형견인차)</t>
-        </is>
-      </c>
-      <c r="E4376" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="4377">
-      <c r="A4377" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4377" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4377" t="inlineStr">
-        <is>
-          <t>46976262</t>
-        </is>
-      </c>
-      <c r="D4377" t="inlineStr">
-        <is>
-          <t>굴삭기운전기능사</t>
-        </is>
-      </c>
-      <c r="E4377" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="4378">
-      <c r="A4378" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4378" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4378" t="inlineStr">
-        <is>
-          <t>46975804</t>
-        </is>
-      </c>
-      <c r="D4378" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4378" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="4379">
-      <c r="A4379" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4379" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4379" t="inlineStr">
-        <is>
-          <t>46975077</t>
-        </is>
-      </c>
-      <c r="D4379" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4379" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="4380">
-      <c r="A4380" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4380" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4380" t="inlineStr">
-        <is>
-          <t>46975077</t>
-        </is>
-      </c>
-      <c r="D4380" t="inlineStr">
-        <is>
-          <t>1종대형운전면허</t>
-        </is>
-      </c>
-      <c r="E4380" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="4381">
-      <c r="A4381" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4381" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4381" t="inlineStr">
-        <is>
-          <t>46975077</t>
-        </is>
-      </c>
-      <c r="D4381" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4381" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="4382">
-      <c r="A4382" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4382" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4382" t="inlineStr">
-        <is>
-          <t>46974902</t>
-        </is>
-      </c>
-      <c r="D4382" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4382" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4383">
-      <c r="A4383" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4383" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4383" t="inlineStr">
-        <is>
-          <t>46973919</t>
-        </is>
-      </c>
-      <c r="D4383" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4383" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="4384">
-      <c r="A4384" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4384" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4384" t="inlineStr">
-        <is>
-          <t>46973912</t>
-        </is>
-      </c>
-      <c r="D4384" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4384" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="4385">
-      <c r="A4385" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4385" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4385" t="inlineStr">
-        <is>
-          <t>46973912</t>
-        </is>
-      </c>
-      <c r="D4385" t="inlineStr">
-        <is>
-          <t>1종대형운전면허</t>
-        </is>
-      </c>
-      <c r="E4385" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="4386">
-      <c r="A4386" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4386" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4386" t="inlineStr">
-        <is>
-          <t>46973912</t>
-        </is>
-      </c>
-      <c r="D4386" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4386" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:27:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="4387">
-      <c r="A4387" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4387" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4387" t="inlineStr">
-        <is>
-          <t>46969947</t>
-        </is>
-      </c>
-      <c r="D4387" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4387" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:28:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="4388">
-      <c r="A4388" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4388" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4388" t="inlineStr">
-        <is>
-          <t>46968421</t>
-        </is>
-      </c>
-      <c r="D4388" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4388" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4389">
-      <c r="A4389" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4389" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4389" t="inlineStr">
-        <is>
-          <t>46969185</t>
-        </is>
-      </c>
-      <c r="D4389" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4389" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="4390">
-      <c r="A4390" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4390" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4390" t="inlineStr">
-        <is>
-          <t>46969104</t>
-        </is>
-      </c>
-      <c r="D4390" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4390" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="4391">
-      <c r="A4391" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4391" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4391" t="inlineStr">
-        <is>
-          <t>46968540</t>
-        </is>
-      </c>
-      <c r="D4391" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4391" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="4392">
-      <c r="A4392" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4392" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4392" t="inlineStr">
-        <is>
-          <t>46968480</t>
-        </is>
-      </c>
-      <c r="D4392" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4392" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="4393">
-      <c r="A4393" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4393" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4393" t="inlineStr">
-        <is>
-          <t>46968132</t>
-        </is>
-      </c>
-      <c r="D4393" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4393" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="4394">
-      <c r="A4394" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4394" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4394" t="inlineStr">
-        <is>
-          <t>46968102</t>
-        </is>
-      </c>
-      <c r="D4394" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4394" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="4395">
-      <c r="A4395" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4395" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4395" t="inlineStr">
-        <is>
-          <t>46968102</t>
-        </is>
-      </c>
-      <c r="D4395" t="inlineStr">
-        <is>
-          <t>1종대형운전면허</t>
-        </is>
-      </c>
-      <c r="E4395" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="4396">
-      <c r="A4396" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4396" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4396" t="inlineStr">
-        <is>
-          <t>46956020</t>
-        </is>
-      </c>
-      <c r="D4396" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4396" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="4397">
-      <c r="A4397" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4397" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4397" t="inlineStr">
-        <is>
-          <t>46963715</t>
-        </is>
-      </c>
-      <c r="D4397" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4397" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="4398">
-      <c r="A4398" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4398" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4398" t="inlineStr">
-        <is>
-          <t>46963715</t>
-        </is>
-      </c>
-      <c r="D4398" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4398" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="4399">
-      <c r="A4399" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4399" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4399" t="inlineStr">
-        <is>
-          <t>46962900</t>
-        </is>
-      </c>
-      <c r="D4399" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4399" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="4400">
-      <c r="A4400" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4400" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4400" t="inlineStr">
-        <is>
-          <t>46962899</t>
-        </is>
-      </c>
-      <c r="D4400" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4400" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="4401">
-      <c r="A4401" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4401" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4401" t="inlineStr">
-        <is>
-          <t>46962898</t>
-        </is>
-      </c>
-      <c r="D4401" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4401" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4402">
-      <c r="A4402" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4402" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4402" t="inlineStr">
-        <is>
-          <t>46962897</t>
-        </is>
-      </c>
-      <c r="D4402" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4402" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="4403">
-      <c r="A4403" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4403" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4403" t="inlineStr">
-        <is>
-          <t>46962830</t>
-        </is>
-      </c>
-      <c r="D4403" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4403" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="4404">
-      <c r="A4404" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4404" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4404" t="inlineStr">
-        <is>
-          <t>46962829</t>
-        </is>
-      </c>
-      <c r="D4404" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4404" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="4405">
-      <c r="A4405" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4405" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4405" t="inlineStr">
-        <is>
-          <t>46962828</t>
-        </is>
-      </c>
-      <c r="D4405" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4405" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:29:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="4406">
-      <c r="A4406" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4406" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4406" t="inlineStr">
-        <is>
-          <t>46962827</t>
-        </is>
-      </c>
-      <c r="D4406" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4406" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:30:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="4407">
-      <c r="A4407" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4407" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4407" t="inlineStr">
-        <is>
-          <t>46962826</t>
-        </is>
-      </c>
-      <c r="D4407" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4407" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:30:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="4408">
-      <c r="A4408" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4408" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4408" t="inlineStr">
-        <is>
-          <t>46962757</t>
-        </is>
-      </c>
-      <c r="D4408" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4408" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:30:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="4409">
-      <c r="A4409" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4409" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4409" t="inlineStr">
-        <is>
-          <t>46962756</t>
-        </is>
-      </c>
-      <c r="D4409" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4409" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:30:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="4410">
-      <c r="A4410" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4410" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4410" t="inlineStr">
-        <is>
-          <t>46962755</t>
-        </is>
-      </c>
-      <c r="D4410" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4410" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:30:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="4411">
-      <c r="A4411" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4411" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4411" t="inlineStr">
-        <is>
-          <t>46962754</t>
-        </is>
-      </c>
-      <c r="D4411" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4411" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:30:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="4412">
-      <c r="A4412" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4412" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4412" t="inlineStr">
-        <is>
-          <t>46962636</t>
-        </is>
-      </c>
-      <c r="D4412" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4412" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:30:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="4413">
-      <c r="A4413" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4413" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4413" t="inlineStr">
-        <is>
-          <t>46962635</t>
-        </is>
-      </c>
-      <c r="D4413" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4413" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:30:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="4414">
-      <c r="A4414" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4414" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4414" t="inlineStr">
-        <is>
-          <t>46962633</t>
-        </is>
-      </c>
-      <c r="D4414" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4414" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:30:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="4415">
-      <c r="A4415" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4415" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4415" t="inlineStr">
-        <is>
-          <t>46962632</t>
-        </is>
-      </c>
-      <c r="D4415" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4415" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:30:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="4416">
-      <c r="A4416" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4416" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4416" t="inlineStr">
-        <is>
-          <t>46962631</t>
-        </is>
-      </c>
-      <c r="D4416" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4416" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:30:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="4417">
-      <c r="A4417" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4417" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4417" t="inlineStr">
-        <is>
-          <t>46962540</t>
-        </is>
-      </c>
-      <c r="D4417" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4417" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:30:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="4418">
-      <c r="A4418" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4418" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4418" t="inlineStr">
-        <is>
-          <t>46962539</t>
-        </is>
-      </c>
-      <c r="D4418" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4418" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:30:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="4419">
-      <c r="A4419" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4419" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4419" t="inlineStr">
-        <is>
-          <t>46962538</t>
-        </is>
-      </c>
-      <c r="D4419" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4419" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:30:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="4420">
-      <c r="A4420" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4420" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4420" t="inlineStr">
-        <is>
-          <t>46962537</t>
-        </is>
-      </c>
-      <c r="D4420" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4420" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:30:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="4421">
-      <c r="A4421" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4421" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4421" t="inlineStr">
-        <is>
-          <t>46962534</t>
-        </is>
-      </c>
-      <c r="D4421" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4421" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:30:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="4422">
-      <c r="A4422" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4422" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4422" t="inlineStr">
-        <is>
-          <t>46959875</t>
-        </is>
-      </c>
-      <c r="D4422" t="inlineStr">
-        <is>
-          <t>1종대형운전면허</t>
-        </is>
-      </c>
-      <c r="E4422" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:31:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="4423">
-      <c r="A4423" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4423" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4423" t="inlineStr">
-        <is>
-          <t>46953917</t>
-        </is>
-      </c>
-      <c r="D4423" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4423" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:32:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="4424">
-      <c r="A4424" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4424" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4424" t="inlineStr">
-        <is>
-          <t>46953917</t>
-        </is>
-      </c>
-      <c r="D4424" t="inlineStr">
-        <is>
-          <t>건설기계조종사</t>
-        </is>
-      </c>
-      <c r="E4424" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:32:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="4425">
-      <c r="A4425" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4425" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4425" t="inlineStr">
-        <is>
-          <t>46953873</t>
-        </is>
-      </c>
-      <c r="D4425" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4425" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:33:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4426">
-      <c r="A4426" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4426" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4426" t="inlineStr">
-        <is>
-          <t>46953873</t>
-        </is>
-      </c>
-      <c r="D4426" t="inlineStr">
-        <is>
-          <t>건설기계조종사</t>
-        </is>
-      </c>
-      <c r="E4426" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:33:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4427">
-      <c r="A4427" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4427" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4427" t="inlineStr">
-        <is>
-          <t>46953782</t>
-        </is>
-      </c>
-      <c r="D4427" t="inlineStr">
-        <is>
-          <t>건설기계조종사면허증(3톤미만지게차)</t>
-        </is>
-      </c>
-      <c r="E4427" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:33:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="4428">
-      <c r="A4428" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4428" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4428" t="inlineStr">
-        <is>
-          <t>46953782</t>
-        </is>
-      </c>
-      <c r="D4428" t="inlineStr">
-        <is>
-          <t>소형건설기계조종교육이수증(3톤미만지게차)</t>
-        </is>
-      </c>
-      <c r="E4428" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:33:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="4429">
-      <c r="A4429" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4429" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4429" t="inlineStr">
-        <is>
-          <t>46953807</t>
-        </is>
-      </c>
-      <c r="D4429" t="inlineStr">
-        <is>
-          <t>포크레인기능사</t>
-        </is>
-      </c>
-      <c r="E4429" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:33:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="4430">
-      <c r="A4430" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4430" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4430" t="inlineStr">
-        <is>
-          <t>46953807</t>
-        </is>
-      </c>
-      <c r="D4430" t="inlineStr">
-        <is>
-          <t>굴삭기운전기능사</t>
-        </is>
-      </c>
-      <c r="E4430" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:33:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="4431">
-      <c r="A4431" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4431" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4431" t="inlineStr">
-        <is>
-          <t>46951639</t>
-        </is>
-      </c>
-      <c r="D4431" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4431" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:33:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="4432">
-      <c r="A4432" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4432" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4432" t="inlineStr">
-        <is>
-          <t>46951838</t>
-        </is>
-      </c>
-      <c r="D4432" t="inlineStr">
-        <is>
-          <t>1종대형운전면허</t>
-        </is>
-      </c>
-      <c r="E4432" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:34:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="4433">
-      <c r="A4433" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4433" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4433" t="inlineStr">
-        <is>
-          <t>46951806</t>
-        </is>
-      </c>
-      <c r="D4433" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4433" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:34:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="4434">
-      <c r="A4434" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4434" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4434" t="inlineStr">
-        <is>
-          <t>46951095</t>
-        </is>
-      </c>
-      <c r="D4434" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4434" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:34:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="4435">
-      <c r="A4435" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4435" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4435" t="inlineStr">
-        <is>
-          <t>46951726</t>
-        </is>
-      </c>
-      <c r="D4435" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4435" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:34:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="4436">
-      <c r="A4436" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4436" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4436" t="inlineStr">
-        <is>
-          <t>46950994</t>
-        </is>
-      </c>
-      <c r="D4436" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4436" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:34:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="4437">
-      <c r="A4437" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4437" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4437" t="inlineStr">
-        <is>
-          <t>46948141</t>
-        </is>
-      </c>
-      <c r="D4437" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4437" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:34:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="4438">
-      <c r="A4438" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4438" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4438" t="inlineStr">
-        <is>
-          <t>46947289</t>
-        </is>
-      </c>
-      <c r="D4438" t="inlineStr">
-        <is>
-          <t>지게차</t>
-        </is>
-      </c>
-      <c r="E4438" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:35:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4439">
-      <c r="A4439" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4439" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4439" t="inlineStr">
-        <is>
-          <t>46947289</t>
-        </is>
-      </c>
-      <c r="D4439" t="inlineStr">
-        <is>
-          <t>입식리치</t>
-        </is>
-      </c>
-      <c r="E4439" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:35:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4440">
-      <c r="A4440" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4440" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4440" t="inlineStr">
-        <is>
-          <t>46946745</t>
-        </is>
-      </c>
-      <c r="D4440" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4440" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:35:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="4441">
-      <c r="A4441" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4441" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4441" t="inlineStr">
-        <is>
-          <t>46946711</t>
-        </is>
-      </c>
-      <c r="D4441" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4441" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:35:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="4442">
-      <c r="A4442" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4442" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4442" t="inlineStr">
-        <is>
-          <t>46946659</t>
-        </is>
-      </c>
-      <c r="D4442" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4442" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:35:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="4443">
-      <c r="A4443" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4443" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4443" t="inlineStr">
-        <is>
-          <t>46946638</t>
-        </is>
-      </c>
-      <c r="D4443" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4443" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:35:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4444">
-      <c r="A4444" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4444" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4444" t="inlineStr">
-        <is>
-          <t>46946623</t>
-        </is>
-      </c>
-      <c r="D4444" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4444" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:35:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="4445">
-      <c r="A4445" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4445" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4445" t="inlineStr">
-        <is>
-          <t>46946623</t>
-        </is>
-      </c>
-      <c r="D4445" t="inlineStr">
-        <is>
-          <t>1종대형운전면허</t>
-        </is>
-      </c>
-      <c r="E4445" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:35:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="4446">
-      <c r="A4446" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4446" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4446" t="inlineStr">
-        <is>
-          <t>46946147</t>
-        </is>
-      </c>
-      <c r="D4446" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4446" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:35:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="4447">
-      <c r="A4447" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4447" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4447" t="inlineStr">
-        <is>
-          <t>46944596</t>
-        </is>
-      </c>
-      <c r="D4447" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4447" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:35:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="4448">
-      <c r="A4448" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4448" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4448" t="inlineStr">
-        <is>
-          <t>46944596</t>
-        </is>
-      </c>
-      <c r="D4448" t="inlineStr">
-        <is>
-          <t>3톤미만지게차</t>
-        </is>
-      </c>
-      <c r="E4448" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:35:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="4449">
-      <c r="A4449" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4449" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4449" t="inlineStr">
-        <is>
-          <t>46944596</t>
-        </is>
-      </c>
-      <c r="D4449" t="inlineStr">
-        <is>
-          <t>건설기계조종사면허증(3톤미만지게차)</t>
-        </is>
-      </c>
-      <c r="E4449" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:35:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="4450">
-      <c r="A4450" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4450" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4450" t="inlineStr">
-        <is>
-          <t>46944188</t>
-        </is>
-      </c>
-      <c r="D4450" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4450" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:35:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="4451">
-      <c r="A4451" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4451" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4451" t="inlineStr">
-        <is>
-          <t>46943895</t>
-        </is>
-      </c>
-      <c r="D4451" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4451" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:35:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="4452">
-      <c r="A4452" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4452" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4452" t="inlineStr">
-        <is>
-          <t>46943074</t>
-        </is>
-      </c>
-      <c r="D4452" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4452" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:35:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="4453">
-      <c r="A4453" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4453" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4453" t="inlineStr">
-        <is>
-          <t>46941417</t>
-        </is>
-      </c>
-      <c r="D4453" t="inlineStr">
-        <is>
-          <t>자동차운전면허</t>
-        </is>
-      </c>
-      <c r="E4453" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="4454">
-      <c r="A4454" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4454" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4454" t="inlineStr">
-        <is>
-          <t>46941417</t>
-        </is>
-      </c>
-      <c r="D4454" t="inlineStr">
-        <is>
-          <t>굴삭기운전기능사</t>
-        </is>
-      </c>
-      <c r="E4454" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="4455">
-      <c r="A4455" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4455" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4455" t="inlineStr">
-        <is>
-          <t>46941417</t>
-        </is>
-      </c>
-      <c r="D4455" t="inlineStr">
-        <is>
-          <t>지게차운전기능사</t>
-        </is>
-      </c>
-      <c r="E4455" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="4456">
-      <c r="A4456" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4456" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4456" t="inlineStr">
-        <is>
-          <t>46941413</t>
-        </is>
-      </c>
-      <c r="D4456" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4456" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="4457">
-      <c r="A4457" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4457" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4457" t="inlineStr">
-        <is>
-          <t>46939479</t>
-        </is>
-      </c>
-      <c r="D4457" t="inlineStr">
-        <is>
-          <t>굴삭기운전기능사</t>
-        </is>
-      </c>
-      <c r="E4457" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="4458">
-      <c r="A4458" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4458" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4458" t="inlineStr">
-        <is>
-          <t>46936656</t>
-        </is>
-      </c>
-      <c r="D4458" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4458" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="4459">
-      <c r="A4459" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4459" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4459" t="inlineStr">
-        <is>
-          <t>46936656</t>
-        </is>
-      </c>
-      <c r="D4459" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4459" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="4460">
-      <c r="A4460" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4460" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4460" t="inlineStr">
-        <is>
-          <t>46936618</t>
-        </is>
-      </c>
-      <c r="D4460" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4460" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="4461">
-      <c r="A4461" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4461" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4461" t="inlineStr">
-        <is>
-          <t>46936618</t>
-        </is>
-      </c>
-      <c r="D4461" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4461" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="4462">
-      <c r="A4462" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4462" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4462" t="inlineStr">
-        <is>
-          <t>46936573</t>
-        </is>
-      </c>
-      <c r="D4462" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4462" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="4463">
-      <c r="A4463" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4463" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4463" t="inlineStr">
-        <is>
-          <t>46936573</t>
-        </is>
-      </c>
-      <c r="D4463" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4463" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="4464">
-      <c r="A4464" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4464" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4464" t="inlineStr">
-        <is>
-          <t>46936523</t>
-        </is>
-      </c>
-      <c r="D4464" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4464" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="4465">
-      <c r="A4465" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4465" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4465" t="inlineStr">
-        <is>
-          <t>46936523</t>
-        </is>
-      </c>
-      <c r="D4465" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4465" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="4466">
-      <c r="A4466" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4466" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4466" t="inlineStr">
-        <is>
-          <t>46936331</t>
-        </is>
-      </c>
-      <c r="D4466" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4466" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="4467">
-      <c r="A4467" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4467" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4467" t="inlineStr">
-        <is>
-          <t>46936331</t>
-        </is>
-      </c>
-      <c r="D4467" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4467" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="4468">
-      <c r="A4468" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4468" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4468" t="inlineStr">
-        <is>
-          <t>46936267</t>
-        </is>
-      </c>
-      <c r="D4468" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4468" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="4469">
-      <c r="A4469" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4469" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4469" t="inlineStr">
-        <is>
-          <t>46936267</t>
-        </is>
-      </c>
-      <c r="D4469" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4469" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="4470">
-      <c r="A4470" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4470" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4470" t="inlineStr">
-        <is>
-          <t>46936233</t>
-        </is>
-      </c>
-      <c r="D4470" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4470" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="4471">
-      <c r="A4471" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4471" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4471" t="inlineStr">
-        <is>
-          <t>46936233</t>
-        </is>
-      </c>
-      <c r="D4471" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4471" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="4472">
-      <c r="A4472" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4472" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4472" t="inlineStr">
-        <is>
-          <t>46936197</t>
-        </is>
-      </c>
-      <c r="D4472" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4472" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="4473">
-      <c r="A4473" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4473" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4473" t="inlineStr">
-        <is>
-          <t>46936197</t>
-        </is>
-      </c>
-      <c r="D4473" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4473" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="4474">
-      <c r="A4474" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4474" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4474" t="inlineStr">
-        <is>
-          <t>46936163</t>
-        </is>
-      </c>
-      <c r="D4474" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4474" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="4475">
-      <c r="A4475" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4475" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4475" t="inlineStr">
-        <is>
-          <t>46936163</t>
-        </is>
-      </c>
-      <c r="D4475" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4475" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="4476">
-      <c r="A4476" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4476" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4476" t="inlineStr">
-        <is>
-          <t>46936114</t>
-        </is>
-      </c>
-      <c r="D4476" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4476" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="4477">
-      <c r="A4477" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4477" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4477" t="inlineStr">
-        <is>
-          <t>46936114</t>
-        </is>
-      </c>
-      <c r="D4477" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4477" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="4478">
-      <c r="A4478" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4478" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4478" t="inlineStr">
-        <is>
-          <t>46935912</t>
-        </is>
-      </c>
-      <c r="D4478" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4478" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="4479">
-      <c r="A4479" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4479" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4479" t="inlineStr">
-        <is>
-          <t>46935912</t>
-        </is>
-      </c>
-      <c r="D4479" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4479" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="4480">
-      <c r="A4480" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4480" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4480" t="inlineStr">
-        <is>
-          <t>46935903</t>
-        </is>
-      </c>
-      <c r="D4480" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4480" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4481">
-      <c r="A4481" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4481" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4481" t="inlineStr">
-        <is>
-          <t>46935903</t>
-        </is>
-      </c>
-      <c r="D4481" t="inlineStr">
-        <is>
-          <t>1종대형운전면허</t>
-        </is>
-      </c>
-      <c r="E4481" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4482">
-      <c r="A4482" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4482" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4482" t="inlineStr">
-        <is>
-          <t>46935862</t>
-        </is>
-      </c>
-      <c r="D4482" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4482" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="4483">
-      <c r="A4483" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4483" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4483" t="inlineStr">
-        <is>
-          <t>46935862</t>
-        </is>
-      </c>
-      <c r="D4483" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4483" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="4484">
-      <c r="A4484" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4484" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4484" t="inlineStr">
-        <is>
-          <t>46935808</t>
-        </is>
-      </c>
-      <c r="D4484" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4484" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="4485">
-      <c r="A4485" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4485" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4485" t="inlineStr">
-        <is>
-          <t>46935808</t>
-        </is>
-      </c>
-      <c r="D4485" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4485" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:36:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="4486">
-      <c r="A4486" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4486" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4486" t="inlineStr">
-        <is>
-          <t>46935769</t>
-        </is>
-      </c>
-      <c r="D4486" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4486" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4487">
-      <c r="A4487" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4487" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4487" t="inlineStr">
-        <is>
-          <t>46935769</t>
-        </is>
-      </c>
-      <c r="D4487" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4487" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4488">
-      <c r="A4488" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4488" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4488" t="inlineStr">
-        <is>
-          <t>46935707</t>
-        </is>
-      </c>
-      <c r="D4488" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4488" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="4489">
-      <c r="A4489" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4489" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4489" t="inlineStr">
-        <is>
-          <t>46935707</t>
-        </is>
-      </c>
-      <c r="D4489" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4489" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="4490">
-      <c r="A4490" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4490" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4490" t="inlineStr">
-        <is>
-          <t>46935468</t>
-        </is>
-      </c>
-      <c r="D4490" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4490" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="4491">
-      <c r="A4491" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4491" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4491" t="inlineStr">
-        <is>
-          <t>46935468</t>
-        </is>
-      </c>
-      <c r="D4491" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4491" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="4492">
-      <c r="A4492" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4492" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4492" t="inlineStr">
-        <is>
-          <t>46935427</t>
-        </is>
-      </c>
-      <c r="D4492" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4492" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="4493">
-      <c r="A4493" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4493" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4493" t="inlineStr">
-        <is>
-          <t>46935427</t>
-        </is>
-      </c>
-      <c r="D4493" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4493" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="4494">
-      <c r="A4494" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4494" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4494" t="inlineStr">
-        <is>
-          <t>46935389</t>
-        </is>
-      </c>
-      <c r="D4494" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4494" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="4495">
-      <c r="A4495" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4495" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4495" t="inlineStr">
-        <is>
-          <t>46935389</t>
-        </is>
-      </c>
-      <c r="D4495" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4495" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="4496">
-      <c r="A4496" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4496" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4496" t="inlineStr">
-        <is>
-          <t>46935387</t>
-        </is>
-      </c>
-      <c r="D4496" t="inlineStr">
-        <is>
-          <t>3톤미만 지게차</t>
-        </is>
-      </c>
-      <c r="E4496" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="4497">
-      <c r="A4497" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4497" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4497" t="inlineStr">
-        <is>
-          <t>46935387</t>
-        </is>
-      </c>
-      <c r="D4497" t="inlineStr">
-        <is>
-          <t>건설기계조종면허증</t>
-        </is>
-      </c>
-      <c r="E4497" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="4498">
-      <c r="A4498" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4498" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4498" t="inlineStr">
-        <is>
-          <t>46935341</t>
-        </is>
-      </c>
-      <c r="D4498" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4498" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="4499">
-      <c r="A4499" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4499" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4499" t="inlineStr">
-        <is>
-          <t>46935341</t>
-        </is>
-      </c>
-      <c r="D4499" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4499" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="4500">
-      <c r="A4500" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4500" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4500" t="inlineStr">
-        <is>
-          <t>46935278</t>
-        </is>
-      </c>
-      <c r="D4500" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4500" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="4501">
-      <c r="A4501" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4501" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4501" t="inlineStr">
-        <is>
-          <t>46935278</t>
-        </is>
-      </c>
-      <c r="D4501" t="inlineStr">
-        <is>
-          <t>화물운송종사</t>
-        </is>
-      </c>
-      <c r="E4501" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="4502">
-      <c r="A4502" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4502" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4502" t="inlineStr">
-        <is>
-          <t>46935208</t>
-        </is>
-      </c>
-      <c r="D4502" t="inlineStr">
-        <is>
-          <t>1종보통운전면허</t>
-        </is>
-      </c>
-      <c r="E4502" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="4503">
-      <c r="A4503" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4503" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4503" t="inlineStr">
-        <is>
-          <t>46935208</t>
-        </is>
-      </c>
-      <c r="D4503" t="inlineStr">
-        <is>
-          <t>1종대형운전면허</t>
-        </is>
-      </c>
-      <c r="E4503" t="inlineStr">
-        <is>
-          <t>2025.06.04 - 13:37:21</t>
+      <c r="E4552" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 13:53:27</t>
         </is>
       </c>
     </row>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -94153,20 +94153,14 @@
       </c>
     </row>
     <row r="4504">
-      <c r="A4504" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4504" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4504" t="inlineStr">
-        <is>
-          <t>46932740</t>
-        </is>
+      <c r="A4504" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4504" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4504" t="n">
+        <v>46932740</v>
       </c>
       <c r="D4504" t="inlineStr">
         <is>
@@ -94180,20 +94174,14 @@
       </c>
     </row>
     <row r="4505">
-      <c r="A4505" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4505" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4505" t="inlineStr">
-        <is>
-          <t>46932739</t>
-        </is>
+      <c r="A4505" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4505" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4505" t="n">
+        <v>46932739</v>
       </c>
       <c r="D4505" t="inlineStr">
         <is>
@@ -94207,20 +94195,14 @@
       </c>
     </row>
     <row r="4506">
-      <c r="A4506" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4506" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4506" t="inlineStr">
-        <is>
-          <t>46932738</t>
-        </is>
+      <c r="A4506" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4506" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4506" t="n">
+        <v>46932738</v>
       </c>
       <c r="D4506" t="inlineStr">
         <is>
@@ -94234,20 +94216,14 @@
       </c>
     </row>
     <row r="4507">
-      <c r="A4507" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4507" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4507" t="inlineStr">
-        <is>
-          <t>46932737</t>
-        </is>
+      <c r="A4507" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4507" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4507" t="n">
+        <v>46932737</v>
       </c>
       <c r="D4507" t="inlineStr">
         <is>
@@ -94261,20 +94237,14 @@
       </c>
     </row>
     <row r="4508">
-      <c r="A4508" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4508" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4508" t="inlineStr">
-        <is>
-          <t>46932703</t>
-        </is>
+      <c r="A4508" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4508" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4508" t="n">
+        <v>46932703</v>
       </c>
       <c r="D4508" t="inlineStr">
         <is>
@@ -94288,20 +94258,14 @@
       </c>
     </row>
     <row r="4509">
-      <c r="A4509" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4509" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4509" t="inlineStr">
-        <is>
-          <t>46932706</t>
-        </is>
+      <c r="A4509" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4509" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4509" t="n">
+        <v>46932706</v>
       </c>
       <c r="D4509" t="inlineStr">
         <is>
@@ -94315,20 +94279,14 @@
       </c>
     </row>
     <row r="4510">
-      <c r="A4510" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4510" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4510" t="inlineStr">
-        <is>
-          <t>46932707</t>
-        </is>
+      <c r="A4510" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4510" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4510" t="n">
+        <v>46932707</v>
       </c>
       <c r="D4510" t="inlineStr">
         <is>
@@ -94342,20 +94300,14 @@
       </c>
     </row>
     <row r="4511">
-      <c r="A4511" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4511" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4511" t="inlineStr">
-        <is>
-          <t>46932709</t>
-        </is>
+      <c r="A4511" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4511" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4511" t="n">
+        <v>46932709</v>
       </c>
       <c r="D4511" t="inlineStr">
         <is>
@@ -94369,20 +94321,14 @@
       </c>
     </row>
     <row r="4512">
-      <c r="A4512" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4512" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4512" t="inlineStr">
-        <is>
-          <t>46932710</t>
-        </is>
+      <c r="A4512" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4512" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4512" t="n">
+        <v>46932710</v>
       </c>
       <c r="D4512" t="inlineStr">
         <is>
@@ -94396,20 +94342,14 @@
       </c>
     </row>
     <row r="4513">
-      <c r="A4513" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4513" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4513" t="inlineStr">
-        <is>
-          <t>46931115</t>
-        </is>
+      <c r="A4513" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4513" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4513" t="n">
+        <v>46931115</v>
       </c>
       <c r="D4513" t="inlineStr">
         <is>
@@ -94423,20 +94363,14 @@
       </c>
     </row>
     <row r="4514">
-      <c r="A4514" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4514" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4514" t="inlineStr">
-        <is>
-          <t>46931115</t>
-        </is>
+      <c r="A4514" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4514" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4514" t="n">
+        <v>46931115</v>
       </c>
       <c r="D4514" t="inlineStr">
         <is>
@@ -94450,20 +94384,14 @@
       </c>
     </row>
     <row r="4515">
-      <c r="A4515" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4515" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4515" t="inlineStr">
-        <is>
-          <t>46929427</t>
-        </is>
+      <c r="A4515" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4515" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4515" t="n">
+        <v>46929427</v>
       </c>
       <c r="D4515" t="inlineStr">
         <is>
@@ -94477,20 +94405,14 @@
       </c>
     </row>
     <row r="4516">
-      <c r="A4516" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4516" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4516" t="inlineStr">
-        <is>
-          <t>46928996</t>
-        </is>
+      <c r="A4516" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4516" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4516" t="n">
+        <v>46928996</v>
       </c>
       <c r="D4516" t="inlineStr">
         <is>
@@ -94504,20 +94426,14 @@
       </c>
     </row>
     <row r="4517">
-      <c r="A4517" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4517" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4517" t="inlineStr">
-        <is>
-          <t>46928996</t>
-        </is>
+      <c r="A4517" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4517" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4517" t="n">
+        <v>46928996</v>
       </c>
       <c r="D4517" t="inlineStr">
         <is>
@@ -94531,20 +94447,14 @@
       </c>
     </row>
     <row r="4518">
-      <c r="A4518" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4518" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4518" t="inlineStr">
-        <is>
-          <t>46927322</t>
-        </is>
+      <c r="A4518" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4518" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4518" t="n">
+        <v>46927322</v>
       </c>
       <c r="D4518" t="inlineStr">
         <is>
@@ -94558,20 +94468,14 @@
       </c>
     </row>
     <row r="4519">
-      <c r="A4519" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4519" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4519" t="inlineStr">
-        <is>
-          <t>46926561</t>
-        </is>
+      <c r="A4519" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4519" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4519" t="n">
+        <v>46926561</v>
       </c>
       <c r="D4519" t="inlineStr">
         <is>
@@ -94585,20 +94489,14 @@
       </c>
     </row>
     <row r="4520">
-      <c r="A4520" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4520" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4520" t="inlineStr">
-        <is>
-          <t>46926466</t>
-        </is>
+      <c r="A4520" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4520" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4520" t="n">
+        <v>46926466</v>
       </c>
       <c r="D4520" t="inlineStr">
         <is>
@@ -94612,20 +94510,14 @@
       </c>
     </row>
     <row r="4521">
-      <c r="A4521" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4521" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4521" t="inlineStr">
-        <is>
-          <t>46926466</t>
-        </is>
+      <c r="A4521" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4521" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4521" t="n">
+        <v>46926466</v>
       </c>
       <c r="D4521" t="inlineStr">
         <is>
@@ -94639,20 +94531,14 @@
       </c>
     </row>
     <row r="4522">
-      <c r="A4522" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4522" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4522" t="inlineStr">
-        <is>
-          <t>46926466</t>
-        </is>
+      <c r="A4522" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4522" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4522" t="n">
+        <v>46926466</v>
       </c>
       <c r="D4522" t="inlineStr">
         <is>
@@ -94666,20 +94552,14 @@
       </c>
     </row>
     <row r="4523">
-      <c r="A4523" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4523" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4523" t="inlineStr">
-        <is>
-          <t>46924024</t>
-        </is>
+      <c r="A4523" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4523" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4523" t="n">
+        <v>46924024</v>
       </c>
       <c r="D4523" t="inlineStr">
         <is>
@@ -94693,20 +94573,14 @@
       </c>
     </row>
     <row r="4524">
-      <c r="A4524" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4524" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4524" t="inlineStr">
-        <is>
-          <t>46924024</t>
-        </is>
+      <c r="A4524" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4524" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4524" t="n">
+        <v>46924024</v>
       </c>
       <c r="D4524" t="inlineStr">
         <is>
@@ -94720,20 +94594,14 @@
       </c>
     </row>
     <row r="4525">
-      <c r="A4525" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4525" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4525" t="inlineStr">
-        <is>
-          <t>46924024</t>
-        </is>
+      <c r="A4525" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4525" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4525" t="n">
+        <v>46924024</v>
       </c>
       <c r="D4525" t="inlineStr">
         <is>
@@ -94747,20 +94615,14 @@
       </c>
     </row>
     <row r="4526">
-      <c r="A4526" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4526" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4526" t="inlineStr">
-        <is>
-          <t>46921310</t>
-        </is>
+      <c r="A4526" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4526" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4526" t="n">
+        <v>46921310</v>
       </c>
       <c r="D4526" t="inlineStr">
         <is>
@@ -94774,20 +94636,14 @@
       </c>
     </row>
     <row r="4527">
-      <c r="A4527" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4527" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4527" t="inlineStr">
-        <is>
-          <t>46916228</t>
-        </is>
+      <c r="A4527" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4527" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4527" t="n">
+        <v>46916228</v>
       </c>
       <c r="D4527" t="inlineStr">
         <is>
@@ -94801,20 +94657,14 @@
       </c>
     </row>
     <row r="4528">
-      <c r="A4528" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4528" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4528" t="inlineStr">
-        <is>
-          <t>46916228</t>
-        </is>
+      <c r="A4528" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4528" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4528" t="n">
+        <v>46916228</v>
       </c>
       <c r="D4528" t="inlineStr">
         <is>
@@ -94828,20 +94678,14 @@
       </c>
     </row>
     <row r="4529">
-      <c r="A4529" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4529" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4529" t="inlineStr">
-        <is>
-          <t>46916228</t>
-        </is>
+      <c r="A4529" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4529" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4529" t="n">
+        <v>46916228</v>
       </c>
       <c r="D4529" t="inlineStr">
         <is>
@@ -94855,20 +94699,14 @@
       </c>
     </row>
     <row r="4530">
-      <c r="A4530" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4530" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4530" t="inlineStr">
-        <is>
-          <t>46919031</t>
-        </is>
+      <c r="A4530" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4530" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4530" t="n">
+        <v>46919031</v>
       </c>
       <c r="D4530" t="inlineStr">
         <is>
@@ -94882,20 +94720,14 @@
       </c>
     </row>
     <row r="4531">
-      <c r="A4531" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4531" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4531" t="inlineStr">
-        <is>
-          <t>46918983</t>
-        </is>
+      <c r="A4531" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4531" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4531" t="n">
+        <v>46918983</v>
       </c>
       <c r="D4531" t="inlineStr">
         <is>
@@ -94909,20 +94741,14 @@
       </c>
     </row>
     <row r="4532">
-      <c r="A4532" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4532" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4532" t="inlineStr">
-        <is>
-          <t>46918983</t>
-        </is>
+      <c r="A4532" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4532" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4532" t="n">
+        <v>46918983</v>
       </c>
       <c r="D4532" t="inlineStr">
         <is>
@@ -94936,20 +94762,14 @@
       </c>
     </row>
     <row r="4533">
-      <c r="A4533" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4533" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4533" t="inlineStr">
-        <is>
-          <t>46918983</t>
-        </is>
+      <c r="A4533" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4533" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4533" t="n">
+        <v>46918983</v>
       </c>
       <c r="D4533" t="inlineStr">
         <is>
@@ -94963,20 +94783,14 @@
       </c>
     </row>
     <row r="4534">
-      <c r="A4534" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4534" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4534" t="inlineStr">
-        <is>
-          <t>46918969</t>
-        </is>
+      <c r="A4534" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4534" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4534" t="n">
+        <v>46918969</v>
       </c>
       <c r="D4534" t="inlineStr">
         <is>
@@ -94990,20 +94804,14 @@
       </c>
     </row>
     <row r="4535">
-      <c r="A4535" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4535" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4535" t="inlineStr">
-        <is>
-          <t>46918930</t>
-        </is>
+      <c r="A4535" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4535" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4535" t="n">
+        <v>46918930</v>
       </c>
       <c r="D4535" t="inlineStr">
         <is>
@@ -95017,20 +94825,14 @@
       </c>
     </row>
     <row r="4536">
-      <c r="A4536" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4536" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4536" t="inlineStr">
-        <is>
-          <t>46918930</t>
-        </is>
+      <c r="A4536" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4536" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4536" t="n">
+        <v>46918930</v>
       </c>
       <c r="D4536" t="inlineStr">
         <is>
@@ -95044,20 +94846,14 @@
       </c>
     </row>
     <row r="4537">
-      <c r="A4537" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4537" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4537" t="inlineStr">
-        <is>
-          <t>46918930</t>
-        </is>
+      <c r="A4537" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4537" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4537" t="n">
+        <v>46918930</v>
       </c>
       <c r="D4537" t="inlineStr">
         <is>
@@ -95071,20 +94867,14 @@
       </c>
     </row>
     <row r="4538">
-      <c r="A4538" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4538" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4538" t="inlineStr">
-        <is>
-          <t>46918181</t>
-        </is>
+      <c r="A4538" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4538" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4538" t="n">
+        <v>46918181</v>
       </c>
       <c r="D4538" t="inlineStr">
         <is>
@@ -95098,20 +94888,14 @@
       </c>
     </row>
     <row r="4539">
-      <c r="A4539" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4539" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4539" t="inlineStr">
-        <is>
-          <t>46918883</t>
-        </is>
+      <c r="A4539" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4539" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4539" t="n">
+        <v>46918883</v>
       </c>
       <c r="D4539" t="inlineStr">
         <is>
@@ -95125,20 +94909,14 @@
       </c>
     </row>
     <row r="4540">
-      <c r="A4540" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4540" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4540" t="inlineStr">
-        <is>
-          <t>46918883</t>
-        </is>
+      <c r="A4540" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4540" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4540" t="n">
+        <v>46918883</v>
       </c>
       <c r="D4540" t="inlineStr">
         <is>
@@ -95152,20 +94930,14 @@
       </c>
     </row>
     <row r="4541">
-      <c r="A4541" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4541" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4541" t="inlineStr">
-        <is>
-          <t>46918883</t>
-        </is>
+      <c r="A4541" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4541" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4541" t="n">
+        <v>46918883</v>
       </c>
       <c r="D4541" t="inlineStr">
         <is>
@@ -95179,20 +94951,14 @@
       </c>
     </row>
     <row r="4542">
-      <c r="A4542" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4542" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4542" t="inlineStr">
-        <is>
-          <t>46918826</t>
-        </is>
+      <c r="A4542" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4542" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4542" t="n">
+        <v>46918826</v>
       </c>
       <c r="D4542" t="inlineStr">
         <is>
@@ -95206,20 +94972,14 @@
       </c>
     </row>
     <row r="4543">
-      <c r="A4543" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4543" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4543" t="inlineStr">
-        <is>
-          <t>46918826</t>
-        </is>
+      <c r="A4543" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4543" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4543" t="n">
+        <v>46918826</v>
       </c>
       <c r="D4543" t="inlineStr">
         <is>
@@ -95233,20 +94993,14 @@
       </c>
     </row>
     <row r="4544">
-      <c r="A4544" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4544" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4544" t="inlineStr">
-        <is>
-          <t>46918826</t>
-        </is>
+      <c r="A4544" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4544" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4544" t="n">
+        <v>46918826</v>
       </c>
       <c r="D4544" t="inlineStr">
         <is>
@@ -95260,20 +95014,14 @@
       </c>
     </row>
     <row r="4545">
-      <c r="A4545" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4545" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4545" t="inlineStr">
-        <is>
-          <t>46918617</t>
-        </is>
+      <c r="A4545" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4545" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4545" t="n">
+        <v>46918617</v>
       </c>
       <c r="D4545" t="inlineStr">
         <is>
@@ -95287,20 +95035,14 @@
       </c>
     </row>
     <row r="4546">
-      <c r="A4546" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4546" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4546" t="inlineStr">
-        <is>
-          <t>46917848</t>
-        </is>
+      <c r="A4546" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4546" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4546" t="n">
+        <v>46917848</v>
       </c>
       <c r="D4546" t="inlineStr">
         <is>
@@ -95314,20 +95056,14 @@
       </c>
     </row>
     <row r="4547">
-      <c r="A4547" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4547" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4547" t="inlineStr">
-        <is>
-          <t>46917848</t>
-        </is>
+      <c r="A4547" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4547" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4547" t="n">
+        <v>46917848</v>
       </c>
       <c r="D4547" t="inlineStr">
         <is>
@@ -95341,20 +95077,14 @@
       </c>
     </row>
     <row r="4548">
-      <c r="A4548" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4548" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4548" t="inlineStr">
-        <is>
-          <t>46917848</t>
-        </is>
+      <c r="A4548" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4548" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4548" t="n">
+        <v>46917848</v>
       </c>
       <c r="D4548" t="inlineStr">
         <is>
@@ -95368,20 +95098,14 @@
       </c>
     </row>
     <row r="4549">
-      <c r="A4549" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4549" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4549" t="inlineStr">
-        <is>
-          <t>46915911</t>
-        </is>
+      <c r="A4549" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4549" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4549" t="n">
+        <v>46915911</v>
       </c>
       <c r="D4549" t="inlineStr">
         <is>
@@ -95395,20 +95119,14 @@
       </c>
     </row>
     <row r="4550">
-      <c r="A4550" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4550" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4550" t="inlineStr">
-        <is>
-          <t>46852818</t>
-        </is>
+      <c r="A4550" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4550" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4550" t="n">
+        <v>46852818</v>
       </c>
       <c r="D4550" t="inlineStr">
         <is>
@@ -95422,20 +95140,14 @@
       </c>
     </row>
     <row r="4551">
-      <c r="A4551" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4551" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4551" t="inlineStr">
-        <is>
-          <t>46808136</t>
-        </is>
+      <c r="A4551" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4551" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4551" t="n">
+        <v>46808136</v>
       </c>
       <c r="D4551" t="inlineStr">
         <is>
@@ -95449,20 +95161,14 @@
       </c>
     </row>
     <row r="4552">
-      <c r="A4552" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4552" t="inlineStr">
-        <is>
-          <t>1000273</t>
-        </is>
-      </c>
-      <c r="C4552" t="inlineStr">
-        <is>
-          <t>46029165</t>
-        </is>
+      <c r="A4552" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4552" t="n">
+        <v>1000273</v>
+      </c>
+      <c r="C4552" t="n">
+        <v>46029165</v>
       </c>
       <c r="D4552" t="inlineStr">
         <is>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4552"/>
+  <dimension ref="A1:E4566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95181,6 +95181,384 @@
         </is>
       </c>
     </row>
+    <row r="4553">
+      <c r="A4553" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4553" t="inlineStr">
+        <is>
+          <t>1000275</t>
+        </is>
+      </c>
+      <c r="C4553" t="inlineStr">
+        <is>
+          <t>47079836</t>
+        </is>
+      </c>
+      <c r="D4553" t="inlineStr">
+        <is>
+          <t>택시운전자격</t>
+        </is>
+      </c>
+      <c r="E4553" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 14:31:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4554">
+      <c r="A4554" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4554" t="inlineStr">
+        <is>
+          <t>1000275</t>
+        </is>
+      </c>
+      <c r="C4554" t="inlineStr">
+        <is>
+          <t>47079836</t>
+        </is>
+      </c>
+      <c r="D4554" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4554" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 14:31:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4555">
+      <c r="A4555" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4555" t="inlineStr">
+        <is>
+          <t>1000275</t>
+        </is>
+      </c>
+      <c r="C4555" t="inlineStr">
+        <is>
+          <t>47064173</t>
+        </is>
+      </c>
+      <c r="D4555" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4555" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 14:31:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4556">
+      <c r="A4556" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4556" t="inlineStr">
+        <is>
+          <t>1000275</t>
+        </is>
+      </c>
+      <c r="C4556" t="inlineStr">
+        <is>
+          <t>47064173</t>
+        </is>
+      </c>
+      <c r="D4556" t="inlineStr">
+        <is>
+          <t>택시운전자격</t>
+        </is>
+      </c>
+      <c r="E4556" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 14:31:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4557">
+      <c r="A4557" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4557" t="inlineStr">
+        <is>
+          <t>1000275</t>
+        </is>
+      </c>
+      <c r="C4557" t="inlineStr">
+        <is>
+          <t>46900747</t>
+        </is>
+      </c>
+      <c r="D4557" t="inlineStr">
+        <is>
+          <t>택시운전자격</t>
+        </is>
+      </c>
+      <c r="E4557" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 14:32:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4558">
+      <c r="A4558" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4558" t="inlineStr">
+        <is>
+          <t>1000275</t>
+        </is>
+      </c>
+      <c r="C4558" t="inlineStr">
+        <is>
+          <t>46900747</t>
+        </is>
+      </c>
+      <c r="D4558" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4558" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 14:32:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4559">
+      <c r="A4559" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4559" t="inlineStr">
+        <is>
+          <t>1000275</t>
+        </is>
+      </c>
+      <c r="C4559" t="inlineStr">
+        <is>
+          <t>46900747</t>
+        </is>
+      </c>
+      <c r="D4559" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4559" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 14:32:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4560">
+      <c r="A4560" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4560" t="inlineStr">
+        <is>
+          <t>1000275</t>
+        </is>
+      </c>
+      <c r="C4560" t="inlineStr">
+        <is>
+          <t>46871808</t>
+        </is>
+      </c>
+      <c r="D4560" t="inlineStr">
+        <is>
+          <t>사회복지사</t>
+        </is>
+      </c>
+      <c r="E4560" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 14:32:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4561">
+      <c r="A4561" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4561" t="inlineStr">
+        <is>
+          <t>1000275</t>
+        </is>
+      </c>
+      <c r="C4561" t="inlineStr">
+        <is>
+          <t>46871808</t>
+        </is>
+      </c>
+      <c r="D4561" t="inlineStr">
+        <is>
+          <t>요양보호사</t>
+        </is>
+      </c>
+      <c r="E4561" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 14:32:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4562">
+      <c r="A4562" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4562" t="inlineStr">
+        <is>
+          <t>1000275</t>
+        </is>
+      </c>
+      <c r="C4562" t="inlineStr">
+        <is>
+          <t>46871808</t>
+        </is>
+      </c>
+      <c r="D4562" t="inlineStr">
+        <is>
+          <t>택시운전자격</t>
+        </is>
+      </c>
+      <c r="E4562" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 14:32:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4563">
+      <c r="A4563" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4563" t="inlineStr">
+        <is>
+          <t>1000275</t>
+        </is>
+      </c>
+      <c r="C4563" t="inlineStr">
+        <is>
+          <t>46848259</t>
+        </is>
+      </c>
+      <c r="D4563" t="inlineStr">
+        <is>
+          <t>운전면허증</t>
+        </is>
+      </c>
+      <c r="E4563" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 14:32:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="4564">
+      <c r="A4564" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4564" t="inlineStr">
+        <is>
+          <t>1000275</t>
+        </is>
+      </c>
+      <c r="C4564" t="inlineStr">
+        <is>
+          <t>46848259</t>
+        </is>
+      </c>
+      <c r="D4564" t="inlineStr">
+        <is>
+          <t>택시자격증</t>
+        </is>
+      </c>
+      <c r="E4564" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 14:32:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="4565">
+      <c r="A4565" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4565" t="inlineStr">
+        <is>
+          <t>1000275</t>
+        </is>
+      </c>
+      <c r="C4565" t="inlineStr">
+        <is>
+          <t>46811757</t>
+        </is>
+      </c>
+      <c r="D4565" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4565" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 14:32:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4566">
+      <c r="A4566" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="B4566" t="inlineStr">
+        <is>
+          <t>1000275</t>
+        </is>
+      </c>
+      <c r="C4566" t="inlineStr">
+        <is>
+          <t>46811758</t>
+        </is>
+      </c>
+      <c r="D4566" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4566" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 14:32:48</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/jobkorea_requirements.xlsx
+++ b/jobkorea_requirements.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4566"/>
+  <dimension ref="A1:E4794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95182,20 +95182,14 @@
       </c>
     </row>
     <row r="4553">
-      <c r="A4553" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4553" t="inlineStr">
-        <is>
-          <t>1000275</t>
-        </is>
-      </c>
-      <c r="C4553" t="inlineStr">
-        <is>
-          <t>47079836</t>
-        </is>
+      <c r="A4553" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4553" t="n">
+        <v>1000275</v>
+      </c>
+      <c r="C4553" t="n">
+        <v>47079836</v>
       </c>
       <c r="D4553" t="inlineStr">
         <is>
@@ -95209,20 +95203,14 @@
       </c>
     </row>
     <row r="4554">
-      <c r="A4554" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4554" t="inlineStr">
-        <is>
-          <t>1000275</t>
-        </is>
-      </c>
-      <c r="C4554" t="inlineStr">
-        <is>
-          <t>47079836</t>
-        </is>
+      <c r="A4554" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4554" t="n">
+        <v>1000275</v>
+      </c>
+      <c r="C4554" t="n">
+        <v>47079836</v>
       </c>
       <c r="D4554" t="inlineStr">
         <is>
@@ -95236,20 +95224,14 @@
       </c>
     </row>
     <row r="4555">
-      <c r="A4555" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4555" t="inlineStr">
-        <is>
-          <t>1000275</t>
-        </is>
-      </c>
-      <c r="C4555" t="inlineStr">
-        <is>
-          <t>47064173</t>
-        </is>
+      <c r="A4555" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4555" t="n">
+        <v>1000275</v>
+      </c>
+      <c r="C4555" t="n">
+        <v>47064173</v>
       </c>
       <c r="D4555" t="inlineStr">
         <is>
@@ -95263,20 +95245,14 @@
       </c>
     </row>
     <row r="4556">
-      <c r="A4556" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4556" t="inlineStr">
-        <is>
-          <t>1000275</t>
-        </is>
-      </c>
-      <c r="C4556" t="inlineStr">
-        <is>
-          <t>47064173</t>
-        </is>
+      <c r="A4556" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4556" t="n">
+        <v>1000275</v>
+      </c>
+      <c r="C4556" t="n">
+        <v>47064173</v>
       </c>
       <c r="D4556" t="inlineStr">
         <is>
@@ -95290,20 +95266,14 @@
       </c>
     </row>
     <row r="4557">
-      <c r="A4557" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4557" t="inlineStr">
-        <is>
-          <t>1000275</t>
-        </is>
-      </c>
-      <c r="C4557" t="inlineStr">
-        <is>
-          <t>46900747</t>
-        </is>
+      <c r="A4557" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4557" t="n">
+        <v>1000275</v>
+      </c>
+      <c r="C4557" t="n">
+        <v>46900747</v>
       </c>
       <c r="D4557" t="inlineStr">
         <is>
@@ -95317,20 +95287,14 @@
       </c>
     </row>
     <row r="4558">
-      <c r="A4558" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4558" t="inlineStr">
-        <is>
-          <t>1000275</t>
-        </is>
-      </c>
-      <c r="C4558" t="inlineStr">
-        <is>
-          <t>46900747</t>
-        </is>
+      <c r="A4558" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4558" t="n">
+        <v>1000275</v>
+      </c>
+      <c r="C4558" t="n">
+        <v>46900747</v>
       </c>
       <c r="D4558" t="inlineStr">
         <is>
@@ -95344,20 +95308,14 @@
       </c>
     </row>
     <row r="4559">
-      <c r="A4559" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4559" t="inlineStr">
-        <is>
-          <t>1000275</t>
-        </is>
-      </c>
-      <c r="C4559" t="inlineStr">
-        <is>
-          <t>46900747</t>
-        </is>
+      <c r="A4559" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4559" t="n">
+        <v>1000275</v>
+      </c>
+      <c r="C4559" t="n">
+        <v>46900747</v>
       </c>
       <c r="D4559" t="inlineStr">
         <is>
@@ -95371,20 +95329,14 @@
       </c>
     </row>
     <row r="4560">
-      <c r="A4560" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4560" t="inlineStr">
-        <is>
-          <t>1000275</t>
-        </is>
-      </c>
-      <c r="C4560" t="inlineStr">
-        <is>
-          <t>46871808</t>
-        </is>
+      <c r="A4560" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4560" t="n">
+        <v>1000275</v>
+      </c>
+      <c r="C4560" t="n">
+        <v>46871808</v>
       </c>
       <c r="D4560" t="inlineStr">
         <is>
@@ -95398,20 +95350,14 @@
       </c>
     </row>
     <row r="4561">
-      <c r="A4561" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4561" t="inlineStr">
-        <is>
-          <t>1000275</t>
-        </is>
-      </c>
-      <c r="C4561" t="inlineStr">
-        <is>
-          <t>46871808</t>
-        </is>
+      <c r="A4561" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4561" t="n">
+        <v>1000275</v>
+      </c>
+      <c r="C4561" t="n">
+        <v>46871808</v>
       </c>
       <c r="D4561" t="inlineStr">
         <is>
@@ -95425,20 +95371,14 @@
       </c>
     </row>
     <row r="4562">
-      <c r="A4562" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4562" t="inlineStr">
-        <is>
-          <t>1000275</t>
-        </is>
-      </c>
-      <c r="C4562" t="inlineStr">
-        <is>
-          <t>46871808</t>
-        </is>
+      <c r="A4562" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4562" t="n">
+        <v>1000275</v>
+      </c>
+      <c r="C4562" t="n">
+        <v>46871808</v>
       </c>
       <c r="D4562" t="inlineStr">
         <is>
@@ -95452,20 +95392,14 @@
       </c>
     </row>
     <row r="4563">
-      <c r="A4563" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4563" t="inlineStr">
-        <is>
-          <t>1000275</t>
-        </is>
-      </c>
-      <c r="C4563" t="inlineStr">
-        <is>
-          <t>46848259</t>
-        </is>
+      <c r="A4563" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4563" t="n">
+        <v>1000275</v>
+      </c>
+      <c r="C4563" t="n">
+        <v>46848259</v>
       </c>
       <c r="D4563" t="inlineStr">
         <is>
@@ -95479,20 +95413,14 @@
       </c>
     </row>
     <row r="4564">
-      <c r="A4564" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4564" t="inlineStr">
-        <is>
-          <t>1000275</t>
-        </is>
-      </c>
-      <c r="C4564" t="inlineStr">
-        <is>
-          <t>46848259</t>
-        </is>
+      <c r="A4564" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4564" t="n">
+        <v>1000275</v>
+      </c>
+      <c r="C4564" t="n">
+        <v>46848259</v>
       </c>
       <c r="D4564" t="inlineStr">
         <is>
@@ -95506,20 +95434,14 @@
       </c>
     </row>
     <row r="4565">
-      <c r="A4565" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4565" t="inlineStr">
-        <is>
-          <t>1000275</t>
-        </is>
-      </c>
-      <c r="C4565" t="inlineStr">
-        <is>
-          <t>46811757</t>
-        </is>
+      <c r="A4565" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4565" t="n">
+        <v>1000275</v>
+      </c>
+      <c r="C4565" t="n">
+        <v>46811757</v>
       </c>
       <c r="D4565" t="inlineStr">
         <is>
@@ -95533,20 +95455,14 @@
       </c>
     </row>
     <row r="4566">
-      <c r="A4566" t="inlineStr">
-        <is>
-          <t>10034</t>
-        </is>
-      </c>
-      <c r="B4566" t="inlineStr">
-        <is>
-          <t>1000275</t>
-        </is>
-      </c>
-      <c r="C4566" t="inlineStr">
-        <is>
-          <t>46811758</t>
-        </is>
+      <c r="A4566" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4566" t="n">
+        <v>1000275</v>
+      </c>
+      <c r="C4566" t="n">
+        <v>46811758</v>
       </c>
       <c r="D4566" t="inlineStr">
         <is>
@@ -95556,6 +95472,4794 @@
       <c r="E4566" t="inlineStr">
         <is>
           <t>2025.06.04 - 14:32:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4567">
+      <c r="A4567" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4567" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4567" t="n">
+        <v>47067649</v>
+      </c>
+      <c r="D4567" t="inlineStr">
+        <is>
+          <t>해기사 6급</t>
+        </is>
+      </c>
+      <c r="E4567" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:09:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="4568">
+      <c r="A4568" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4568" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4568" t="n">
+        <v>47067649</v>
+      </c>
+      <c r="D4568" t="inlineStr">
+        <is>
+          <t>동력수상레저기구 조종면허(요트)</t>
+        </is>
+      </c>
+      <c r="E4568" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:09:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="4569">
+      <c r="A4569" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4569" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4569" t="n">
+        <v>47067649</v>
+      </c>
+      <c r="D4569" t="inlineStr">
+        <is>
+          <t>동력수상레저기구 조종면허(일반조종1급)</t>
+        </is>
+      </c>
+      <c r="E4569" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:09:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="4570">
+      <c r="A4570" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4570" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4570" t="n">
+        <v>47065977</v>
+      </c>
+      <c r="D4570" t="inlineStr">
+        <is>
+          <t>6급항해사</t>
+        </is>
+      </c>
+      <c r="E4570" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:09:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4571">
+      <c r="A4571" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4571" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4571" t="n">
+        <v>47065977</v>
+      </c>
+      <c r="D4571" t="inlineStr">
+        <is>
+          <t>소형선박조종사</t>
+        </is>
+      </c>
+      <c r="E4571" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:09:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4572">
+      <c r="A4572" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4572" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4572" t="n">
+        <v>47056243</v>
+      </c>
+      <c r="D4572" t="inlineStr">
+        <is>
+          <t>사업용조종사</t>
+        </is>
+      </c>
+      <c r="E4572" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:09:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4573">
+      <c r="A4573" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4573" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4573" t="n">
+        <v>47056243</v>
+      </c>
+      <c r="D4573" t="inlineStr">
+        <is>
+          <t>항공무선통신사</t>
+        </is>
+      </c>
+      <c r="E4573" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:09:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4574">
+      <c r="A4574" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4574" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4574" t="n">
+        <v>47054974</v>
+      </c>
+      <c r="D4574" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4574" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:09:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4575">
+      <c r="A4575" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4575" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4575" t="n">
+        <v>47054974</v>
+      </c>
+      <c r="D4575" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4575" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:09:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4576">
+      <c r="A4576" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4576" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4576" t="n">
+        <v>47054974</v>
+      </c>
+      <c r="D4576" t="inlineStr">
+        <is>
+          <t>1종특수운전면허(대형견인차)</t>
+        </is>
+      </c>
+      <c r="E4576" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:09:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4577">
+      <c r="A4577" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4577" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4577" t="n">
+        <v>47048719</v>
+      </c>
+      <c r="D4577" t="inlineStr">
+        <is>
+          <t>1종대형면허</t>
+        </is>
+      </c>
+      <c r="E4577" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:09:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4578">
+      <c r="A4578" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4578" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4578" t="n">
+        <v>47048719</v>
+      </c>
+      <c r="D4578" t="inlineStr">
+        <is>
+          <t>버스운전자격증</t>
+        </is>
+      </c>
+      <c r="E4578" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:09:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4579">
+      <c r="A4579" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4579" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4579" t="n">
+        <v>47038626</v>
+      </c>
+      <c r="D4579" t="inlineStr">
+        <is>
+          <t>항해사</t>
+        </is>
+      </c>
+      <c r="E4579" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:09:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="4580">
+      <c r="A4580" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4580" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4580" t="n">
+        <v>47018167</v>
+      </c>
+      <c r="D4580" t="inlineStr">
+        <is>
+          <t>新 HSK6급</t>
+        </is>
+      </c>
+      <c r="E4580" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4581">
+      <c r="A4581" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4581" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4581" t="n">
+        <v>46950468</v>
+      </c>
+      <c r="D4581" t="inlineStr">
+        <is>
+          <t>지게차운전기능사</t>
+        </is>
+      </c>
+      <c r="E4581" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4582">
+      <c r="A4582" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4582" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4582" t="n">
+        <v>46944109</v>
+      </c>
+      <c r="D4582" t="inlineStr">
+        <is>
+          <t>동력수상레저기구 조종면허(요트)</t>
+        </is>
+      </c>
+      <c r="E4582" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4583">
+      <c r="A4583" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4583" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4583" t="n">
+        <v>46944109</v>
+      </c>
+      <c r="D4583" t="inlineStr">
+        <is>
+          <t>요트먼허</t>
+        </is>
+      </c>
+      <c r="E4583" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4584">
+      <c r="A4584" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4584" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4584" t="n">
+        <v>46944109</v>
+      </c>
+      <c r="D4584" t="inlineStr">
+        <is>
+          <t>인명구조요원</t>
+        </is>
+      </c>
+      <c r="E4584" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4585">
+      <c r="A4585" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4585" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4585" t="n">
+        <v>46939720</v>
+      </c>
+      <c r="D4585" t="inlineStr">
+        <is>
+          <t>요트면허</t>
+        </is>
+      </c>
+      <c r="E4585" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4586">
+      <c r="A4586" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4586" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4586" t="n">
+        <v>46939720</v>
+      </c>
+      <c r="D4586" t="inlineStr">
+        <is>
+          <t>6급항해사</t>
+        </is>
+      </c>
+      <c r="E4586" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4587">
+      <c r="A4587" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4587" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4587" t="n">
+        <v>46939720</v>
+      </c>
+      <c r="D4587" t="inlineStr">
+        <is>
+          <t>인명구조요원</t>
+        </is>
+      </c>
+      <c r="E4587" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4588">
+      <c r="A4588" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4588" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4588" t="n">
+        <v>46935978</v>
+      </c>
+      <c r="D4588" t="inlineStr">
+        <is>
+          <t>소형선박조종사</t>
+        </is>
+      </c>
+      <c r="E4588" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4589">
+      <c r="A4589" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4589" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4589" t="n">
+        <v>46844490</v>
+      </c>
+      <c r="D4589" t="inlineStr">
+        <is>
+          <t>사업용조종사</t>
+        </is>
+      </c>
+      <c r="E4589" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4590">
+      <c r="A4590" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4590" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4590" t="n">
+        <v>46811757</v>
+      </c>
+      <c r="D4590" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4590" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4591">
+      <c r="A4591" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4591" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4591" t="n">
+        <v>46811758</v>
+      </c>
+      <c r="D4591" t="inlineStr">
+        <is>
+          <t>1종대형운전면허</t>
+        </is>
+      </c>
+      <c r="E4591" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="4592">
+      <c r="A4592" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4592" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4592" t="n">
+        <v>46808777</v>
+      </c>
+      <c r="D4592" t="inlineStr">
+        <is>
+          <t>해기사6급</t>
+        </is>
+      </c>
+      <c r="E4592" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="4593">
+      <c r="A4593" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4593" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4593" t="n">
+        <v>46808777</v>
+      </c>
+      <c r="D4593" t="inlineStr">
+        <is>
+          <t>소형선박조종사</t>
+        </is>
+      </c>
+      <c r="E4593" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="4594">
+      <c r="A4594" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4594" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4594" t="n">
+        <v>46808094</v>
+      </c>
+      <c r="D4594" t="inlineStr">
+        <is>
+          <t>항공정비사</t>
+        </is>
+      </c>
+      <c r="E4594" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4595">
+      <c r="A4595" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4595" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4595" t="n">
+        <v>46808094</v>
+      </c>
+      <c r="D4595" t="inlineStr">
+        <is>
+          <t>프로그램머</t>
+        </is>
+      </c>
+      <c r="E4595" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4596">
+      <c r="A4596" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4596" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4596" t="n">
+        <v>46808094</v>
+      </c>
+      <c r="D4596" t="inlineStr">
+        <is>
+          <t>전기전자</t>
+        </is>
+      </c>
+      <c r="E4596" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4597">
+      <c r="A4597" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4597" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4597" t="n">
+        <v>46758166</v>
+      </c>
+      <c r="D4597" t="inlineStr">
+        <is>
+          <t>2급 해기면허</t>
+        </is>
+      </c>
+      <c r="E4597" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="4598">
+      <c r="A4598" t="n">
+        <v>10034</v>
+      </c>
+      <c r="B4598" t="n">
+        <v>1000276</v>
+      </c>
+      <c r="C4598" t="n">
+        <v>46758155</v>
+      </c>
+      <c r="D4598" t="inlineStr">
+        <is>
+          <t>2급 해기면허</t>
+        </is>
+      </c>
+      <c r="E4598" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:10:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4599">
+      <c r="A4599" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4599" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4599" t="n">
+        <v>47083685</v>
+      </c>
+      <c r="D4599" t="inlineStr">
+        <is>
+          <t>경영지도사</t>
+        </is>
+      </c>
+      <c r="E4599" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:17:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="4600">
+      <c r="A4600" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4600" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4600" t="n">
+        <v>47083685</v>
+      </c>
+      <c r="D4600" t="inlineStr">
+        <is>
+          <t>공인노무사</t>
+        </is>
+      </c>
+      <c r="E4600" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:17:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="4601">
+      <c r="A4601" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4601" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4601" t="n">
+        <v>47083685</v>
+      </c>
+      <c r="D4601" t="inlineStr">
+        <is>
+          <t>변리사</t>
+        </is>
+      </c>
+      <c r="E4601" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:17:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="4602">
+      <c r="A4602" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4602" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4602" t="n">
+        <v>47083000</v>
+      </c>
+      <c r="D4602" t="inlineStr">
+        <is>
+          <t>공인회계사</t>
+        </is>
+      </c>
+      <c r="E4602" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:19:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="4603">
+      <c r="A4603" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4603" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4603" t="n">
+        <v>47083000</v>
+      </c>
+      <c r="D4603" t="inlineStr">
+        <is>
+          <t>공인노무사</t>
+        </is>
+      </c>
+      <c r="E4603" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:19:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="4604">
+      <c r="A4604" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4604" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4604" t="n">
+        <v>47083000</v>
+      </c>
+      <c r="D4604" t="inlineStr">
+        <is>
+          <t>변리사</t>
+        </is>
+      </c>
+      <c r="E4604" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:19:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="4605">
+      <c r="A4605" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4605" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4605" t="n">
+        <v>47081977</v>
+      </c>
+      <c r="D4605" t="inlineStr">
+        <is>
+          <t>직업상담사 2급</t>
+        </is>
+      </c>
+      <c r="E4605" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4606">
+      <c r="A4606" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4606" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4606" t="n">
+        <v>47081352</v>
+      </c>
+      <c r="D4606" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4606" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="4607">
+      <c r="A4607" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4607" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4607" t="n">
+        <v>47081352</v>
+      </c>
+      <c r="D4607" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4607" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="4608">
+      <c r="A4608" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4608" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4608" t="n">
+        <v>47080881</v>
+      </c>
+      <c r="D4608" t="inlineStr">
+        <is>
+          <t>호텔서비스사</t>
+        </is>
+      </c>
+      <c r="E4608" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="4609">
+      <c r="A4609" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4609" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4609" t="n">
+        <v>47079979</v>
+      </c>
+      <c r="D4609" t="inlineStr">
+        <is>
+          <t>공인중개사</t>
+        </is>
+      </c>
+      <c r="E4609" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4610">
+      <c r="A4610" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4610" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4610" t="n">
+        <v>47079844</v>
+      </c>
+      <c r="D4610" t="inlineStr">
+        <is>
+          <t>CCIE</t>
+        </is>
+      </c>
+      <c r="E4610" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:23:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4611">
+      <c r="A4611" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4611" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4611" t="n">
+        <v>47079844</v>
+      </c>
+      <c r="D4611" t="inlineStr">
+        <is>
+          <t>CCNP</t>
+        </is>
+      </c>
+      <c r="E4611" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:23:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4612">
+      <c r="A4612" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4612" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4612" t="n">
+        <v>47079844</v>
+      </c>
+      <c r="D4612" t="inlineStr">
+        <is>
+          <t>CCNA</t>
+        </is>
+      </c>
+      <c r="E4612" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:23:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4613">
+      <c r="A4613" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4613" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4613" t="n">
+        <v>47079453</v>
+      </c>
+      <c r="D4613" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4613" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="4614">
+      <c r="A4614" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4614" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4614" t="n">
+        <v>47079283</v>
+      </c>
+      <c r="D4614" t="inlineStr">
+        <is>
+          <t>전산회계 1급</t>
+        </is>
+      </c>
+      <c r="E4614" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4615">
+      <c r="A4615" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4615" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4615" t="n">
+        <v>47079283</v>
+      </c>
+      <c r="D4615" t="inlineStr">
+        <is>
+          <t>ITQ 한글파워포인트</t>
+        </is>
+      </c>
+      <c r="E4615" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4616">
+      <c r="A4616" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4616" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4616" t="n">
+        <v>47079113</v>
+      </c>
+      <c r="D4616" t="inlineStr">
+        <is>
+          <t>영양사</t>
+        </is>
+      </c>
+      <c r="E4616" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4617">
+      <c r="A4617" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4617" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4617" t="n">
+        <v>47077802</v>
+      </c>
+      <c r="D4617" t="inlineStr">
+        <is>
+          <t>경영지도사</t>
+        </is>
+      </c>
+      <c r="E4617" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:26:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="4618">
+      <c r="A4618" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4618" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4618" t="n">
+        <v>47077802</v>
+      </c>
+      <c r="D4618" t="inlineStr">
+        <is>
+          <t>공인노무사</t>
+        </is>
+      </c>
+      <c r="E4618" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:26:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="4619">
+      <c r="A4619" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4619" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4619" t="n">
+        <v>47077802</v>
+      </c>
+      <c r="D4619" t="inlineStr">
+        <is>
+          <t>변리사</t>
+        </is>
+      </c>
+      <c r="E4619" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:26:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="4620">
+      <c r="A4620" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4620" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4620" t="n">
+        <v>47077667</v>
+      </c>
+      <c r="D4620" t="inlineStr">
+        <is>
+          <t>손해사정사</t>
+        </is>
+      </c>
+      <c r="E4620" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:26:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="4621">
+      <c r="A4621" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4621" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4621" t="n">
+        <v>47076045</v>
+      </c>
+      <c r="D4621" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀</t>
+        </is>
+      </c>
+      <c r="E4621" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:28:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="4622">
+      <c r="A4622" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4622" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4622" t="n">
+        <v>47076045</v>
+      </c>
+      <c r="D4622" t="inlineStr">
+        <is>
+          <t>ACA Photoshop</t>
+        </is>
+      </c>
+      <c r="E4622" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:28:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="4623">
+      <c r="A4623" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4623" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4623" t="n">
+        <v>47076045</v>
+      </c>
+      <c r="D4623" t="inlineStr">
+        <is>
+          <t>GTQi(그래픽기술자격 일러스트) 1급</t>
+        </is>
+      </c>
+      <c r="E4623" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:28:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="4624">
+      <c r="A4624" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4624" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4624" t="n">
+        <v>47075998</v>
+      </c>
+      <c r="D4624" t="inlineStr">
+        <is>
+          <t>신용관리사</t>
+        </is>
+      </c>
+      <c r="E4624" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:28:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4625">
+      <c r="A4625" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4625" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4625" t="n">
+        <v>47075998</v>
+      </c>
+      <c r="D4625" t="inlineStr">
+        <is>
+          <t>대부관리사</t>
+        </is>
+      </c>
+      <c r="E4625" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:28:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4626">
+      <c r="A4626" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4626" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4626" t="n">
+        <v>47075957</v>
+      </c>
+      <c r="D4626" t="inlineStr">
+        <is>
+          <t>신용관리사</t>
+        </is>
+      </c>
+      <c r="E4626" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:29:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4627">
+      <c r="A4627" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4627" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4627" t="n">
+        <v>47075957</v>
+      </c>
+      <c r="D4627" t="inlineStr">
+        <is>
+          <t>대부관리사</t>
+        </is>
+      </c>
+      <c r="E4627" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:29:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4628">
+      <c r="A4628" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4628" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4628" t="n">
+        <v>47075689</v>
+      </c>
+      <c r="D4628" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4628" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:29:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4629">
+      <c r="A4629" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4629" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4629" t="n">
+        <v>47075138</v>
+      </c>
+      <c r="D4629" t="inlineStr">
+        <is>
+          <t>관련 자격증 보유자</t>
+        </is>
+      </c>
+      <c r="E4629" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:30:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4630">
+      <c r="A4630" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4630" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4630" t="n">
+        <v>47074149</v>
+      </c>
+      <c r="D4630" t="inlineStr">
+        <is>
+          <t>TOPIK(한국어능력시험)6급</t>
+        </is>
+      </c>
+      <c r="E4630" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:32:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4631">
+      <c r="A4631" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4631" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4631" t="n">
+        <v>47072729</v>
+      </c>
+      <c r="D4631" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4631" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:34:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4632">
+      <c r="A4632" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4632" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4632" t="n">
+        <v>47072695</v>
+      </c>
+      <c r="D4632" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4632" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:34:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="4633">
+      <c r="A4633" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4633" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4633" t="n">
+        <v>47072699</v>
+      </c>
+      <c r="D4633" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4633" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:34:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="4634">
+      <c r="A4634" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4634" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4634" t="n">
+        <v>47072708</v>
+      </c>
+      <c r="D4634" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4634" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:34:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4635">
+      <c r="A4635" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4635" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4635" t="n">
+        <v>47072653</v>
+      </c>
+      <c r="D4635" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4635" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:34:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="4636">
+      <c r="A4636" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4636" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4636" t="n">
+        <v>47072659</v>
+      </c>
+      <c r="D4636" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4636" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:34:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="4637">
+      <c r="A4637" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4637" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4637" t="n">
+        <v>47072671</v>
+      </c>
+      <c r="D4637" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4637" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="4638">
+      <c r="A4638" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4638" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4638" t="n">
+        <v>47072680</v>
+      </c>
+      <c r="D4638" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4638" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:35:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4639">
+      <c r="A4639" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4639" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4639" t="n">
+        <v>47072685</v>
+      </c>
+      <c r="D4639" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4639" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:35:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4640">
+      <c r="A4640" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4640" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4640" t="n">
+        <v>47072613</v>
+      </c>
+      <c r="D4640" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4640" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:35:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4641">
+      <c r="A4641" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4641" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4641" t="n">
+        <v>47072598</v>
+      </c>
+      <c r="D4641" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4641" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:35:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4642">
+      <c r="A4642" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4642" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4642" t="n">
+        <v>47072564</v>
+      </c>
+      <c r="D4642" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4642" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:35:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4643">
+      <c r="A4643" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4643" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4643" t="n">
+        <v>47072558</v>
+      </c>
+      <c r="D4643" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4643" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:35:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4644">
+      <c r="A4644" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4644" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4644" t="n">
+        <v>47072549</v>
+      </c>
+      <c r="D4644" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4644" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:35:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4645">
+      <c r="A4645" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4645" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4645" t="n">
+        <v>47072593</v>
+      </c>
+      <c r="D4645" t="inlineStr">
+        <is>
+          <t>중국어</t>
+        </is>
+      </c>
+      <c r="E4645" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:35:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="4646">
+      <c r="A4646" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4646" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4646" t="n">
+        <v>47072539</v>
+      </c>
+      <c r="D4646" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4646" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:35:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4647">
+      <c r="A4647" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4647" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4647" t="n">
+        <v>47072522</v>
+      </c>
+      <c r="D4647" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4647" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4648">
+      <c r="A4648" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4648" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4648" t="n">
+        <v>47072503</v>
+      </c>
+      <c r="D4648" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4648" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:35:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="4649">
+      <c r="A4649" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4649" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4649" t="n">
+        <v>47072487</v>
+      </c>
+      <c r="D4649" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4649" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:35:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="4650">
+      <c r="A4650" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4650" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4650" t="n">
+        <v>47072476</v>
+      </c>
+      <c r="D4650" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4650" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:35:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="4651">
+      <c r="A4651" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4651" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4651" t="n">
+        <v>47071527</v>
+      </c>
+      <c r="D4651" t="inlineStr">
+        <is>
+          <t>병원코디네이터 1급</t>
+        </is>
+      </c>
+      <c r="E4651" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:37:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4652">
+      <c r="A4652" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4652" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4652" t="n">
+        <v>47071527</v>
+      </c>
+      <c r="D4652" t="inlineStr">
+        <is>
+          <t>병원코디네이터 1급</t>
+        </is>
+      </c>
+      <c r="E4652" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:45:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="4653">
+      <c r="A4653" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4653" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4653" t="n">
+        <v>47071247</v>
+      </c>
+      <c r="D4653" t="inlineStr">
+        <is>
+          <t>6급항해사</t>
+        </is>
+      </c>
+      <c r="E4653" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:45:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="4654">
+      <c r="A4654" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4654" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4654" t="n">
+        <v>47071247</v>
+      </c>
+      <c r="D4654" t="inlineStr">
+        <is>
+          <t>소형선박조종사</t>
+        </is>
+      </c>
+      <c r="E4654" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:45:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="4655">
+      <c r="A4655" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4655" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4655" t="n">
+        <v>47069804</v>
+      </c>
+      <c r="D4655" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4655" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:47:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4656">
+      <c r="A4656" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4656" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4656" t="n">
+        <v>47069778</v>
+      </c>
+      <c r="D4656" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4656" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:47:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4657">
+      <c r="A4657" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4657" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4657" t="n">
+        <v>47068741</v>
+      </c>
+      <c r="D4657" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4657" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:49:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4658">
+      <c r="A4658" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4658" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4658" t="n">
+        <v>47068741</v>
+      </c>
+      <c r="D4658" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4658" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:49:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4659">
+      <c r="A4659" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4659" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4659" t="n">
+        <v>47068802</v>
+      </c>
+      <c r="D4659" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4659" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:49:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4660">
+      <c r="A4660" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4660" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4660" t="n">
+        <v>47029493</v>
+      </c>
+      <c r="D4660" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4660" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:51:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="4661">
+      <c r="A4661" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4661" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4661" t="n">
+        <v>47066386</v>
+      </c>
+      <c r="D4661" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4661" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:54:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4662">
+      <c r="A4662" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4662" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4662" t="n">
+        <v>47065211</v>
+      </c>
+      <c r="D4662" t="inlineStr">
+        <is>
+          <t>CS Leaders(관리사)</t>
+        </is>
+      </c>
+      <c r="E4662" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:54:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="4663">
+      <c r="A4663" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4663" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4663" t="n">
+        <v>47065211</v>
+      </c>
+      <c r="D4663" t="inlineStr">
+        <is>
+          <t>CS관리사 1급</t>
+        </is>
+      </c>
+      <c r="E4663" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:54:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="4664">
+      <c r="A4664" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4664" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4664" t="n">
+        <v>47065211</v>
+      </c>
+      <c r="D4664" t="inlineStr">
+        <is>
+          <t>CS관리사 2급</t>
+        </is>
+      </c>
+      <c r="E4664" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:54:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="4665">
+      <c r="A4665" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4665" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4665" t="n">
+        <v>47063914</v>
+      </c>
+      <c r="D4665" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4665" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:57:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4666">
+      <c r="A4666" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4666" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4666" t="n">
+        <v>47063056</v>
+      </c>
+      <c r="D4666" t="inlineStr">
+        <is>
+          <t>운전면허</t>
+        </is>
+      </c>
+      <c r="E4666" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:58:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4667">
+      <c r="A4667" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4667" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4667" t="n">
+        <v>47062827</v>
+      </c>
+      <c r="D4667" t="inlineStr">
+        <is>
+          <t>자동차정비기능사</t>
+        </is>
+      </c>
+      <c r="E4667" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 15:58:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="4668">
+      <c r="A4668" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4668" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4668" t="n">
+        <v>47061193</v>
+      </c>
+      <c r="D4668" t="inlineStr">
+        <is>
+          <t>교류분석 상담사 자격증 우대</t>
+        </is>
+      </c>
+      <c r="E4668" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:00:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="4669">
+      <c r="A4669" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4669" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4669" t="n">
+        <v>47061107</v>
+      </c>
+      <c r="D4669" t="inlineStr">
+        <is>
+          <t>정보처리기능사</t>
+        </is>
+      </c>
+      <c r="E4669" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:00:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="4670">
+      <c r="A4670" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4670" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4670" t="n">
+        <v>47061107</v>
+      </c>
+      <c r="D4670" t="inlineStr">
+        <is>
+          <t>정보처리산업기사</t>
+        </is>
+      </c>
+      <c r="E4670" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:00:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="4671">
+      <c r="A4671" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4671" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4671" t="n">
+        <v>47061107</v>
+      </c>
+      <c r="D4671" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E4671" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:00:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="4672">
+      <c r="A4672" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4672" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4672" t="n">
+        <v>47058770</v>
+      </c>
+      <c r="D4672" t="inlineStr">
+        <is>
+          <t>GTQ 1급</t>
+        </is>
+      </c>
+      <c r="E4672" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:03:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4673">
+      <c r="A4673" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4673" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4673" t="n">
+        <v>47058770</v>
+      </c>
+      <c r="D4673" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4673" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:03:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4674">
+      <c r="A4674" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4674" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4674" t="n">
+        <v>47057979</v>
+      </c>
+      <c r="D4674" t="inlineStr">
+        <is>
+          <t>간호조무사</t>
+        </is>
+      </c>
+      <c r="E4674" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:04:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="4675">
+      <c r="A4675" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4675" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4675" t="n">
+        <v>47057979</v>
+      </c>
+      <c r="D4675" t="inlineStr">
+        <is>
+          <t>간호조무사</t>
+        </is>
+      </c>
+      <c r="E4675" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:07:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4676">
+      <c r="A4676" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4676" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4676" t="n">
+        <v>47056214</v>
+      </c>
+      <c r="D4676" t="inlineStr">
+        <is>
+          <t>운전면허</t>
+        </is>
+      </c>
+      <c r="E4676" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:09:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4677">
+      <c r="A4677" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4677" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4677" t="n">
+        <v>47054118</v>
+      </c>
+      <c r="D4677" t="inlineStr">
+        <is>
+          <t>CS Leaders(관리사)</t>
+        </is>
+      </c>
+      <c r="E4677" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:11:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4678">
+      <c r="A4678" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4678" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4678" t="n">
+        <v>47054118</v>
+      </c>
+      <c r="D4678" t="inlineStr">
+        <is>
+          <t>텔레마케팅관리사</t>
+        </is>
+      </c>
+      <c r="E4678" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:11:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4679">
+      <c r="A4679" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4679" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4679" t="n">
+        <v>47054052</v>
+      </c>
+      <c r="D4679" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4679" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:11:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4680">
+      <c r="A4680" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4680" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4680" t="n">
+        <v>47044525</v>
+      </c>
+      <c r="D4680" t="inlineStr">
+        <is>
+          <t>유통관리사</t>
+        </is>
+      </c>
+      <c r="E4680" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="4681">
+      <c r="A4681" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4681" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4681" t="n">
+        <v>47044525</v>
+      </c>
+      <c r="D4681" t="inlineStr">
+        <is>
+          <t>청각사</t>
+        </is>
+      </c>
+      <c r="E4681" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="4682">
+      <c r="A4682" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4682" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4682" t="n">
+        <v>47044525</v>
+      </c>
+      <c r="D4682" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4682" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="4683">
+      <c r="A4683" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4683" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4683" t="n">
+        <v>47052140</v>
+      </c>
+      <c r="D4683" t="inlineStr">
+        <is>
+          <t>호텔관리사</t>
+        </is>
+      </c>
+      <c r="E4683" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:14:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4684">
+      <c r="A4684" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4684" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4684" t="n">
+        <v>47052140</v>
+      </c>
+      <c r="D4684" t="inlineStr">
+        <is>
+          <t>호텔서비스사</t>
+        </is>
+      </c>
+      <c r="E4684" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:14:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4685">
+      <c r="A4685" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4685" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4685" t="n">
+        <v>47052120</v>
+      </c>
+      <c r="D4685" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4685" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:14:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4686">
+      <c r="A4686" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4686" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4686" t="n">
+        <v>47051902</v>
+      </c>
+      <c r="D4686" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4686" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:14:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="4687">
+      <c r="A4687" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4687" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4687" t="n">
+        <v>47051568</v>
+      </c>
+      <c r="D4687" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4687" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:14:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="4688">
+      <c r="A4688" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4688" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4688" t="n">
+        <v>47050685</v>
+      </c>
+      <c r="D4688" t="inlineStr">
+        <is>
+          <t>사회복지사2급</t>
+        </is>
+      </c>
+      <c r="E4688" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:15:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4689">
+      <c r="A4689" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4689" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4689" t="n">
+        <v>47050685</v>
+      </c>
+      <c r="D4689" t="inlineStr">
+        <is>
+          <t>평생교육사 2급</t>
+        </is>
+      </c>
+      <c r="E4689" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:15:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4690">
+      <c r="A4690" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4690" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4690" t="n">
+        <v>47049521</v>
+      </c>
+      <c r="D4690" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4690" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4691">
+      <c r="A4691" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4691" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4691" t="n">
+        <v>47049500</v>
+      </c>
+      <c r="D4691" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4691" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="4692">
+      <c r="A4692" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4692" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4692" t="n">
+        <v>47049349</v>
+      </c>
+      <c r="D4692" t="inlineStr">
+        <is>
+          <t>필라테스자격증</t>
+        </is>
+      </c>
+      <c r="E4692" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:17:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4693">
+      <c r="A4693" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4693" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4693" t="n">
+        <v>47049349</v>
+      </c>
+      <c r="D4693" t="inlineStr">
+        <is>
+          <t>요가자격증</t>
+        </is>
+      </c>
+      <c r="E4693" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:17:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4694">
+      <c r="A4694" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4694" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4694" t="n">
+        <v>47049191</v>
+      </c>
+      <c r="D4694" t="inlineStr">
+        <is>
+          <t>미용사</t>
+        </is>
+      </c>
+      <c r="E4694" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="4695">
+      <c r="A4695" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4695" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4695" t="n">
+        <v>47049191</v>
+      </c>
+      <c r="D4695" t="inlineStr">
+        <is>
+          <t>피부관리사</t>
+        </is>
+      </c>
+      <c r="E4695" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="4696">
+      <c r="A4696" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4696" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4696" t="n">
+        <v>47047628</v>
+      </c>
+      <c r="D4696" t="inlineStr">
+        <is>
+          <t>정보기술자격(ITQ)인증시험</t>
+        </is>
+      </c>
+      <c r="E4696" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4697">
+      <c r="A4697" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4697" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4697" t="n">
+        <v>47047628</v>
+      </c>
+      <c r="D4697" t="inlineStr">
+        <is>
+          <t>GTQ 2급</t>
+        </is>
+      </c>
+      <c r="E4697" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4698">
+      <c r="A4698" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4698" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4698" t="n">
+        <v>47047628</v>
+      </c>
+      <c r="D4698" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E4698" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4699">
+      <c r="A4699" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4699" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4699" t="n">
+        <v>47043554</v>
+      </c>
+      <c r="D4699" t="inlineStr">
+        <is>
+          <t>직업상담사 1급</t>
+        </is>
+      </c>
+      <c r="E4699" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:21:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4700">
+      <c r="A4700" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4700" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4700" t="n">
+        <v>47043554</v>
+      </c>
+      <c r="D4700" t="inlineStr">
+        <is>
+          <t>직업상담사 2급</t>
+        </is>
+      </c>
+      <c r="E4700" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:21:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4701">
+      <c r="A4701" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4701" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4701" t="n">
+        <v>47045001</v>
+      </c>
+      <c r="D4701" t="inlineStr">
+        <is>
+          <t>피부관리사</t>
+        </is>
+      </c>
+      <c r="E4701" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:22:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4702">
+      <c r="A4702" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4702" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4702" t="n">
+        <v>47045001</v>
+      </c>
+      <c r="D4702" t="inlineStr">
+        <is>
+          <t>간호조무사</t>
+        </is>
+      </c>
+      <c r="E4702" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:22:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4703">
+      <c r="A4703" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4703" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4703" t="n">
+        <v>47045001</v>
+      </c>
+      <c r="D4703" t="inlineStr">
+        <is>
+          <t>코디네이터</t>
+        </is>
+      </c>
+      <c r="E4703" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:22:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4704">
+      <c r="A4704" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4704" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4704" t="n">
+        <v>47044423</v>
+      </c>
+      <c r="D4704" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E4704" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:23:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4705">
+      <c r="A4705" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4705" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4705" t="n">
+        <v>47044423</v>
+      </c>
+      <c r="D4705" t="inlineStr">
+        <is>
+          <t>전산회계 2급</t>
+        </is>
+      </c>
+      <c r="E4705" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:23:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4706">
+      <c r="A4706" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4706" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4706" t="n">
+        <v>47044423</v>
+      </c>
+      <c r="D4706" t="inlineStr">
+        <is>
+          <t>전산회계 1급</t>
+        </is>
+      </c>
+      <c r="E4706" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:23:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4707">
+      <c r="A4707" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4707" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4707" t="n">
+        <v>47044281</v>
+      </c>
+      <c r="D4707" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4707" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:23:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4708">
+      <c r="A4708" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4708" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4708" t="n">
+        <v>47044281</v>
+      </c>
+      <c r="D4708" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4708" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:23:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4709">
+      <c r="A4709" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4709" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4709" t="n">
+        <v>47043848</v>
+      </c>
+      <c r="D4709" t="inlineStr">
+        <is>
+          <t>소비자전문상담사2급</t>
+        </is>
+      </c>
+      <c r="E4709" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4710">
+      <c r="A4710" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4710" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4710" t="n">
+        <v>47041126</v>
+      </c>
+      <c r="D4710" t="inlineStr">
+        <is>
+          <t>자동차정비기능사</t>
+        </is>
+      </c>
+      <c r="E4710" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:25:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4711">
+      <c r="A4711" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4711" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4711" t="n">
+        <v>47041126</v>
+      </c>
+      <c r="D4711" t="inlineStr">
+        <is>
+          <t>자동차정비기능장</t>
+        </is>
+      </c>
+      <c r="E4711" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:25:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4712">
+      <c r="A4712" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4712" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4712" t="n">
+        <v>47041126</v>
+      </c>
+      <c r="D4712" t="inlineStr">
+        <is>
+          <t>자동차정비기사</t>
+        </is>
+      </c>
+      <c r="E4712" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:25:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4713">
+      <c r="A4713" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4713" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4713" t="n">
+        <v>47040894</v>
+      </c>
+      <c r="D4713" t="inlineStr">
+        <is>
+          <t>자동차정비기능사</t>
+        </is>
+      </c>
+      <c r="E4713" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:25:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4714">
+      <c r="A4714" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4714" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4714" t="n">
+        <v>47040894</v>
+      </c>
+      <c r="D4714" t="inlineStr">
+        <is>
+          <t>자동차정비기능장</t>
+        </is>
+      </c>
+      <c r="E4714" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:25:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4715">
+      <c r="A4715" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4715" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4715" t="n">
+        <v>47040894</v>
+      </c>
+      <c r="D4715" t="inlineStr">
+        <is>
+          <t>자동차정비기사</t>
+        </is>
+      </c>
+      <c r="E4715" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:25:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4716">
+      <c r="A4716" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4716" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4716" t="n">
+        <v>47041885</v>
+      </c>
+      <c r="D4716" t="inlineStr">
+        <is>
+          <t>간호조무사</t>
+        </is>
+      </c>
+      <c r="E4716" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:26:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4717">
+      <c r="A4717" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4717" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4717" t="n">
+        <v>47041885</v>
+      </c>
+      <c r="D4717" t="inlineStr">
+        <is>
+          <t>피부관리사</t>
+        </is>
+      </c>
+      <c r="E4717" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:26:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4718">
+      <c r="A4718" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4718" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4718" t="n">
+        <v>47041885</v>
+      </c>
+      <c r="D4718" t="inlineStr">
+        <is>
+          <t>간호조무사</t>
+        </is>
+      </c>
+      <c r="E4718" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:34:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4719">
+      <c r="A4719" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4719" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4719" t="n">
+        <v>47041885</v>
+      </c>
+      <c r="D4719" t="inlineStr">
+        <is>
+          <t>피부관리사</t>
+        </is>
+      </c>
+      <c r="E4719" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:34:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4720">
+      <c r="A4720" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4720" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4720" t="n">
+        <v>47039601</v>
+      </c>
+      <c r="D4720" t="inlineStr">
+        <is>
+          <t>간호조무사</t>
+        </is>
+      </c>
+      <c r="E4720" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:36:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4721">
+      <c r="A4721" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4721" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4721" t="n">
+        <v>47039064</v>
+      </c>
+      <c r="D4721" t="inlineStr">
+        <is>
+          <t>TOEIC</t>
+        </is>
+      </c>
+      <c r="E4721" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:37:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4722">
+      <c r="A4722" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4722" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4722" t="n">
+        <v>47039064</v>
+      </c>
+      <c r="D4722" t="inlineStr">
+        <is>
+          <t>TOEIC Speaking</t>
+        </is>
+      </c>
+      <c r="E4722" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:37:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4723">
+      <c r="A4723" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4723" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4723" t="n">
+        <v>47037959</v>
+      </c>
+      <c r="D4723" t="inlineStr">
+        <is>
+          <t>간호조무사</t>
+        </is>
+      </c>
+      <c r="E4723" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:37:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4724">
+      <c r="A4724" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4724" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4724" t="n">
+        <v>47037959</v>
+      </c>
+      <c r="D4724" t="inlineStr">
+        <is>
+          <t>피부관리사</t>
+        </is>
+      </c>
+      <c r="E4724" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:37:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4725">
+      <c r="A4725" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4725" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4725" t="n">
+        <v>47036180</v>
+      </c>
+      <c r="D4725" t="inlineStr">
+        <is>
+          <t>전산회계 1급</t>
+        </is>
+      </c>
+      <c r="E4725" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:40:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="4726">
+      <c r="A4726" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4726" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4726" t="n">
+        <v>47036180</v>
+      </c>
+      <c r="D4726" t="inlineStr">
+        <is>
+          <t>전산세무 2급</t>
+        </is>
+      </c>
+      <c r="E4726" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:40:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="4727">
+      <c r="A4727" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4727" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4727" t="n">
+        <v>47036180</v>
+      </c>
+      <c r="D4727" t="inlineStr">
+        <is>
+          <t>재경관리사</t>
+        </is>
+      </c>
+      <c r="E4727" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:40:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="4728">
+      <c r="A4728" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4728" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4728" t="n">
+        <v>47034290</v>
+      </c>
+      <c r="D4728" t="inlineStr">
+        <is>
+          <t>간호사</t>
+        </is>
+      </c>
+      <c r="E4728" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:41:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4729">
+      <c r="A4729" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4729" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4729" t="n">
+        <v>47035117</v>
+      </c>
+      <c r="D4729" t="inlineStr">
+        <is>
+          <t>Barista Skills Foundation</t>
+        </is>
+      </c>
+      <c r="E4729" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:41:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="4730">
+      <c r="A4730" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4730" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4730" t="n">
+        <v>47035117</v>
+      </c>
+      <c r="D4730" t="inlineStr">
+        <is>
+          <t>Barista Skills Intermediate</t>
+        </is>
+      </c>
+      <c r="E4730" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:41:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="4731">
+      <c r="A4731" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4731" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4731" t="n">
+        <v>47035117</v>
+      </c>
+      <c r="D4731" t="inlineStr">
+        <is>
+          <t>제과기능사</t>
+        </is>
+      </c>
+      <c r="E4731" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:41:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="4732">
+      <c r="A4732" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4732" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4732" t="n">
+        <v>47034567</v>
+      </c>
+      <c r="D4732" t="inlineStr">
+        <is>
+          <t>디자인자격증</t>
+        </is>
+      </c>
+      <c r="E4732" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:42:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4733">
+      <c r="A4733" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4733" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4733" t="n">
+        <v>47034567</v>
+      </c>
+      <c r="D4733" t="inlineStr">
+        <is>
+          <t>상담</t>
+        </is>
+      </c>
+      <c r="E4733" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:42:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4734">
+      <c r="A4734" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4734" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4734" t="n">
+        <v>47034567</v>
+      </c>
+      <c r="D4734" t="inlineStr">
+        <is>
+          <t>심리상담</t>
+        </is>
+      </c>
+      <c r="E4734" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:42:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4735">
+      <c r="A4735" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4735" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4735" t="n">
+        <v>47033184</v>
+      </c>
+      <c r="D4735" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4735" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:44:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="4736">
+      <c r="A4736" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4736" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4736" t="n">
+        <v>47031571</v>
+      </c>
+      <c r="D4736" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E4736" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:44:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4737">
+      <c r="A4737" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4737" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4737" t="n">
+        <v>47031571</v>
+      </c>
+      <c r="D4737" t="inlineStr">
+        <is>
+          <t>정보처리기사</t>
+        </is>
+      </c>
+      <c r="E4737" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:44:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4738">
+      <c r="A4738" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4738" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4738" t="n">
+        <v>47031571</v>
+      </c>
+      <c r="D4738" t="inlineStr">
+        <is>
+          <t>사무자동화산업기사</t>
+        </is>
+      </c>
+      <c r="E4738" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:44:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4739">
+      <c r="A4739" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4739" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4739" t="n">
+        <v>47031415</v>
+      </c>
+      <c r="D4739" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E4739" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:45:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="4740">
+      <c r="A4740" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4740" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4740" t="n">
+        <v>47031396</v>
+      </c>
+      <c r="D4740" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E4740" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:45:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="4741">
+      <c r="A4741" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4741" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4741" t="n">
+        <v>47031357</v>
+      </c>
+      <c r="D4741" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E4741" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 16:45:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4742">
+      <c r="A4742" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4742" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4742" t="n">
+        <v>47022044</v>
+      </c>
+      <c r="D4742" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4742" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:19:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4743">
+      <c r="A4743" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4743" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4743" t="n">
+        <v>47018836</v>
+      </c>
+      <c r="D4743" t="inlineStr">
+        <is>
+          <t>간호조무사</t>
+        </is>
+      </c>
+      <c r="E4743" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4744">
+      <c r="A4744" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4744" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4744" t="n">
+        <v>47018836</v>
+      </c>
+      <c r="D4744" t="inlineStr">
+        <is>
+          <t>CS강사</t>
+        </is>
+      </c>
+      <c r="E4744" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4745">
+      <c r="A4745" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4745" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4745" t="n">
+        <v>47018673</v>
+      </c>
+      <c r="D4745" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4745" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:22:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="4746">
+      <c r="A4746" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4746" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4746" t="n">
+        <v>47017782</v>
+      </c>
+      <c r="D4746" t="inlineStr">
+        <is>
+          <t>간호면허</t>
+        </is>
+      </c>
+      <c r="E4746" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4747">
+      <c r="A4747" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4747" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4747" t="n">
+        <v>47016840</v>
+      </c>
+      <c r="D4747" t="inlineStr">
+        <is>
+          <t>코디네이터</t>
+        </is>
+      </c>
+      <c r="E4747" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:23:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="4748">
+      <c r="A4748" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4748" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4748" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D4748" t="inlineStr">
+        <is>
+          <t>CIA(국제공인내부감사사)</t>
+        </is>
+      </c>
+      <c r="E4748" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4749">
+      <c r="A4749" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4749" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4749" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D4749" t="inlineStr">
+        <is>
+          <t>CISA(국제공인정보시스템감사사)</t>
+        </is>
+      </c>
+      <c r="E4749" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4750">
+      <c r="A4750" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4750" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4750" t="n">
+        <v>46999255</v>
+      </c>
+      <c r="D4750" t="inlineStr">
+        <is>
+          <t>정보보안기사</t>
+        </is>
+      </c>
+      <c r="E4750" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4751">
+      <c r="A4751" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4751" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4751" t="n">
+        <v>47016117</v>
+      </c>
+      <c r="D4751" t="inlineStr">
+        <is>
+          <t>MOS</t>
+        </is>
+      </c>
+      <c r="E4751" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4752">
+      <c r="A4752" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4752" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4752" t="n">
+        <v>47016117</v>
+      </c>
+      <c r="D4752" t="inlineStr">
+        <is>
+          <t>MOS Word</t>
+        </is>
+      </c>
+      <c r="E4752" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4753">
+      <c r="A4753" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4753" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4753" t="n">
+        <v>47016117</v>
+      </c>
+      <c r="D4753" t="inlineStr">
+        <is>
+          <t>워드프로세서 1급</t>
+        </is>
+      </c>
+      <c r="E4753" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4754">
+      <c r="A4754" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4754" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4754" t="n">
+        <v>47014644</v>
+      </c>
+      <c r="D4754" t="inlineStr">
+        <is>
+          <t>운전면허증</t>
+        </is>
+      </c>
+      <c r="E4754" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:25:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="4755">
+      <c r="A4755" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4755" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4755" t="n">
+        <v>47014581</v>
+      </c>
+      <c r="D4755" t="inlineStr">
+        <is>
+          <t>운전면허증</t>
+        </is>
+      </c>
+      <c r="E4755" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:25:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="4756">
+      <c r="A4756" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4756" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4756" t="n">
+        <v>47013429</v>
+      </c>
+      <c r="D4756" t="inlineStr">
+        <is>
+          <t>정보통신기술자경력수첩(초급)</t>
+        </is>
+      </c>
+      <c r="E4756" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:26:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="4757">
+      <c r="A4757" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4757" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4757" t="n">
+        <v>47013429</v>
+      </c>
+      <c r="D4757" t="inlineStr">
+        <is>
+          <t>정보통신기술자경력수첩(중급)</t>
+        </is>
+      </c>
+      <c r="E4757" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:26:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="4758">
+      <c r="A4758" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4758" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4758" t="n">
+        <v>47013429</v>
+      </c>
+      <c r="D4758" t="inlineStr">
+        <is>
+          <t>정보통신기술자경력수첩(고급)</t>
+        </is>
+      </c>
+      <c r="E4758" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:26:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="4759">
+      <c r="A4759" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4759" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4759" t="n">
+        <v>47012675</v>
+      </c>
+      <c r="D4759" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 1급</t>
+        </is>
+      </c>
+      <c r="E4759" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:27:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="4760">
+      <c r="A4760" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4760" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4760" t="n">
+        <v>47012675</v>
+      </c>
+      <c r="D4760" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E4760" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:27:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="4761">
+      <c r="A4761" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4761" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4761" t="n">
+        <v>47012675</v>
+      </c>
+      <c r="D4761" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 3급</t>
+        </is>
+      </c>
+      <c r="E4761" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:27:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="4762">
+      <c r="A4762" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4762" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4762" t="n">
+        <v>47012555</v>
+      </c>
+      <c r="D4762" t="inlineStr">
+        <is>
+          <t>보험</t>
+        </is>
+      </c>
+      <c r="E4762" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4763">
+      <c r="A4763" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4763" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4763" t="n">
+        <v>47012555</v>
+      </c>
+      <c r="D4763" t="inlineStr">
+        <is>
+          <t>설계사</t>
+        </is>
+      </c>
+      <c r="E4763" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4764">
+      <c r="A4764" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4764" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4764" t="n">
+        <v>47012555</v>
+      </c>
+      <c r="D4764" t="inlineStr">
+        <is>
+          <t>AFPK</t>
+        </is>
+      </c>
+      <c r="E4764" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4765">
+      <c r="A4765" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4765" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4765" t="n">
+        <v>47012220</v>
+      </c>
+      <c r="D4765" t="inlineStr">
+        <is>
+          <t>직업상담사</t>
+        </is>
+      </c>
+      <c r="E4765" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:28:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4766">
+      <c r="A4766" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4766" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4766" t="n">
+        <v>47012123</v>
+      </c>
+      <c r="D4766" t="inlineStr">
+        <is>
+          <t>간호조무사</t>
+        </is>
+      </c>
+      <c r="E4766" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:28:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4767">
+      <c r="A4767" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4767" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4767" t="n">
+        <v>47012123</v>
+      </c>
+      <c r="D4767" t="inlineStr">
+        <is>
+          <t>국제의료관광코디네이터</t>
+        </is>
+      </c>
+      <c r="E4767" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:28:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4768">
+      <c r="A4768" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4768" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4768" t="n">
+        <v>47012123</v>
+      </c>
+      <c r="D4768" t="inlineStr">
+        <is>
+          <t>병원코디네이터 1급</t>
+        </is>
+      </c>
+      <c r="E4768" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:28:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4769">
+      <c r="A4769" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4769" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4769" t="n">
+        <v>47011720</v>
+      </c>
+      <c r="D4769" t="inlineStr">
+        <is>
+          <t>운전면허</t>
+        </is>
+      </c>
+      <c r="E4769" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:28:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="4770">
+      <c r="A4770" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4770" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4770" t="n">
+        <v>47010400</v>
+      </c>
+      <c r="D4770" t="inlineStr">
+        <is>
+          <t>공조냉동</t>
+        </is>
+      </c>
+      <c r="E4770" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:29:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4771">
+      <c r="A4771" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4771" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4771" t="n">
+        <v>47010271</v>
+      </c>
+      <c r="D4771" t="inlineStr">
+        <is>
+          <t>전산회계 2급</t>
+        </is>
+      </c>
+      <c r="E4771" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:30:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="4772">
+      <c r="A4772" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4772" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4772" t="n">
+        <v>47010186</v>
+      </c>
+      <c r="D4772" t="inlineStr">
+        <is>
+          <t>미용사</t>
+        </is>
+      </c>
+      <c r="E4772" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:30:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4773">
+      <c r="A4773" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4773" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4773" t="n">
+        <v>47005285</v>
+      </c>
+      <c r="D4773" t="inlineStr">
+        <is>
+          <t>컴퓨터활용능력 2급</t>
+        </is>
+      </c>
+      <c r="E4773" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:35:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4774">
+      <c r="A4774" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4774" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4774" t="n">
+        <v>47002015</v>
+      </c>
+      <c r="D4774" t="inlineStr">
+        <is>
+          <t>승강기기능사</t>
+        </is>
+      </c>
+      <c r="E4774" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:41:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4775">
+      <c r="A4775" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4775" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4775" t="n">
+        <v>46999747</v>
+      </c>
+      <c r="D4775" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4775" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:43:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4776">
+      <c r="A4776" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4776" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4776" t="n">
+        <v>46999458</v>
+      </c>
+      <c r="D4776" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4776" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:43:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4777">
+      <c r="A4777" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4777" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4777" t="n">
+        <v>46998822</v>
+      </c>
+      <c r="D4777" t="inlineStr">
+        <is>
+          <t>청각사</t>
+        </is>
+      </c>
+      <c r="E4777" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:44:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4778">
+      <c r="A4778" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4778" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4778" t="n">
+        <v>46998822</v>
+      </c>
+      <c r="D4778" t="inlineStr">
+        <is>
+          <t>청능사</t>
+        </is>
+      </c>
+      <c r="E4778" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:44:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4779">
+      <c r="A4779" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4779" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4779" t="n">
+        <v>46998822</v>
+      </c>
+      <c r="D4779" t="inlineStr">
+        <is>
+          <t>보청기관리사</t>
+        </is>
+      </c>
+      <c r="E4779" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:44:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4780">
+      <c r="A4780" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4780" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4780" t="n">
+        <v>46997413</v>
+      </c>
+      <c r="D4780" t="inlineStr">
+        <is>
+          <t>자동차정비기사</t>
+        </is>
+      </c>
+      <c r="E4780" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:46:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4781">
+      <c r="A4781" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4781" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4781" t="n">
+        <v>46997413</v>
+      </c>
+      <c r="D4781" t="inlineStr">
+        <is>
+          <t>자동차정비기능사</t>
+        </is>
+      </c>
+      <c r="E4781" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:46:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4782">
+      <c r="A4782" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4782" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4782" t="n">
+        <v>46996779</v>
+      </c>
+      <c r="D4782" t="inlineStr">
+        <is>
+          <t>운전면허</t>
+        </is>
+      </c>
+      <c r="E4782" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4783">
+      <c r="A4783" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4783" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4783" t="n">
+        <v>46995057</v>
+      </c>
+      <c r="D4783" t="inlineStr">
+        <is>
+          <t>2종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4783" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:48:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4784">
+      <c r="A4784" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4784" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4784" t="n">
+        <v>46994946</v>
+      </c>
+      <c r="D4784" t="inlineStr">
+        <is>
+          <t>운전면허</t>
+        </is>
+      </c>
+      <c r="E4784" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:48:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4785">
+      <c r="A4785" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4785" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4785" t="n">
+        <v>46985854</v>
+      </c>
+      <c r="D4785" t="inlineStr">
+        <is>
+          <t>1종보통운전면허</t>
+        </is>
+      </c>
+      <c r="E4785" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:50:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="4786">
+      <c r="A4786" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4786" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4786" t="n">
+        <v>46988750</v>
+      </c>
+      <c r="D4786" t="inlineStr">
+        <is>
+          <t>코디네이터</t>
+        </is>
+      </c>
+      <c r="E4786" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:53:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="4787">
+      <c r="A4787" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4787" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4787" t="n">
+        <v>46986406</v>
+      </c>
+      <c r="D4787" t="inlineStr">
+        <is>
+          <t>CS관리사 2급</t>
+        </is>
+      </c>
+      <c r="E4787" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:55:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4788">
+      <c r="A4788" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4788" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4788" t="n">
+        <v>46986406</v>
+      </c>
+      <c r="D4788" t="inlineStr">
+        <is>
+          <t>CS교육강사 2급</t>
+        </is>
+      </c>
+      <c r="E4788" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:55:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4789">
+      <c r="A4789" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4789" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4789" t="n">
+        <v>46986406</v>
+      </c>
+      <c r="D4789" t="inlineStr">
+        <is>
+          <t>서비스매니저 2급</t>
+        </is>
+      </c>
+      <c r="E4789" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:55:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4790">
+      <c r="A4790" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4790" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4790" t="n">
+        <v>46985249</v>
+      </c>
+      <c r="D4790" t="inlineStr">
+        <is>
+          <t>신용관리사</t>
+        </is>
+      </c>
+      <c r="E4790" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:56:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4791">
+      <c r="A4791" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4791" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4791" t="n">
+        <v>46985249</v>
+      </c>
+      <c r="D4791" t="inlineStr">
+        <is>
+          <t>대부관리사</t>
+        </is>
+      </c>
+      <c r="E4791" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:56:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4792">
+      <c r="A4792" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4792" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4792" t="n">
+        <v>46985249</v>
+      </c>
+      <c r="D4792" t="inlineStr">
+        <is>
+          <t>채권관리사</t>
+        </is>
+      </c>
+      <c r="E4792" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:56:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4793">
+      <c r="A4793" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4793" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4793" t="n">
+        <v>46983477</v>
+      </c>
+      <c r="D4793" t="inlineStr">
+        <is>
+          <t>간호조무사</t>
+        </is>
+      </c>
+      <c r="E4793" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:57:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4794">
+      <c r="A4794" t="n">
+        <v>10036</v>
+      </c>
+      <c r="B4794" t="n">
+        <v>1000286</v>
+      </c>
+      <c r="C4794" t="n">
+        <v>46982224</v>
+      </c>
+      <c r="D4794" t="inlineStr">
+        <is>
+          <t>자동차운전면허</t>
+        </is>
+      </c>
+      <c r="E4794" t="inlineStr">
+        <is>
+          <t>2025.06.04 - 17:58:28</t>
         </is>
       </c>
     </row>
